--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC578726-813D-4450-A9CF-38D3078269AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C3B8B-54F8-4170-BBD6-C7B68B8A4A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="142">
   <si>
     <t>Address</t>
   </si>
@@ -163,99 +163,55 @@
     <t>Необязательный</t>
   </si>
   <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
-    <t>Может стать обязательным c 28.05.2024_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t>Мебель и интерьер</t>
-  </si>
-  <si>
-    <t>Столы и стулья</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t>В наличии</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Столы</t>
-  </si>
-  <si>
-    <t>Письменный</t>
-  </si>
-  <si>
-    <t>Прямоугольный</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
-    <t>Кухонный</t>
-  </si>
-  <si>
-    <t>ЛДСП</t>
-  </si>
-  <si>
-    <t>Тумба</t>
-  </si>
-  <si>
-    <t>Квадратный</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Бар/кафе | Кабинет | Кухня</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол с тумбой </t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
-  </si>
-  <si>
-    <t>Прямонгольный | Квадратный | Круглый | Полукруглый | Угловой</t>
-  </si>
-  <si>
     <t>Стол прямой офисный</t>
+  </si>
+  <si>
+    <t>Офисный стол</t>
+  </si>
+  <si>
+    <t>Стол офисный белый</t>
+  </si>
+  <si>
+    <t>Офисный стол прямой</t>
+  </si>
+  <si>
+    <t>Стол офисный прямой</t>
+  </si>
+  <si>
+    <t>Стол письменный</t>
+  </si>
+  <si>
+    <t>Стол для колл центра</t>
+  </si>
+  <si>
+    <t>Стол офисный для колл центра</t>
+  </si>
+  <si>
+    <t>Стол офисный</t>
+  </si>
+  <si>
+    <t>Офисный стол с перегородкой</t>
+  </si>
+  <si>
+    <t>Стол офисный компьютерный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный с перегородкой </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный прямой </t>
+  </si>
+  <si>
+    <t>Двойной стол офисный</t>
+  </si>
+  <si>
+    <t>Стол компьютерный</t>
+  </si>
+  <si>
+    <t>Старинный кухонный стол со стульями</t>
+  </si>
+  <si>
+    <t>Стол кухонный со стульями</t>
   </si>
   <si>
     <t>Стол офисный
@@ -281,15 +237,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/F1CjtBJnTEvrFQ | https://disk.yandex.ru/i/409vi3NG1RNR4w | https://disk.yandex.ru/i/dCiHadU7NYbQHg | https://disk.yandex.ru/i/x8pbwTSb91JNPw | https://disk.yandex.ru/i/QYtZq-fFeZ18Pw | https://disk.yandex.ru/i/hwHvZLZZ7WEGDg | https://disk.yandex.ru/i/VxPWCAp5hDhWxw | https://disk.yandex.ru/i/8IwDOhk_cJyfVA</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Офисный стол</t>
-  </si>
-  <si>
     <t xml:space="preserve">Офисный стол на два рабочих места
 Артикул 2137
 Описание Офисный стол - бенч система. Стол новый в идеальном состоянии сочетает в себе изысканный вид и высокую функциональность. Имеет перегородку и отверстия для проводов, чтобы поддерживать порядок и организованность на вашем рабочем столе. Просим заметить, что имеются перегородки разный видов: стеклянные, пластиковые, и обшитые тканью. Так же к столам можем подобрать тумбы на колесиках и шкафы для документов
@@ -311,12 +258,6 @@
 </t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
-  </si>
-  <si>
-    <t>Стол офисный белый</t>
-  </si>
-  <si>
     <t>Артикул 2132
 Представляем вашему вниманию белоснежный офисный стол. Этот стол - идеальное решение для создания светлого и элегантного рабочего уголка как дома, так и в офисе.
   Он отлично подчеркнет ваш хороший вкус и будет очень удобен в использовании.
@@ -338,38 +279,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
-  </si>
-  <si>
-    <t>Стол офисный</t>
-  </si>
-  <si>
-    <t>Компьютерный офисный стол
-Артикул 2121
-Описание 
-Поднимите свой офисный интерьер на новый уровень с нашими элитными белыми офисными столами большого размера. Изысканный дизайн в сочетании с функциональностью - идеальное решение для современного бизнес-пространства. Наши столы оснащены отверстием для компьютерных проводов, обеспечивая порядок и организованность вашего рабочего места. Прочные металлические ноги обеспечивают надежную поддержку и долговечность. Подчеркните свой профессионализм с элитными офисными столами, которые сочетают в себе стиль, комфорт и функциональность.
-Размер 160х80
-Цена 10 000 руб 
-Количество 1 шт
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qzokWzMhcmOB7Q | https://disk.yandex.ru/i/UOHqN91RE5gctg | https://disk.yandex.ru/i/h2ic4RCjmbh5eA | https://disk.yandex.ru/i/I6DWCENat5rF2g | https://disk.yandex.ru/i/p2ibytN7eQt9ag | https://disk.yandex.ru/i/-NNQIQ3gsL4SCw | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA</t>
-  </si>
-  <si>
-    <t>Офисный стол прямой</t>
-  </si>
-  <si>
     <t>Прямой стол
 Артикул 2115
 Описание Офисный стол размером 90х60 см - это оптимальное решение для создания функционального и стильного рабочего места. 
@@ -389,36 +298,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
-  </si>
-  <si>
-    <t>Офисные прямые столы
-Артикул 2116-2118
-Описание:  Наши недорогие столы бу из ДСП в размерах 90х60 и 120х60 см станут надёжной основой для вашего офисного оборудования. Изготовленные из прочного ДСП, они обеспечивают долговечность и удобство в использовании, а также подходят для различных рабочих задач. Некоторые столы оснащены удобными отверстиями для компьютерных проводов.
-Цвет "венге" придает столам элегантный и современный вид, который легко впишется в любой офисный интерьер, добавляя нотку стиля и изыска в ваше рабочее пространство.
-Размер: 90х60 - 12 шт. 
-Цена: 2 800 руб
-Размер: 120х60 - 5 шт. 
-Цена: 4 000 руб
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qm6varkgaYqjBg | https://disk.yandex.ru/i/rE_rkjGPgm5sbw | https://disk.yandex.ru/i/0ajU1YmhUI_tzw | https://disk.yandex.ru/i/TNDCo3oRzH2aEw</t>
-  </si>
-  <si>
-    <t>Стол офисный прямой</t>
   </si>
   <si>
     <t>Стол офисный прямой
@@ -443,12 +322,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
-  </si>
-  <si>
-    <t>Стол письменный</t>
-  </si>
-  <si>
     <t>Стол компьютерный ikea
 Описание: Корпусный стол с книжными полочками и выдвижным ящиком. Отлично подойдёт как для офиса так и для использования дома. На столе есть изъяны.
 Размер: 120х50
@@ -469,15 +342,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
-  </si>
-  <si>
-    <t>Тумба | Ящик</t>
-  </si>
-  <si>
-    <t>Стол для колл центра</t>
   </si>
   <si>
     <t>Акция! Скидка -35%
@@ -519,36 +383,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
-  </si>
-  <si>
-    <t>Стол офисный
-Артикул 1885
-Размер 120х80
-В наличии 1 шт. 
-Цена -4000 за 1 шт.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/smf6M_Jn_V0TRg | https://disk.yandex.ru/i/25wQYdc8zJQxSQ | https://disk.yandex.ru/i/1aOmtzhhP-5meQ | https://disk.yandex.ru/i/yL4fsgyQN3JKVQ | https://disk.yandex.ru/i/pDt5yYHpYgBecw | https://disk.yandex.ru/i/c0_Y5A2vSJvEyw</t>
-  </si>
-  <si>
-    <t>Стол офисный для колл центра</t>
-  </si>
-  <si>
     <t>Акция! Скидка - 60%
 Новые столы с перегородками всего за 1499 руб. 
 Ширина 72см. Глубина 60см, высота общая125
@@ -567,9 +401,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
   </si>
   <si>
     <t>Артикул 1691
@@ -592,40 +423,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол кухонный </t>
-  </si>
-  <si>
-    <t>Кухонный стол
-Артикул 2212
-Описание: Стол бу с небольшими дефектами
-Размеры ДхШхВ: 120х80х75
-Цвет: ольха
-Цена: 3 500 руб. 
-&lt;p&gt;Количество: 1&lt;/p&gt;Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/caW6Za5Avy5IGg | https://disk.yandex.ru/i/VXJ2esB-24P87Q | https://disk.yandex.ru/i/NRoAu1_ZZbmwDg | https://disk.yandex.ru/i/Vz22hkmg0rI08g | https://disk.yandex.ru/i/HPXStr5-I14QOg | https://disk.yandex.ru/i/-FH6UuHWhBbBQg</t>
-  </si>
-  <si>
-    <t>Офисный стол с перегородкой</t>
   </si>
   <si>
     <t>Офисный стол на два рабочих места
@@ -649,38 +446,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
-  </si>
-  <si>
-    <t>Стол офисный с тумбой
-Артикул
-Описание Офисный стол со встроенной тумбой от Французской компании Steelcase это очень практичный, современный выбор для вашего офиса. 
-Размеры ДхШхВ: 120х80х74
-Цвет рыжий
-Цена 5 999 руб 
-Количество 30
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/5kSgBp9cmebXhw | https://disk.yandex.ru/i/-VaADi3qMUPZjQ | https://disk.yandex.ru/i/zsrI-hQdC8uJ3g | https://disk.yandex.ru/i/sOrzKbWjrJq9hg | https://disk.yandex.ru/i/PtBz5gcy6Flpiw | https://disk.yandex.ru/i/bZ6mlVfLz3Z7pQ | https://disk.yandex.ru/i/0joOPYuOLVX-Vg | https://disk.yandex.ru/i/wfG0JZBbMih__g</t>
-  </si>
-  <si>
-    <t>Оранжевый</t>
   </si>
   <si>
     <t>Стол офисный
@@ -705,49 +470,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/pVJGUqHcZrp6-w | https://disk.yandex.ru/i/LRV7-3J3-o78Ug | https://disk.yandex.ru/i/JHlazBiDAPzYgw | https://disk.yandex.ru/i/UJq0k8hNa9JNJA | https://disk.yandex.ru/i/gioyZRP1zXxKHw | https://disk.yandex.ru/i/N4SnlFSM2-aKSQ | https://disk.yandex.ru/i/xWUYZCac7Mgt4g | https://disk.yandex.ru/i/34hc0jg7_6nlig</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный
-Артикул 2285
-Описание Продается офисный стол бу цвета сосны на черных металлических ножках. Этот стильный и практичный стол идеально подойдет для офиса или рабочего пространства. Черные ножки из металла обеспечивают надежность и долговечность, а натуральный цвет сосны добавляет теплоты и уюта в интерьер. Встроенные отверстия для проводов помогают поддерживать рабочее место в порядке, устраняя беспорядок из проводов. Отличный выбор для тех, кто ищет функциональную и эстетичную мебель по доступной цене.
-Размеры ДхШхВ: 140х80х73
-Цвет: сосна 
-Цена: 5 999 руб
-Количество: 2
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/KRWVLUkdad9WjA | https://disk.yandex.ru/i/CnjdBS2Gcr7Rjw | https://disk.yandex.ru/i/yG47Lpl6FKZDSg | https://disk.yandex.ru/i/Vkv8-e7_TU27iw | https://disk.yandex.ru/i/8TZQtKJALx7k-A | https://disk.yandex.ru/i/P6CR114JeGvYWg | https://disk.yandex.ru/i/fIvhqQ2uttBLWQ | https://disk.yandex.ru/i/_NHK37w80YG1dQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сосна </t>
-  </si>
-  <si>
-    <t>Стол офисный компьютерный</t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный компьютерный
@@ -778,12 +500,6 @@
     </t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сосна</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол прямой офисный
 Артикул 2282
 Описание Предлагаем стильный компьютерный стол цвета сосны, который идеально впишется в любой современный интерьер. Его металлические ножки обеспечивают прочность и устойчивость, создавая гармоничное сочетание природной теплоты древесины и индустриального стиля.
@@ -810,9 +526,6 @@
                  </t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол прямой офисный
 Артикул 2239
 Описание: светлый офисный стол БУ в отличном состоянии. Этот стильный и функциональный стол станет идеальным решением для вашего офиса или домашнего рабочего пространства. Стол оснащен удобными отверстиями для проводов, которые помогут организовать кабели и сохранить порядок на рабочем месте.
@@ -836,9 +549,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/BnAtwcbYZEnwew | https://disk.yandex.ru/i/LNgmWnEyT0HQhg | https://disk.yandex.ru/i/dQN-vpndhDyBkw | https://disk.yandex.ru/i/z4UC2E0JKEdiFA | https://disk.yandex.ru/i/-cuRhbFerCyEgw</t>
   </si>
   <si>
     <t xml:space="preserve">Офисный стол
@@ -870,7 +580,385 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Стол офисный с перегородкой 
+Артикул 2286
+Элегантный офисный стол с белоснежной столешницей и стильными серыми ногами – идеальное решение для современного рабочего пространства. Чистый и минималистичный дизайн создаёт атмосферу порядка и концентрации, а нейтральные цвета легко впишутся в любой интерьер. Просторная столешница обеспечивает удобное место для работы, будь то ноутбук, документы или аксессуары
+Размер ДхШхВ: 140х80х75
+Перегородка 140х38
+Цена: 4000р за 1 шт.
+Перегородка: 3500р за 1 шт.
+Количество: 27 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный прямой 
+Артикул (2895)
+Представляем стильный офисный стол французского производства, который станет настоящим акцентом вашего рабочего пространства. Элегантная рыжая столешница, выполненная из высококачественных материалов, придаёт интерьеру тепло и изысканность. Прочные металлические ноги добавляют контраста и современного шарма, обеспечивая стабильность и долговечность. Этот стол идеально сочетает в себе презентабильность и функциональность, подойдёт как для домашнего кабинета, так и для стильного офиса. Эргономичный дизайн и продуманные детали делают работу за ним максимально комфортной
+Размер 120х80х75
+Цвет: рыжий
+Цена: 4000 за 1 шт.
+Количество: 5 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+                 ➕ При поиске нас в навигаторе наберите – 
+                 Офис комфорт Одинцово 
+                 ➕ Наш телеграмм канал – office comfort es
+                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+                 -------------------------------------------------------------------
+                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+                 Можем укомплектовать 100-200 рабочих мест.
+                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный прямой
+Артикул (2351)
+Офисный компьютерный стол цвета сосны на прочных металлических ножках — это стильное и практичное решение для вашего рабочего пространства. Натуральный цвет сосны придаёт столу свежий и современный вид, который легко впишется в любой интерьер.
+Размеры ДхШхВ: 160х80х73
+Цвет: сосна
+Цена: 6000ру.
+за 1 шт.
+Количество: 4 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Двойной стол офисный
+Артикул (2350)
+Двойной офисный стол с перегородкой — идеальное решение для организации рабочих мест в современном офисе. Стол оснащен прочными металлическими ножками, которые обеспечивают надежность и устойчивость конструкции. Перегородка между рабочими местами создаёт личное пространство для каждого сотрудника, способствуя продуктивной работе.
+Встроенные отверстия для проводов позволяют аккуратно скрыть все кабели, обеспечивая порядок и чистоту на рабочем месте. Просторная столешница и эргономичный дизайн делают этот стол удобным и практичным для повседневного использования.
+Размеры ДхШхВ: 160х162х74
+Цвет: сандаловое дерево
+Цена: 20 000 руб 
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол компьютерный
+Артикул 2345
+компьютерный стол цвета сосны на прочных металлических ножках. Стол идеально подходит для продуктивной работы как в офисе, так и дома. Встроенное отверстие для проводов помогает организовать рабочее пространство, обеспечивая аккуратное размещение техники и аксессуаров.
+Металлические ножки придают столу прочность и устойчивость, а просторная столешница позволяет удобно разместить всё необходимое для работы.
+Размеры ДхШхВ: 160х80х72
+Цвет: сосна 
+Цена: 5999 руб
+Количество: 24
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол прямой офисный
+Артикул 2346
+Современный офисный компьютерный стол на прочных металлических ножках цвета дуб Сонома. Этот стильный и практичный стол идеально подойдет для работы как в офисе, так и дома. Просторная столешница позволяет удобно разместить технику и аксессуары, а металлические ножки обеспечивают устойчивость и долговечность.
+Кроме того, к столу можно подобрать полный комплект мебели в едином стиле: эргономичные кресла, вместительные тумбы и стильные шкафы для хранения документов. Превратите свое рабочее пространство в комфортное и современное место для продуктивной работы!
+Размеры ДхШхВ: 160х80х75
+Цвет дуб Сонома
+Цена 10 000
+Количество 8
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Старинный кухонный стол со стульями
+Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
+В комплекте идут 6 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
+Размеры ДхШхВ: 185х86х76, в сложенном состоянии д. 140
+Цвет: тёмный орех - глянец
+Цена: 30 000
+Количество: 3
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол кухонный со стульями
+Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
+В комплекте идут 4 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
+Размеры ДхШхВ: 150х86х76, в сложенном состоянии д. 120
+Цвет: тёмный орех - глянец
+Цена: 25 000.
+Количество: 6
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/F1CjtBJnTEvrFQ | https://disk.yandex.ru/i/409vi3NG1RNR4w | https://disk.yandex.ru/i/dCiHadU7NYbQHg | https://disk.yandex.ru/i/x8pbwTSb91JNPw | https://disk.yandex.ru/i/QYtZq-fFeZ18Pw | https://disk.yandex.ru/i/hwHvZLZZ7WEGDg | https://disk.yandex.ru/i/VxPWCAp5hDhWxw | https://disk.yandex.ru/i/8IwDOhk_cJyfVA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/pVJGUqHcZrp6-w | https://disk.yandex.ru/i/LRV7-3J3-o78Ug | https://disk.yandex.ru/i/JHlazBiDAPzYgw | https://disk.yandex.ru/i/UJq0k8hNa9JNJA | https://disk.yandex.ru/i/gioyZRP1zXxKHw | https://disk.yandex.ru/i/N4SnlFSM2-aKSQ | https://disk.yandex.ru/i/xWUYZCac7Mgt4g | https://disk.yandex.ru/i/34hc0jg7_6nlig</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BnAtwcbYZEnwew | https://disk.yandex.ru/i/LNgmWnEyT0HQhg | https://disk.yandex.ru/i/dQN-vpndhDyBkw | https://disk.yandex.ru/i/z4UC2E0JKEdiFA | https://disk.yandex.ru/i/-cuRhbFerCyEgw</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/nMKzIgHV6Enaqg | https://disk.yandex.ru/i/SBUJhlEnWMYf0w | https://disk.yandex.ru/i/E25fhHeEMNSl0Q | https://disk.yandex.ru/i/X6rmhj0rEwfMiQ | https://disk.yandex.ru/i/mRnpl6hLX_GM_g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9AnFfKNR3cXQiA | https://disk.yandex.ru/i/oO50EO6Fthn1Iw | https://disk.yandex.ru/i/6AbOt9nEbSSzew | https://disk.yandex.ru/i/y_qlVUsAAuJppg | https://disk.yandex.ru/i/jizF6SSxYpyhjw | https://disk.yandex.ru/i/9ZTHLxi5DUoavw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/vljEK3nQIpU-9Q | https://disk.yandex.ru/i/L3PnXj5PPBqPdA | https://disk.yandex.ru/i/PmIIBoVTOrdBGQ | https://disk.yandex.ru/i/xxPw5Um0HowVcw | https://disk.yandex.ru/i/fzkj79hyMTF7oA | https://disk.yandex.ru/i/1pWXG9CNh3WikA | https://disk.yandex.ru/i/K7veqWdykuYrjw | https://disk.yandex.ru/i/XVmovTSRQqA9OA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UVtMjoIUjQb_GA | https://disk.yandex.ru/i/AjpyelxFKRLKyA | https://disk.yandex.ru/i/IsAorN-UJb_eDw | https://disk.yandex.ru/i/y-O6o-WaD3SAdA | https://disk.yandex.ru/i/Bp1PVANaPOxvXA | https://disk.yandex.ru/i/_SgJaxYM2A4qOg | https://disk.yandex.ru/i/x0Xbo35IV0wX9A | https://disk.yandex.ru/i/wUxSC1YtyrPGuQ | https://disk.yandex.ru/i/irT74aOCSg8m6g | https://disk.yandex.ru/i/bt8IQuFQ1L8Stg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t>Мебель и интерьер</t>
+  </si>
+  <si>
+    <t>Столы и стулья</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t>Может быть обязательным_x005F_x000D_
+Подробнее</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Рыжий</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сосна</t>
+  </si>
+  <si>
+    <t>Столы</t>
+  </si>
+  <si>
+    <t>Письменный</t>
+  </si>
+  <si>
+    <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
+  </si>
+  <si>
+    <t>Может стать обязательным c 28.05.2024_x005F_x000D_
+Подробнее</t>
+  </si>
+  <si>
+    <t>Прямоугольный</t>
+  </si>
+  <si>
+    <t>Квадратный</t>
+  </si>
+  <si>
+    <t>Прямонгольный | Квадратный | Круглый | Полукруглый | Угловой</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>Тумба | Ящик</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
+    <t>Кухня | Бар/Кафе</t>
   </si>
 </sst>
 </file>
@@ -882,6 +970,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,13 +986,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -932,24 +1023,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -962,9 +1053,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1002,24 +1093,84 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1042,7 +1193,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1116,13 +1267,24 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1144,9 +1306,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1161,7 +1325,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1173,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="V7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,10 +1573,10 @@
         <v>45</v>
       </c>
       <c r="AD2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AE2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AF2" t="s">
         <v>46</v>
@@ -1422,31 +1588,31 @@
         <v>45</v>
       </c>
       <c r="AI2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AJ2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="AK2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AL2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AM2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AN2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AO2" t="s">
         <v>46</v>
       </c>
       <c r="AP2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AQ2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="AR2" t="s">
         <v>46</v>
@@ -1457,49 +1623,49 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>2799</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB3" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC3" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD3" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE3" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AH3" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI3" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ3" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="AK3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL3">
         <v>71</v>
@@ -1511,60 +1677,60 @@
         <v>90</v>
       </c>
       <c r="AP3" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ3" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AS3" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>19999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC4" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD4" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE4" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="AH4" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ4" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="AK4" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL4">
         <v>80</v>
@@ -1576,60 +1742,60 @@
         <v>160</v>
       </c>
       <c r="AP4" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ4" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AS4" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>3499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA5" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB5" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC5" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE5" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="AH5" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI5" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ5" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="AK5" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL5">
         <v>60</v>
@@ -1641,255 +1807,258 @@
         <v>110</v>
       </c>
       <c r="AP5" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ5" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AS5" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>9999</v>
+        <v>2799</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB6" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC6" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AH6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI6" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ6" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="AK6" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN6">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AP6" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="AQ6" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="AS6" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>3999</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F7">
-        <v>2799</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA7" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB7" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC7" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE7" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="AH7" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI7" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ7" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="AK7" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN7">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AS7" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>2799</v>
+        <v>3499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL8">
         <v>50</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL8">
-        <v>60</v>
       </c>
       <c r="AM8">
         <v>75</v>
       </c>
       <c r="AN8">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AP8" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ8" t="s">
-        <v>60</v>
+        <v>136</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>139</v>
       </c>
       <c r="AS8" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA9" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB9" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC9" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD9" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE9" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="AH9" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI9" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ9" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1898,521 +2067,524 @@
         <v>75</v>
       </c>
       <c r="AN9">
+        <v>116</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS9" t="s">
         <v>140</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F10">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA10" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB10" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD10" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL10">
+        <v>60</v>
+      </c>
+      <c r="AM10">
+        <v>73</v>
+      </c>
+      <c r="AN10">
         <v>72</v>
       </c>
-      <c r="AH10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL10">
-        <v>50</v>
-      </c>
-      <c r="AM10">
-        <v>75</v>
-      </c>
-      <c r="AN10">
-        <v>120</v>
-      </c>
       <c r="AP10" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="AS10" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>3999</v>
+        <v>2499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA11" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB11" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC11" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD11" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE11" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="AH11" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI11" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ11" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="AK11" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL11">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AM11">
         <v>75</v>
       </c>
       <c r="AN11">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="AP11" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ11" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AS11" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>3999</v>
+        <v>5999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA12" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB12" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC12" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD12" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE12" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="AH12" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI12" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ12" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="AK12" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL12">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AM12">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN12">
         <v>120</v>
       </c>
       <c r="AP12" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ12" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="AS12" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>1499</v>
+        <v>3499</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA13" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB13" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AC13" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD13" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL13">
         <v>72</v>
       </c>
-      <c r="AH13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL13">
-        <v>60</v>
-      </c>
       <c r="AM13">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN13">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="AP13" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ13" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AS13" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>4999</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F14">
-        <v>2499</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="S14" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S14" t="s">
-        <v>50</v>
-      </c>
       <c r="AA14" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB14" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="AC14" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD14" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE14" t="s">
-        <v>55</v>
+        <v>123</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>127</v>
       </c>
       <c r="AH14" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL14">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AM14">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN14">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ14" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="AS14" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>15000</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA15" t="s">
         <v>112</v>
       </c>
-      <c r="E15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15">
-        <v>3499</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="AB15" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>52</v>
-      </c>
       <c r="AC15" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD15" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE15" t="s">
-        <v>66</v>
+        <v>123</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>127</v>
       </c>
       <c r="AH15" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI15" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="AJ15" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL15">
         <v>80</v>
       </c>
       <c r="AM15">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN15">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ15" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="AS15" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>2800</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC16" t="s">
         <v>115</v>
       </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16">
-        <v>5999</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="AD16" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>54</v>
-      </c>
       <c r="AE16" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="AH16" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI16" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="AK16" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL16">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM16">
         <v>75</v>
       </c>
       <c r="AN16">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP16" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ16" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="AS16" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>5999</v>
+        <v>2499</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA17" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB17" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="AC17" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD17" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AH17" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI17" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="AK17" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2424,270 +2596,270 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="AS17" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="F18">
-        <v>3499</v>
+        <v>4000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA18" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB18" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="AC18" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD18" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE18" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>124</v>
       </c>
       <c r="AH18" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI18" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="AJ18" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="AK18" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL18">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AM18">
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="AP18" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ18" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AS18" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>5999</v>
+        <v>4000</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE19" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>74</v>
-      </c>
       <c r="AF19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH19" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI19" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="AJ19" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AK19" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL19">
         <v>80</v>
       </c>
       <c r="AM19">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN19">
+        <v>120</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS19" t="s">
         <v>140</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20">
+        <v>6000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20">
+        <v>2351</v>
+      </c>
+      <c r="S20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH20" t="s">
         <v>128</v>
       </c>
-      <c r="F20">
-        <v>4999</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="AI20" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>75</v>
-      </c>
       <c r="AJ20" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AK20" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL20">
         <v>80</v>
       </c>
       <c r="AM20">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN20">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP20" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ20" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="AS20" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="F21">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
+      </c>
+      <c r="K21">
+        <v>2350</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA21" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB21" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AC21" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD21" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AH21" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI21" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="AJ21" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AK21" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL21">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AM21">
         <v>74</v>
@@ -2696,125 +2868,131 @@
         <v>160</v>
       </c>
       <c r="AP21" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ21" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="AS21" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="F22">
-        <v>2800</v>
+        <v>5999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
+      </c>
+      <c r="K22">
+        <v>2345</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AA22" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB22" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AC22" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AD22" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="AE22" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AH22" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AI22" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="AJ22" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AK22" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AL22">
         <v>80</v>
       </c>
       <c r="AM22">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN22">
+        <v>160</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS22" t="s">
         <v>140</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23">
+        <v>2346</v>
+      </c>
+      <c r="S23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK23" t="s">
         <v>135</v>
-      </c>
-      <c r="F23">
-        <v>2499</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>59</v>
       </c>
       <c r="AL23">
         <v>80</v>
@@ -2823,64 +3001,203 @@
         <v>75</v>
       </c>
       <c r="AN23">
+        <v>160</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <v>30000</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE24" t="s">
         <v>120</v>
       </c>
-      <c r="AP23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>61</v>
+      <c r="AH24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL24">
+        <v>86</v>
+      </c>
+      <c r="AM24">
+        <v>76</v>
+      </c>
+      <c r="AN24">
+        <v>185</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25">
+        <v>25000</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL25">
+        <v>86</v>
+      </c>
+      <c r="AM25">
+        <v>76</v>
+      </c>
+      <c r="AN25">
+        <v>150</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C3B8B-54F8-4170-BBD6-C7B68B8A4A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="141">
   <si>
     <t>Address</t>
   </si>
@@ -157,12 +151,6 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Обязательный</t>
-  </si>
-  <si>
-    <t>Необязательный</t>
-  </si>
-  <si>
     <t>Стол прямой офисный</t>
   </si>
   <si>
@@ -212,6 +200,9 @@
   </si>
   <si>
     <t>Стол кухонный со стульями</t>
+  </si>
+  <si>
+    <t>Офисный стол с тумбой</t>
   </si>
   <si>
     <t>Стол офисный
@@ -794,6 +785,33 @@
     </t>
   </si>
   <si>
+    <t>Офисный стол с тумбой
+Артикул (2356) (2357)
+Описание - комплект
+Размеры ДхШхВ: 120/80/75
+Цвет белый, тумба черная металлическая 
+Цена: 5500 за комплект
+Количество: 5 шт
+Размер: 140/80/75
+Цена: 6000
+Количество: 1 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/F1CjtBJnTEvrFQ | https://disk.yandex.ru/i/409vi3NG1RNR4w | https://disk.yandex.ru/i/dCiHadU7NYbQHg | https://disk.yandex.ru/i/x8pbwTSb91JNPw | https://disk.yandex.ru/i/QYtZq-fFeZ18Pw | https://disk.yandex.ru/i/hwHvZLZZ7WEGDg | https://disk.yandex.ru/i/VxPWCAp5hDhWxw | https://disk.yandex.ru/i/8IwDOhk_cJyfVA</t>
   </si>
   <si>
@@ -863,6 +881,9 @@
     <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/tuoUS9qMlWFJpw | https://disk.yandex.ru/i/xmfrlysxTDVg5Q | https://disk.yandex.ru/i/H5O9g6m98NG7Qw | https://disk.yandex.ru/i/DTAYqT-I4fjSUw | https://disk.yandex.ru/i/MWebklCp6s3sIw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -881,10 +902,6 @@
     <t>Б/у</t>
   </si>
   <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
     <t>В наличии</t>
   </si>
   <si>
@@ -927,19 +944,12 @@
     <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
   </si>
   <si>
-    <t>Может стать обязательным c 28.05.2024_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
     <t>Прямоугольный</t>
   </si>
   <si>
     <t>Квадратный</t>
   </si>
   <si>
-    <t>Прямонгольный | Квадратный | Круглый | Полукруглый | Угловой</t>
-  </si>
-  <si>
     <t>Нет</t>
   </si>
   <si>
@@ -953,6 +963,9 @@
   </si>
   <si>
     <t>Тумба | Ящик</t>
+  </si>
+  <si>
+    <t>Тумба</t>
   </si>
   <si>
     <t>Кабинет</t>
@@ -964,8 +977,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,26 +1049,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1093,7 +1098,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1127,7 +1132,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1162,10 +1166,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1338,16 +1341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1484,176 +1485,104 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
+    <row r="2" spans="1:45">
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="F2">
+        <v>2799</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="AA2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="AC2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AD2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="AH2" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AI2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="AJ2" t="s">
         <v>131</v>
       </c>
       <c r="AK2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL2">
+        <v>71</v>
+      </c>
+      <c r="AM2">
+        <v>75</v>
+      </c>
+      <c r="AN2">
+        <v>90</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
       </c>
       <c r="F3">
-        <v>2799</v>
+        <v>19999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD3" t="s">
         <v>117</v>
       </c>
       <c r="AE3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AH3" t="s">
         <v>128</v>
@@ -1662,57 +1591,57 @@
         <v>129</v>
       </c>
       <c r="AJ3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL3">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AM3">
         <v>75</v>
       </c>
       <c r="AN3">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AP3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AS3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
       </c>
       <c r="F4">
-        <v>19999</v>
+        <v>3499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD4" t="s">
         <v>117</v>
@@ -1727,63 +1656,63 @@
         <v>129</v>
       </c>
       <c r="AJ4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN4">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AP4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AS4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
       </c>
       <c r="F5">
-        <v>3499</v>
+        <v>2799</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD5" t="s">
         <v>117</v>
       </c>
       <c r="AE5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH5" t="s">
         <v>128</v>
@@ -1792,10 +1721,10 @@
         <v>129</v>
       </c>
       <c r="AJ5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL5">
         <v>60</v>
@@ -1804,51 +1733,51 @@
         <v>73</v>
       </c>
       <c r="AN5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AP5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AS5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>2799</v>
+        <v>3999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD6" t="s">
         <v>117</v>
       </c>
       <c r="AE6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AH6" t="s">
         <v>128</v>
@@ -1857,63 +1786,63 @@
         <v>129</v>
       </c>
       <c r="AJ6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN6">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AP6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AS6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
       </c>
       <c r="F7">
-        <v>3999</v>
+        <v>3499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD7" t="s">
         <v>117</v>
       </c>
       <c r="AE7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH7" t="s">
         <v>128</v>
@@ -1922,63 +1851,66 @@
         <v>129</v>
       </c>
       <c r="AJ7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL7">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AM7">
         <v>75</v>
       </c>
       <c r="AN7">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ7" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>137</v>
       </c>
       <c r="AS7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="F8">
-        <v>3499</v>
+        <v>3999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD8" t="s">
         <v>117</v>
       </c>
       <c r="AE8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH8" t="s">
         <v>128</v>
@@ -1987,66 +1919,63 @@
         <v>129</v>
       </c>
       <c r="AJ8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AM8">
         <v>75</v>
       </c>
       <c r="AN8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AP8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS8" t="s">
         <v>139</v>
       </c>
-      <c r="AS8" t="s">
-        <v>140</v>
-      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45">
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>70</v>
       </c>
       <c r="F9">
-        <v>3999</v>
+        <v>1499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD9" t="s">
         <v>117</v>
       </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH9" t="s">
         <v>128</v>
@@ -2055,63 +1984,63 @@
         <v>129</v>
       </c>
       <c r="AJ9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN9">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AP9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AS9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45">
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>71</v>
       </c>
       <c r="F10">
-        <v>1499</v>
+        <v>2499</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD10" t="s">
         <v>117</v>
       </c>
       <c r="AE10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AH10" t="s">
         <v>128</v>
@@ -2120,63 +2049,63 @@
         <v>129</v>
       </c>
       <c r="AJ10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL10">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AM10">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN10">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AS10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45">
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
       <c r="F11">
-        <v>2499</v>
+        <v>5999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD11" t="s">
         <v>117</v>
       </c>
       <c r="AE11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH11" t="s">
         <v>128</v>
@@ -2188,60 +2117,60 @@
         <v>132</v>
       </c>
       <c r="AK11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL11">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AM11">
         <v>75</v>
       </c>
       <c r="AN11">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ11" t="s">
         <v>136</v>
       </c>
       <c r="AS11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45">
       <c r="D12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
       </c>
       <c r="F12">
-        <v>5999</v>
+        <v>3499</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD12" t="s">
         <v>117</v>
       </c>
       <c r="AE12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AH12" t="s">
         <v>128</v>
@@ -2250,31 +2179,31 @@
         <v>129</v>
       </c>
       <c r="AJ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK12" t="s">
         <v>133</v>
       </c>
-      <c r="AK12" t="s">
-        <v>135</v>
-      </c>
       <c r="AL12">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="AM12">
         <v>75</v>
       </c>
       <c r="AN12">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AP12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AS12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45">
       <c r="D13" t="s">
         <v>55</v>
       </c>
@@ -2282,90 +2211,93 @@
         <v>74</v>
       </c>
       <c r="F13">
-        <v>3499</v>
+        <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD13" t="s">
         <v>117</v>
       </c>
       <c r="AE13" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>127</v>
       </c>
       <c r="AH13" t="s">
         <v>128</v>
       </c>
       <c r="AI13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL13">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AM13">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN13">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AP13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ13" t="s">
         <v>136</v>
       </c>
       <c r="AS13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45">
       <c r="D14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14">
-        <v>4999</v>
+        <v>15000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD14" t="s">
         <v>117</v>
@@ -2383,57 +2315,57 @@
         <v>130</v>
       </c>
       <c r="AJ14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL14">
         <v>80</v>
       </c>
       <c r="AM14">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AN14">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>136</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>138</v>
-      </c>
       <c r="AS14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45">
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
       <c r="F15">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD15" t="s">
         <v>117</v>
@@ -2441,9 +2373,6 @@
       <c r="AE15" t="s">
         <v>123</v>
       </c>
-      <c r="AF15" t="s">
-        <v>127</v>
-      </c>
       <c r="AH15" t="s">
         <v>128</v>
       </c>
@@ -2451,57 +2380,57 @@
         <v>130</v>
       </c>
       <c r="AJ15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL15">
         <v>80</v>
       </c>
       <c r="AM15">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN15">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AS15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45">
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
       </c>
       <c r="F16">
-        <v>2800</v>
+        <v>2499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD16" t="s">
         <v>117</v>
@@ -2516,10 +2445,10 @@
         <v>130</v>
       </c>
       <c r="AJ16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AK16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2528,63 +2457,66 @@
         <v>75</v>
       </c>
       <c r="AN16">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AS16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:45">
       <c r="D17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>78</v>
       </c>
       <c r="F17">
-        <v>2499</v>
+        <v>4000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD17" t="s">
         <v>117</v>
       </c>
       <c r="AE17" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>124</v>
       </c>
       <c r="AH17" t="s">
         <v>128</v>
       </c>
       <c r="AI17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AK17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2593,21 +2525,21 @@
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AS17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:45">
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -2616,31 +2548,31 @@
         <v>4000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD18" t="s">
         <v>117</v>
       </c>
       <c r="AE18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH18" t="s">
         <v>128</v>
@@ -2649,10 +2581,10 @@
         <v>129</v>
       </c>
       <c r="AJ18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2661,54 +2593,54 @@
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ18" t="s">
         <v>136</v>
       </c>
       <c r="AS18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:45">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
       </c>
       <c r="F19">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="K19">
+        <v>2351</v>
       </c>
       <c r="S19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD19" t="s">
         <v>117</v>
       </c>
       <c r="AE19" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH19" t="s">
         <v>128</v>
@@ -2717,66 +2649,66 @@
         <v>129</v>
       </c>
       <c r="AJ19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL19">
         <v>80</v>
       </c>
       <c r="AM19">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN19">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>136</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>138</v>
-      </c>
       <c r="AS19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:45">
       <c r="D20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
       </c>
       <c r="F20">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="S20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD20" t="s">
         <v>117</v>
       </c>
       <c r="AE20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AH20" t="s">
         <v>128</v>
@@ -2788,63 +2720,63 @@
         <v>132</v>
       </c>
       <c r="AK20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL20">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AM20">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN20">
         <v>160</v>
       </c>
       <c r="AP20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>136</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>138</v>
-      </c>
       <c r="AS20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:45">
       <c r="D21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
       </c>
       <c r="F21">
-        <v>20000</v>
+        <v>5999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="S21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD21" t="s">
         <v>117</v>
       </c>
       <c r="AE21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AH21" t="s">
         <v>128</v>
@@ -2853,60 +2785,60 @@
         <v>129</v>
       </c>
       <c r="AJ21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK21" t="s">
         <v>133</v>
       </c>
-      <c r="AK21" t="s">
-        <v>135</v>
-      </c>
       <c r="AL21">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM21">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN21">
         <v>160</v>
       </c>
       <c r="AP21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>136</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>138</v>
-      </c>
       <c r="AS21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="22" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:45">
       <c r="D22" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
       <c r="F22">
-        <v>5999</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="S22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD22" t="s">
         <v>117</v>
@@ -2921,66 +2853,66 @@
         <v>129</v>
       </c>
       <c r="AJ22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL22">
         <v>80</v>
       </c>
       <c r="AM22">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN22">
         <v>160</v>
       </c>
       <c r="AP22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>136</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>138</v>
-      </c>
       <c r="AS22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:45">
       <c r="D23" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
         <v>84</v>
       </c>
       <c r="F23">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23">
-        <v>2346</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD23" t="s">
         <v>117</v>
       </c>
       <c r="AE23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AH23" t="s">
         <v>128</v>
@@ -2989,60 +2921,60 @@
         <v>129</v>
       </c>
       <c r="AJ23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL23">
+        <v>86</v>
+      </c>
+      <c r="AM23">
+        <v>76</v>
+      </c>
+      <c r="AN23">
+        <v>185</v>
+      </c>
+      <c r="AP23" t="s">
         <v>135</v>
       </c>
-      <c r="AL23">
-        <v>80</v>
-      </c>
-      <c r="AM23">
-        <v>75</v>
-      </c>
-      <c r="AN23">
-        <v>160</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>136</v>
-      </c>
       <c r="AQ23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AS23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:45">
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>85</v>
       </c>
       <c r="F24">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD24" t="s">
         <v>117</v>
@@ -3057,10 +2989,10 @@
         <v>129</v>
       </c>
       <c r="AJ24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL24">
         <v>86</v>
@@ -3069,54 +3001,54 @@
         <v>76</v>
       </c>
       <c r="AN24">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="AP24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AQ24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AS24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="25" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:45">
       <c r="D25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>86</v>
       </c>
       <c r="F25">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2356</v>
       </c>
       <c r="S25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD25" t="s">
         <v>117</v>
       </c>
       <c r="AE25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH25" t="s">
         <v>128</v>
@@ -3125,78 +3057,83 @@
         <v>129</v>
       </c>
       <c r="AJ25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL25">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AM25">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN25">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AQ25" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>138</v>
       </c>
       <c r="AS25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520B5976-C1A5-42DC-A490-61FBD83EF9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="133">
   <si>
     <t>Address</t>
   </si>
@@ -203,29 +209,6 @@
   </si>
   <si>
     <t>Офисный стол с тумбой</t>
-  </si>
-  <si>
-    <t>Стол офисный
-Артикул 2172
-Цвет: яблоня
-Цена за 1шт. : 
-4000 руб - 170х71 - 2 шт. 
-3500 руб - 120х70 - 17 шт. 
-2800 руб - 90х71 - 2 шт.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t xml:space="preserve">Офисный стол на два рабочих места
@@ -439,30 +422,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стол офисный
-Артикул 2238
-Описание Офисный стол в стиле лофт. Отлично впишентся в интерьер и будет подчёркивать ваш хороший и современный вкус. 
-Размеры ДхШхВ: 118х72х75
-Цвет: серый
-Цена: 3 499 руб. 
-Количество: 6 шт
-У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. В наличии более 300 столов, которые хранятся на складе в разобранном виде. Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол офисный компьютерный
 Артикул 2284
 Описание Продается офисный стол бу цвета сосны с белыми металлическими ножками. Этот стол не только привносит природную теплоту и стиль в рабочее пространство, но и обеспечивает удобство благодаря отверстиям для проводов, которые помогают организовать рабочее место. Прочные металлические ножки придают столу устойчивость и надежность, а светлый оттенок сосны освежит любой офис. Отличное решение для тех, кто ценит функциональность и эстетичность в мебели.
@@ -515,60 +474,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол прямой офисный
-Артикул 2239
-Описание: светлый офисный стол БУ в отличном состоянии. Этот стильный и функциональный стол станет идеальным решением для вашего офиса или домашнего рабочего пространства. Стол оснащен удобными отверстиями для проводов, которые помогут организовать кабели и сохранить порядок на рабочем месте.
-Размеры ДхШхВ: 140х80х75
-Цвет
-Цена 2 800 - 3 499 руб
-Количество: 4
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стол
-Артикул 2244-2249
-Описание Продается светлый офисный стол, который станет отличным дополнением вашего рабочего пространства. Его лаконичный и современный дизайн идеально впишется в любой интерьер, придавая вашему офису свежий и стильный вид.
-Стол оснащен удобными отверстиями для проводов, что помогает поддерживать порядок на рабочем месте и обеспечивает легкий доступ к вашим устройствам. Просторная рабочая поверхность позволяет комфортно разместить всю необходимую технику и документы.
-Размер: 120х80х75
-Цвет:
-Цена: 2 499 руб
-Количество: уточняйте
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный с перегородкой 
@@ -812,9 +717,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/F1CjtBJnTEvrFQ | https://disk.yandex.ru/i/409vi3NG1RNR4w | https://disk.yandex.ru/i/dCiHadU7NYbQHg | https://disk.yandex.ru/i/x8pbwTSb91JNPw | https://disk.yandex.ru/i/QYtZq-fFeZ18Pw | https://disk.yandex.ru/i/hwHvZLZZ7WEGDg | https://disk.yandex.ru/i/VxPWCAp5hDhWxw | https://disk.yandex.ru/i/8IwDOhk_cJyfVA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
   </si>
   <si>
@@ -842,19 +744,10 @@
     <t>https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/pVJGUqHcZrp6-w | https://disk.yandex.ru/i/LRV7-3J3-o78Ug | https://disk.yandex.ru/i/JHlazBiDAPzYgw | https://disk.yandex.ru/i/UJq0k8hNa9JNJA | https://disk.yandex.ru/i/gioyZRP1zXxKHw | https://disk.yandex.ru/i/N4SnlFSM2-aKSQ | https://disk.yandex.ru/i/xWUYZCac7Mgt4g | https://disk.yandex.ru/i/34hc0jg7_6nlig</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/BnAtwcbYZEnwew | https://disk.yandex.ru/i/LNgmWnEyT0HQhg | https://disk.yandex.ru/i/dQN-vpndhDyBkw | https://disk.yandex.ru/i/z4UC2E0JKEdiFA | https://disk.yandex.ru/i/-cuRhbFerCyEgw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/nMKzIgHV6Enaqg | https://disk.yandex.ru/i/SBUJhlEnWMYf0w | https://disk.yandex.ru/i/E25fhHeEMNSl0Q | https://disk.yandex.ru/i/X6rmhj0rEwfMiQ | https://disk.yandex.ru/i/mRnpl6hLX_GM_g</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
@@ -977,8 +870,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,18 +942,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1098,7 +999,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1132,6 +1033,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1166,9 +1068,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1341,14 +1244,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,181 +1390,181 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2">
-        <v>2799</v>
+        <v>19999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" t="s">
         <v>111</v>
       </c>
-      <c r="S2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>118</v>
-      </c>
       <c r="AH2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AI2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AM2">
         <v>75</v>
       </c>
       <c r="AN2">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AP2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
       </c>
       <c r="F3">
-        <v>19999</v>
+        <v>3499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE3" t="s">
         <v>111</v>
       </c>
-      <c r="S3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>119</v>
-      </c>
       <c r="AH3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AI3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL3">
+        <v>60</v>
+      </c>
+      <c r="AM3">
+        <v>73</v>
+      </c>
+      <c r="AN3">
+        <v>110</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS3" t="s">
         <v>131</v>
       </c>
-      <c r="AK3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL3">
-        <v>80</v>
-      </c>
-      <c r="AM3">
-        <v>75</v>
-      </c>
-      <c r="AN3">
-        <v>160</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
       </c>
       <c r="F4">
-        <v>3499</v>
+        <v>2799</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" t="s">
         <v>112</v>
       </c>
-      <c r="AA4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>119</v>
-      </c>
       <c r="AH4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AI4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1668,923 +1573,935 @@
         <v>73</v>
       </c>
       <c r="AN4">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
       </c>
       <c r="F5">
-        <v>2799</v>
+        <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE5" t="s">
         <v>113</v>
       </c>
-      <c r="AB5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
         <v>120</v>
       </c>
-      <c r="AH5" t="s">
-        <v>128</v>
-      </c>
       <c r="AI5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL5">
+        <v>80</v>
+      </c>
+      <c r="AM5">
+        <v>75</v>
+      </c>
+      <c r="AN5">
+        <v>140</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="s">
         <v>131</v>
       </c>
-      <c r="AK5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL5">
-        <v>60</v>
-      </c>
-      <c r="AM5">
-        <v>73</v>
-      </c>
-      <c r="AN5">
-        <v>90</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>3999</v>
+        <v>3499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE6" t="s">
         <v>114</v>
       </c>
-      <c r="AC6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI6" t="s">
         <v>121</v>
       </c>
-      <c r="AH6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>129</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AM6">
         <v>75</v>
       </c>
       <c r="AN6">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ6" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>129</v>
       </c>
       <c r="AS6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
       </c>
       <c r="F7">
-        <v>3499</v>
+        <v>3999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AC7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AH7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL7">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AM7">
         <v>75</v>
       </c>
       <c r="AN7">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AP7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="F8">
-        <v>3999</v>
+        <v>1499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" t="s">
         <v>114</v>
       </c>
-      <c r="AC8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AH8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>123</v>
       </c>
-      <c r="AH8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL8">
+        <v>60</v>
+      </c>
+      <c r="AM8">
+        <v>73</v>
+      </c>
+      <c r="AN8">
+        <v>72</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS8" t="s">
         <v>131</v>
       </c>
-      <c r="AK8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL8">
-        <v>80</v>
-      </c>
-      <c r="AM8">
-        <v>75</v>
-      </c>
-      <c r="AN8">
-        <v>116</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>70</v>
       </c>
       <c r="F9">
-        <v>1499</v>
+        <v>2499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE9" t="s">
         <v>112</v>
       </c>
-      <c r="AA9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>122</v>
-      </c>
       <c r="AH9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL9">
+        <v>73</v>
+      </c>
+      <c r="AM9">
+        <v>75</v>
+      </c>
+      <c r="AN9">
+        <v>90</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS9" t="s">
         <v>131</v>
       </c>
-      <c r="AK9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL9">
-        <v>60</v>
-      </c>
-      <c r="AM9">
-        <v>73</v>
-      </c>
-      <c r="AN9">
-        <v>72</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>71</v>
       </c>
       <c r="F10">
-        <v>2499</v>
+        <v>5999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" t="s">
         <v>114</v>
       </c>
-      <c r="AC10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AH10" t="s">
         <v>120</v>
       </c>
-      <c r="AH10" t="s">
-        <v>128</v>
-      </c>
       <c r="AI10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL10">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AM10">
         <v>75</v>
       </c>
       <c r="AN10">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AP10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AS10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
       <c r="F11">
-        <v>5999</v>
+        <v>4999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AC11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI11" t="s">
         <v>122</v>
       </c>
-      <c r="AH11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>129</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN11">
         <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AS11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
       </c>
       <c r="F12">
-        <v>3499</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AC12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE12" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>119</v>
       </c>
       <c r="AH12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL12">
+        <v>80</v>
+      </c>
+      <c r="AM12">
+        <v>74</v>
+      </c>
+      <c r="AN12">
+        <v>160</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>128</v>
       </c>
-      <c r="AI12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AS12" t="s">
         <v>131</v>
       </c>
-      <c r="AK12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL12">
-        <v>72</v>
-      </c>
-      <c r="AM12">
-        <v>75</v>
-      </c>
-      <c r="AN12">
-        <v>118</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
       </c>
       <c r="F13">
-        <v>4999</v>
+        <v>4000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AC13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE13" t="s">
         <v>116</v>
       </c>
-      <c r="AD13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>123</v>
       </c>
-      <c r="AF13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>131</v>
-      </c>
       <c r="AK13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL13">
         <v>80</v>
       </c>
       <c r="AM13">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN13">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AS13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" t="s">
         <v>117</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>123</v>
       </c>
-      <c r="AF14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>131</v>
-      </c>
       <c r="AK14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL14">
         <v>80</v>
       </c>
       <c r="AM14">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN14">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AS14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
       <c r="F15">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="K15">
+        <v>2351</v>
       </c>
       <c r="S15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AC15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>123</v>
       </c>
-      <c r="AH15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>131</v>
-      </c>
       <c r="AK15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL15">
         <v>80</v>
       </c>
       <c r="AM15">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN15">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AS15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
       </c>
       <c r="F16">
-        <v>2499</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="K16">
+        <v>2350</v>
       </c>
       <c r="S16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE16" t="s">
         <v>112</v>
       </c>
-      <c r="AA16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>123</v>
-      </c>
       <c r="AH16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL16">
+        <v>162</v>
+      </c>
+      <c r="AM16">
+        <v>74</v>
+      </c>
+      <c r="AN16">
+        <v>160</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>128</v>
       </c>
-      <c r="AI16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AS16" t="s">
         <v>131</v>
       </c>
-      <c r="AK16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL16">
-        <v>80</v>
-      </c>
-      <c r="AM16">
-        <v>75</v>
-      </c>
-      <c r="AN16">
-        <v>120</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="17" spans="4:45">
+    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>78</v>
       </c>
       <c r="F17">
-        <v>4000</v>
+        <v>5999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="K17">
+        <v>2345</v>
       </c>
       <c r="S17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AC17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AI17" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL17">
         <v>80</v>
       </c>
       <c r="AM17">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN17">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AS17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="18" spans="4:45">
+    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
       </c>
       <c r="F18">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>111</v>
+      <c r="K18">
+        <v>2346</v>
       </c>
       <c r="S18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK18" t="s">
         <v>125</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>133</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2593,547 +2510,267 @@
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AS18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="19" spans="4:45">
+    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
       </c>
       <c r="F19">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19">
-        <v>2351</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AA19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" t="s">
         <v>112</v>
       </c>
-      <c r="AA19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>126</v>
-      </c>
       <c r="AH19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AI19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL19">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AM19">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN19">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AP19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AQ19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AS19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="20" spans="4:45">
+    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
       </c>
       <c r="F20">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20">
-        <v>2350</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AB20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" t="s">
         <v>112</v>
       </c>
-      <c r="AA20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AH20" t="s">
         <v>120</v>
       </c>
-      <c r="AH20" t="s">
-        <v>128</v>
-      </c>
       <c r="AI20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL20">
+        <v>86</v>
+      </c>
+      <c r="AM20">
+        <v>76</v>
+      </c>
+      <c r="AN20">
+        <v>150</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS20" t="s">
         <v>132</v>
       </c>
-      <c r="AK20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL20">
-        <v>162</v>
-      </c>
-      <c r="AM20">
-        <v>74</v>
-      </c>
-      <c r="AN20">
-        <v>160</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="21" spans="4:45">
+    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
       </c>
       <c r="F21">
-        <v>5999</v>
+        <v>5500</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21">
+        <v>2356</v>
+      </c>
+      <c r="S21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE21" t="s">
         <v>111</v>
       </c>
-      <c r="K21">
-        <v>2345</v>
-      </c>
-      <c r="S21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>118</v>
-      </c>
       <c r="AH21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AI21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AJ21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AL21">
         <v>80</v>
       </c>
       <c r="AM21">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN21">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ21" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>130</v>
       </c>
       <c r="AS21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="4:45">
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22">
-        <v>2346</v>
-      </c>
-      <c r="S22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ22" t="s">
         <v>131</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL22">
-        <v>80</v>
-      </c>
-      <c r="AM22">
-        <v>75</v>
-      </c>
-      <c r="AN22">
-        <v>160</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="4:45">
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23">
-        <v>30000</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="S23" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL23">
-        <v>86</v>
-      </c>
-      <c r="AM23">
-        <v>76</v>
-      </c>
-      <c r="AN23">
-        <v>185</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="4:45">
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24">
-        <v>25000</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL24">
-        <v>86</v>
-      </c>
-      <c r="AM24">
-        <v>76</v>
-      </c>
-      <c r="AN24">
-        <v>150</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="4:45">
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25">
-        <v>5500</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25">
-        <v>2356</v>
-      </c>
-      <c r="S25" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL25">
-        <v>80</v>
-      </c>
-      <c r="AM25">
-        <v>75</v>
-      </c>
-      <c r="AN25">
-        <v>120</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520B5976-C1A5-42DC-A490-61FBD83EF9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="140">
   <si>
     <t>Address</t>
   </si>
@@ -157,39 +151,39 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>Офисный стол</t>
+  </si>
+  <si>
+    <t>Стол офисный белый</t>
+  </si>
+  <si>
+    <t>Офисный стол прямой</t>
+  </si>
+  <si>
+    <t>Стол офисный прямой</t>
+  </si>
+  <si>
+    <t>Стол письменный</t>
+  </si>
+  <si>
+    <t>Стол для колл центра</t>
+  </si>
+  <si>
+    <t>Стол офисный для колл центра</t>
+  </si>
+  <si>
+    <t>Стол офисный</t>
+  </si>
+  <si>
+    <t>Офисный стол с перегородкой</t>
+  </si>
+  <si>
+    <t>Стол офисный компьютерный</t>
+  </si>
+  <si>
     <t>Стол прямой офисный</t>
   </si>
   <si>
-    <t>Офисный стол</t>
-  </si>
-  <si>
-    <t>Стол офисный белый</t>
-  </si>
-  <si>
-    <t>Офисный стол прямой</t>
-  </si>
-  <si>
-    <t>Стол офисный прямой</t>
-  </si>
-  <si>
-    <t>Стол письменный</t>
-  </si>
-  <si>
-    <t>Стол для колл центра</t>
-  </si>
-  <si>
-    <t>Стол офисный для колл центра</t>
-  </si>
-  <si>
-    <t>Стол офисный</t>
-  </si>
-  <si>
-    <t>Офисный стол с перегородкой</t>
-  </si>
-  <si>
-    <t>Стол офисный компьютерный</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол офисный с перегородкой </t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Офисный стол с тумбой</t>
+  </si>
+  <si>
+    <t>Стол прямой</t>
+  </si>
+  <si>
+    <t>Стол компьютерный офисный</t>
   </si>
   <si>
     <t xml:space="preserve">Офисный стол на два рабочих места
@@ -717,6 +717,63 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол прямой
+Артикул 2391
+Стильный и практичный прямой офисный стол цвета орех, идеально подходящий для работы в офисе или домашнем кабинете. Предусмотренное отверстие для проводов помогает поддерживать порядок, скрывая кабели.
+В комплекте идет тумба на колесиках, которая обеспечивает дополнительное место для хранения документов, канцелярии и других рабочих принадлежностей. Благодаря колесикам тумба легко перемещается и может быть расположена в удобном для вас месте.
+Размеры ДхШхВ: 140х60х75
+Цвет светлый орех
+Цена 6 000
+Количество уточняйте
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный офисный
+Артикул 2388
+Поднимите свой офисный интерьер на новый уровень с нашими элитными белыми офисными столами большого размера. Изысканный дизайн в сочетании с функциональностью - идеальное решение для современного бизнес-пространства. Наши столы оснащены отверстием для компьютерных проводов, обеспечивая порядок и организованность вашего рабочего места. Прочные металлические ноги обеспечивают надежную поддержку и долговечность. Подчеркните свой профессионализм с элитными офисными столами, которые сочетают в себе стиль, комфорт и функциональность.
+Размеры ДхШхВ: 140х70х75
+Цвет бежевый
+Цена 4 500 - 5 000 руб
+Количество 17
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
   </si>
   <si>
@@ -777,6 +834,12 @@
     <t>https://disk.yandex.ru/i/tuoUS9qMlWFJpw | https://disk.yandex.ru/i/xmfrlysxTDVg5Q | https://disk.yandex.ru/i/H5O9g6m98NG7Qw | https://disk.yandex.ru/i/DTAYqT-I4fjSUw | https://disk.yandex.ru/i/MWebklCp6s3sIw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -798,33 +861,33 @@
     <t>В наличии</t>
   </si>
   <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Рыжий</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
     <t>Бежевый</t>
   </si>
   <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Рыжий</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Сосна</t>
   </si>
   <si>
@@ -850,6 +913,9 @@
   </si>
   <si>
     <t>Дерево</t>
+  </si>
+  <si>
+    <t>ЛДСП</t>
   </si>
   <si>
     <t>Металл</t>
@@ -870,8 +936,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,26 +1008,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -999,7 +1057,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1033,7 +1091,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1068,10 +1125,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1244,16 +1300,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,51 +1444,51 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45">
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>19999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1446,60 +1500,60 @@
         <v>160</v>
       </c>
       <c r="AP2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45">
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>3499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1511,60 +1565,60 @@
         <v>110</v>
       </c>
       <c r="AP3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45">
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>2799</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AH4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1576,60 +1630,60 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45">
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AH5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1641,60 +1695,60 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45">
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>3499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AH6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL6">
         <v>50</v>
@@ -1706,63 +1760,63 @@
         <v>120</v>
       </c>
       <c r="AP6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AR6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AS6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45">
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>3999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AH7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1774,60 +1828,60 @@
         <v>116</v>
       </c>
       <c r="AP7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45">
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>1499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL8">
         <v>60</v>
@@ -1839,60 +1893,60 @@
         <v>72</v>
       </c>
       <c r="AP8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45">
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>2499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AH9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL9">
         <v>73</v>
@@ -1904,60 +1958,60 @@
         <v>90</v>
       </c>
       <c r="AP9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45">
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>5999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AH10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL10">
         <v>120</v>
@@ -1969,63 +2023,63 @@
         <v>120</v>
       </c>
       <c r="AP10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AS10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45">
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>4999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AH11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AJ11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2037,63 +2091,63 @@
         <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AS11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45">
       <c r="D12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AH12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AJ12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2105,63 +2159,63 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AS12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45">
       <c r="D13" t="s">
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>4000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AH13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2173,63 +2227,63 @@
         <v>140</v>
       </c>
       <c r="AP13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45">
       <c r="D14" t="s">
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>4000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD14" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2241,63 +2295,63 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AS14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45">
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>6000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K15">
         <v>2351</v>
       </c>
       <c r="S15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD15" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AH15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK15" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2309,63 +2363,63 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ15" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AS15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45">
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16">
         <v>20000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K16">
         <v>2350</v>
       </c>
       <c r="S16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AH16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL16">
         <v>162</v>
@@ -2377,63 +2431,63 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AS16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:45">
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17">
         <v>5999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K17">
         <v>2345</v>
       </c>
       <c r="S17" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE17" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="AH17" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ17" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2445,63 +2499,63 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ17" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AS17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:45">
       <c r="D18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18">
         <v>10000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K18">
         <v>2346</v>
       </c>
       <c r="S18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD18" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE18" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="AH18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK18" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2513,63 +2567,63 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AQ18" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AS18" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:45">
       <c r="D19" t="s">
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19">
         <v>30000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC19" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD19" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AH19" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK19" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL19">
         <v>86</v>
@@ -2581,63 +2635,63 @@
         <v>185</v>
       </c>
       <c r="AP19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AQ19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AS19" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:45">
       <c r="D20" t="s">
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20">
         <v>25000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AH20" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL20">
         <v>86</v>
@@ -2649,63 +2703,63 @@
         <v>150</v>
       </c>
       <c r="AP20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AQ20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AS20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:45">
       <c r="D21" t="s">
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>5500</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K21">
         <v>2356</v>
       </c>
       <c r="S21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC21" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ21" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK21" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -2717,60 +2771,203 @@
         <v>120</v>
       </c>
       <c r="AP21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="4:45">
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <v>6000</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22">
+        <v>2391</v>
+      </c>
+      <c r="S22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH22" t="s">
         <v>126</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS21" t="s">
+      <c r="AI22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK22" t="s">
         <v>131</v>
+      </c>
+      <c r="AL22">
+        <v>60</v>
+      </c>
+      <c r="AM22">
+        <v>75</v>
+      </c>
+      <c r="AN22">
+        <v>140</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="4:45">
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23">
+        <v>4500</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23">
+        <v>2388</v>
+      </c>
+      <c r="S23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL23">
+        <v>70</v>
+      </c>
+      <c r="AM23">
+        <v>75</v>
+      </c>
+      <c r="AN23">
+        <v>140</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2F5C7-AAE7-4200-91D2-97E060D5DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -936,8 +942,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,18 +1014,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1057,7 +1071,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1091,6 +1105,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1125,9 +1140,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1300,14 +1316,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>45</v>
       </c>
@@ -1460,6 +1478,9 @@
       <c r="I2" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K2">
+        <v>2137</v>
+      </c>
       <c r="S2" t="s">
         <v>110</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>46</v>
       </c>
@@ -1525,6 +1546,9 @@
       <c r="I3" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K3">
+        <v>2132</v>
+      </c>
       <c r="S3" t="s">
         <v>110</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>47</v>
       </c>
@@ -1590,6 +1614,9 @@
       <c r="I4" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K4">
+        <v>2115</v>
+      </c>
       <c r="S4" t="s">
         <v>110</v>
       </c>
@@ -1639,7 +1666,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>48</v>
       </c>
@@ -1655,6 +1682,9 @@
       <c r="I5" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K5">
+        <v>2066</v>
+      </c>
       <c r="S5" t="s">
         <v>110</v>
       </c>
@@ -1704,7 +1734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>49</v>
       </c>
@@ -1720,6 +1750,9 @@
       <c r="I6" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="S6" t="s">
         <v>110</v>
       </c>
@@ -1772,7 +1805,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>50</v>
       </c>
@@ -1788,6 +1821,9 @@
       <c r="I7" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="S7" t="s">
         <v>110</v>
       </c>
@@ -1837,7 +1873,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>51</v>
       </c>
@@ -1853,6 +1889,9 @@
       <c r="I8" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="S8" t="s">
         <v>110</v>
       </c>
@@ -1902,7 +1941,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>52</v>
       </c>
@@ -1918,6 +1957,9 @@
       <c r="I9" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K9">
+        <v>1691</v>
+      </c>
       <c r="S9" t="s">
         <v>110</v>
       </c>
@@ -1967,7 +2009,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>53</v>
       </c>
@@ -1983,6 +2025,9 @@
       <c r="I10" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="S10" t="s">
         <v>110</v>
       </c>
@@ -2032,7 +2077,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>54</v>
       </c>
@@ -2048,6 +2093,9 @@
       <c r="I11" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K11">
+        <v>2284</v>
+      </c>
       <c r="S11" t="s">
         <v>110</v>
       </c>
@@ -2100,7 +2148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>55</v>
       </c>
@@ -2116,6 +2164,9 @@
       <c r="I12" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K12">
+        <v>2282</v>
+      </c>
       <c r="S12" t="s">
         <v>110</v>
       </c>
@@ -2168,7 +2219,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>56</v>
       </c>
@@ -2184,6 +2235,9 @@
       <c r="I13" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K13">
+        <v>2286</v>
+      </c>
       <c r="S13" t="s">
         <v>110</v>
       </c>
@@ -2236,7 +2290,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>57</v>
       </c>
@@ -2252,6 +2306,9 @@
       <c r="I14" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="K14">
+        <v>2895</v>
+      </c>
       <c r="S14" t="s">
         <v>110</v>
       </c>
@@ -2304,7 +2361,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>48</v>
       </c>
@@ -2372,7 +2429,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>58</v>
       </c>
@@ -2440,7 +2497,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="4:45">
+    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>59</v>
       </c>
@@ -2508,7 +2565,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="4:45">
+    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>55</v>
       </c>
@@ -2576,7 +2633,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="4:45">
+    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>60</v>
       </c>
@@ -2644,7 +2701,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="4:45">
+    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>61</v>
       </c>
@@ -2712,7 +2769,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="4:45">
+    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>62</v>
       </c>
@@ -2783,7 +2840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="4:45">
+    <row r="22" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>63</v>
       </c>
@@ -2854,7 +2911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="4:45">
+    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>64</v>
       </c>
@@ -2924,50 +2981,50 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2F5C7-AAE7-4200-91D2-97E060D5DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FE22D-06E0-408E-87C2-D656678CE66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="137">
   <si>
     <t>Address</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Стол кухонный со стульями</t>
-  </si>
-  <si>
-    <t>Офисный стол с тумбой</t>
   </si>
   <si>
     <t>Стол прямой</t>
@@ -696,33 +693,6 @@
     </t>
   </si>
   <si>
-    <t>Офисный стол с тумбой
-Артикул (2356) (2357)
-Описание - комплект
-Размеры ДхШхВ: 120/80/75
-Цвет белый, тумба черная металлическая 
-Цена: 5500 за комплект
-Количество: 5 шт
-Размер: 140/80/75
-Цена: 6000
-Количество: 1 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол прямой
 Артикул 2391
 Стильный и практичный прямой офисный стол цвета орех, идеально подходящий для работы в офисе или домашнем кабинете. Предусмотренное отверстие для проводов помогает поддерживать порядок, скрывая кабели.
@@ -835,9 +805,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/tuoUS9qMlWFJpw | https://disk.yandex.ru/i/xmfrlysxTDVg5Q | https://disk.yandex.ru/i/H5O9g6m98NG7Qw | https://disk.yandex.ru/i/DTAYqT-I4fjSUw | https://disk.yandex.ru/i/MWebklCp6s3sIw</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
@@ -1317,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AS22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,49 +1434,49 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>19999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K2">
         <v>2137</v>
       </c>
       <c r="S2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" t="s">
         <v>111</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>112</v>
       </c>
-      <c r="AC2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>115</v>
-      </c>
       <c r="AE2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AH2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>126</v>
       </c>
-      <c r="AI2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>129</v>
-      </c>
       <c r="AK2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1521,13 +1488,13 @@
         <v>160</v>
       </c>
       <c r="AP2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AS2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1535,49 +1502,49 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>3499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K3">
         <v>2132</v>
       </c>
       <c r="S3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC3" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>115</v>
-      </c>
       <c r="AE3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AH3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>126</v>
       </c>
-      <c r="AI3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>129</v>
-      </c>
       <c r="AK3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1589,13 +1556,13 @@
         <v>110</v>
       </c>
       <c r="AP3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AS3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1603,49 +1570,49 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>2799</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K4">
         <v>2115</v>
       </c>
       <c r="S4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC4" t="s">
         <v>111</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>112</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>117</v>
-      </c>
       <c r="AH4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>126</v>
       </c>
-      <c r="AI4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>129</v>
-      </c>
       <c r="AK4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1657,13 +1624,13 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AS4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1671,49 +1638,49 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC5" t="s">
         <v>111</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>112</v>
       </c>
-      <c r="AC5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>115</v>
       </c>
-      <c r="AE5" t="s">
-        <v>118</v>
-      </c>
       <c r="AH5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>126</v>
       </c>
-      <c r="AI5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>129</v>
-      </c>
       <c r="AK5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1725,13 +1692,13 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AS5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1739,49 +1706,49 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>3499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC6" t="s">
         <v>111</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>112</v>
       </c>
-      <c r="AC6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>115</v>
-      </c>
       <c r="AE6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AH6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>126</v>
       </c>
-      <c r="AI6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>129</v>
-      </c>
       <c r="AK6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL6">
         <v>50</v>
@@ -1793,16 +1760,16 @@
         <v>120</v>
       </c>
       <c r="AP6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AR6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AS6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1810,49 +1777,49 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>3999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC7" t="s">
         <v>111</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>112</v>
       </c>
-      <c r="AC7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>115</v>
-      </c>
       <c r="AE7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AH7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>126</v>
       </c>
-      <c r="AI7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>129</v>
-      </c>
       <c r="AK7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1864,13 +1831,13 @@
         <v>116</v>
       </c>
       <c r="AP7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AS7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -1878,49 +1845,49 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>1499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" t="s">
         <v>111</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>112</v>
       </c>
-      <c r="AC8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>115</v>
-      </c>
       <c r="AE8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AH8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>126</v>
       </c>
-      <c r="AI8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>129</v>
-      </c>
       <c r="AK8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL8">
         <v>60</v>
@@ -1932,13 +1899,13 @@
         <v>72</v>
       </c>
       <c r="AP8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AS8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -1946,49 +1913,49 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>2499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K9">
         <v>1691</v>
       </c>
       <c r="S9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC9" t="s">
         <v>111</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>112</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>114</v>
       </c>
-      <c r="AD9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>117</v>
-      </c>
       <c r="AH9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>126</v>
       </c>
-      <c r="AI9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>129</v>
-      </c>
       <c r="AK9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL9">
         <v>73</v>
@@ -2000,13 +1967,13 @@
         <v>90</v>
       </c>
       <c r="AP9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AS9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -2014,49 +1981,49 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>5999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC10" t="s">
         <v>111</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>112</v>
       </c>
-      <c r="AC10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>115</v>
-      </c>
       <c r="AE10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AH10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>127</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>130</v>
-      </c>
       <c r="AK10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL10">
         <v>120</v>
@@ -2068,13 +2035,13 @@
         <v>120</v>
       </c>
       <c r="AP10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>132</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AS10" t="s">
         <v>135</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2082,52 +2049,52 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>4999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K11">
         <v>2284</v>
       </c>
       <c r="S11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB11" t="s">
         <v>110</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>111</v>
       </c>
-      <c r="AB11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>114</v>
-      </c>
       <c r="AD11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI11" t="s">
         <v>125</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
         <v>126</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AK11" t="s">
         <v>128</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>131</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2139,13 +2106,13 @@
         <v>120</v>
       </c>
       <c r="AP11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>132</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AS11" t="s">
         <v>135</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2153,52 +2120,52 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K12">
         <v>2282</v>
       </c>
       <c r="S12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB12" t="s">
         <v>110</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>111</v>
       </c>
-      <c r="AB12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>114</v>
-      </c>
       <c r="AD12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI12" t="s">
         <v>125</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
         <v>126</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AK12" t="s">
         <v>128</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>131</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2210,13 +2177,13 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>132</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AS12" t="s">
         <v>135</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2224,52 +2191,52 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>4000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K13">
         <v>2286</v>
       </c>
       <c r="S13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB13" t="s">
         <v>110</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>111</v>
       </c>
-      <c r="AB13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>114</v>
-      </c>
       <c r="AD13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AH13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>126</v>
       </c>
-      <c r="AI13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>129</v>
-      </c>
       <c r="AK13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2281,13 +2248,13 @@
         <v>140</v>
       </c>
       <c r="AP13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AQ13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AS13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2295,52 +2262,52 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>4000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K14">
         <v>2895</v>
       </c>
       <c r="S14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB14" t="s">
         <v>110</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>111</v>
       </c>
-      <c r="AB14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>114</v>
-      </c>
       <c r="AD14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AH14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>126</v>
       </c>
-      <c r="AI14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>129</v>
-      </c>
       <c r="AK14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2352,13 +2319,13 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>132</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AS14" t="s">
         <v>135</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -2366,49 +2333,49 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>6000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K15">
         <v>2351</v>
       </c>
       <c r="S15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB15" t="s">
         <v>110</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>111</v>
       </c>
-      <c r="AB15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>114</v>
-      </c>
       <c r="AD15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH15" t="s">
         <v>123</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>126</v>
       </c>
-      <c r="AI15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>129</v>
-      </c>
       <c r="AK15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2420,13 +2387,13 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>132</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AS15" t="s">
         <v>135</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -2434,49 +2401,49 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>20000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K16">
         <v>2350</v>
       </c>
       <c r="S16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB16" t="s">
         <v>110</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>111</v>
       </c>
-      <c r="AB16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE16" t="s">
         <v>114</v>
       </c>
-      <c r="AD16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>117</v>
-      </c>
       <c r="AH16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AI16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>127</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>130</v>
-      </c>
       <c r="AK16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL16">
         <v>162</v>
@@ -2488,13 +2455,13 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>132</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AS16" t="s">
         <v>135</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
@@ -2502,49 +2469,49 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17">
         <v>5999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K17">
         <v>2345</v>
       </c>
       <c r="S17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB17" t="s">
         <v>110</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>111</v>
       </c>
-      <c r="AB17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>114</v>
-      </c>
       <c r="AD17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI17" t="s">
         <v>124</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AJ17" t="s">
         <v>126</v>
       </c>
-      <c r="AI17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>129</v>
-      </c>
       <c r="AK17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2556,13 +2523,13 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>132</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AS17" t="s">
         <v>135</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
@@ -2570,49 +2537,49 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18">
         <v>10000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K18">
         <v>2346</v>
       </c>
       <c r="S18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB18" t="s">
         <v>110</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>111</v>
       </c>
-      <c r="AB18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>114</v>
-      </c>
       <c r="AD18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI18" t="s">
         <v>124</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
         <v>126</v>
       </c>
-      <c r="AI18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>129</v>
-      </c>
       <c r="AK18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2624,13 +2591,13 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>132</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AS18" t="s">
         <v>135</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
@@ -2638,49 +2605,49 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>30000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="S19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB19" t="s">
         <v>110</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>111</v>
       </c>
-      <c r="AB19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE19" t="s">
         <v>114</v>
       </c>
-      <c r="AD19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>117</v>
-      </c>
       <c r="AH19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>126</v>
       </c>
-      <c r="AI19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>129</v>
-      </c>
       <c r="AK19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL19">
         <v>86</v>
@@ -2692,13 +2659,13 @@
         <v>185</v>
       </c>
       <c r="AP19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AQ19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AS19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
@@ -2706,49 +2673,49 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20">
         <v>25000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="S20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB20" t="s">
         <v>110</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>111</v>
       </c>
-      <c r="AB20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE20" t="s">
         <v>114</v>
       </c>
-      <c r="AD20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>117</v>
-      </c>
       <c r="AH20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>126</v>
       </c>
-      <c r="AI20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>129</v>
-      </c>
       <c r="AK20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL20">
         <v>86</v>
@@ -2760,13 +2727,13 @@
         <v>150</v>
       </c>
       <c r="AP20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AQ20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AS20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="4:45" x14ac:dyDescent="0.25">
@@ -2774,70 +2741,70 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="K21">
-        <v>2356</v>
+        <v>2391</v>
       </c>
       <c r="S21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB21" t="s">
         <v>110</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
         <v>111</v>
       </c>
-      <c r="AB21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE21" t="s">
         <v>114</v>
       </c>
-      <c r="AD21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>116</v>
-      </c>
       <c r="AH21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>126</v>
       </c>
-      <c r="AI21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>129</v>
-      </c>
       <c r="AK21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL21">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM21">
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AQ21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS21" t="s">
         <v>135</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="4:45" x14ac:dyDescent="0.25">
@@ -2845,52 +2812,52 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22">
+        <v>2388</v>
+      </c>
+      <c r="S22" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22">
-        <v>2391</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="AA22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB22" t="s">
         <v>110</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>111</v>
       </c>
-      <c r="AB22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>114</v>
-      </c>
       <c r="AD22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AH22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>126</v>
       </c>
-      <c r="AI22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>129</v>
-      </c>
       <c r="AK22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL22">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM22">
         <v>75</v>
@@ -2899,84 +2866,13 @@
         <v>140</v>
       </c>
       <c r="AP22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AQ22" t="s">
         <v>132</v>
       </c>
-      <c r="AR22" t="s">
-        <v>137</v>
-      </c>
       <c r="AS22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23">
-        <v>4500</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23">
-        <v>2388</v>
-      </c>
-      <c r="S23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL23">
-        <v>70</v>
-      </c>
-      <c r="AM23">
-        <v>75</v>
-      </c>
-      <c r="AN23">
-        <v>140</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AQ23" t="s">
         <v>135</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3019,12 +2915,10 @@
     <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FE22D-06E0-408E-87C2-D656678CE66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC4EC89-AAA6-4A7D-9F64-29E5814A992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
   <si>
     <t>Address</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Стол компьютерный офисный</t>
+  </si>
+  <si>
+    <t>Ресепшн</t>
   </si>
   <si>
     <t xml:space="preserve">Офисный стол на два рабочих места
@@ -750,6 +753,118 @@
     </t>
   </si>
   <si>
+    <t>Стол компьютерный
+Артикул (2406)
+Стильный и функциональный компьютерный стол цвета орех — идеальное решение для офиса или домашнего рабочего пространства. Благодаря продуманной конструкции, стол сочетает элегантный дизайн с практичностью.
+Основные особенности:
+Выдвижная полка для клавиатуры, которая экономит место на столешнице и обеспечивает комфорт при работе.
+Подставка для системного блока, расположенная в удобной зоне, чтобы сохранить доступ к оборудованию и защитить от внешнего воздействия
+Размеры ДхШхВ: 120х63х75
+Цвет орех
+Цена 4 000 руб
+Количество 2
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ресепшн
+Артикул 2403
+Просторный и стильный ресепшен цвета орех с металлическими вставками — это идеальное сочетание современного дизайна, функциональности и комфорта. Он создан, чтобы подчеркнуть профессионализм вашей компании и обеспечить удобство для сотрудников и посетителей.
+Преимущества:
+- Большой размер: предоставляет достаточно пространства для работы нескольких сотрудников одновременно.
+- Металлические вставки: придают стойке современный и презентабельный вид.
+- Столы с отверстиями для проводов: помогают поддерживать порядок, упрощая подключение техники.
+- Внутренние полки: удобное хранение документов, канцелярии и личных вещей
+Размер ДхШхВ: 140х33х120 - 2 секции
+120х33х120 - 1
+100х33х120 - 1
+140х40х76 - 2 стола
+80х40х76 - 1 стол
+Цвет орех
+Цена: 10 000 за секцию
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Ресепшн
+Артикул 2402
+Компактный и функциональный ресепшен Б/У — идеальное решение для небольшого офиса или приемной. Этот недорогой вариант сочетает в себе практичность и аккуратный внешний вид, создавая комфортное рабочее пространство даже в условиях ограниченного места.
+Преимущества:
+- Небольшие габариты: легко впишется даже в самое компактное помещение.
+- Удобный стол: предоставляет достаточно пространства для работы с документами и техникой.
+- Полка для канцелярии: позволяет удобно организовать хранение офисных принадлежностей.
+- Доступная цена: экономия бюджета без ущерба для функциональности.
+Размеры ДхШхВ: 150х70х75
+Полная высота 115
+Цвет ольха 
+Цена 5 000
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Артикул (2405)
+Акция! Скидка - 60%
+Новые столы с перегородками всего за 1499 руб. 
+Размеры ДхШхВ: 72х60х125
+В наличии - 5шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
   </si>
   <si>
@@ -813,6 +928,18 @@
     <t>https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/4LayF23aQkTfEg | https://disk.yandex.ru/i/X6ktGGwQYIQJ2w | https://disk.yandex.ru/i/8oIhCY14I2l_iA | https://disk.yandex.ru/i/cPoCF322w2NktA | https://disk.yandex.ru/i/WQG2Aw1jYMH-4g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CmEk-NECdwHB8w | https://disk.yandex.ru/i/q1G5qvIrqPC9IA | https://disk.yandex.ru/i/3l46czErhki8ew | https://disk.yandex.ru/i/RVzEhNjI-JrmDQ | https://disk.yandex.ru/i/xwXN3y4xXXlm1w | https://disk.yandex.ru/i/0yyml94uKUfR4A</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -904,6 +1031,12 @@
   </si>
   <si>
     <t>Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>Кабинет | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>Стол с перегородкой офисный</t>
   </si>
 </sst>
 </file>
@@ -998,9 +1131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1038,9 +1171,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1073,9 +1206,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1108,9 +1258,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1284,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS22"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,49 +1601,49 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>19999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K2">
         <v>2137</v>
       </c>
       <c r="S2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AH2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1488,13 +1655,13 @@
         <v>160</v>
       </c>
       <c r="AP2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AS2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1502,49 +1669,49 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>3499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>2132</v>
       </c>
       <c r="S3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AH3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1556,13 +1723,13 @@
         <v>110</v>
       </c>
       <c r="AP3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AS3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1570,49 +1737,49 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>2799</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K4">
         <v>2115</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AH4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1624,13 +1791,13 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AS4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1638,49 +1805,49 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AH5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1692,13 +1859,13 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AS5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1706,49 +1873,49 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>3499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AH6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL6">
         <v>50</v>
@@ -1760,16 +1927,16 @@
         <v>120</v>
       </c>
       <c r="AP6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AR6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AS6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1777,49 +1944,49 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>3999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1831,13 +1998,13 @@
         <v>116</v>
       </c>
       <c r="AP7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AS7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -1845,49 +2012,49 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>1499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AH8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL8">
         <v>60</v>
@@ -1899,13 +2066,13 @@
         <v>72</v>
       </c>
       <c r="AP8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AS8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -1913,49 +2080,49 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>2499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>1691</v>
       </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB9" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AH9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL9">
         <v>73</v>
@@ -1967,13 +2134,13 @@
         <v>90</v>
       </c>
       <c r="AP9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AS9" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -1981,49 +2148,49 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>5999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AC10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AH10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL10">
         <v>120</v>
@@ -2035,13 +2202,13 @@
         <v>120</v>
       </c>
       <c r="AP10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AS10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2049,52 +2216,52 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>4999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>2284</v>
       </c>
       <c r="S11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AF11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AH11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL11">
         <v>80</v>
@@ -2106,13 +2273,13 @@
         <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AS11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2120,52 +2287,52 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <v>2282</v>
       </c>
       <c r="S12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE12" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AH12" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AJ12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2177,13 +2344,13 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AS12" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2191,52 +2358,52 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>4000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K13">
         <v>2286</v>
       </c>
       <c r="S13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD13" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE13" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AH13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2248,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="AP13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AS13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2262,52 +2429,52 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>4000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K14">
         <v>2895</v>
       </c>
       <c r="S14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AH14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ14" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2319,13 +2486,13 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ14" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AS14" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -2333,49 +2500,49 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>6000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K15">
         <v>2351</v>
       </c>
       <c r="S15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA15" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB15" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC15" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AH15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2387,13 +2554,13 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ15" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AS15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -2401,49 +2568,49 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16">
         <v>20000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>2350</v>
       </c>
       <c r="S16" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA16" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB16" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AH16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL16">
         <v>162</v>
@@ -2455,13 +2622,13 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ16" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AS16" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
@@ -2469,49 +2636,49 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17">
         <v>5999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>2345</v>
       </c>
       <c r="S17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA17" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD17" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE17" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AH17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ17" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2523,13 +2690,13 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ17" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AS17" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
@@ -2537,49 +2704,49 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18">
         <v>10000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <v>2346</v>
       </c>
       <c r="S18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA18" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB18" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC18" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD18" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AH18" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2591,13 +2758,13 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AQ18" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AS18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
@@ -2605,49 +2772,49 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19">
         <v>30000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA19" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB19" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC19" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD19" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE19" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AH19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ19" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL19">
         <v>86</v>
@@ -2659,13 +2826,13 @@
         <v>185</v>
       </c>
       <c r="AP19" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AQ19" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AS19" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="4:45" x14ac:dyDescent="0.25">
@@ -2673,49 +2840,49 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20">
         <v>25000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA20" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB20" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC20" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD20" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE20" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AH20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI20" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK20" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL20">
         <v>86</v>
@@ -2727,13 +2894,13 @@
         <v>150</v>
       </c>
       <c r="AP20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AQ20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AS20" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="4:45" x14ac:dyDescent="0.25">
@@ -2741,49 +2908,49 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>6000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K21">
         <v>2391</v>
       </c>
       <c r="S21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA21" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB21" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC21" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD21" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE21" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AH21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI21" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL21">
         <v>60</v>
@@ -2795,16 +2962,16 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AQ21" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AR21" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AS21" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="4:45" x14ac:dyDescent="0.25">
@@ -2812,49 +2979,49 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22">
         <v>4500</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K22">
         <v>2388</v>
       </c>
       <c r="S22" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AA22" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AB22" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AC22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AD22" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE22" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AH22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI22" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AJ22" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AL22">
         <v>70</v>
@@ -2866,13 +3033,285 @@
         <v>140</v>
       </c>
       <c r="AP22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23">
+        <v>2406</v>
+      </c>
+      <c r="S23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL23">
+        <v>63</v>
+      </c>
+      <c r="AM23">
+        <v>75</v>
+      </c>
+      <c r="AN23">
+        <v>120</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24">
+        <v>2403</v>
+      </c>
+      <c r="S24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL24">
+        <v>33</v>
+      </c>
+      <c r="AM24">
+        <v>120</v>
+      </c>
+      <c r="AN24">
+        <v>140</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25">
+        <v>2402</v>
+      </c>
+      <c r="S25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE25" t="s">
         <v>129</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AH25" t="s">
         <v>132</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AI25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>135</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL25">
+        <v>70</v>
+      </c>
+      <c r="AM25">
+        <v>75</v>
+      </c>
+      <c r="AN25">
+        <v>150</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>1499</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26">
+        <v>2405</v>
+      </c>
+      <c r="S26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL26">
+        <v>60</v>
+      </c>
+      <c r="AM26">
+        <v>125</v>
+      </c>
+      <c r="AN26">
+        <v>72</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2915,10 +3354,18 @@
     <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC4EC89-AAA6-4A7D-9F64-29E5814A992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7EED7-CBF7-4E19-AADF-3A7843636C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,149 +157,67 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>Стол письменный</t>
+  </si>
+  <si>
+    <t>Стол для колл центра</t>
+  </si>
+  <si>
+    <t>Стол офисный для колл центра</t>
+  </si>
+  <si>
+    <t>Офисный стол с перегородкой</t>
+  </si>
+  <si>
+    <t>Стол кухонный со стульями</t>
+  </si>
+  <si>
+    <t>Старинный кухонный стол со стульями</t>
+  </si>
+  <si>
+    <t>Стол офисный</t>
+  </si>
+  <si>
+    <t>Стол офисный прямой</t>
+  </si>
+  <si>
+    <t>Офисный стол прямой</t>
+  </si>
+  <si>
+    <t>Стол офисный белый</t>
+  </si>
+  <si>
     <t>Офисный стол</t>
   </si>
   <si>
-    <t>Стол офисный белый</t>
-  </si>
-  <si>
-    <t>Офисный стол прямой</t>
-  </si>
-  <si>
-    <t>Стол офисный прямой</t>
-  </si>
-  <si>
-    <t>Стол письменный</t>
-  </si>
-  <si>
-    <t>Стол для колл центра</t>
-  </si>
-  <si>
-    <t>Стол офисный для колл центра</t>
-  </si>
-  <si>
-    <t>Стол офисный</t>
-  </si>
-  <si>
-    <t>Офисный стол с перегородкой</t>
+    <t>Стол прямой офисный</t>
   </si>
   <si>
     <t>Стол офисный компьютерный</t>
   </si>
   <si>
-    <t>Стол прямой офисный</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол офисный с перегородкой </t>
   </si>
   <si>
+    <t>Стол компьютерный</t>
+  </si>
+  <si>
+    <t>Двойной стол офисный</t>
+  </si>
+  <si>
+    <t>Стол компьютерный офисный</t>
+  </si>
+  <si>
+    <t>Стол прямой</t>
+  </si>
+  <si>
+    <t>Ресепшн</t>
+  </si>
+  <si>
+    <t>Стол с перегородкой офисный</t>
+  </si>
+  <si>
     <t xml:space="preserve">Стол офисный прямой </t>
-  </si>
-  <si>
-    <t>Двойной стол офисный</t>
-  </si>
-  <si>
-    <t>Стол компьютерный</t>
-  </si>
-  <si>
-    <t>Старинный кухонный стол со стульями</t>
-  </si>
-  <si>
-    <t>Стол кухонный со стульями</t>
-  </si>
-  <si>
-    <t>Стол прямой</t>
-  </si>
-  <si>
-    <t>Стол компьютерный офисный</t>
-  </si>
-  <si>
-    <t>Ресепшн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стол на два рабочих места
-Артикул 2137
-Описание Офисный стол - бенч система. Стол новый в идеальном состоянии сочетает в себе изысканный вид и высокую функциональность. Имеет перегородку и отверстия для проводов, чтобы поддерживать порядок и организованность на вашем рабочем столе. Просим заметить, что имеются перегородки разный видов: стеклянные, пластиковые, и обшитые тканью. Так же к столам можем подобрать тумбы на колесиках и шкафы для документов
-Размеры ДхШ: 160х80
-Цвет белый
-Цена 20 000 руб 
-Количество 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.
-</t>
-  </si>
-  <si>
-    <t>Артикул 2132
-Представляем вашему вниманию белоснежный офисный стол. Этот стол - идеальное решение для создания светлого и элегантного рабочего уголка как дома, так и в офисе.
-  Он отлично подчеркнет ваш хороший вкус и будет очень удобен в использовании.
-  Офисный стол с отверстием для компьютерных проводов, обеспечит аккуратность и порядок на вашем рабочем месте, что позволит вам сосредоточиться на важных задачах.
-  Кроме того, у нас имеется широкий выбор белых тумб различных видов, которые идеально дополнят ваше рабочее пространство, обеспечивая дополнительное хранение и организацию.
-Размер 109х60
-Цвет белый
-Цена 3500
-Количество 24Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Прямой стол
-Артикул 2115
-Описание Офисный стол размером 90х60 см - это оптимальное решение для создания функционального и стильного рабочего места. 
-  Удобное отверстие для компьютерных проводов делает этот стол более практичным и организованным, позволяя вам легко управлять кабельным хаосом и сохранять чистоту на вашем рабочем месте.
-Размеры ДхШ: 90х60
-Цвет: груша 
-Цена: 2800
-Количество: 16, 9-шт нога с отверстием для проводов82edited 16:47
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол офисный прямой
-Артикул 2066(67)
-Описание: Столы бу для офиса и дома в хорошем состоянии
-Размер: 140х80
-Цена: 4000
-Наличие: более 2 шт.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>Стол компьютерный ikea
@@ -383,28 +301,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Артикул 1691
-У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. В наличии более 300 столов, которые хранятся на складе в разобранном виде. Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. К столам можем подобрать тумбы, кресла и шкафы.
-Размер. 90х73
-Цвет: орех
-Цена: 2499
-Количество 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Офисный стол на два рабочих места
 Описание
 Размеры ДхШхВ: 123х120х75
@@ -426,6 +322,191 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол кухонный со стульями
+Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
+В комплекте идут 4 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
+Размеры ДхШхВ: 150х86х76, в сложенном состоянии д. 120
+Цвет: тёмный орех - глянец
+Цена: 25 000.
+Количество: 6
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Старинный кухонный стол со стульями
+Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
+В комплекте идут 6 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
+Размеры ДхШхВ: 185х86х76, в сложенном состоянии д. 140
+Цвет: тёмный орех - глянец
+Цена: 30 000
+Количество: 3
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Артикул 1691
+У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. В наличии более 300 столов, которые хранятся на складе в разобранном виде. Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. К столам можем подобрать тумбы, кресла и шкафы.
+Размер. 90х73
+Цвет: орех
+Цена: 2499
+Количество 1
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол офисный прямой
+Артикул 2066(67)
+Описание: Столы бу для офиса и дома в хорошем состоянии
+Размер: 140х80
+Цена: 4000
+Наличие: более 2 шт.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Прямой стол
+Артикул 2115
+Описание Офисный стол размером 90х60 см - это оптимальное решение для создания функционального и стильного рабочего места. 
+  Удобное отверстие для компьютерных проводов делает этот стол более практичным и организованным, позволяя вам легко управлять кабельным хаосом и сохранять чистоту на вашем рабочем месте.
+Размеры ДхШ: 90х60
+Цвет: груша 
+Цена: 2800
+Количество: 16, 9-шт нога с отверстием для проводов82edited 16:47
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Артикул 2132
+Представляем вашему вниманию белоснежный офисный стол. Этот стол - идеальное решение для создания светлого и элегантного рабочего уголка как дома, так и в офисе.
+  Он отлично подчеркнет ваш хороший вкус и будет очень удобен в использовании.
+  Офисный стол с отверстием для компьютерных проводов, обеспечит аккуратность и порядок на вашем рабочем месте, что позволит вам сосредоточиться на важных задачах.
+  Кроме того, у нас имеется широкий выбор белых тумб различных видов, которые идеально дополнят ваше рабочее пространство, обеспечивая дополнительное хранение и организацию.
+Размер 109х60
+Цвет белый
+Цена 3500
+Количество 24Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисный стол на два рабочих места
+Артикул 2137
+Описание Офисный стол - бенч система. Стол новый в идеальном состоянии сочетает в себе изысканный вид и высокую функциональность. Имеет перегородку и отверстия для проводов, чтобы поддерживать порядок и организованность на вашем рабочем столе. Просим заметить, что имеются перегородки разный видов: стеклянные, пластиковые, и обшитые тканью. Так же к столам можем подобрать тумбы на колесиках и шкафы для документов
+Размеры ДхШ: 160х80
+Цвет белый
+Цена 20 000 руб 
+Количество 1
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол прямой офисный
+Артикул 2282
+Описание Предлагаем стильный компьютерный стол цвета сосны, который идеально впишется в любой современный интерьер. Его металлические ножки обеспечивают прочность и устойчивость, создавая гармоничное сочетание природной теплоты древесины и индустриального стиля.
+Стол оснащен удобным отверстием для проводов, что позволяет аккуратно организовать рабочее пространство, избавляя вас от беспорядка на столе. Просторная поверхность стола обеспечивает комфортное размещение всей необходимой техники и аксессуаров, делая работу за компьютером максимально удобной и приятной.
+Размеры ДхШхВ: 160х80х74
+Цвет: сосна
+Цена: 15 000 руб.
+Количество: 6 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+                 ➕ При поиске нас в навигаторе наберите – 
+                 Офис комфорт Одинцово 
+                 ➕ Наш телеграмм канал – office comfort es
+                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+                 -------------------------------------------------------------------
+                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+                 Можем укомплектовать 100-200 рабочих мест.
+                 </t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный компьютерный
@@ -454,32 +535,6 @@
     Работаем уже 6 лет, развиваясь и улучшая сервисный центр
     Можем укомплектовать 100-200 рабочих мест.
     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол прямой офисный
-Артикул 2282
-Описание Предлагаем стильный компьютерный стол цвета сосны, который идеально впишется в любой современный интерьер. Его металлические ножки обеспечивают прочность и устойчивость, создавая гармоничное сочетание природной теплоты древесины и индустриального стиля.
-Стол оснащен удобным отверстием для проводов, что позволяет аккуратно организовать рабочее пространство, избавляя вас от беспорядка на столе. Просторная поверхность стола обеспечивает комфортное размещение всей необходимой техники и аксессуаров, делая работу за компьютером максимально удобной и приятной.
-Размеры ДхШхВ: 160х80х74
-Цвет: сосна
-Цена: 15 000 руб.
-Количество: 6 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный с перегородкой 
@@ -511,29 +566,83 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Стол офисный прямой 
-Артикул (2895)
-Представляем стильный офисный стол французского производства, который станет настоящим акцентом вашего рабочего пространства. Элегантная рыжая столешница, выполненная из высококачественных материалов, придаёт интерьеру тепло и изысканность. Прочные металлические ноги добавляют контраста и современного шарма, обеспечивая стабильность и долговечность. Этот стол идеально сочетает в себе презентабильность и функциональность, подойдёт как для домашнего кабинета, так и для стильного офиса. Эргономичный дизайн и продуманные детали делают работу за ним максимально комфортной
-Размер 120х80х75
-Цвет: рыжий
-Цена: 4000 за 1 шт.
-Количество: 5 шт.
+    <t>Стол компьютерный
+Артикул 2345
+компьютерный стол цвета сосны на прочных металлических ножках. Стол идеально подходит для продуктивной работы как в офисе, так и дома. Встроенное отверстие для проводов помогает организовать рабочее пространство, обеспечивая аккуратное размещение техники и аксессуаров.
+Металлические ножки придают столу прочность и устойчивость, а просторная столешница позволяет удобно разместить всё необходимое для работы.
+Размеры ДхШхВ: 160х80х72
+Цвет: сосна 
+Цена: 5999 руб
+Количество: 24
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
     К столам можем подобрать тумбы, кресла и шкафы.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол прямой офисный
+Артикул 2346
+Современный офисный компьютерный стол на прочных металлических ножках цвета дуб Сонома. Этот стильный и практичный стол идеально подойдет для работы как в офисе, так и дома. Просторная столешница позволяет удобно разместить технику и аксессуары, а металлические ножки обеспечивают устойчивость и долговечность.
+Кроме того, к столу можно подобрать полный комплект мебели в едином стиле: эргономичные кресла, вместительные тумбы и стильные шкафы для хранения документов. Превратите свое рабочее пространство в комфортное и современное место для продуктивной работы!
+Размеры ДхШхВ: 160х80х75
+Цвет дуб Сонома
+Цена 10 000
+Количество 8
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Двойной стол офисный
+Артикул (2350)
+Двойной офисный стол с перегородкой — идеальное решение для организации рабочих мест в современном офисе. Стол оснащен прочными металлическими ножками, которые обеспечивают надежность и устойчивость конструкции. Перегородка между рабочими местами создаёт личное пространство для каждого сотрудника, способствуя продуктивной работе.
+Встроенные отверстия для проводов позволяют аккуратно скрыть все кабели, обеспечивая порядок и чистоту на рабочем месте. Просторная столешница и эргономичный дизайн делают этот стол удобным и практичным для повседневного использования.
+Размеры ДхШхВ: 160х162х74
+Цвет: сандаловое дерево
+Цена: 20 000 руб 
+Количество: 1 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный прямой
@@ -565,116 +674,13 @@
     </t>
   </si>
   <si>
-    <t>Двойной стол офисный
-Артикул (2350)
-Двойной офисный стол с перегородкой — идеальное решение для организации рабочих мест в современном офисе. Стол оснащен прочными металлическими ножками, которые обеспечивают надежность и устойчивость конструкции. Перегородка между рабочими местами создаёт личное пространство для каждого сотрудника, способствуя продуктивной работе.
-Встроенные отверстия для проводов позволяют аккуратно скрыть все кабели, обеспечивая порядок и чистоту на рабочем месте. Просторная столешница и эргономичный дизайн делают этот стол удобным и практичным для повседневного использования.
-Размеры ДхШхВ: 160х162х74
-Цвет: сандаловое дерево
-Цена: 20 000 руб 
-Количество: 1 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стол компьютерный
-Артикул 2345
-компьютерный стол цвета сосны на прочных металлических ножках. Стол идеально подходит для продуктивной работы как в офисе, так и дома. Встроенное отверстие для проводов помогает организовать рабочее пространство, обеспечивая аккуратное размещение техники и аксессуаров.
-Металлические ножки придают столу прочность и устойчивость, а просторная столешница позволяет удобно разместить всё необходимое для работы.
-Размеры ДхШхВ: 160х80х72
-Цвет: сосна 
-Цена: 5999 руб
-Количество: 24
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол прямой офисный
-Артикул 2346
-Современный офисный компьютерный стол на прочных металлических ножках цвета дуб Сонома. Этот стильный и практичный стол идеально подойдет для работы как в офисе, так и дома. Просторная столешница позволяет удобно разместить технику и аксессуары, а металлические ножки обеспечивают устойчивость и долговечность.
-Кроме того, к столу можно подобрать полный комплект мебели в едином стиле: эргономичные кресла, вместительные тумбы и стильные шкафы для хранения документов. Превратите свое рабочее пространство в комфортное и современное место для продуктивной работы!
-Размеры ДхШхВ: 160х80х75
-Цвет дуб Сонома
-Цена 10 000
-Количество 8
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t>Старинный кухонный стол со стульями
-Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
-В комплекте идут 6 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
-Размеры ДхШхВ: 185х86х76, в сложенном состоянии д. 140
-Цвет: тёмный орех - глянец
-Цена: 30 000
-Количество: 3
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол кухонный со стульями
-Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
-В комплекте идут 4 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
-Размеры ДхШхВ: 150х86х76, в сложенном состоянии д. 120
-Цвет: тёмный орех - глянец
-Цена: 25 000.
-Количество: 6
+    <t xml:space="preserve">Стол компьютерный офисный
+Артикул 2388
+Поднимите свой офисный интерьер на новый уровень с нашими элитными белыми офисными столами большого размера. Изысканный дизайн в сочетании с функциональностью - идеальное решение для современного бизнес-пространства. Наши столы оснащены отверстием для компьютерных проводов, обеспечивая порядок и организованность вашего рабочего места. Прочные металлические ноги обеспечивают надежную поддержку и долговечность. Подчеркните свой профессионализм с элитными офисными столами, которые сочетают в себе стиль, комфорт и функциональность.
+Размеры ДхШхВ: 140х70х75
+Цвет бежевый
+Цена 4 500 - 5 000 руб
+Количество 17
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
@@ -725,44 +731,19 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Стол компьютерный офисный
-Артикул 2388
-Поднимите свой офисный интерьер на новый уровень с нашими элитными белыми офисными столами большого размера. Изысканный дизайн в сочетании с функциональностью - идеальное решение для современного бизнес-пространства. Наши столы оснащены отверстием для компьютерных проводов, обеспечивая порядок и организованность вашего рабочего места. Прочные металлические ноги обеспечивают надежную поддержку и долговечность. Подчеркните свой профессионализм с элитными офисными столами, которые сочетают в себе стиль, комфорт и функциональность.
-Размеры ДхШхВ: 140х70х75
-Цвет бежевый
-Цена 4 500 - 5 000 руб
-Количество 17
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t>Стол компьютерный
-Артикул (2406)
-Стильный и функциональный компьютерный стол цвета орех — идеальное решение для офиса или домашнего рабочего пространства. Благодаря продуманной конструкции, стол сочетает элегантный дизайн с практичностью.
-Основные особенности:
-Выдвижная полка для клавиатуры, которая экономит место на столешнице и обеспечивает комфорт при работе.
-Подставка для системного блока, расположенная в удобной зоне, чтобы сохранить доступ к оборудованию и защитить от внешнего воздействия
-Размеры ДхШхВ: 120х63х75
-Цвет орех
-Цена 4 000 руб
-Количество 2
+    <t>Ресепшн
+Артикул 2402
+Компактный и функциональный ресепшен Б/У — идеальное решение для небольшого офиса или приемной. Этот недорогой вариант сочетает в себе практичность и аккуратный внешний вид, создавая комфортное рабочее пространство даже в условиях ограниченного места.
+Преимущества:
+- Небольшие габариты: легко впишется даже в самое компактное помещение.
+- Удобный стол: предоставляет достаточно пространства для работы с документами и техникой.
+- Полка для канцелярии: позволяет удобно организовать хранение офисных принадлежностей.
+- Доступная цена: экономия бюджета без ущерба для функциональности.
+Размеры ДхШхВ: 150х70х75
+Полная высота 115
+Цвет ольха 
+Цена 5 000
+Количество 1
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
@@ -815,35 +796,6 @@
     </t>
   </si>
   <si>
-    <t>Ресепшн
-Артикул 2402
-Компактный и функциональный ресепшен Б/У — идеальное решение для небольшого офиса или приемной. Этот недорогой вариант сочетает в себе практичность и аккуратный внешний вид, создавая комфортное рабочее пространство даже в условиях ограниченного места.
-Преимущества:
-- Небольшие габариты: легко впишется даже в самое компактное помещение.
-- Удобный стол: предоставляет достаточно пространства для работы с документами и техникой.
-- Полка для канцелярии: позволяет удобно организовать хранение офисных принадлежностей.
-- Доступная цена: экономия бюджета без ущерба для функциональности.
-Размеры ДхШхВ: 150х70х75
-Полная высота 115
-Цвет ольха 
-Цена 5 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Артикул (2405)
 Акция! Скидка - 60%
 Новые столы с перегородками всего за 1499 руб. 
@@ -865,81 +817,132 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Стол компьютерный
+Артикул (2406)
+Стильный и функциональный компьютерный стол цвета орех — идеальное решение для офиса или домашнего рабочего пространства. Благодаря продуманной конструкции, стол сочетает элегантный дизайн с практичностью.
+Основные особенности:
+Выдвижная полка для клавиатуры, которая экономит место на столешнице и обеспечивает комфорт при работе.
+Подставка для системного блока, расположенная в удобной зоне, чтобы сохранить доступ к оборудованию и защитить от внешнего воздействия
+Размеры ДхШхВ: 120х63х75
+Цвет орех
+Цена 4 000 руб
+Количество 2
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный прямой 
+Артикул (2895)
+Представляем стильный офисный стол французского производства, который станет настоящим акцентом вашего рабочего пространства. Элегантная рыжая столешница, выполненная из высококачественных материалов, придаёт интерьеру тепло и изысканность. Прочные металлические ноги добавляют контраста и современного шарма, обеспечивая стабильность и долговечность. Этот стол идеально сочетает в себе презентабильность и функциональность, подойдёт как для домашнего кабинета, так и для стильного офиса. Эргономичный дизайн и продуманные детали делают работу за ним максимально комфортной
+Размер 120х80х75
+Цвет: рыжий
+Цена: 4000 за 1 шт.
+Количество: 5 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+                 ➕ При поиске нас в навигаторе наберите – 
+                 Офис комфорт Одинцово 
+                 ➕ Наш телеграмм канал – office comfort es
+                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+                 -------------------------------------------------------------------
+                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+                 Можем укомплектовать 100-200 рабочих мест.
+                 </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UVtMjoIUjQb_GA | https://disk.yandex.ru/i/AjpyelxFKRLKyA | https://disk.yandex.ru/i/IsAorN-UJb_eDw | https://disk.yandex.ru/i/y-O6o-WaD3SAdA | https://disk.yandex.ru/i/Bp1PVANaPOxvXA | https://disk.yandex.ru/i/_SgJaxYM2A4qOg | https://disk.yandex.ru/i/x0Xbo35IV0wX9A | https://disk.yandex.ru/i/wUxSC1YtyrPGuQ | https://disk.yandex.ru/i/irT74aOCSg8m6g | https://disk.yandex.ru/i/bt8IQuFQ1L8Stg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
+    <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/vljEK3nQIpU-9Q | https://disk.yandex.ru/i/L3PnXj5PPBqPdA | https://disk.yandex.ru/i/PmIIBoVTOrdBGQ | https://disk.yandex.ru/i/xxPw5Um0HowVcw | https://disk.yandex.ru/i/fzkj79hyMTF7oA | https://disk.yandex.ru/i/1pWXG9CNh3WikA | https://disk.yandex.ru/i/K7veqWdykuYrjw | https://disk.yandex.ru/i/XVmovTSRQqA9OA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/4LayF23aQkTfEg | https://disk.yandex.ru/i/X6ktGGwQYIQJ2w | https://disk.yandex.ru/i/8oIhCY14I2l_iA | https://disk.yandex.ru/i/cPoCF322w2NktA | https://disk.yandex.ru/i/WQG2Aw1jYMH-4g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CmEk-NECdwHB8w | https://disk.yandex.ru/i/q1G5qvIrqPC9IA | https://disk.yandex.ru/i/3l46czErhki8ew | https://disk.yandex.ru/i/RVzEhNjI-JrmDQ | https://disk.yandex.ru/i/xwXN3y4xXXlm1w | https://disk.yandex.ru/i/0yyml94uKUfR4A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/9AnFfKNR3cXQiA | https://disk.yandex.ru/i/oO50EO6Fthn1Iw | https://disk.yandex.ru/i/6AbOt9nEbSSzew | https://disk.yandex.ru/i/y_qlVUsAAuJppg | https://disk.yandex.ru/i/jizF6SSxYpyhjw | https://disk.yandex.ru/i/9ZTHLxi5DUoavw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/vljEK3nQIpU-9Q | https://disk.yandex.ru/i/L3PnXj5PPBqPdA | https://disk.yandex.ru/i/PmIIBoVTOrdBGQ | https://disk.yandex.ru/i/xxPw5Um0HowVcw | https://disk.yandex.ru/i/fzkj79hyMTF7oA | https://disk.yandex.ru/i/1pWXG9CNh3WikA | https://disk.yandex.ru/i/K7veqWdykuYrjw | https://disk.yandex.ru/i/XVmovTSRQqA9OA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/UVtMjoIUjQb_GA | https://disk.yandex.ru/i/AjpyelxFKRLKyA | https://disk.yandex.ru/i/IsAorN-UJb_eDw | https://disk.yandex.ru/i/y-O6o-WaD3SAdA | https://disk.yandex.ru/i/Bp1PVANaPOxvXA | https://disk.yandex.ru/i/_SgJaxYM2A4qOg | https://disk.yandex.ru/i/x0Xbo35IV0wX9A | https://disk.yandex.ru/i/wUxSC1YtyrPGuQ | https://disk.yandex.ru/i/irT74aOCSg8m6g | https://disk.yandex.ru/i/bt8IQuFQ1L8Stg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/4LayF23aQkTfEg | https://disk.yandex.ru/i/X6ktGGwQYIQJ2w | https://disk.yandex.ru/i/8oIhCY14I2l_iA | https://disk.yandex.ru/i/cPoCF322w2NktA | https://disk.yandex.ru/i/WQG2Aw1jYMH-4g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/CmEk-NECdwHB8w | https://disk.yandex.ru/i/q1G5qvIrqPC9IA | https://disk.yandex.ru/i/3l46czErhki8ew | https://disk.yandex.ru/i/RVzEhNjI-JrmDQ | https://disk.yandex.ru/i/xwXN3y4xXXlm1w | https://disk.yandex.ru/i/0yyml94uKUfR4A</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -961,33 +964,33 @@
     <t>В наличии</t>
   </si>
   <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
     <t>Белый</t>
   </si>
   <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
     <t>Серый</t>
   </si>
   <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Рыжий</t>
   </si>
   <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Сосна</t>
   </si>
   <si>
@@ -1034,9 +1037,6 @@
   </si>
   <si>
     <t>Кабинет | Бар/Кафе</t>
-  </si>
-  <si>
-    <t>Стол с перегородкой офисный</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,67 +1601,70 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2">
-        <v>19999</v>
+        <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K2">
-        <v>2137</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AM2">
         <v>75</v>
       </c>
       <c r="AN2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ2" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>143</v>
       </c>
       <c r="AS2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -1669,67 +1672,67 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>3499</v>
+        <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K3">
-        <v>2132</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL3">
+        <v>80</v>
+      </c>
+      <c r="AM3">
+        <v>75</v>
+      </c>
+      <c r="AN3">
         <v>116</v>
       </c>
-      <c r="AA3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL3">
-        <v>60</v>
-      </c>
-      <c r="AM3">
-        <v>73</v>
-      </c>
-      <c r="AN3">
-        <v>110</v>
-      </c>
       <c r="AP3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -1737,49 +1740,49 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>2799</v>
+        <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4">
-        <v>2115</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE4" t="s">
         <v>123</v>
       </c>
       <c r="AH4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1788,16 +1791,16 @@
         <v>73</v>
       </c>
       <c r="AN4">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1805,67 +1808,67 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5">
-        <v>3999</v>
+        <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5">
-        <v>2066</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL5">
         <v>120</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL5">
-        <v>80</v>
       </c>
       <c r="AM5">
         <v>75</v>
       </c>
       <c r="AN5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AS5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -1873,70 +1876,67 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>3499</v>
+        <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE6" t="s">
         <v>125</v>
       </c>
       <c r="AH6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL6">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AM6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AS6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -1944,67 +1944,67 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7">
-        <v>3999</v>
+        <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL7">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AM7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN7">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -2012,67 +2012,67 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>1499</v>
+        <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>1691</v>
       </c>
       <c r="S8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE8" t="s">
         <v>125</v>
       </c>
       <c r="AH8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL8">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AM8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN8">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -2080,67 +2080,67 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9">
-        <v>2499</v>
+        <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K9">
-        <v>1691</v>
+        <v>2066</v>
       </c>
       <c r="S9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL9">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AM9">
         <v>75</v>
       </c>
       <c r="AN9">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -2148,67 +2148,67 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>5999</v>
+        <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2115</v>
       </c>
       <c r="S10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE10" t="s">
         <v>125</v>
       </c>
       <c r="AH10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s">
         <v>136</v>
       </c>
       <c r="AK10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AM10">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN10">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AS10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2216,70 +2216,67 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11">
-        <v>4999</v>
+        <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11">
-        <v>2284</v>
+        <v>2132</v>
       </c>
       <c r="S11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB11" t="s">
         <v>119</v>
       </c>
       <c r="AC11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AH11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI11" t="s">
         <v>134</v>
       </c>
       <c r="AJ11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN11">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AS11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2287,70 +2284,67 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12">
-        <v>15000</v>
+        <v>19999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K12">
-        <v>2282</v>
+        <v>2137</v>
       </c>
       <c r="S12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB12" t="s">
         <v>119</v>
       </c>
       <c r="AC12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AH12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI12" t="s">
         <v>134</v>
       </c>
       <c r="AJ12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL12">
         <v>80</v>
       </c>
       <c r="AM12">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN12">
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AS12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2358,70 +2352,70 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="S13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AH13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL13">
         <v>80</v>
       </c>
       <c r="AM13">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN13">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AS13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2429,407 +2423,410 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14">
-        <v>4000</v>
+        <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K14">
-        <v>2895</v>
+        <v>2284</v>
       </c>
       <c r="S14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AH14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL14">
         <v>80</v>
       </c>
       <c r="AM14">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN14">
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AS14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K15">
-        <v>2351</v>
+        <v>2286</v>
       </c>
       <c r="S15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE15" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>128</v>
       </c>
       <c r="AH15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL15">
         <v>80</v>
       </c>
       <c r="AM15">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN15">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AS15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16">
-        <v>20000</v>
+        <v>5999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K16">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="S16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AH16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s">
         <v>136</v>
       </c>
       <c r="AK16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL16">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM16">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN16">
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AS16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17">
-        <v>5999</v>
+        <v>10000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="S17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL17">
         <v>80</v>
       </c>
       <c r="AM17">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN17">
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AS17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="S18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AH18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL18">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AM18">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN18">
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AS18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2351</v>
       </c>
       <c r="S19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE19" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AH19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL19">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AM19">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN19">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="AP19" t="s">
         <v>139</v>
       </c>
       <c r="AQ19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS19" t="s">
         <v>145</v>
@@ -2840,64 +2837,64 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2388</v>
       </c>
       <c r="S20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AH20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL20">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="AM20">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN20">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP20" t="s">
         <v>139</v>
       </c>
       <c r="AQ20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS20" t="s">
         <v>145</v>
@@ -2908,49 +2905,49 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21">
         <v>6000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K21">
         <v>2391</v>
       </c>
       <c r="S21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AH21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL21">
         <v>60</v>
@@ -2962,16 +2959,16 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AQ21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AR21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AS21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="4:45" x14ac:dyDescent="0.25">
@@ -2979,49 +2976,49 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22">
-        <v>2388</v>
+        <v>2402</v>
       </c>
       <c r="S22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE22" t="s">
         <v>130</v>
       </c>
       <c r="AH22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL22">
         <v>70</v>
@@ -3030,84 +3027,84 @@
         <v>75</v>
       </c>
       <c r="AN22">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AP22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AS22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K23">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="S23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL23">
+        <v>33</v>
+      </c>
+      <c r="AM23">
         <v>120</v>
       </c>
-      <c r="AD23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL23">
-        <v>63</v>
-      </c>
-      <c r="AM23">
-        <v>75</v>
-      </c>
       <c r="AN23">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="4:45" x14ac:dyDescent="0.25">
@@ -3115,203 +3112,206 @@
         <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24">
-        <v>10000</v>
+        <v>1499</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K24">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="S24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AH24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL24">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="AM24">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AN24">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="AP24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F25">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K25">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="S25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AE25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AH25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AI25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL25">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AM25">
         <v>75</v>
       </c>
       <c r="AN25">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F26">
-        <v>1499</v>
+        <v>4000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K26">
-        <v>2405</v>
+        <v>2895</v>
       </c>
       <c r="S26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>80</v>
+      </c>
+      <c r="AM26">
+        <v>75</v>
+      </c>
+      <c r="AN26">
         <v>120</v>
       </c>
-      <c r="AD26" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL26">
-        <v>60</v>
-      </c>
-      <c r="AM26">
-        <v>125</v>
-      </c>
-      <c r="AN26">
-        <v>72</v>
-      </c>
       <c r="AP26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AQ26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AS26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7EED7-CBF7-4E19-AADF-3A7843636C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Address</t>
   </si>
@@ -157,70 +153,10 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Стол письменный</t>
-  </si>
-  <si>
-    <t>Стол для колл центра</t>
-  </si>
-  <si>
-    <t>Стол офисный для колл центра</t>
-  </si>
-  <si>
-    <t>Офисный стол с перегородкой</t>
-  </si>
-  <si>
-    <t>Стол кухонный со стульями</t>
-  </si>
-  <si>
-    <t>Старинный кухонный стол со стульями</t>
-  </si>
-  <si>
-    <t>Стол офисный</t>
-  </si>
-  <si>
-    <t>Стол офисный прямой</t>
-  </si>
-  <si>
-    <t>Офисный стол прямой</t>
-  </si>
-  <si>
-    <t>Стол офисный белый</t>
-  </si>
-  <si>
-    <t>Офисный стол</t>
-  </si>
-  <si>
-    <t>Стол прямой офисный</t>
-  </si>
-  <si>
-    <t>Стол офисный компьютерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный с перегородкой </t>
-  </si>
-  <si>
-    <t>Стол компьютерный</t>
-  </si>
-  <si>
-    <t>Двойной стол офисный</t>
-  </si>
-  <si>
-    <t>Стол компьютерный офисный</t>
-  </si>
-  <si>
-    <t>Стол прямой</t>
-  </si>
-  <si>
-    <t>Ресепшн</t>
-  </si>
-  <si>
-    <t>Стол с перегородкой офисный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный прямой </t>
-  </si>
-  <si>
-    <t>Стол компьютерный ikea
+    <t xml:space="preserve">Стол письменный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный ikea
 Описание: Корпусный стол с книжными полочками и выдвижным ящиком. Отлично подойдёт как для офиса так и для использования дома. На столе есть изъяны.
 Размер: 120х50
 Цвет: венге темный
@@ -242,7 +178,55 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Акция! Скидка -35%
+    <t xml:space="preserve">https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мебель и интерьер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Столы и стулья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В наличии</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Столы</t>
+  </si>
+  <si>
+    <t>Письменный</t>
+  </si>
+  <si>
+    <t>Прямоугольный</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тумба | Ящик</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол для колл центра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акция! Скидка -35%
 Бенч система - Столы для колл центра
 Модули можно разбить на несколько частей
 Колл ценр
@@ -281,7 +265,16 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Акция! Скидка - 60%
+    <t xml:space="preserve">https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный для колл центра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акция! Скидка - 60%
 Новые столы с перегородками всего за 1499 руб. 
 Ширина 72см. Глубина 60см, высота общая125
 В наличии - 7шт
@@ -301,7 +294,13 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Офисный стол на два рабочих места
+    <t xml:space="preserve">https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисный стол с перегородкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисный стол на два рабочих места
 Описание
 Размеры ДхШхВ: 123х120х75
 Цвет: венге
@@ -322,6 +321,18 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
+  </si>
+  <si>
+    <t>Квадратный</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол кухонный со стульями</t>
   </si>
   <si>
     <t xml:space="preserve">Стол кухонный со стульями
@@ -352,7 +363,25 @@
     </t>
   </si>
   <si>
-    <t>Старинный кухонный стол со стульями
+    <t xml:space="preserve">https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Старинный кухонный стол со стульями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Старинный кухонный стол со стульями
 Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
 В комплекте идут 6 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
 Размеры ДхШхВ: 185х86х76, в сложенном состоянии д. 140
@@ -376,7 +405,13 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Артикул 1691
+    <t xml:space="preserve">https://disk.yandex.ru/i/UVtMjoIUjQb_GA | https://disk.yandex.ru/i/AjpyelxFKRLKyA | https://disk.yandex.ru/i/IsAorN-UJb_eDw | https://disk.yandex.ru/i/y-O6o-WaD3SAdA | https://disk.yandex.ru/i/Bp1PVANaPOxvXA | https://disk.yandex.ru/i/_SgJaxYM2A4qOg | https://disk.yandex.ru/i/x0Xbo35IV0wX9A | https://disk.yandex.ru/i/wUxSC1YtyrPGuQ | https://disk.yandex.ru/i/irT74aOCSg8m6g | https://disk.yandex.ru/i/bt8IQuFQ1L8Stg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул 1691
 У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. В наличии более 300 столов, которые хранятся на складе в разобранном виде. Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. К столам можем подобрать тумбы, кресла и шкафы.
 Размер. 90х73
 Цвет: орех
@@ -398,7 +433,13 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стол офисный прямой
+    <t xml:space="preserve">https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный прямой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный прямой
 Артикул 2066(67)
 Описание: Столы бу для офиса и дома в хорошем состоянии
 Размер: 140х80
@@ -420,7 +461,16 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Прямой стол
+    <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисный стол прямой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прямой стол
 Артикул 2115
 Описание Офисный стол размером 90х60 см - это оптимальное решение для создания функционального и стильного рабочего места. 
   Удобное отверстие для компьютерных проводов делает этот стол более практичным и организованным, позволяя вам легко управлять кабельным хаосом и сохранять чистоту на вашем рабочем месте.
@@ -441,7 +491,13 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Артикул 2132
+    <t xml:space="preserve">https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный белый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул 2132
 Представляем вашему вниманию белоснежный офисный стол. Этот стол - идеальное решение для создания светлого и элегантного рабочего уголка как дома, так и в офисе.
   Он отлично подчеркнет ваш хороший вкус и будет очень удобен в использовании.
   Офисный стол с отверстием для компьютерных проводов, обеспечит аккуратность и порядок на вашем рабочем месте, что позволит вам сосредоточиться на важных задачах.
@@ -460,6 +516,15 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офисный стол</t>
   </si>
   <si>
     <t xml:space="preserve">Офисный стол на два рабочих места
@@ -481,6 +546,12 @@
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол прямой офисный</t>
   </si>
   <si>
     <t xml:space="preserve">Стол прямой офисный
@@ -507,6 +578,18 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сосна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Письменный | Кухонный | Барный | Журнальный | Другой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный компьютерный</t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный компьютерный
@@ -535,6 +618,12 @@
     Работаем уже 6 лет, развиваясь и улучшая сервисный центр
     Можем укомплектовать 100-200 рабочих мест.
     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный с перегородкой </t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный с перегородкой 
@@ -566,7 +655,16 @@
     </t>
   </si>
   <si>
-    <t>Стол компьютерный
+    <t xml:space="preserve">https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный
 Артикул 2345
 компьютерный стол цвета сосны на прочных металлических ножках. Стол идеально подходит для продуктивной работы как в офисе, так и дома. Встроенное отверстие для проводов помогает организовать рабочее пространство, обеспечивая аккуратное размещение техники и аксессуаров.
 Металлические ножки придают столу прочность и устойчивость, а просторная столешница позволяет удобно разместить всё необходимое для работы.
@@ -589,6 +687,12 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
   </si>
   <si>
     <t xml:space="preserve">Стол прямой офисный
@@ -620,7 +724,13 @@
     </t>
   </si>
   <si>
-    <t>Двойной стол офисный
+    <t xml:space="preserve">https://disk.yandex.ru/i/vljEK3nQIpU-9Q | https://disk.yandex.ru/i/L3PnXj5PPBqPdA | https://disk.yandex.ru/i/PmIIBoVTOrdBGQ | https://disk.yandex.ru/i/xxPw5Um0HowVcw | https://disk.yandex.ru/i/fzkj79hyMTF7oA | https://disk.yandex.ru/i/1pWXG9CNh3WikA | https://disk.yandex.ru/i/K7veqWdykuYrjw | https://disk.yandex.ru/i/XVmovTSRQqA9OA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двойной стол офисный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двойной стол офисный
 Артикул (2350)
 Двойной офисный стол с перегородкой — идеальное решение для организации рабочих мест в современном офисе. Стол оснащен прочными металлическими ножками, которые обеспечивают надежность и устойчивость конструкции. Перегородка между рабочими местами создаёт личное пространство для каждого сотрудника, способствуя продуктивной работе.
 Встроенные отверстия для проводов позволяют аккуратно скрыть все кабели, обеспечивая порядок и чистоту на рабочем месте. Просторная столешница и эргономичный дизайн делают этот стол удобным и практичным для повседневного использования.
@@ -643,6 +753,9 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный прямой
@@ -674,6 +787,15 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный офисный</t>
+  </si>
+  <si>
     <t xml:space="preserve">Стол компьютерный офисный
 Артикул 2388
 Поднимите свой офисный интерьер на новый уровень с нашими элитными белыми офисными столами большого размера. Изысканный дизайн в сочетании с функциональностью - идеальное решение для современного бизнес-пространства. Наши столы оснащены отверстием для компьютерных проводов, обеспечивая порядок и организованность вашего рабочего места. Прочные металлические ноги обеспечивают надежную поддержку и долговечность. Подчеркните свой профессионализм с элитными офисными столами, которые сочетают в себе стиль, комфорт и функциональность.
@@ -700,6 +822,12 @@
     Работаем уже 6 лет, развиваясь и улучшая сервисный центр
     Можем укомплектовать 100-200 рабочих мест.
     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол прямой</t>
   </si>
   <si>
     <t xml:space="preserve">Стол прямой
@@ -731,7 +859,19 @@
     </t>
   </si>
   <si>
-    <t>Ресепшн
+    <t xml:space="preserve">https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
+  </si>
+  <si>
+    <t>ЛДСП</t>
+  </si>
+  <si>
+    <t>Тумба</t>
+  </si>
+  <si>
+    <t>Ресепшн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ресепшн
 Артикул 2402
 Компактный и функциональный ресепшен Б/У — идеальное решение для небольшого офиса или приемной. Этот недорогой вариант сочетает в себе практичность и аккуратный внешний вид, создавая комфортное рабочее пространство даже в условиях ограниченного места.
 Преимущества:
@@ -758,6 +898,12 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/4LayF23aQkTfEg | https://disk.yandex.ru/i/X6ktGGwQYIQJ2w | https://disk.yandex.ru/i/8oIhCY14I2l_iA | https://disk.yandex.ru/i/cPoCF322w2NktA | https://disk.yandex.ru/i/WQG2Aw1jYMH-4g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабинет | Бар/Кафе</t>
   </si>
   <si>
     <t xml:space="preserve">Ресепшн
@@ -796,7 +942,13 @@
     </t>
   </si>
   <si>
-    <t>Артикул (2405)
+    <t xml:space="preserve">https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол с перегородкой офисный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул (2405)
 Акция! Скидка - 60%
 Новые столы с перегородками всего за 1499 руб. 
 Размеры ДхШхВ: 72х60х125
@@ -817,7 +969,10 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стол компьютерный
+    <t xml:space="preserve">https://disk.yandex.ru/i/CmEk-NECdwHB8w | https://disk.yandex.ru/i/q1G5qvIrqPC9IA | https://disk.yandex.ru/i/3l46czErhki8ew | https://disk.yandex.ru/i/RVzEhNjI-JrmDQ | https://disk.yandex.ru/i/xwXN3y4xXXlm1w | https://disk.yandex.ru/i/0yyml94uKUfR4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный
 Артикул (2406)
 Стильный и функциональный компьютерный стол цвета орех — идеальное решение для офиса или домашнего рабочего пространства. Благодаря продуманной конструкции, стол сочетает элегантный дизайн с практичностью.
 Основные особенности:
@@ -843,6 +998,12 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный прямой </t>
+  </si>
+  <si>
     <t xml:space="preserve">Стол офисный прямой 
 Артикул (2895)
 Представляем стильный офисный стол французского производства, который станет настоящим акцентом вашего рабочего пространства. Элегантная рыжая столешница, выполненная из высококачественных материалов, придаёт интерьеру тепло и изысканность. Прочные металлические ноги добавляют контраста и современного шарма, обеспечивая стабильность и долговечность. Этот стол идеально сочетает в себе презентабильность и функциональность, подойдёт как для домашнего кабинета, так и для стильного офиса. Эргономичный дизайн и продуманные детали делают работу за ним максимально комфортной
@@ -868,203 +1029,35 @@
                  </t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/UVtMjoIUjQb_GA | https://disk.yandex.ru/i/AjpyelxFKRLKyA | https://disk.yandex.ru/i/IsAorN-UJb_eDw | https://disk.yandex.ru/i/y-O6o-WaD3SAdA | https://disk.yandex.ru/i/Bp1PVANaPOxvXA | https://disk.yandex.ru/i/_SgJaxYM2A4qOg | https://disk.yandex.ru/i/x0Xbo35IV0wX9A | https://disk.yandex.ru/i/wUxSC1YtyrPGuQ | https://disk.yandex.ru/i/irT74aOCSg8m6g | https://disk.yandex.ru/i/bt8IQuFQ1L8Stg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/vljEK3nQIpU-9Q | https://disk.yandex.ru/i/L3PnXj5PPBqPdA | https://disk.yandex.ru/i/PmIIBoVTOrdBGQ | https://disk.yandex.ru/i/xxPw5Um0HowVcw | https://disk.yandex.ru/i/fzkj79hyMTF7oA | https://disk.yandex.ru/i/1pWXG9CNh3WikA | https://disk.yandex.ru/i/K7veqWdykuYrjw | https://disk.yandex.ru/i/XVmovTSRQqA9OA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/4LayF23aQkTfEg | https://disk.yandex.ru/i/X6ktGGwQYIQJ2w | https://disk.yandex.ru/i/8oIhCY14I2l_iA | https://disk.yandex.ru/i/cPoCF322w2NktA | https://disk.yandex.ru/i/WQG2Aw1jYMH-4g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/CmEk-NECdwHB8w | https://disk.yandex.ru/i/q1G5qvIrqPC9IA | https://disk.yandex.ru/i/3l46czErhki8ew | https://disk.yandex.ru/i/RVzEhNjI-JrmDQ | https://disk.yandex.ru/i/xwXN3y4xXXlm1w | https://disk.yandex.ru/i/0yyml94uKUfR4A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/9AnFfKNR3cXQiA | https://disk.yandex.ru/i/oO50EO6Fthn1Iw | https://disk.yandex.ru/i/6AbOt9nEbSSzew | https://disk.yandex.ru/i/y_qlVUsAAuJppg | https://disk.yandex.ru/i/jizF6SSxYpyhjw | https://disk.yandex.ru/i/9ZTHLxi5DUoavw</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t>Мебель и интерьер</t>
-  </si>
-  <si>
-    <t>Столы и стулья</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t>В наличии</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
+    <t xml:space="preserve">https://disk.yandex.ru/i/9AnFfKNR3cXQiA | https://disk.yandex.ru/i/oO50EO6Fthn1Iw | https://disk.yandex.ru/i/6AbOt9nEbSSzew | https://disk.yandex.ru/i/y_qlVUsAAuJppg | https://disk.yandex.ru/i/jizF6SSxYpyhjw | https://disk.yandex.ru/i/9ZTHLxi5DUoavw</t>
   </si>
   <si>
     <t xml:space="preserve"> Рыжий</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сосна</t>
-  </si>
-  <si>
-    <t>Столы</t>
-  </si>
-  <si>
-    <t>Письменный</t>
-  </si>
-  <si>
-    <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
-  </si>
-  <si>
-    <t>Прямоугольный</t>
-  </si>
-  <si>
-    <t>Квадратный</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t>Дерево</t>
-  </si>
-  <si>
-    <t>ЛДСП</t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t>Тумба | Ящик</t>
-  </si>
-  <si>
-    <t>Тумба</t>
-  </si>
-  <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
-    <t>Кухня | Бар/Кафе</t>
-  </si>
-  <si>
-    <t>Кабинет | Бар/Кафе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1077,11 +1070,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -1096,44 +1089,41 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1171,18 +1161,18 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1205,36 +1195,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1257,27 +1229,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,17 +1403,225 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,54 +1758,54 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD2" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE2" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="AH2" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ2" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK2" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1655,66 +1817,66 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ2" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AR2" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="AS2" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="D3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB3" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD3" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE3" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="AH3" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI3" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ3" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1726,63 +1888,63 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ3" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS3" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="D4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA4" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD4" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE4" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="AH4" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI4" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ4" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1794,63 +1956,63 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ4" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS4" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="D5" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA5" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD5" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE5" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="AH5" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ5" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1862,63 +2024,63 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ5" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS5" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="D6" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA6" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD6" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE6" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI6" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ6" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK6" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1930,63 +2092,63 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AQ6" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AS6" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="D7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA7" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD7" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI7" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ7" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK7" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1998,63 +2160,63 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AQ7" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AS7" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="D8" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA8" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD8" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE8" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ8" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK8" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -2066,63 +2228,63 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ8" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS8" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="D9" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA9" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB9" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD9" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE9" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="AH9" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ9" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK9" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2134,63 +2296,63 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ9" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS9" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="D10" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F10">
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA10" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC10" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD10" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE10" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI10" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ10" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK10" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2202,63 +2364,63 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ10" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS10" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="D11" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F11">
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA11" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD11" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE11" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AH11" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ11" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK11" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2270,63 +2432,63 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ11" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS11" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="D12" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F12">
         <v>19999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2137</v>
       </c>
       <c r="S12" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA12" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="AC12" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD12" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE12" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="AH12" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI12" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ12" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK12" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2338,66 +2500,66 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ12" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS12" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="D13" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F13">
         <v>15000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2282</v>
       </c>
       <c r="S13" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA13" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD13" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE13" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="AH13" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI13" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="AJ13" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK13" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2409,66 +2571,66 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ13" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS13" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="D14" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>2284</v>
       </c>
       <c r="S14" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA14" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB14" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD14" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE14" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="AH14" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="AJ14" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK14" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2480,66 +2642,66 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ14" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS14" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="D15" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F15">
         <v>4000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>2286</v>
       </c>
       <c r="S15" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA15" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD15" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AH15" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI15" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ15" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK15" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2551,63 +2713,63 @@
         <v>140</v>
       </c>
       <c r="AP15" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ15" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS15" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="D16" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>5999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>2345</v>
       </c>
       <c r="S16" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA16" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD16" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="AH16" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI16" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ16" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK16" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2619,63 +2781,63 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ16" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS16" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="17" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="D17" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F17">
         <v>10000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>2346</v>
       </c>
       <c r="S17" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA17" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD17" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE17" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="AH17" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI17" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ17" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK17" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2687,63 +2849,63 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ17" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS17" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="18" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="D18" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F18">
         <v>20000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>2350</v>
       </c>
       <c r="S18" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA18" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD18" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE18" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI18" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ18" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL18">
         <v>162</v>
@@ -2755,63 +2917,63 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ18" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS18" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="19" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="F19">
         <v>6000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2351</v>
       </c>
       <c r="S19" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA19" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD19" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AH19" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI19" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ19" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK19" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL19">
         <v>80</v>
@@ -2823,63 +2985,63 @@
         <v>160</v>
       </c>
       <c r="AP19" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ19" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS19" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="20" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="D20" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F20">
         <v>4500</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>2388</v>
       </c>
       <c r="S20" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA20" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD20" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="AH20" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI20" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ20" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK20" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL20">
         <v>70</v>
@@ -2891,63 +3053,63 @@
         <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ20" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS20" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="21" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="D21" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="F21">
         <v>6000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>2391</v>
       </c>
       <c r="S21" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA21" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB21" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD21" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE21" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI21" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ21" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK21" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL21">
         <v>60</v>
@@ -2959,66 +3121,66 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="AQ21" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AR21" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AS21" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="22" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="D22" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="F22">
         <v>5000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>2402</v>
       </c>
       <c r="S22" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA22" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB22" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD22" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AH22" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI22" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ22" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL22">
         <v>70</v>
@@ -3030,63 +3192,63 @@
         <v>150</v>
       </c>
       <c r="AP22" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ22" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS22" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="23" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="D23" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="F23">
         <v>10000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>2403</v>
       </c>
       <c r="S23" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA23" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB23" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD23" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE23" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI23" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ23" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK23" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL23">
         <v>33</v>
@@ -3098,63 +3260,63 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="s">
         <v>139</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="F24">
         <v>1499</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>2405</v>
       </c>
       <c r="S24" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA24" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB24" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD24" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE24" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ24" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK24" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL24">
         <v>60</v>
@@ -3166,63 +3328,63 @@
         <v>72</v>
       </c>
       <c r="AP24" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ24" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS24" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="25" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="D25" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F25">
         <v>4000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>2406</v>
       </c>
       <c r="S25" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA25" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB25" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD25" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE25" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI25" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ25" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK25" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL25">
         <v>63</v>
@@ -3234,66 +3396,66 @@
         <v>120</v>
       </c>
       <c r="AP25" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ25" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AS25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>90</v>
       </c>
       <c r="F26">
         <v>4000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>2895</v>
       </c>
       <c r="S26" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="AA26" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="AB26" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="AD26" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="AE26" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="AH26" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="AI26" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="AJ26" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AK26" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="AL26">
         <v>80</v>
@@ -3305,68 +3467,71 @@
         <v>120</v>
       </c>
       <c r="AP26" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="AQ26" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AS26" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="I2"/>
+    <hyperlink r:id="rId3" ref="G3"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId4" ref="G4"/>
+    <hyperlink r:id="rId2" ref="I4"/>
+    <hyperlink r:id="rId5" ref="G5"/>
+    <hyperlink r:id="rId2" ref="I5"/>
+    <hyperlink r:id="rId6" ref="G6"/>
+    <hyperlink r:id="rId2" ref="I6"/>
+    <hyperlink r:id="rId7" ref="G7"/>
+    <hyperlink r:id="rId2" ref="I7"/>
+    <hyperlink r:id="rId8" ref="G8"/>
+    <hyperlink r:id="rId2" ref="I8"/>
+    <hyperlink r:id="rId9" ref="G9"/>
+    <hyperlink r:id="rId2" ref="I9"/>
+    <hyperlink r:id="rId10" ref="G10"/>
+    <hyperlink r:id="rId2" ref="I10"/>
+    <hyperlink r:id="rId11" ref="G11"/>
+    <hyperlink r:id="rId2" ref="I11"/>
+    <hyperlink r:id="rId12" ref="G12"/>
+    <hyperlink r:id="rId2" ref="I12"/>
+    <hyperlink r:id="rId13" ref="G13"/>
+    <hyperlink r:id="rId2" ref="I13"/>
+    <hyperlink r:id="rId14" ref="G14"/>
+    <hyperlink r:id="rId2" ref="I14"/>
+    <hyperlink r:id="rId15" ref="G15"/>
+    <hyperlink r:id="rId2" ref="I15"/>
+    <hyperlink r:id="rId16" ref="G16"/>
+    <hyperlink r:id="rId2" ref="I16"/>
+    <hyperlink r:id="rId17" ref="G17"/>
+    <hyperlink r:id="rId2" ref="I17"/>
+    <hyperlink r:id="rId18" ref="G18"/>
+    <hyperlink r:id="rId2" ref="I18"/>
+    <hyperlink r:id="rId19" ref="G19"/>
+    <hyperlink r:id="rId2" ref="I19"/>
+    <hyperlink r:id="rId20" ref="G20"/>
+    <hyperlink r:id="rId2" ref="I20"/>
+    <hyperlink r:id="rId21" ref="G21"/>
+    <hyperlink r:id="rId2" ref="I21"/>
+    <hyperlink r:id="rId22" ref="G22"/>
+    <hyperlink r:id="rId2" ref="I22"/>
+    <hyperlink r:id="rId23" ref="G23"/>
+    <hyperlink r:id="rId2" ref="I23"/>
+    <hyperlink r:id="rId24" ref="G24"/>
+    <hyperlink r:id="rId2" ref="I24"/>
+    <hyperlink r:id="rId25" ref="G25"/>
+    <hyperlink r:id="rId2" ref="I25"/>
+    <hyperlink r:id="rId26" ref="G26"/>
+    <hyperlink r:id="rId2" ref="I26"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
   <si>
     <t>Address</t>
   </si>
@@ -153,10 +151,70 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол письменный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол компьютерный ikea
+    <t>Стол письменный</t>
+  </si>
+  <si>
+    <t>Стол для колл центра</t>
+  </si>
+  <si>
+    <t>Стол офисный для колл центра</t>
+  </si>
+  <si>
+    <t>Офисный стол с перегородкой</t>
+  </si>
+  <si>
+    <t>Стол кухонный со стульями</t>
+  </si>
+  <si>
+    <t>Старинный кухонный стол со стульями</t>
+  </si>
+  <si>
+    <t>Стол офисный</t>
+  </si>
+  <si>
+    <t>Стол офисный прямой</t>
+  </si>
+  <si>
+    <t>Офисный стол прямой</t>
+  </si>
+  <si>
+    <t>Стол офисный белый</t>
+  </si>
+  <si>
+    <t>Офисный стол</t>
+  </si>
+  <si>
+    <t>Стол прямой офисный</t>
+  </si>
+  <si>
+    <t>Стол офисный компьютерный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный с перегородкой </t>
+  </si>
+  <si>
+    <t>Стол компьютерный</t>
+  </si>
+  <si>
+    <t>Двойной стол офисный</t>
+  </si>
+  <si>
+    <t>Стол компьютерный офисный</t>
+  </si>
+  <si>
+    <t>Стол прямой</t>
+  </si>
+  <si>
+    <t>Ресепшн</t>
+  </si>
+  <si>
+    <t>Стол с перегородкой офисный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный прямой </t>
+  </si>
+  <si>
+    <t>Стол компьютерный ikea
 Описание: Корпусный стол с книжными полочками и выдвижным ящиком. Отлично подойдёт как для офиса так и для использования дома. На столе есть изъяны.
 Размер: 120х50
 Цвет: венге темный
@@ -178,55 +236,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мебель и интерьер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Столы и стулья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В наличии</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Столы</t>
-  </si>
-  <si>
-    <t>Письменный</t>
-  </si>
-  <si>
-    <t>Прямоугольный</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>ДСП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тумба | Ящик</t>
-  </si>
-  <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол для колл центра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Акция! Скидка -35%
+    <t>Акция! Скидка -35%
 Бенч система - Столы для колл центра
 Модули можно разбить на несколько частей
 Колл ценр
@@ -265,16 +275,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный для колл центра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Акция! Скидка - 60%
+    <t>Акция! Скидка - 60%
 Новые столы с перегородками всего за 1499 руб. 
 Ширина 72см. Глубина 60см, высота общая125
 В наличии - 7шт
@@ -294,13 +295,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стол с перегородкой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стол на два рабочих места
+    <t>Офисный стол на два рабочих места
 Описание
 Размеры ДхШхВ: 123х120х75
 Цвет: венге
@@ -321,18 +316,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
-  </si>
-  <si>
-    <t>Квадратный</t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол кухонный со стульями</t>
   </si>
   <si>
     <t xml:space="preserve">Стол кухонный со стульями
@@ -363,25 +346,7 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Дерево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кухня | Бар/Кафе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Старинный кухонный стол со стульями</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Старинный кухонный стол со стульями
+    <t>Старинный кухонный стол со стульями
 Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
 В комплекте идут 6 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
 Размеры ДхШхВ: 185х86х76, в сложенном состоянии д. 140
@@ -405,13 +370,7 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/UVtMjoIUjQb_GA | https://disk.yandex.ru/i/AjpyelxFKRLKyA | https://disk.yandex.ru/i/IsAorN-UJb_eDw | https://disk.yandex.ru/i/y-O6o-WaD3SAdA | https://disk.yandex.ru/i/Bp1PVANaPOxvXA | https://disk.yandex.ru/i/_SgJaxYM2A4qOg | https://disk.yandex.ru/i/x0Xbo35IV0wX9A | https://disk.yandex.ru/i/wUxSC1YtyrPGuQ | https://disk.yandex.ru/i/irT74aOCSg8m6g | https://disk.yandex.ru/i/bt8IQuFQ1L8Stg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артикул 1691
+    <t>Артикул 1691
 У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. В наличии более 300 столов, которые хранятся на складе в разобранном виде. Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. К столам можем подобрать тумбы, кресла и шкафы.
 Размер. 90х73
 Цвет: орех
@@ -433,13 +392,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный прямой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный прямой
+    <t>Стол офисный прямой
 Артикул 2066(67)
 Описание: Столы бу для офиса и дома в хорошем состоянии
 Размер: 140х80
@@ -461,16 +414,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стол прямой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прямой стол
+    <t>Прямой стол
 Артикул 2115
 Описание Офисный стол размером 90х60 см - это оптимальное решение для создания функционального и стильного рабочего места. 
   Удобное отверстие для компьютерных проводов делает этот стол более практичным и организованным, позволяя вам легко управлять кабельным хаосом и сохранять чистоту на вашем рабочем месте.
@@ -491,13 +435,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный белый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артикул 2132
+    <t>Артикул 2132
 Представляем вашему вниманию белоснежный офисный стол. Этот стол - идеальное решение для создания светлого и элегантного рабочего уголка как дома, так и в офисе.
   Он отлично подчеркнет ваш хороший вкус и будет очень удобен в использовании.
   Офисный стол с отверстием для компьютерных проводов, обеспечит аккуратность и порядок на вашем рабочем месте, что позволит вам сосредоточиться на важных задачах.
@@ -516,15 +454,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
-  </si>
-  <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стол</t>
   </si>
   <si>
     <t xml:space="preserve">Офисный стол на два рабочих места
@@ -546,12 +475,6 @@
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол прямой офисный</t>
   </si>
   <si>
     <t xml:space="preserve">Стол прямой офисный
@@ -578,18 +501,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сосна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Письменный | Кухонный | Барный | Журнальный | Другой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный компьютерный</t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный компьютерный
@@ -618,12 +529,6 @@
     Работаем уже 6 лет, развиваясь и улучшая сервисный центр
     Можем укомплектовать 100-200 рабочих мест.
     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный с перегородкой </t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный с перегородкой 
@@ -655,16 +560,7 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол компьютерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол компьютерный
+    <t>Стол компьютерный
 Артикул 2345
 компьютерный стол цвета сосны на прочных металлических ножках. Стол идеально подходит для продуктивной работы как в офисе, так и дома. Встроенное отверстие для проводов помогает организовать рабочее пространство, обеспечивая аккуратное размещение техники и аксессуаров.
 Металлические ножки придают столу прочность и устойчивость, а просторная столешница позволяет удобно разместить всё необходимое для работы.
@@ -687,12 +583,6 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
   </si>
   <si>
     <t xml:space="preserve">Стол прямой офисный
@@ -724,13 +614,7 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/vljEK3nQIpU-9Q | https://disk.yandex.ru/i/L3PnXj5PPBqPdA | https://disk.yandex.ru/i/PmIIBoVTOrdBGQ | https://disk.yandex.ru/i/xxPw5Um0HowVcw | https://disk.yandex.ru/i/fzkj79hyMTF7oA | https://disk.yandex.ru/i/1pWXG9CNh3WikA | https://disk.yandex.ru/i/K7veqWdykuYrjw | https://disk.yandex.ru/i/XVmovTSRQqA9OA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Двойной стол офисный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Двойной стол офисный
+    <t>Двойной стол офисный
 Артикул (2350)
 Двойной офисный стол с перегородкой — идеальное решение для организации рабочих мест в современном офисе. Стол оснащен прочными металлическими ножками, которые обеспечивают надежность и устойчивость конструкции. Перегородка между рабочими местами создаёт личное пространство для каждого сотрудника, способствуя продуктивной работе.
 Встроенные отверстия для проводов позволяют аккуратно скрыть все кабели, обеспечивая порядок и чистоту на рабочем месте. Просторная столешница и эргономичный дизайн делают этот стол удобным и практичным для повседневного использования.
@@ -753,9 +637,6 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
   </si>
   <si>
     <t xml:space="preserve">Стол офисный прямой
@@ -787,15 +668,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол компьютерный офисный</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол компьютерный офисный
 Артикул 2388
 Поднимите свой офисный интерьер на новый уровень с нашими элитными белыми офисными столами большого размера. Изысканный дизайн в сочетании с функциональностью - идеальное решение для современного бизнес-пространства. Наши столы оснащены отверстием для компьютерных проводов, обеспечивая порядок и организованность вашего рабочего места. Прочные металлические ноги обеспечивают надежную поддержку и долговечность. Подчеркните свой профессионализм с элитными офисными столами, которые сочетают в себе стиль, комфорт и функциональность.
@@ -822,12 +694,6 @@
     Работаем уже 6 лет, развиваясь и улучшая сервисный центр
     Можем укомплектовать 100-200 рабочих мест.
     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол прямой</t>
   </si>
   <si>
     <t xml:space="preserve">Стол прямой
@@ -859,19 +725,7 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
-  </si>
-  <si>
-    <t>ЛДСП</t>
-  </si>
-  <si>
-    <t>Тумба</t>
-  </si>
-  <si>
-    <t>Ресепшн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ресепшн
+    <t>Ресепшн
 Артикул 2402
 Компактный и функциональный ресепшен Б/У — идеальное решение для небольшого офиса или приемной. Этот недорогой вариант сочетает в себе практичность и аккуратный внешний вид, создавая комфортное рабочее пространство даже в условиях ограниченного места.
 Преимущества:
@@ -898,12 +752,6 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/4LayF23aQkTfEg | https://disk.yandex.ru/i/X6ktGGwQYIQJ2w | https://disk.yandex.ru/i/8oIhCY14I2l_iA | https://disk.yandex.ru/i/cPoCF322w2NktA | https://disk.yandex.ru/i/WQG2Aw1jYMH-4g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабинет | Бар/Кафе</t>
   </si>
   <si>
     <t xml:space="preserve">Ресепшн
@@ -942,13 +790,7 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол с перегородкой офисный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артикул (2405)
+    <t>Артикул (2405)
 Акция! Скидка - 60%
 Новые столы с перегородками всего за 1499 руб. 
 Размеры ДхШхВ: 72х60х125
@@ -969,10 +811,7 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/CmEk-NECdwHB8w | https://disk.yandex.ru/i/q1G5qvIrqPC9IA | https://disk.yandex.ru/i/3l46czErhki8ew | https://disk.yandex.ru/i/RVzEhNjI-JrmDQ | https://disk.yandex.ru/i/xwXN3y4xXXlm1w | https://disk.yandex.ru/i/0yyml94uKUfR4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол компьютерный
+    <t>Стол компьютерный
 Артикул (2406)
 Стильный и функциональный компьютерный стол цвета орех — идеальное решение для офиса или домашнего рабочего пространства. Благодаря продуманной конструкции, стол сочетает элегантный дизайн с практичностью.
 Основные особенности:
@@ -998,12 +837,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный прямой </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол офисный прямой 
 Артикул (2895)
 Представляем стильный офисный стол французского производства, который станет настоящим акцентом вашего рабочего пространства. Элегантная рыжая столешница, выполненная из высококачественных материалов, придаёт интерьеру тепло и изысканность. Прочные металлические ноги добавляют контраста и современного шарма, обеспечивая стабильность и долговечность. Этот стол идеально сочетает в себе презентабильность и функциональность, подойдёт как для домашнего кабинета, так и для стильного офиса. Эргономичный дизайн и продуманные детали делают работу за ним максимально комфортной
@@ -1029,35 +862,203 @@
                  </t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/9AnFfKNR3cXQiA | https://disk.yandex.ru/i/oO50EO6Fthn1Iw | https://disk.yandex.ru/i/6AbOt9nEbSSzew | https://disk.yandex.ru/i/y_qlVUsAAuJppg | https://disk.yandex.ru/i/jizF6SSxYpyhjw | https://disk.yandex.ru/i/9ZTHLxi5DUoavw</t>
+    <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/UVtMjoIUjQb_GA | https://disk.yandex.ru/i/AjpyelxFKRLKyA | https://disk.yandex.ru/i/IsAorN-UJb_eDw | https://disk.yandex.ru/i/y-O6o-WaD3SAdA | https://disk.yandex.ru/i/Bp1PVANaPOxvXA | https://disk.yandex.ru/i/_SgJaxYM2A4qOg | https://disk.yandex.ru/i/x0Xbo35IV0wX9A | https://disk.yandex.ru/i/wUxSC1YtyrPGuQ | https://disk.yandex.ru/i/irT74aOCSg8m6g | https://disk.yandex.ru/i/bt8IQuFQ1L8Stg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/vljEK3nQIpU-9Q | https://disk.yandex.ru/i/L3PnXj5PPBqPdA | https://disk.yandex.ru/i/PmIIBoVTOrdBGQ | https://disk.yandex.ru/i/xxPw5Um0HowVcw | https://disk.yandex.ru/i/fzkj79hyMTF7oA | https://disk.yandex.ru/i/1pWXG9CNh3WikA | https://disk.yandex.ru/i/K7veqWdykuYrjw | https://disk.yandex.ru/i/XVmovTSRQqA9OA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/4LayF23aQkTfEg | https://disk.yandex.ru/i/X6ktGGwQYIQJ2w | https://disk.yandex.ru/i/8oIhCY14I2l_iA | https://disk.yandex.ru/i/cPoCF322w2NktA | https://disk.yandex.ru/i/WQG2Aw1jYMH-4g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CmEk-NECdwHB8w | https://disk.yandex.ru/i/q1G5qvIrqPC9IA | https://disk.yandex.ru/i/3l46czErhki8ew | https://disk.yandex.ru/i/RVzEhNjI-JrmDQ | https://disk.yandex.ru/i/xwXN3y4xXXlm1w | https://disk.yandex.ru/i/0yyml94uKUfR4A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9AnFfKNR3cXQiA | https://disk.yandex.ru/i/oO50EO6Fthn1Iw | https://disk.yandex.ru/i/6AbOt9nEbSSzew | https://disk.yandex.ru/i/y_qlVUsAAuJppg | https://disk.yandex.ru/i/jizF6SSxYpyhjw | https://disk.yandex.ru/i/9ZTHLxi5DUoavw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t>Мебель и интерьер</t>
+  </si>
+  <si>
+    <t>Столы и стулья</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
   </si>
   <si>
     <t xml:space="preserve"> Рыжий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сосна</t>
+  </si>
+  <si>
+    <t>Столы</t>
+  </si>
+  <si>
+    <t>Письменный</t>
+  </si>
+  <si>
+    <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
+  </si>
+  <si>
+    <t>Прямоугольный</t>
+  </si>
+  <si>
+    <t>Квадратный</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>ЛДСП</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>Тумба | Ящик</t>
+  </si>
+  <si>
+    <t>Тумба</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
+    <t>Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>Кабинет | Бар/Кафе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1070,11 +1071,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1089,38 +1090,33 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1166,13 +1162,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1200,13 +1196,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1403,225 +1399,15 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,54 +1544,54 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:45">
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="AH2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI2" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ2" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK2" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1817,66 +1603,66 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ2" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AR2" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="AS2" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:45">
       <c r="D3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC3" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD3" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE3" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="AH3" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI3" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ3" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK3" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1888,63 +1674,63 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ3" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS3" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:45">
       <c r="D4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA4" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC4" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE4" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="AH4" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI4" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ4" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK4" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1956,63 +1742,63 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ4" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS4" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:45">
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
       </c>
       <c r="F5">
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC5" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD5" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE5" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="AH5" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI5" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ5" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="AK5" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -2024,63 +1810,63 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ5" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS5" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:45">
       <c r="D6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB6" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE6" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH6" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI6" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ6" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK6" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -2092,63 +1878,63 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AQ6" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AS6" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:45">
       <c r="D7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB7" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD7" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE7" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH7" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI7" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ7" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK7" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -2160,63 +1946,63 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AQ7" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AS7" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:45">
       <c r="D8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA8" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB8" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD8" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE8" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH8" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ8" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK8" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -2228,63 +2014,63 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ8" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS8" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:45">
       <c r="D9" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA9" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB9" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC9" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD9" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE9" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI9" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2296,63 +2082,63 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ9" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS9" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:45">
       <c r="D10" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB10" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC10" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD10" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE10" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH10" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI10" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2364,63 +2150,63 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ10" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS10" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:45">
       <c r="D11" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB11" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC11" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD11" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE11" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="AH11" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI11" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2432,63 +2218,63 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ11" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS11" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:45">
       <c r="D12" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <v>19999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K12">
         <v>2137</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB12" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD12" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE12" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="AH12" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI12" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ12" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2500,66 +2286,66 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ12" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS12" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:45">
       <c r="D13" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>15000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K13">
         <v>2282</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA13" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB13" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC13" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD13" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE13" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="AH13" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI13" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2571,66 +2357,66 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ13" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS13" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:45">
       <c r="D14" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K14">
         <v>2284</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA14" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB14" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC14" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE14" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="AH14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI14" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2642,66 +2428,66 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ14" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS14" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:45">
       <c r="D15" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>4000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K15">
         <v>2286</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA15" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB15" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC15" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD15" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE15" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AH15" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI15" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2713,63 +2499,63 @@
         <v>140</v>
       </c>
       <c r="AP15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F16">
         <v>5999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>2345</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA16" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB16" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC16" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD16" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="AH16" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI16" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2781,63 +2567,63 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ16" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS16" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="4:45">
       <c r="D17" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F17">
         <v>10000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K17">
         <v>2346</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA17" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB17" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC17" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="AH17" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI17" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ17" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2849,63 +2635,63 @@
         <v>160</v>
       </c>
       <c r="AP17" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ17" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS17" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="4:45">
       <c r="D18" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F18">
         <v>20000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K18">
         <v>2350</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA18" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB18" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC18" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE18" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH18" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI18" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL18">
         <v>162</v>
@@ -2917,63 +2703,63 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ18" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS18" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="4:45">
       <c r="D19" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="F19">
         <v>6000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K19">
         <v>2351</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA19" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB19" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC19" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD19" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE19" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AH19" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI19" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL19">
         <v>80</v>
@@ -2985,63 +2771,63 @@
         <v>160</v>
       </c>
       <c r="AP19" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ19" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="4:45">
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="s">
-        <v>125</v>
-      </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>4500</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K20">
         <v>2388</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA20" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB20" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC20" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD20" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE20" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="AH20" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI20" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ20" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL20">
         <v>70</v>
@@ -3053,63 +2839,63 @@
         <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ20" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS20" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="4:45">
       <c r="D21" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="F21">
         <v>6000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K21">
         <v>2391</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA21" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB21" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC21" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD21" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE21" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH21" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI21" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ21" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL21">
         <v>60</v>
@@ -3121,66 +2907,66 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AQ21" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AR21" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AS21" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="4:45">
       <c r="D22" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="F22">
         <v>5000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K22">
         <v>2402</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA22" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB22" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC22" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD22" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AH22" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI22" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL22">
         <v>70</v>
@@ -3192,63 +2978,63 @@
         <v>150</v>
       </c>
       <c r="AP22" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ22" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS22" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="4:45">
       <c r="D23" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <v>10000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K23">
         <v>2403</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA23" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB23" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD23" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE23" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH23" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI23" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL23">
         <v>33</v>
@@ -3260,63 +3046,63 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ23" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS23" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="4:45">
       <c r="D24" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F24">
         <v>1499</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K24">
         <v>2405</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA24" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB24" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC24" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD24" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE24" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH24" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI24" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ24" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL24">
         <v>60</v>
@@ -3328,63 +3114,63 @@
         <v>72</v>
       </c>
       <c r="AP24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="4:45">
+      <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <v>4000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K25">
         <v>2406</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA25" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB25" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC25" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD25" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE25" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="AH25" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI25" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ25" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL25">
         <v>63</v>
@@ -3396,66 +3182,66 @@
         <v>120</v>
       </c>
       <c r="AP25" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ25" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AS25" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="4:45">
       <c r="D26" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <v>4000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K26">
         <v>2895</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="AA26" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="AB26" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AC26" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AD26" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AE26" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="AF26" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="AH26" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="AI26" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AJ26" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AK26" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AL26">
         <v>80</v>
@@ -3467,71 +3253,68 @@
         <v>120</v>
       </c>
       <c r="AP26" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="AQ26" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AS26" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="I2"/>
-    <hyperlink r:id="rId3" ref="G3"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId4" ref="G4"/>
-    <hyperlink r:id="rId2" ref="I4"/>
-    <hyperlink r:id="rId5" ref="G5"/>
-    <hyperlink r:id="rId2" ref="I5"/>
-    <hyperlink r:id="rId6" ref="G6"/>
-    <hyperlink r:id="rId2" ref="I6"/>
-    <hyperlink r:id="rId7" ref="G7"/>
-    <hyperlink r:id="rId2" ref="I7"/>
-    <hyperlink r:id="rId8" ref="G8"/>
-    <hyperlink r:id="rId2" ref="I8"/>
-    <hyperlink r:id="rId9" ref="G9"/>
-    <hyperlink r:id="rId2" ref="I9"/>
-    <hyperlink r:id="rId10" ref="G10"/>
-    <hyperlink r:id="rId2" ref="I10"/>
-    <hyperlink r:id="rId11" ref="G11"/>
-    <hyperlink r:id="rId2" ref="I11"/>
-    <hyperlink r:id="rId12" ref="G12"/>
-    <hyperlink r:id="rId2" ref="I12"/>
-    <hyperlink r:id="rId13" ref="G13"/>
-    <hyperlink r:id="rId2" ref="I13"/>
-    <hyperlink r:id="rId14" ref="G14"/>
-    <hyperlink r:id="rId2" ref="I14"/>
-    <hyperlink r:id="rId15" ref="G15"/>
-    <hyperlink r:id="rId2" ref="I15"/>
-    <hyperlink r:id="rId16" ref="G16"/>
-    <hyperlink r:id="rId2" ref="I16"/>
-    <hyperlink r:id="rId17" ref="G17"/>
-    <hyperlink r:id="rId2" ref="I17"/>
-    <hyperlink r:id="rId18" ref="G18"/>
-    <hyperlink r:id="rId2" ref="I18"/>
-    <hyperlink r:id="rId19" ref="G19"/>
-    <hyperlink r:id="rId2" ref="I19"/>
-    <hyperlink r:id="rId20" ref="G20"/>
-    <hyperlink r:id="rId2" ref="I20"/>
-    <hyperlink r:id="rId21" ref="G21"/>
-    <hyperlink r:id="rId2" ref="I21"/>
-    <hyperlink r:id="rId22" ref="G22"/>
-    <hyperlink r:id="rId2" ref="I22"/>
-    <hyperlink r:id="rId23" ref="G23"/>
-    <hyperlink r:id="rId2" ref="I23"/>
-    <hyperlink r:id="rId24" ref="G24"/>
-    <hyperlink r:id="rId2" ref="I24"/>
-    <hyperlink r:id="rId25" ref="G25"/>
-    <hyperlink r:id="rId2" ref="I25"/>
-    <hyperlink r:id="rId26" ref="G26"/>
-    <hyperlink r:id="rId2" ref="I26"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="142">
   <si>
     <t>Address</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>Стол с перегородкой офисный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный прямой </t>
   </si>
   <si>
     <t>Стол компьютерный ikea
@@ -585,35 +582,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол прямой офисный
-Артикул 2346
-Современный офисный компьютерный стол на прочных металлических ножках цвета дуб Сонома. Этот стильный и практичный стол идеально подойдет для работы как в офисе, так и дома. Просторная столешница позволяет удобно разместить технику и аксессуары, а металлические ножки обеспечивают устойчивость и долговечность.
-Кроме того, к столу можно подобрать полный комплект мебели в едином стиле: эргономичные кресла, вместительные тумбы и стильные шкафы для хранения документов. Превратите свое рабочее пространство в комфортное и современное место для продуктивной работы!
-Размеры ДхШхВ: 160х80х75
-Цвет дуб Сонома
-Цена 10 000
-Количество 8
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Двойной стол офисный
 Артикул (2350)
 Двойной офисный стол с перегородкой — идеальное решение для организации рабочих мест в современном офисе. Стол оснащен прочными металлическими ножками, которые обеспечивают надежность и устойчивость конструкции. Перегородка между рабочими местами создаёт личное пространство для каждого сотрудника, способствуя продуктивной работе.
@@ -837,31 +805,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол офисный прямой 
-Артикул (2895)
-Представляем стильный офисный стол французского производства, который станет настоящим акцентом вашего рабочего пространства. Элегантная рыжая столешница, выполненная из высококачественных материалов, придаёт интерьеру тепло и изысканность. Прочные металлические ноги добавляют контраста и современного шарма, обеспечивая стабильность и долговечность. Этот стол идеально сочетает в себе презентабильность и функциональность, подойдёт как для домашнего кабинета, так и для стильного офиса. Эргономичный дизайн и продуманные детали делают работу за ним максимально комфортной
-Размер 120х80х75
-Цвет: рыжий
-Цена: 4000 за 1 шт.
-Количество: 5 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
   </si>
   <si>
@@ -907,9 +850,6 @@
     <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/vljEK3nQIpU-9Q | https://disk.yandex.ru/i/L3PnXj5PPBqPdA | https://disk.yandex.ru/i/PmIIBoVTOrdBGQ | https://disk.yandex.ru/i/xxPw5Um0HowVcw | https://disk.yandex.ru/i/fzkj79hyMTF7oA | https://disk.yandex.ru/i/1pWXG9CNh3WikA | https://disk.yandex.ru/i/K7veqWdykuYrjw | https://disk.yandex.ru/i/XVmovTSRQqA9OA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
   </si>
   <si>
@@ -934,9 +874,6 @@
     <t>https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/9AnFfKNR3cXQiA | https://disk.yandex.ru/i/oO50EO6Fthn1Iw | https://disk.yandex.ru/i/6AbOt9nEbSSzew | https://disk.yandex.ru/i/y_qlVUsAAuJppg | https://disk.yandex.ru/i/jizF6SSxYpyhjw | https://disk.yandex.ru/i/9ZTHLxi5DUoavw</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -980,9 +917,6 @@
   </si>
   <si>
     <t>Жёлтый</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Рыжий</t>
   </si>
   <si>
     <t xml:space="preserve"> Сосна</t>
@@ -1401,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS26"/>
+  <dimension ref="A1:AS24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,49 +1483,49 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>118</v>
       </c>
-      <c r="AB2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>123</v>
-      </c>
       <c r="AH2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1603,16 +1537,16 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS2" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1620,49 +1554,49 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD3" t="s">
         <v>117</v>
       </c>
-      <c r="AA3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>119</v>
       </c>
-      <c r="AC3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
       <c r="AH3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1674,13 +1608,13 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS3" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1688,49 +1622,49 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD4" t="s">
         <v>117</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>118</v>
       </c>
-      <c r="AB4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>123</v>
-      </c>
       <c r="AH4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1742,13 +1676,13 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS4" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1756,49 +1690,49 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD5" t="s">
         <v>117</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
         <v>118</v>
       </c>
-      <c r="AB5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>123</v>
-      </c>
       <c r="AH5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AK5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1810,13 +1744,13 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS5" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1824,49 +1758,49 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD6" t="s">
         <v>117</v>
       </c>
-      <c r="AA6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AE6" t="s">
         <v>120</v>
       </c>
-      <c r="AC6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>125</v>
-      </c>
       <c r="AH6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1878,13 +1812,13 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS6" t="s">
         <v>140</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1892,49 +1826,49 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD7" t="s">
         <v>117</v>
       </c>
-      <c r="AA7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>120</v>
       </c>
-      <c r="AC7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>125</v>
-      </c>
       <c r="AH7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1946,13 +1880,13 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS7" t="s">
         <v>140</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1960,49 +1894,49 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD8" t="s">
         <v>117</v>
       </c>
-      <c r="AA8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>122</v>
-      </c>
       <c r="AE8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AH8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -2014,13 +1948,13 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS8" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2028,49 +1962,49 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD9" t="s">
         <v>117</v>
       </c>
-      <c r="AA9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>121</v>
       </c>
-      <c r="AD9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>126</v>
-      </c>
       <c r="AH9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2082,13 +2016,13 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS9" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2096,49 +2030,49 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD10" t="s">
         <v>117</v>
       </c>
-      <c r="AA10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>122</v>
-      </c>
       <c r="AE10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AH10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2150,13 +2084,13 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS10" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2164,49 +2098,49 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD11" t="s">
         <v>117</v>
       </c>
-      <c r="AA11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>122</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AH11" t="s">
         <v>127</v>
       </c>
-      <c r="AH11" t="s">
-        <v>133</v>
-      </c>
       <c r="AI11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2218,13 +2152,13 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS11" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -2232,49 +2166,49 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>19999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K12">
         <v>2137</v>
       </c>
       <c r="S12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD12" t="s">
         <v>117</v>
       </c>
-      <c r="AA12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>122</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AH12" t="s">
         <v>127</v>
       </c>
-      <c r="AH12" t="s">
-        <v>133</v>
-      </c>
       <c r="AI12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2286,13 +2220,13 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS12" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2300,52 +2234,52 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>15000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K13">
         <v>2282</v>
       </c>
       <c r="S13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD13" t="s">
         <v>117</v>
       </c>
-      <c r="AA13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>122</v>
-      </c>
       <c r="AE13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK13" t="s">
         <v>132</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>138</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2357,13 +2291,13 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS13" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2371,52 +2305,52 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K14">
         <v>2284</v>
       </c>
       <c r="S14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD14" t="s">
         <v>117</v>
       </c>
-      <c r="AA14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>122</v>
-      </c>
       <c r="AE14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK14" t="s">
         <v>132</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>138</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2428,13 +2362,13 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS14" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2442,52 +2376,52 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>4000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K15">
         <v>2286</v>
       </c>
       <c r="S15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD15" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>122</v>
-      </c>
       <c r="AE15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI15" t="s">
         <v>128</v>
       </c>
-      <c r="AF15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2499,13 +2433,13 @@
         <v>140</v>
       </c>
       <c r="AP15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS15" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -2513,49 +2447,49 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16">
         <v>5999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K16">
         <v>2345</v>
       </c>
       <c r="S16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD16" t="s">
         <v>117</v>
       </c>
-      <c r="AA16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>122</v>
-      </c>
       <c r="AE16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AH16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2567,270 +2501,270 @@
         <v>160</v>
       </c>
       <c r="AP16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS16" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="4:45">
       <c r="D17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17">
+        <v>2350</v>
+      </c>
+      <c r="S17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC17" t="s">
         <v>116</v>
       </c>
-      <c r="K17">
-        <v>2346</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="AD17" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AE17" t="s">
         <v>120</v>
       </c>
-      <c r="AC17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>129</v>
-      </c>
       <c r="AH17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AK17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL17">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AM17">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN17">
         <v>160</v>
       </c>
       <c r="AP17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS17" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="18" spans="4:45">
       <c r="D18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18">
+        <v>2351</v>
+      </c>
+      <c r="S18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC18" t="s">
         <v>116</v>
       </c>
-      <c r="K18">
-        <v>2350</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AD18" t="s">
         <v>117</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>122</v>
       </c>
       <c r="AE18" t="s">
         <v>125</v>
       </c>
       <c r="AH18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AK18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL18">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM18">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AN18">
         <v>160</v>
       </c>
       <c r="AP18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS18" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" spans="4:45">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19">
+        <v>2388</v>
+      </c>
+      <c r="S19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC19" t="s">
         <v>116</v>
       </c>
-      <c r="K19">
-        <v>2351</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AD19" t="s">
         <v>117</v>
       </c>
-      <c r="AA19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>122</v>
-      </c>
       <c r="AE19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>130</v>
       </c>
-      <c r="AH19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL19">
+        <v>70</v>
+      </c>
+      <c r="AM19">
+        <v>75</v>
+      </c>
+      <c r="AN19">
+        <v>140</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>136</v>
       </c>
-      <c r="AK19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL19">
-        <v>80</v>
-      </c>
-      <c r="AM19">
-        <v>73</v>
-      </c>
-      <c r="AN19">
-        <v>160</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AS19" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="4:45">
       <c r="D20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20">
+        <v>2391</v>
+      </c>
+      <c r="S20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC20" t="s">
         <v>116</v>
       </c>
-      <c r="K20">
-        <v>2388</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AD20" t="s">
         <v>117</v>
       </c>
-      <c r="AA20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AE20" t="s">
         <v>120</v>
       </c>
-      <c r="AC20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>129</v>
-      </c>
       <c r="AH20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL20">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM20">
         <v>75</v>
@@ -2839,84 +2773,84 @@
         <v>140</v>
       </c>
       <c r="AP20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS20" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="4:45">
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21">
+        <v>2402</v>
+      </c>
+      <c r="S21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC21" t="s">
         <v>116</v>
       </c>
-      <c r="K21">
-        <v>2391</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="AD21" t="s">
         <v>117</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>122</v>
       </c>
       <c r="AE21" t="s">
         <v>125</v>
       </c>
       <c r="AH21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL21">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM21">
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AP21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS21" t="s">
         <v>141</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="4:45">
@@ -2924,342 +2858,203 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="K22">
+        <v>2403</v>
+      </c>
+      <c r="S22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC22" t="s">
         <v>116</v>
       </c>
-      <c r="K22">
-        <v>2402</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="AD22" t="s">
         <v>117</v>
       </c>
-      <c r="AA22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AE22" t="s">
         <v>120</v>
       </c>
-      <c r="AC22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AH22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>130</v>
       </c>
-      <c r="AH22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>136</v>
-      </c>
       <c r="AK22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL22">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AM22">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN22">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS22" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="4:45">
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23">
-        <v>10000</v>
+        <v>1499</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23">
+        <v>2405</v>
+      </c>
+      <c r="S23" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="AA23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC23" t="s">
         <v>116</v>
       </c>
-      <c r="K23">
-        <v>2403</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="AD23" t="s">
         <v>117</v>
       </c>
-      <c r="AA23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AE23" t="s">
         <v>120</v>
       </c>
-      <c r="AC23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AH23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL23">
+        <v>60</v>
+      </c>
+      <c r="AM23">
         <v>125</v>
       </c>
-      <c r="AH23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL23">
-        <v>33</v>
-      </c>
-      <c r="AM23">
-        <v>120</v>
-      </c>
       <c r="AN23">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="AP23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS23" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="4:45">
       <c r="D24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24">
-        <v>1499</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24">
+        <v>2406</v>
+      </c>
+      <c r="S24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA24" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="AB24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC24" t="s">
         <v>116</v>
       </c>
-      <c r="K24">
-        <v>2405</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="AD24" t="s">
         <v>117</v>
       </c>
-      <c r="AA24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AE24" t="s">
         <v>120</v>
       </c>
-      <c r="AC24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>125</v>
-      </c>
       <c r="AH24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AI24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL24">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AM24">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AN24">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="AP24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS24" t="s">
         <v>139</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="4:45">
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25">
-        <v>4000</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K25">
-        <v>2406</v>
-      </c>
-      <c r="S25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL25">
-        <v>63</v>
-      </c>
-      <c r="AM25">
-        <v>75</v>
-      </c>
-      <c r="AN25">
-        <v>120</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="4:45">
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26">
-        <v>4000</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26">
-        <v>2895</v>
-      </c>
-      <c r="S26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL26">
-        <v>80</v>
-      </c>
-      <c r="AM26">
-        <v>75</v>
-      </c>
-      <c r="AN26">
-        <v>120</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3310,10 +3105,6 @@
     <hyperlink ref="I23" r:id="rId44"/>
     <hyperlink ref="G24" r:id="rId45"/>
     <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="I26" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="134">
   <si>
     <t>Address</t>
   </si>
@@ -151,6 +151,9 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>CanBeDisassembled</t>
+  </si>
+  <si>
     <t>Стол письменный</t>
   </si>
   <si>
@@ -181,16 +184,7 @@
     <t>Стол офисный белый</t>
   </si>
   <si>
-    <t>Офисный стол</t>
-  </si>
-  <si>
     <t>Стол прямой офисный</t>
-  </si>
-  <si>
-    <t>Стол офисный компьютерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный с перегородкой </t>
   </si>
   <si>
     <t>Стол компьютерный</t>
@@ -453,27 +447,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Офисный стол на два рабочих места
-Артикул 2137
-Описание Офисный стол - бенч система. Стол новый в идеальном состоянии сочетает в себе изысканный вид и высокую функциональность. Имеет перегородку и отверстия для проводов, чтобы поддерживать порядок и организованность на вашем рабочем столе. Просим заметить, что имеются перегородки разный видов: стеклянные, пластиковые, и обшитые тканью. Так же к столам можем подобрать тумбы на колесиках и шкафы для документов
-Размеры ДхШ: 160х80
-Цвет белый
-Цена 20 000 руб 
-Количество 1
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол прямой офисный
 Артикул 2282
 Описание Предлагаем стильный компьютерный стол цвета сосны, который идеально впишется в любой современный интерьер. Его металлические ножки обеспечивают прочность и устойчивость, создавая гармоничное сочетание природной теплоты древесины и индустриального стиля.
@@ -498,63 +471,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный компьютерный
-Артикул 2284
-Описание Продается офисный стол бу цвета сосны с белыми металлическими ножками. Этот стол не только привносит природную теплоту и стиль в рабочее пространство, но и обеспечивает удобство благодаря отверстиям для проводов, которые помогают организовать рабочее место. Прочные металлические ножки придают столу устойчивость и надежность, а светлый оттенок сосны освежит любой офис. Отличное решение для тех, кто ценит функциональность и эстетичность в мебели.
-Размеры ДхШхВ: 120х80х76
-Цвет: сосна
-Цена: 4 999 руб
-Количество: 1 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол офисный с перегородкой 
-Артикул 2286
-Элегантный офисный стол с белоснежной столешницей и стильными серыми ногами – идеальное решение для современного рабочего пространства. Чистый и минималистичный дизайн создаёт атмосферу порядка и концентрации, а нейтральные цвета легко впишутся в любой интерьер. Просторная столешница обеспечивает удобное место для работы, будь то ноутбук, документы или аксессуары
-Размер ДхШхВ: 140х80х75
-Перегородка 140х38
-Цена: 4000р за 1 шт.
-Перегородка: 3500р за 1 шт.
-Количество: 27 шт.
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
   </si>
   <si>
     <t>Стол компьютерный
@@ -691,35 +607,6 @@
     Работаем уже 6 лет, развиваясь и улучшая сервисный центр
     Можем укомплектовать 100-200 рабочих мест.
     </t>
-  </si>
-  <si>
-    <t>Ресепшн
-Артикул 2402
-Компактный и функциональный ресепшен Б/У — идеальное решение для небольшого офиса или приемной. Этот недорогой вариант сочетает в себе практичность и аккуратный внешний вид, создавая комфортное рабочее пространство даже в условиях ограниченного места.
-Преимущества:
-- Небольшие габариты: легко впишется даже в самое компактное помещение.
-- Удобный стол: предоставляет достаточно пространства для работы с документами и техникой.
-- Полка для канцелярии: позволяет удобно организовать хранение офисных принадлежностей.
-- Доступная цена: экономия бюджета без ущерба для функциональности.
-Размеры ДхШхВ: 150х70х75
-Полная высота 115
-Цвет ольха 
-Цена 5 000
-Количество 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t xml:space="preserve">Ресепшн
@@ -805,6 +692,33 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол компьютерный
+Артикул 2433
+Описание Mebile system cm-6
+Размеры ДхШхВ: 160х65х76
+Цвет вязь тёмный 
+Цена 14 999 за 1 шт.
+Количество 2 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
   </si>
   <si>
@@ -835,18 +749,9 @@
     <t>https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/AjE2lOKGoy3zuw | https://disk.yandex.ru/i/7EtgfXKBtbSI-Q | https://disk.yandex.ru/i/R8zSqYy6o735dw | https://disk.yandex.ru/i/s70r-rUfp8xtxg | https://disk.yandex.ru/i/2siG0ae3aaZnuw | https://disk.yandex.ru/i/KNa6Z3diEmVnQQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/nL3C6JjKJZcAww | https://disk.yandex.ru/i/niWp3Il6v8bc0A | https://disk.yandex.ru/i/JpWkx-1NgeFuug | https://disk.yandex.ru/i/hoAbxGfwgodkag | https://disk.yandex.ru/i/yTxRErj1HieItA | https://disk.yandex.ru/i/8ZXnzhSsSKvhPA | https://disk.yandex.ru/i/YcCu-Bs6E9fLDA | https://disk.yandex.ru/i/k-5ckELjAjmSsw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/AVlNRzwvpBu8Yw | https://disk.yandex.ru/i/WUsEAVNOwV6n2A | https://disk.yandex.ru/i/9Juh2hWDd-kfjQ | https://disk.yandex.ru/i/oHvv__HeIW1TRw | https://disk.yandex.ru/i/vM9XT2YaQFij7g | https://disk.yandex.ru/i/Rfy_RtA6P6kbsg | https://disk.yandex.ru/i/e2EirmVh-glfZw | https://disk.yandex.ru/i/VvvGKg_SHCFuWg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
   </si>
   <si>
@@ -862,9 +767,6 @@
     <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/4LayF23aQkTfEg | https://disk.yandex.ru/i/X6ktGGwQYIQJ2w | https://disk.yandex.ru/i/8oIhCY14I2l_iA | https://disk.yandex.ru/i/cPoCF322w2NktA | https://disk.yandex.ru/i/WQG2Aw1jYMH-4g</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
   </si>
   <si>
@@ -874,6 +776,9 @@
     <t>https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/SKY-dAcXoAbS4Q | https://disk.yandex.ru/i/tmE2ZHCphW-NzA | https://disk.yandex.ru/i/UOTQ47f1By3WPw | https://disk.yandex.ru/i/Ddjv2jkWJKeNQA | https://disk.yandex.ru/i/r__dJnaCnX-J8A | https://disk.yandex.ru/i/LF7UjG64wptnSw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -910,15 +815,15 @@
     <t>Белый</t>
   </si>
   <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Жёлтый</t>
+  </si>
+  <si>
     <t>Серый</t>
   </si>
   <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Сосна</t>
   </si>
   <si>
@@ -964,7 +869,7 @@
     <t>Кухня | Бар/Кафе</t>
   </si>
   <si>
-    <t>Кабинет | Бар/Кафе</t>
+    <t>b''</t>
   </si>
 </sst>
 </file>
@@ -1335,13 +1240,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS24"/>
+  <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,55 +1382,58 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AC2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AH2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AI2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1537,66 +1445,69 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT2" t="s">
         <v>133</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AC3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH3" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" t="s">
-        <v>127</v>
-      </c>
       <c r="AI3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1608,63 +1519,66 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT3" t="s">
         <v>133</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AC4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AH4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AI4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1676,63 +1590,66 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT4" t="s">
         <v>133</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AC5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AE5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AH5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AI5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1744,63 +1661,66 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT5" t="s">
         <v>133</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE6" t="s">
         <v>112</v>
       </c>
-      <c r="AA6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI6" t="s">
         <v>120</v>
       </c>
-      <c r="AH6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1812,63 +1732,66 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE7" t="s">
         <v>112</v>
       </c>
-      <c r="AA7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="AH7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI7" t="s">
         <v>120</v>
       </c>
-      <c r="AH7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1880,63 +1803,66 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AQ7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" t="s">
         <v>112</v>
       </c>
-      <c r="AA8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AH8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI8" t="s">
         <v>120</v>
       </c>
-      <c r="AH8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -1948,63 +1874,66 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT8" t="s">
         <v>133</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE9" t="s">
         <v>113</v>
       </c>
-      <c r="AB9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>121</v>
-      </c>
       <c r="AH9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AI9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2016,63 +1945,66 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT9" t="s">
         <v>133</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" t="s">
         <v>112</v>
       </c>
-      <c r="AA10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AH10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI10" t="s">
         <v>120</v>
       </c>
-      <c r="AH10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2084,63 +2016,66 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT10" t="s">
         <v>133</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" t="s">
         <v>114</v>
       </c>
-      <c r="AC11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AH11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>122</v>
       </c>
-      <c r="AH11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>130</v>
-      </c>
       <c r="AK11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2152,909 +2087,735 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT11" t="s">
         <v>133</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>19999</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12">
+        <v>2282</v>
+      </c>
+      <c r="S12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE12" t="s">
         <v>111</v>
       </c>
-      <c r="K12">
-        <v>2137</v>
-      </c>
-      <c r="S12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>122</v>
       </c>
-      <c r="AH12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>130</v>
-      </c>
       <c r="AK12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL12">
         <v>80</v>
       </c>
       <c r="AM12">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN12">
         <v>160</v>
       </c>
       <c r="AP12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT12" t="s">
         <v>133</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>15000</v>
+        <v>5999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K13">
-        <v>2282</v>
+        <v>2345</v>
       </c>
       <c r="S13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE13" t="s">
         <v>115</v>
       </c>
-      <c r="AC13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AH13" t="s">
         <v>119</v>
       </c>
-      <c r="AF13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>127</v>
-      </c>
       <c r="AI13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL13">
         <v>80</v>
       </c>
       <c r="AM13">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN13">
         <v>160</v>
       </c>
       <c r="AP13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT13" t="s">
         <v>133</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:46">
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14">
-        <v>4999</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K14">
-        <v>2284</v>
+        <v>2350</v>
       </c>
       <c r="S14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" t="s">
         <v>112</v>
       </c>
-      <c r="AA14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AH14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL14">
+        <v>162</v>
+      </c>
+      <c r="AM14">
+        <v>74</v>
+      </c>
+      <c r="AN14">
+        <v>160</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15">
+        <v>2351</v>
+      </c>
+      <c r="S15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" t="s">
         <v>116</v>
       </c>
-      <c r="AD14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AH15" t="s">
         <v>119</v>
       </c>
-      <c r="AF14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL14">
-        <v>80</v>
-      </c>
-      <c r="AM14">
-        <v>76</v>
-      </c>
-      <c r="AN14">
+      <c r="AI15" t="s">
         <v>120</v>
       </c>
-      <c r="AP14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15">
-        <v>4000</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15">
-        <v>2286</v>
-      </c>
-      <c r="S15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>128</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AL15">
         <v>80</v>
       </c>
       <c r="AM15">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN15">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT15" t="s">
         <v>133</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:46">
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>5999</v>
+        <v>4500</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K16">
-        <v>2345</v>
+        <v>2388</v>
       </c>
       <c r="S16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AA16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AB16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE16" t="s">
         <v>115</v>
       </c>
-      <c r="AC16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AH16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK16" t="s">
         <v>124</v>
       </c>
-      <c r="AH16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AL16">
+        <v>70</v>
+      </c>
+      <c r="AM16">
+        <v>75</v>
+      </c>
+      <c r="AN16">
+        <v>140</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>128</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL16">
-        <v>80</v>
-      </c>
-      <c r="AM16">
-        <v>72</v>
-      </c>
-      <c r="AN16">
-        <v>160</v>
-      </c>
-      <c r="AP16" t="s">
+      <c r="AS16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT16" t="s">
         <v>133</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="17" spans="4:45">
+    <row r="17" spans="4:46">
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17">
+        <v>2391</v>
+      </c>
+      <c r="S17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL17">
+        <v>60</v>
+      </c>
+      <c r="AM17">
+        <v>75</v>
+      </c>
+      <c r="AN17">
+        <v>140</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="4:46">
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18">
+        <v>2403</v>
+      </c>
+      <c r="S18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL18">
+        <v>33</v>
+      </c>
+      <c r="AM18">
+        <v>120</v>
+      </c>
+      <c r="AN18">
+        <v>140</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="4:46">
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
         <v>80</v>
       </c>
-      <c r="F17">
-        <v>20000</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F19">
+        <v>1499</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17">
-        <v>2350</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="K19">
+        <v>2405</v>
+      </c>
+      <c r="S19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" t="s">
         <v>112</v>
       </c>
-      <c r="AA17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AH19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI19" t="s">
         <v>120</v>
       </c>
-      <c r="AH17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="AJ19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL19">
+        <v>60</v>
+      </c>
+      <c r="AM19">
+        <v>125</v>
+      </c>
+      <c r="AN19">
+        <v>72</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS19" t="s">
         <v>131</v>
       </c>
-      <c r="AK17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL17">
-        <v>162</v>
-      </c>
-      <c r="AM17">
-        <v>74</v>
-      </c>
-      <c r="AN17">
-        <v>160</v>
-      </c>
-      <c r="AP17" t="s">
+      <c r="AT19" t="s">
         <v>133</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="18" spans="4:45">
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="20" spans="4:46">
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
         <v>81</v>
       </c>
-      <c r="F18">
-        <v>6000</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F20">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20">
+        <v>2406</v>
+      </c>
+      <c r="S20" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18">
-        <v>2351</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AA20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" t="s">
         <v>112</v>
       </c>
-      <c r="AA18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL18">
-        <v>80</v>
-      </c>
-      <c r="AM18">
-        <v>73</v>
-      </c>
-      <c r="AN18">
-        <v>160</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="4:45">
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19">
-        <v>4500</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19">
-        <v>2388</v>
-      </c>
-      <c r="S19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AH20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK20" t="s">
         <v>124</v>
       </c>
-      <c r="AH19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL19">
-        <v>70</v>
-      </c>
-      <c r="AM19">
-        <v>75</v>
-      </c>
-      <c r="AN19">
-        <v>140</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="4:45">
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20">
-        <v>6000</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20">
-        <v>2391</v>
-      </c>
-      <c r="S20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>132</v>
-      </c>
       <c r="AL20">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AM20">
         <v>75</v>
       </c>
       <c r="AN20">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="AQ20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT20" t="s">
         <v>133</v>
       </c>
-      <c r="AR20" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="21" spans="4:45">
+    <row r="21" spans="4:46">
       <c r="D21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21">
-        <v>5000</v>
+        <v>14999</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21">
+        <v>2433</v>
+      </c>
+      <c r="S21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB21" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21">
-        <v>2402</v>
-      </c>
-      <c r="S21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>115</v>
-      </c>
       <c r="AC21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE21" t="s">
         <v>117</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AH21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL21">
+        <v>65</v>
+      </c>
+      <c r="AM21">
+        <v>76</v>
+      </c>
+      <c r="AN21">
+        <v>160</v>
+      </c>
+      <c r="AP21" t="s">
         <v>125</v>
       </c>
-      <c r="AH21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AQ21" t="s">
         <v>128</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AR21" t="s">
         <v>130</v>
       </c>
-      <c r="AK21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL21">
-        <v>70</v>
-      </c>
-      <c r="AM21">
-        <v>75</v>
-      </c>
-      <c r="AN21">
-        <v>150</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>133</v>
-      </c>
       <c r="AS21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="4:45">
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22">
-        <v>2403</v>
-      </c>
-      <c r="S22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL22">
-        <v>33</v>
-      </c>
-      <c r="AM22">
-        <v>120</v>
-      </c>
-      <c r="AN22">
-        <v>140</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="4:45">
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23">
-        <v>1499</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23">
-        <v>2405</v>
-      </c>
-      <c r="S23" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL23">
-        <v>60</v>
-      </c>
-      <c r="AM23">
-        <v>125</v>
-      </c>
-      <c r="AN23">
-        <v>72</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="4:45">
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24">
-        <v>4000</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24">
-        <v>2406</v>
-      </c>
-      <c r="S24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL24">
-        <v>63</v>
-      </c>
-      <c r="AM24">
-        <v>75</v>
-      </c>
-      <c r="AN24">
-        <v>120</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3099,12 +2860,6 @@
     <hyperlink ref="I20" r:id="rId38"/>
     <hyperlink ref="G21" r:id="rId39"/>
     <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F19B6-3D25-43FC-9394-21207E117426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="133">
   <si>
     <t>Address</t>
   </si>
@@ -868,15 +874,12 @@
   <si>
     <t>Кухня | Бар/Кафе</t>
   </si>
-  <si>
-    <t>b''</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,18 +950,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -996,9 +1007,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1030,9 +1041,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1064,9 +1093,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1239,14 +1286,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT2:AT21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1457,10 +1506,10 @@
         <v>131</v>
       </c>
       <c r="AT2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1528,10 +1577,10 @@
         <v>131</v>
       </c>
       <c r="AT3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1599,10 +1648,10 @@
         <v>131</v>
       </c>
       <c r="AT4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1670,10 +1719,10 @@
         <v>131</v>
       </c>
       <c r="AT5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1741,10 +1790,10 @@
         <v>132</v>
       </c>
       <c r="AT6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1812,10 +1861,10 @@
         <v>132</v>
       </c>
       <c r="AT7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -1883,10 +1932,10 @@
         <v>131</v>
       </c>
       <c r="AT8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -1954,10 +2003,10 @@
         <v>131</v>
       </c>
       <c r="AT9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -2025,10 +2074,10 @@
         <v>131</v>
       </c>
       <c r="AT10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>55</v>
       </c>
@@ -2096,10 +2145,10 @@
         <v>131</v>
       </c>
       <c r="AT11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>56</v>
       </c>
@@ -2170,10 +2219,10 @@
         <v>131</v>
       </c>
       <c r="AT12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>57</v>
       </c>
@@ -2241,10 +2290,10 @@
         <v>131</v>
       </c>
       <c r="AT13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>58</v>
       </c>
@@ -2312,10 +2361,10 @@
         <v>131</v>
       </c>
       <c r="AT14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>53</v>
       </c>
@@ -2383,10 +2432,10 @@
         <v>131</v>
       </c>
       <c r="AT15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -2454,10 +2503,10 @@
         <v>131</v>
       </c>
       <c r="AT16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="17" spans="4:46">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>60</v>
       </c>
@@ -2528,10 +2577,10 @@
         <v>131</v>
       </c>
       <c r="AT17" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="18" spans="4:46">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>61</v>
       </c>
@@ -2599,10 +2648,10 @@
         <v>131</v>
       </c>
       <c r="AT18" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="19" spans="4:46">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>62</v>
       </c>
@@ -2670,10 +2719,10 @@
         <v>131</v>
       </c>
       <c r="AT19" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="20" spans="4:46">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>57</v>
       </c>
@@ -2741,10 +2790,10 @@
         <v>131</v>
       </c>
       <c r="AT20" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="21" spans="4:46">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>57</v>
       </c>
@@ -2820,46 +2869,46 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F19B6-3D25-43FC-9394-21207E117426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A234F66-5ED8-4A4E-8EE7-EDBE3B45FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="134">
   <si>
     <t>Address</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Стол компьютерный</t>
   </si>
   <si>
-    <t>Двойной стол офисный</t>
-  </si>
-  <si>
     <t>Стол компьютерный офисный</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Стол с перегородкой офисный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ресепшн "Берлин" </t>
   </si>
   <si>
     <t>Стол компьютерный ikea
@@ -504,31 +504,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Двойной стол офисный
-Артикул (2350)
-Двойной офисный стол с перегородкой — идеальное решение для организации рабочих мест в современном офисе. Стол оснащен прочными металлическими ножками, которые обеспечивают надежность и устойчивость конструкции. Перегородка между рабочими местами создаёт личное пространство для каждого сотрудника, способствуя продуктивной работе.
-Встроенные отверстия для проводов позволяют аккуратно скрыть все кабели, обеспечивая порядок и чистоту на рабочем месте. Просторная столешница и эргономичный дизайн делают этот стол удобным и практичным для повседневного использования.
-Размеры ДхШхВ: 160х162х74
-Цвет: сандаловое дерево
-Цена: 20 000 руб 
-Количество: 1 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол офисный прямой
 Артикул (2351)
 Офисный компьютерный стол цвета сосны на прочных металлических ножках — это стильное и практичное решение для вашего рабочего пространства. Натуральный цвет сосны придаёт столу свежий и современный вид, который легко впишется в любой интерьер.
@@ -725,6 +700,34 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Ресепшн "Берлин" 
+Артикул 1111
+Описание
+Размеры ДхШхВ: Прямая - 140х70х114
+Полукруг - 155х67х114
+Цвет молочный
+Цена 19 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
   </si>
   <si>
@@ -761,9 +764,6 @@
     <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/PLOYhxz0BUiL8g | https://disk.yandex.ru/i/_MLtl-iMic_OYg | https://disk.yandex.ru/i/2eAi8_IdRvcLdA | https://disk.yandex.ru/i/X07kEI7khfctng | https://disk.yandex.ru/i/W3G0_9-0ns4pFg | https://disk.yandex.ru/i/lv_gls0RPDzEqg | https://disk.yandex.ru/i/an2WCEOq9HM_dQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
   </si>
   <si>
@@ -848,6 +848,9 @@
     <t>Квадратный</t>
   </si>
   <si>
+    <t>Угловой</t>
+  </si>
+  <si>
     <t>Нет</t>
   </si>
   <si>
@@ -873,6 +876,9 @@
   </si>
   <si>
     <t>Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Yu8XYIZ-YTd5Kw | https://disk.yandex.ru/i/R4y-Z_dlvZHMwQ | https://disk.yandex.ru/i/YT62LbuUlfUVXQ | https://disk.yandex.ru/i/viOc-rv-flMONg | https://disk.yandex.ru/i/PJNetiri3bMN9Q | https://disk.yandex.ru/i/mscOVrDqaeesxg | https://disk.yandex.ru/i/SOFoEd19NKnvFQ | https://disk.yandex.ru/i/lQa8q5aGNuzESQ | https://disk.yandex.ru/i/PbEeUbhfMDS1yw</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AT21" sqref="AT2:AT21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,37 +1455,37 @@
         <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" t="s">
-        <v>106</v>
-      </c>
       <c r="AC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" t="s">
-        <v>110</v>
-      </c>
       <c r="AH2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI2" t="s">
         <v>119</v>
       </c>
-      <c r="AI2" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK2" t="s">
         <v>124</v>
@@ -1523,37 +1529,37 @@
         <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="s">
         <v>104</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>105</v>
       </c>
-      <c r="AB3" t="s">
-        <v>106</v>
-      </c>
       <c r="AC3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" t="s">
         <v>108</v>
       </c>
-      <c r="AD3" t="s">
-        <v>109</v>
-      </c>
       <c r="AE3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" t="s">
         <v>119</v>
       </c>
-      <c r="AI3" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK3" t="s">
         <v>124</v>
@@ -1594,37 +1600,37 @@
         <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA4" t="s">
         <v>104</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>105</v>
       </c>
-      <c r="AB4" t="s">
-        <v>106</v>
-      </c>
       <c r="AC4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" t="s">
         <v>108</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>109</v>
       </c>
-      <c r="AE4" t="s">
-        <v>110</v>
-      </c>
       <c r="AH4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI4" t="s">
         <v>119</v>
       </c>
-      <c r="AI4" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK4" t="s">
         <v>124</v>
@@ -1665,37 +1671,37 @@
         <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA5" t="s">
         <v>104</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>105</v>
       </c>
-      <c r="AB5" t="s">
-        <v>106</v>
-      </c>
       <c r="AC5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD5" t="s">
         <v>108</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>109</v>
       </c>
-      <c r="AE5" t="s">
-        <v>110</v>
-      </c>
       <c r="AH5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI5" t="s">
         <v>119</v>
       </c>
-      <c r="AI5" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK5" t="s">
         <v>124</v>
@@ -1736,37 +1742,37 @@
         <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" t="s">
-        <v>105</v>
-      </c>
       <c r="AB6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC6" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>108</v>
       </c>
-      <c r="AD6" t="s">
-        <v>109</v>
-      </c>
       <c r="AE6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI6" t="s">
         <v>119</v>
       </c>
-      <c r="AI6" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s">
         <v>124</v>
@@ -1807,37 +1813,37 @@
         <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA7" t="s">
         <v>104</v>
       </c>
-      <c r="AA7" t="s">
-        <v>105</v>
-      </c>
       <c r="AB7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC7" t="s">
         <v>107</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>108</v>
       </c>
-      <c r="AD7" t="s">
-        <v>109</v>
-      </c>
       <c r="AE7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI7" t="s">
         <v>119</v>
       </c>
-      <c r="AI7" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="s">
         <v>124</v>
@@ -1878,37 +1884,37 @@
         <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA8" t="s">
         <v>104</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>105</v>
       </c>
-      <c r="AB8" t="s">
-        <v>106</v>
-      </c>
       <c r="AC8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD8" t="s">
         <v>108</v>
       </c>
-      <c r="AD8" t="s">
-        <v>109</v>
-      </c>
       <c r="AE8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI8" t="s">
         <v>119</v>
       </c>
-      <c r="AI8" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK8" t="s">
         <v>124</v>
@@ -1949,37 +1955,37 @@
         <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA9" t="s">
         <v>104</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>105</v>
       </c>
-      <c r="AB9" t="s">
-        <v>106</v>
-      </c>
       <c r="AC9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD9" t="s">
         <v>108</v>
       </c>
-      <c r="AD9" t="s">
-        <v>109</v>
-      </c>
       <c r="AE9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI9" t="s">
         <v>119</v>
       </c>
-      <c r="AI9" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s">
         <v>124</v>
@@ -2020,37 +2026,37 @@
         <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA10" t="s">
         <v>104</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>105</v>
       </c>
-      <c r="AB10" t="s">
-        <v>106</v>
-      </c>
       <c r="AC10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD10" t="s">
         <v>108</v>
       </c>
-      <c r="AD10" t="s">
-        <v>109</v>
-      </c>
       <c r="AE10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI10" t="s">
         <v>119</v>
       </c>
-      <c r="AI10" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK10" t="s">
         <v>124</v>
@@ -2091,37 +2097,37 @@
         <v>92</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA11" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>105</v>
       </c>
-      <c r="AB11" t="s">
-        <v>106</v>
-      </c>
       <c r="AC11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD11" t="s">
         <v>108</v>
       </c>
-      <c r="AD11" t="s">
-        <v>109</v>
-      </c>
       <c r="AE11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI11" t="s">
         <v>119</v>
       </c>
-      <c r="AI11" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK11" t="s">
         <v>124</v>
@@ -2162,40 +2168,40 @@
         <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12">
         <v>2282</v>
       </c>
       <c r="S12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" t="s">
         <v>104</v>
       </c>
-      <c r="AA12" t="s">
-        <v>105</v>
-      </c>
       <c r="AB12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC12" t="s">
         <v>107</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>108</v>
       </c>
-      <c r="AD12" t="s">
-        <v>109</v>
-      </c>
       <c r="AE12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH12" t="s">
         <v>118</v>
       </c>
-      <c r="AH12" t="s">
-        <v>119</v>
-      </c>
       <c r="AI12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>121</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>122</v>
       </c>
       <c r="AK12" t="s">
         <v>124</v>
@@ -2236,37 +2242,37 @@
         <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13">
         <v>2345</v>
       </c>
       <c r="S13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA13" t="s">
         <v>104</v>
       </c>
-      <c r="AA13" t="s">
-        <v>105</v>
-      </c>
       <c r="AB13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC13" t="s">
         <v>107</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>108</v>
       </c>
-      <c r="AD13" t="s">
-        <v>109</v>
-      </c>
       <c r="AE13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI13" t="s">
         <v>119</v>
       </c>
-      <c r="AI13" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s">
         <v>124</v>
@@ -2295,58 +2301,58 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14">
+        <v>2351</v>
+      </c>
+      <c r="S14" t="s">
         <v>103</v>
       </c>
-      <c r="K14">
-        <v>2350</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AA14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
-        <v>105</v>
-      </c>
       <c r="AB14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC14" t="s">
         <v>107</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" t="s">
-        <v>109</v>
-      </c>
       <c r="AE14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AH14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI14" t="s">
         <v>119</v>
       </c>
-      <c r="AI14" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AK14" t="s">
         <v>124</v>
       </c>
       <c r="AL14">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AM14">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AN14">
         <v>160</v>
@@ -2366,61 +2372,61 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
       <c r="F15">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15">
+        <v>2388</v>
+      </c>
+      <c r="S15" t="s">
         <v>103</v>
       </c>
-      <c r="K15">
-        <v>2351</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AA15" t="s">
         <v>104</v>
       </c>
-      <c r="AA15" t="s">
-        <v>105</v>
-      </c>
       <c r="AB15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC15" t="s">
         <v>107</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>108</v>
       </c>
-      <c r="AD15" t="s">
-        <v>109</v>
-      </c>
       <c r="AE15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AH15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI15" t="s">
         <v>119</v>
       </c>
-      <c r="AI15" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK15" t="s">
         <v>124</v>
       </c>
       <c r="AL15">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM15">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN15">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP15" t="s">
         <v>125</v>
@@ -2443,49 +2449,49 @@
         <v>77</v>
       </c>
       <c r="F16">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16">
+        <v>2391</v>
+      </c>
+      <c r="S16" t="s">
         <v>103</v>
       </c>
-      <c r="K16">
-        <v>2388</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AA16" t="s">
         <v>104</v>
       </c>
-      <c r="AA16" t="s">
-        <v>105</v>
-      </c>
       <c r="AB16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC16" t="s">
         <v>107</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>108</v>
       </c>
-      <c r="AD16" t="s">
-        <v>109</v>
-      </c>
       <c r="AE16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AH16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI16" t="s">
         <v>119</v>
       </c>
-      <c r="AI16" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK16" t="s">
         <v>124</v>
       </c>
       <c r="AL16">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM16">
         <v>75</v>
@@ -2494,10 +2500,13 @@
         <v>140</v>
       </c>
       <c r="AP16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>125</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>128</v>
+      <c r="AR16" t="s">
+        <v>130</v>
       </c>
       <c r="AS16" t="s">
         <v>131</v>
@@ -2514,64 +2523,61 @@
         <v>78</v>
       </c>
       <c r="F17">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17">
+        <v>2403</v>
+      </c>
+      <c r="S17" t="s">
         <v>103</v>
       </c>
-      <c r="K17">
-        <v>2391</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="AA17" t="s">
         <v>104</v>
       </c>
-      <c r="AA17" t="s">
-        <v>105</v>
-      </c>
       <c r="AB17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC17" t="s">
         <v>107</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>108</v>
       </c>
-      <c r="AD17" t="s">
-        <v>109</v>
-      </c>
       <c r="AE17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI17" t="s">
         <v>119</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL17">
+        <v>33</v>
+      </c>
+      <c r="AM17">
         <v>120</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL17">
-        <v>60</v>
-      </c>
-      <c r="AM17">
-        <v>75</v>
       </c>
       <c r="AN17">
         <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AQ17" t="s">
         <v>125</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>130</v>
       </c>
       <c r="AS17" t="s">
         <v>131</v>
@@ -2588,55 +2594,55 @@
         <v>79</v>
       </c>
       <c r="F18">
-        <v>10000</v>
+        <v>1499</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>99</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18">
+        <v>2405</v>
+      </c>
+      <c r="S18" t="s">
         <v>103</v>
       </c>
-      <c r="K18">
-        <v>2403</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AA18" t="s">
         <v>104</v>
       </c>
-      <c r="AA18" t="s">
-        <v>105</v>
-      </c>
       <c r="AB18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC18" t="s">
         <v>107</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>108</v>
       </c>
-      <c r="AD18" t="s">
-        <v>109</v>
-      </c>
       <c r="AE18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI18" t="s">
         <v>119</v>
       </c>
-      <c r="AI18" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s">
         <v>124</v>
       </c>
       <c r="AL18">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="AM18">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AN18">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="AP18" t="s">
         <v>125</v>
@@ -2653,61 +2659,61 @@
     </row>
     <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
       </c>
       <c r="F19">
-        <v>1499</v>
+        <v>4000</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19">
+        <v>2406</v>
+      </c>
+      <c r="S19" t="s">
         <v>103</v>
       </c>
-      <c r="K19">
-        <v>2405</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="AA19" t="s">
-        <v>105</v>
-      </c>
       <c r="AB19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>108</v>
       </c>
-      <c r="AD19" t="s">
-        <v>109</v>
-      </c>
       <c r="AE19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI19" t="s">
         <v>119</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL19">
+        <v>63</v>
+      </c>
+      <c r="AM19">
+        <v>75</v>
+      </c>
+      <c r="AN19">
         <v>120</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL19">
-        <v>60</v>
-      </c>
-      <c r="AM19">
-        <v>125</v>
-      </c>
-      <c r="AN19">
-        <v>72</v>
       </c>
       <c r="AP19" t="s">
         <v>125</v>
@@ -2730,61 +2736,64 @@
         <v>81</v>
       </c>
       <c r="F20">
-        <v>4000</v>
+        <v>14999</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20">
+        <v>2433</v>
+      </c>
+      <c r="S20" t="s">
         <v>103</v>
       </c>
-      <c r="K20">
-        <v>2406</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="AA20" t="s">
-        <v>105</v>
-      </c>
       <c r="AB20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC20" t="s">
         <v>107</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
-        <v>109</v>
-      </c>
       <c r="AE20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AH20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI20" t="s">
         <v>119</v>
       </c>
-      <c r="AI20" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK20" t="s">
         <v>124</v>
       </c>
       <c r="AL20">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AM20">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN20">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP20" t="s">
         <v>125</v>
       </c>
       <c r="AQ20" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>130</v>
       </c>
       <c r="AS20" t="s">
         <v>131</v>
@@ -2795,70 +2804,67 @@
     </row>
     <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
       </c>
       <c r="F21">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21">
+        <v>1111</v>
+      </c>
+      <c r="S21" t="s">
         <v>103</v>
       </c>
-      <c r="K21">
-        <v>2433</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AA21" t="s">
-        <v>105</v>
-      </c>
       <c r="AB21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>108</v>
       </c>
-      <c r="AD21" t="s">
-        <v>109</v>
-      </c>
       <c r="AE21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AJ21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK21" t="s">
         <v>124</v>
       </c>
       <c r="AL21">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM21">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AN21">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP21" t="s">
         <v>125</v>
       </c>
       <c r="AQ21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AS21" t="s">
         <v>131</v>
@@ -2907,7 +2913,7 @@
     <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G21" r:id="rId39" display="https://disk.yandex.ru/i/R4y-Z_dlvZHMwQ | https://disk.yandex.ru/i/YT62LbuUlfUVXQ | https://disk.yandex.ru/i/viOc-rv-flMONg | https://disk.yandex.ru/i/PJNetiri3bMN9Q | https://disk.yandex.ru/i/mscOVrDqaeesxg | https://disk.yandex.ru/i/SOFoEd19NKnvFQ | htt" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A234F66-5ED8-4A4E-8EE7-EDBE3B45FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="131">
   <si>
     <t>Address</t>
   </si>
@@ -504,35 +498,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол офисный прямой
-Артикул (2351)
-Офисный компьютерный стол цвета сосны на прочных металлических ножках — это стильное и практичное решение для вашего рабочего пространства. Натуральный цвет сосны придаёт столу свежий и современный вид, который легко впишется в любой интерьер.
-Размеры ДхШхВ: 160х80х73
-Цвет: сосна
-Цена: 6000ру.
-за 1 шт.
-Количество: 4 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол компьютерный офисный
 Артикул 2388
 Поднимите свой офисный интерьер на новый уровень с нашими элитными белыми офисными столами большого размера. Изысканный дизайн в сочетании с функциональностью - идеальное решение для современного бизнес-пространства. Наши столы оснащены отверстием для компьютерных проводов, обеспечивая порядок и организованность вашего рабочего места. Прочные металлические ноги обеспечивают надежную поддержку и долговечность. Подчеркните свой профессионализм с элитными офисными столами, которые сочетают в себе стиль, комфорт и функциональность.
@@ -764,9 +729,6 @@
     <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/KSlWrVIyZJXQug | https://disk.yandex.ru/i/RQHVvJlUYy53Cw | https://disk.yandex.ru/i/DVOj3J_6vPQ8uA | https://disk.yandex.ru/i/4N4m7y9D_6aw-g | https://disk.yandex.ru/i/cigwXuC2jXVONw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
   </si>
   <si>
@@ -785,6 +747,9 @@
     <t>https://disk.yandex.ru/i/SKY-dAcXoAbS4Q | https://disk.yandex.ru/i/tmE2ZHCphW-NzA | https://disk.yandex.ru/i/UOTQ47f1By3WPw | https://disk.yandex.ru/i/Ddjv2jkWJKeNQA | https://disk.yandex.ru/i/r__dJnaCnX-J8A | https://disk.yandex.ru/i/LF7UjG64wptnSw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/Yu8XYIZ-YTd5Kw | https://disk.yandex.ru/i/R4y-Z_dlvZHMwQ | https://disk.yandex.ru/i/YT62LbuUlfUVXQ | https://disk.yandex.ru/i/viOc-rv-flMONg | https://disk.yandex.ru/i/PJNetiri3bMN9Q | https://disk.yandex.ru/i/mscOVrDqaeesxg | https://disk.yandex.ru/i/SOFoEd19NKnvFQ | https://disk.yandex.ru/i/lQa8q5aGNuzESQ | https://disk.yandex.ru/i/PbEeUbhfMDS1yw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -824,9 +789,6 @@
     <t>Бежевый</t>
   </si>
   <si>
-    <t>Жёлтый</t>
-  </si>
-  <si>
     <t>Серый</t>
   </si>
   <si>
@@ -876,16 +838,13 @@
   </si>
   <si>
     <t>Кухня | Бар/Кафе</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/Yu8XYIZ-YTd5Kw | https://disk.yandex.ru/i/R4y-Z_dlvZHMwQ | https://disk.yandex.ru/i/YT62LbuUlfUVXQ | https://disk.yandex.ru/i/viOc-rv-flMONg | https://disk.yandex.ru/i/PJNetiri3bMN9Q | https://disk.yandex.ru/i/mscOVrDqaeesxg | https://disk.yandex.ru/i/SOFoEd19NKnvFQ | https://disk.yandex.ru/i/lQa8q5aGNuzESQ | https://disk.yandex.ru/i/PbEeUbhfMDS1yw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,26 +915,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1013,9 +964,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,27 +998,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,27 +1032,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1292,16 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1452,43 +1365,43 @@
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" t="s">
-        <v>105</v>
-      </c>
       <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>108</v>
       </c>
-      <c r="AE2" t="s">
-        <v>109</v>
-      </c>
       <c r="AH2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>119</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>121</v>
-      </c>
       <c r="AK2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1500,22 +1413,22 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AR2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS2" t="s">
         <v>129</v>
       </c>
-      <c r="AS2" t="s">
-        <v>131</v>
-      </c>
       <c r="AT2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1526,43 +1439,43 @@
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
         <v>103</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>104</v>
       </c>
-      <c r="AB3" t="s">
-        <v>105</v>
-      </c>
       <c r="AC3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD3" t="s">
         <v>107</v>
       </c>
-      <c r="AD3" t="s">
-        <v>108</v>
-      </c>
       <c r="AE3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>119</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>121</v>
-      </c>
       <c r="AK3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1574,19 +1487,19 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1597,43 +1510,43 @@
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" t="s">
         <v>103</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>104</v>
       </c>
-      <c r="AB4" t="s">
-        <v>105</v>
-      </c>
       <c r="AC4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD4" t="s">
         <v>107</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>108</v>
       </c>
-      <c r="AE4" t="s">
-        <v>109</v>
-      </c>
       <c r="AH4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>119</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>121</v>
-      </c>
       <c r="AK4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1645,19 +1558,19 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1668,43 +1581,43 @@
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>104</v>
       </c>
-      <c r="AB5" t="s">
-        <v>105</v>
-      </c>
       <c r="AC5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" t="s">
         <v>107</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>108</v>
       </c>
-      <c r="AE5" t="s">
-        <v>109</v>
-      </c>
       <c r="AH5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AJ5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1716,19 +1629,19 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1739,43 +1652,43 @@
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" t="s">
         <v>103</v>
       </c>
-      <c r="AA6" t="s">
-        <v>104</v>
-      </c>
       <c r="AB6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC6" t="s">
         <v>106</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>107</v>
       </c>
-      <c r="AD6" t="s">
-        <v>108</v>
-      </c>
       <c r="AE6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>119</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>121</v>
-      </c>
       <c r="AK6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1787,19 +1700,19 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AQ6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AS6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AT6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1810,43 +1723,43 @@
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA7" t="s">
         <v>103</v>
       </c>
-      <c r="AA7" t="s">
-        <v>104</v>
-      </c>
       <c r="AB7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC7" t="s">
         <v>106</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>107</v>
       </c>
-      <c r="AD7" t="s">
-        <v>108</v>
-      </c>
       <c r="AE7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>119</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>121</v>
-      </c>
       <c r="AK7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1858,19 +1771,19 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AQ7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AS7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AT7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -1881,43 +1794,43 @@
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" t="s">
-        <v>105</v>
-      </c>
       <c r="AC8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8" t="s">
         <v>107</v>
       </c>
-      <c r="AD8" t="s">
-        <v>108</v>
-      </c>
       <c r="AE8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>119</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>121</v>
-      </c>
       <c r="AK8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -1929,19 +1842,19 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -1952,43 +1865,43 @@
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA9" t="s">
         <v>103</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>104</v>
       </c>
-      <c r="AB9" t="s">
-        <v>105</v>
-      </c>
       <c r="AC9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD9" t="s">
         <v>107</v>
       </c>
-      <c r="AD9" t="s">
-        <v>108</v>
-      </c>
       <c r="AE9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>119</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>121</v>
-      </c>
       <c r="AK9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -2000,19 +1913,19 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -2023,43 +1936,43 @@
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" t="s">
         <v>103</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>104</v>
       </c>
-      <c r="AB10" t="s">
-        <v>105</v>
-      </c>
       <c r="AC10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD10" t="s">
         <v>107</v>
       </c>
-      <c r="AD10" t="s">
-        <v>108</v>
-      </c>
       <c r="AE10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>119</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>121</v>
-      </c>
       <c r="AK10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2071,19 +1984,19 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
         <v>55</v>
       </c>
@@ -2094,43 +2007,43 @@
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" t="s">
         <v>103</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>104</v>
       </c>
-      <c r="AB11" t="s">
-        <v>105</v>
-      </c>
       <c r="AC11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD11" t="s">
         <v>107</v>
       </c>
-      <c r="AD11" t="s">
-        <v>108</v>
-      </c>
       <c r="AE11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>119</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>121</v>
-      </c>
       <c r="AK11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2142,19 +2055,19 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
         <v>56</v>
       </c>
@@ -2165,46 +2078,46 @@
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12">
         <v>2282</v>
       </c>
       <c r="S12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
-        <v>104</v>
-      </c>
       <c r="AB12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC12" t="s">
         <v>106</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>107</v>
       </c>
-      <c r="AD12" t="s">
-        <v>108</v>
-      </c>
       <c r="AE12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AH12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI12" t="s">
         <v>118</v>
       </c>
-      <c r="AI12" t="s">
-        <v>120</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AK12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2216,19 +2129,19 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
         <v>57</v>
       </c>
@@ -2239,43 +2152,43 @@
         <v>5999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13">
         <v>2345</v>
       </c>
       <c r="S13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA13" t="s">
         <v>103</v>
       </c>
-      <c r="AA13" t="s">
-        <v>104</v>
-      </c>
       <c r="AB13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC13" t="s">
         <v>106</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>107</v>
       </c>
-      <c r="AD13" t="s">
-        <v>108</v>
-      </c>
       <c r="AE13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>119</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>121</v>
-      </c>
       <c r="AK13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2287,140 +2200,140 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AS13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="D14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14">
+        <v>2388</v>
+      </c>
+      <c r="S14" t="s">
         <v>102</v>
       </c>
-      <c r="K14">
-        <v>2351</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AA14" t="s">
         <v>103</v>
       </c>
-      <c r="AA14" t="s">
-        <v>104</v>
-      </c>
       <c r="AB14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC14" t="s">
         <v>106</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>107</v>
       </c>
-      <c r="AD14" t="s">
-        <v>108</v>
-      </c>
       <c r="AE14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AH14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>119</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>121</v>
-      </c>
       <c r="AK14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL14">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM14">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN14">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AS14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
       <c r="F15">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15">
+        <v>2391</v>
+      </c>
+      <c r="S15" t="s">
         <v>102</v>
       </c>
-      <c r="K15">
-        <v>2388</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AA15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
-        <v>104</v>
-      </c>
       <c r="AB15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC15" t="s">
         <v>106</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>107</v>
       </c>
-      <c r="AD15" t="s">
-        <v>108</v>
-      </c>
       <c r="AE15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AH15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>119</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>121</v>
-      </c>
       <c r="AK15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL15">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM15">
         <v>75</v>
@@ -2432,232 +2345,232 @@
         <v>125</v>
       </c>
       <c r="AQ15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR15" t="s">
         <v>128</v>
       </c>
       <c r="AS15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
       </c>
       <c r="F16">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16">
+        <v>2403</v>
+      </c>
+      <c r="S16" t="s">
         <v>102</v>
       </c>
-      <c r="K16">
-        <v>2391</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AA16" t="s">
         <v>103</v>
       </c>
-      <c r="AA16" t="s">
-        <v>104</v>
-      </c>
       <c r="AB16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC16" t="s">
         <v>106</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>107</v>
       </c>
-      <c r="AD16" t="s">
-        <v>108</v>
-      </c>
       <c r="AE16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>119</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>121</v>
-      </c>
       <c r="AK16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL16">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="AM16">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN16">
         <v>140</v>
       </c>
       <c r="AP16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AQ16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AS16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:46">
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>78</v>
       </c>
       <c r="F17">
-        <v>10000</v>
+        <v>1499</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17">
+        <v>2405</v>
+      </c>
+      <c r="S17" t="s">
         <v>102</v>
       </c>
-      <c r="K17">
-        <v>2403</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="AA17" t="s">
         <v>103</v>
       </c>
-      <c r="AA17" t="s">
-        <v>104</v>
-      </c>
       <c r="AB17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC17" t="s">
         <v>106</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>107</v>
       </c>
-      <c r="AD17" t="s">
-        <v>108</v>
-      </c>
       <c r="AE17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>119</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>121</v>
-      </c>
       <c r="AK17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL17">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="AM17">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AN17">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="AP17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:46">
       <c r="D18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
       </c>
       <c r="F18">
-        <v>1499</v>
+        <v>4000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18">
+        <v>2406</v>
+      </c>
+      <c r="S18" t="s">
         <v>102</v>
       </c>
-      <c r="K18">
-        <v>2405</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AA18" t="s">
         <v>103</v>
       </c>
-      <c r="AA18" t="s">
-        <v>104</v>
-      </c>
       <c r="AB18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>107</v>
       </c>
-      <c r="AD18" t="s">
-        <v>108</v>
-      </c>
       <c r="AE18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>119</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>121</v>
-      </c>
       <c r="AK18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL18">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AM18">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AN18">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:46">
       <c r="D19" t="s">
         <v>57</v>
       </c>
@@ -2665,256 +2578,183 @@
         <v>80</v>
       </c>
       <c r="F19">
-        <v>4000</v>
+        <v>14999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19">
+        <v>2433</v>
+      </c>
+      <c r="S19" t="s">
         <v>102</v>
       </c>
-      <c r="K19">
-        <v>2406</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AA19" t="s">
         <v>103</v>
       </c>
-      <c r="AA19" t="s">
-        <v>104</v>
-      </c>
       <c r="AB19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" t="s">
         <v>106</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
-        <v>108</v>
-      </c>
       <c r="AE19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AH19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>119</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>121</v>
-      </c>
       <c r="AK19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL19">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AM19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN19">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ19" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>128</v>
       </c>
       <c r="AS19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:46">
       <c r="D20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
       </c>
       <c r="F20">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20">
+        <v>1111</v>
+      </c>
+      <c r="S20" t="s">
         <v>102</v>
       </c>
-      <c r="K20">
-        <v>2433</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AA20" t="s">
-        <v>104</v>
-      </c>
       <c r="AB20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>107</v>
       </c>
-      <c r="AD20" t="s">
-        <v>108</v>
-      </c>
       <c r="AE20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH20" t="s">
         <v>116</v>
       </c>
-      <c r="AH20" t="s">
-        <v>118</v>
-      </c>
       <c r="AI20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="s">
         <v>121</v>
       </c>
       <c r="AK20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL20">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM20">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AN20">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AS20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21">
-        <v>19999</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21">
-        <v>1111</v>
-      </c>
-      <c r="S21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL21">
-        <v>70</v>
-      </c>
-      <c r="AM21">
-        <v>114</v>
-      </c>
-      <c r="AN21">
-        <v>140</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" display="https://disk.yandex.ru/i/R4y-Z_dlvZHMwQ | https://disk.yandex.ru/i/YT62LbuUlfUVXQ | https://disk.yandex.ru/i/viOc-rv-flMONg | https://disk.yandex.ru/i/PJNetiri3bMN9Q | https://disk.yandex.ru/i/mscOVrDqaeesxg | https://disk.yandex.ru/i/SOFoEd19NKnvFQ | htt" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="130">
   <si>
     <t>Address</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Стол с перегородкой офисный</t>
   </si>
   <si>
-    <t xml:space="preserve">Ресепшн "Берлин" </t>
+    <t>Стол прямой с тумбой</t>
   </si>
   <si>
     <t>Стол компьютерный ikea
@@ -665,32 +665,27 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Ресепшн "Берлин" 
-Артикул 1111
+    <t>Стол прямой с тумбой
+Артикул 2447
 Описание
-Размеры ДхШхВ: Прямая - 140х70х114
-Полукруг - 155х67х114
-Цвет молочный
-Цена 19 999
-Количество 1
+Размеры ДхШхВ: 140х60х75
+Цвет орех
+Цена 6 499
+Количество 9
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
     К столам можем подобрать тумбы, кресла и шкафы.
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
@@ -747,7 +742,7 @@
     <t>https://disk.yandex.ru/i/SKY-dAcXoAbS4Q | https://disk.yandex.ru/i/tmE2ZHCphW-NzA | https://disk.yandex.ru/i/UOTQ47f1By3WPw | https://disk.yandex.ru/i/Ddjv2jkWJKeNQA | https://disk.yandex.ru/i/r__dJnaCnX-J8A | https://disk.yandex.ru/i/LF7UjG64wptnSw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/Yu8XYIZ-YTd5Kw | https://disk.yandex.ru/i/R4y-Z_dlvZHMwQ | https://disk.yandex.ru/i/YT62LbuUlfUVXQ | https://disk.yandex.ru/i/viOc-rv-flMONg | https://disk.yandex.ru/i/PJNetiri3bMN9Q | https://disk.yandex.ru/i/mscOVrDqaeesxg | https://disk.yandex.ru/i/SOFoEd19NKnvFQ | https://disk.yandex.ru/i/lQa8q5aGNuzESQ | https://disk.yandex.ru/i/PbEeUbhfMDS1yw</t>
+    <t>https://disk.yandex.ru/i/EQ4rmG-DnV7Hsw | https://disk.yandex.ru/i/Wmyk1fYipyT2DQ | https://disk.yandex.ru/i/PiX_kZ5rGUoXaQ | https://disk.yandex.ru/i/n3o9FtS9ZweSRQ | https://disk.yandex.ru/i/AwarbZQrE0HiHA | https://disk.yandex.ru/i/5mgwRyNM5Y6TnQ | https://disk.yandex.ru/i/4ptTeormJCV_xQ | https://disk.yandex.ru/i/v07-3X-TxSYODg</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -808,9 +803,6 @@
   </si>
   <si>
     <t>Квадратный</t>
-  </si>
-  <si>
-    <t>Угловой</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1401,7 +1393,7 @@
         <v>119</v>
       </c>
       <c r="AK2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1413,19 +1405,19 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AR2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1475,7 +1467,7 @@
         <v>119</v>
       </c>
       <c r="AK3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1487,16 +1479,16 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1546,7 +1538,7 @@
         <v>119</v>
       </c>
       <c r="AK4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1558,16 +1550,16 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1617,7 +1609,7 @@
         <v>120</v>
       </c>
       <c r="AK5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1629,16 +1621,16 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1688,7 +1680,7 @@
         <v>119</v>
       </c>
       <c r="AK6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1700,16 +1692,16 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AT6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1759,7 +1751,7 @@
         <v>119</v>
       </c>
       <c r="AK7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1771,16 +1763,16 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AT7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1830,7 +1822,7 @@
         <v>119</v>
       </c>
       <c r="AK8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -1842,16 +1834,16 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1901,7 +1893,7 @@
         <v>119</v>
       </c>
       <c r="AK9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1913,16 +1905,16 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1972,7 +1964,7 @@
         <v>119</v>
       </c>
       <c r="AK10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -1984,16 +1976,16 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2043,7 +2035,7 @@
         <v>119</v>
       </c>
       <c r="AK11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2055,16 +2047,16 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2117,7 +2109,7 @@
         <v>119</v>
       </c>
       <c r="AK12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2129,16 +2121,16 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2188,7 +2180,7 @@
         <v>119</v>
       </c>
       <c r="AK13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2200,16 +2192,16 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2259,7 +2251,7 @@
         <v>119</v>
       </c>
       <c r="AK14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL14">
         <v>70</v>
@@ -2271,16 +2263,16 @@
         <v>140</v>
       </c>
       <c r="AP14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2330,7 +2322,7 @@
         <v>119</v>
       </c>
       <c r="AK15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL15">
         <v>60</v>
@@ -2342,19 +2334,19 @@
         <v>140</v>
       </c>
       <c r="AP15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AR15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS15" t="s">
         <v>128</v>
       </c>
-      <c r="AS15" t="s">
-        <v>129</v>
-      </c>
       <c r="AT15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2404,7 +2396,7 @@
         <v>119</v>
       </c>
       <c r="AK16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL16">
         <v>33</v>
@@ -2416,16 +2408,16 @@
         <v>140</v>
       </c>
       <c r="AP16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2475,7 +2467,7 @@
         <v>119</v>
       </c>
       <c r="AK17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL17">
         <v>60</v>
@@ -2487,16 +2479,16 @@
         <v>72</v>
       </c>
       <c r="AP17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2546,7 +2538,7 @@
         <v>119</v>
       </c>
       <c r="AK18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL18">
         <v>63</v>
@@ -2558,16 +2550,16 @@
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -2617,7 +2609,7 @@
         <v>119</v>
       </c>
       <c r="AK19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL19">
         <v>65</v>
@@ -2629,19 +2621,19 @@
         <v>160</v>
       </c>
       <c r="AP19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS19" t="s">
         <v>128</v>
       </c>
-      <c r="AS19" t="s">
-        <v>129</v>
-      </c>
       <c r="AT19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -2652,7 +2644,7 @@
         <v>81</v>
       </c>
       <c r="F20">
-        <v>19999</v>
+        <v>6499</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>100</v>
@@ -2661,7 +2653,7 @@
         <v>101</v>
       </c>
       <c r="K20">
-        <v>1111</v>
+        <v>2447</v>
       </c>
       <c r="S20" t="s">
         <v>102</v>
@@ -2679,40 +2671,43 @@
         <v>107</v>
       </c>
       <c r="AE20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AH20" t="s">
         <v>116</v>
       </c>
       <c r="AI20" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AK20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL20">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM20">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AN20">
         <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ20" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>127</v>
       </c>
       <c r="AS20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="127">
   <si>
     <t>Address</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>Стол компьютерный</t>
-  </si>
-  <si>
-    <t>Стол компьютерный офисный</t>
   </si>
   <si>
     <t>Стол прямой</t>
@@ -498,34 +495,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол компьютерный офисный
-Артикул 2388
-Поднимите свой офисный интерьер на новый уровень с нашими элитными белыми офисными столами большого размера. Изысканный дизайн в сочетании с функциональностью - идеальное решение для современного бизнес-пространства. Наши столы оснащены отверстием для компьютерных проводов, обеспечивая порядок и организованность вашего рабочего места. Прочные металлические ноги обеспечивают надежную поддержку и долговечность. Подчеркните свой профессионализм с элитными офисными столами, которые сочетают в себе стиль, комфорт и функциональность.
-Размеры ДхШхВ: 140х70х75
-Цвет бежевый
-Цена 4 500 - 5 000 руб
-Количество 17
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол прямой
 Артикул 2391
 Стильный и практичный прямой офисный стол цвета орех, идеально подходящий для работы в офисе или домашнем кабинете. Предусмотренное отверстие для проводов помогает поддерживать порядок, скрывая кабели.
@@ -722,9 +691,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/kio_PtFtSc6kDg | https://disk.yandex.ru/i/fz-2-mkoUykfRw | https://disk.yandex.ru/i/4xVm2ssBXP-_0w | https://disk.yandex.ru/i/aJP3TqIRBT55mA | https://disk.yandex.ru/i/EXam9lAq-rBW4Q | https://disk.yandex.ru/i/6GXorCR-TQJmcQ | https://disk.yandex.ru/i/0JT2lcssVrNpIA | https://disk.yandex.ru/i/-rb5PfzWCS0wpg</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
@@ -1200,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT20"/>
+  <dimension ref="A1:AT19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,49 +1317,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC2" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>104</v>
       </c>
-      <c r="AC2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>107</v>
-      </c>
       <c r="AE2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>116</v>
       </c>
-      <c r="AI2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>119</v>
-      </c>
       <c r="AK2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1405,19 +1371,19 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AQ2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AR2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AS2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1425,49 +1391,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC3" t="s">
         <v>103</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>104</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>106</v>
       </c>
-      <c r="AD3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>109</v>
-      </c>
       <c r="AH3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>116</v>
       </c>
-      <c r="AI3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>119</v>
-      </c>
       <c r="AK3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1479,16 +1445,16 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AQ3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AS3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1496,49 +1462,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC4" t="s">
         <v>103</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>104</v>
       </c>
-      <c r="AC4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>107</v>
-      </c>
       <c r="AE4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>116</v>
       </c>
-      <c r="AI4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>119</v>
-      </c>
       <c r="AK4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1550,16 +1516,16 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AQ4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AS4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1567,49 +1533,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC5" t="s">
         <v>103</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>104</v>
       </c>
-      <c r="AC5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>107</v>
-      </c>
       <c r="AE5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AI5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>117</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>120</v>
-      </c>
       <c r="AK5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1621,16 +1587,16 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>122</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AS5" t="s">
         <v>125</v>
       </c>
-      <c r="AS5" t="s">
-        <v>128</v>
-      </c>
       <c r="AT5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1638,49 +1604,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB6" t="s">
         <v>102</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>103</v>
       </c>
-      <c r="AB6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>106</v>
-      </c>
       <c r="AD6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE6" t="s">
         <v>107</v>
       </c>
-      <c r="AE6" t="s">
-        <v>110</v>
-      </c>
       <c r="AH6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>116</v>
       </c>
-      <c r="AI6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>119</v>
-      </c>
       <c r="AK6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1692,16 +1658,16 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AQ6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AS6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1709,49 +1675,49 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB7" t="s">
         <v>102</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>103</v>
       </c>
-      <c r="AB7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>106</v>
-      </c>
       <c r="AD7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE7" t="s">
         <v>107</v>
       </c>
-      <c r="AE7" t="s">
-        <v>110</v>
-      </c>
       <c r="AH7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>116</v>
       </c>
-      <c r="AI7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>119</v>
-      </c>
       <c r="AK7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1763,16 +1729,16 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AQ7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AS7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1780,49 +1746,49 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC8" t="s">
         <v>103</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>104</v>
       </c>
-      <c r="AC8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>107</v>
       </c>
-      <c r="AE8" t="s">
-        <v>110</v>
-      </c>
       <c r="AH8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>116</v>
       </c>
-      <c r="AI8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>119</v>
-      </c>
       <c r="AK8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -1834,16 +1800,16 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AQ8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AS8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1851,49 +1817,49 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC9" t="s">
         <v>103</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>104</v>
       </c>
-      <c r="AC9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>107</v>
-      </c>
       <c r="AE9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AH9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>116</v>
       </c>
-      <c r="AI9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>119</v>
-      </c>
       <c r="AK9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1905,16 +1871,16 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AQ9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AS9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1922,49 +1888,49 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC10" t="s">
         <v>103</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>104</v>
       </c>
-      <c r="AC10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>107</v>
       </c>
-      <c r="AE10" t="s">
-        <v>110</v>
-      </c>
       <c r="AH10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>116</v>
       </c>
-      <c r="AI10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>119</v>
-      </c>
       <c r="AK10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -1976,16 +1942,16 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AQ10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AS10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1993,49 +1959,49 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC11" t="s">
         <v>103</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>104</v>
       </c>
-      <c r="AC11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>107</v>
-      </c>
       <c r="AE11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>116</v>
       </c>
-      <c r="AI11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>119</v>
-      </c>
       <c r="AK11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2047,16 +2013,16 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AQ11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AS11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2064,52 +2030,52 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>2282</v>
       </c>
       <c r="S12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="s">
         <v>102</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE12" t="s">
         <v>106</v>
       </c>
-      <c r="AD12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>109</v>
-      </c>
       <c r="AF12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI12" t="s">
         <v>115</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
         <v>116</v>
       </c>
-      <c r="AI12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>119</v>
-      </c>
       <c r="AK12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2121,16 +2087,16 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>122</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AS12" t="s">
         <v>125</v>
       </c>
-      <c r="AS12" t="s">
-        <v>128</v>
-      </c>
       <c r="AT12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2138,49 +2104,49 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>5999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>2345</v>
       </c>
       <c r="S13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB13" t="s">
         <v>102</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>103</v>
       </c>
-      <c r="AB13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>106</v>
-      </c>
       <c r="AD13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AE13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH13" t="s">
         <v>113</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>116</v>
       </c>
-      <c r="AI13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>119</v>
-      </c>
       <c r="AK13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2192,16 +2158,16 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>122</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AS13" t="s">
         <v>125</v>
       </c>
-      <c r="AS13" t="s">
-        <v>128</v>
-      </c>
       <c r="AT13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2209,52 +2175,52 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K14">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="S14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>103</v>
       </c>
-      <c r="AB14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>106</v>
-      </c>
       <c r="AD14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE14" t="s">
         <v>107</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AH14" t="s">
         <v>113</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>116</v>
       </c>
-      <c r="AI14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>119</v>
-      </c>
       <c r="AK14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL14">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM14">
         <v>75</v>
@@ -2263,16 +2229,19 @@
         <v>140</v>
       </c>
       <c r="AP14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS14" t="s">
         <v>125</v>
       </c>
-      <c r="AS14" t="s">
-        <v>128</v>
-      </c>
       <c r="AT14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2280,73 +2249,70 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K15">
-        <v>2391</v>
+        <v>2403</v>
       </c>
       <c r="S15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB15" t="s">
         <v>102</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>106</v>
-      </c>
       <c r="AD15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE15" t="s">
         <v>107</v>
       </c>
-      <c r="AE15" t="s">
-        <v>110</v>
-      </c>
       <c r="AH15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>116</v>
       </c>
-      <c r="AI15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>119</v>
-      </c>
       <c r="AK15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL15">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="AM15">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN15">
         <v>140</v>
       </c>
       <c r="AP15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AQ15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2354,141 +2320,141 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16">
-        <v>10000</v>
+        <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K16">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="S16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="s">
         <v>102</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>103</v>
       </c>
-      <c r="AB16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>106</v>
-      </c>
       <c r="AD16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE16" t="s">
         <v>107</v>
       </c>
-      <c r="AE16" t="s">
-        <v>110</v>
-      </c>
       <c r="AH16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>116</v>
       </c>
-      <c r="AI16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL16">
+        <v>60</v>
+      </c>
+      <c r="AM16">
+        <v>125</v>
+      </c>
+      <c r="AN16">
+        <v>72</v>
+      </c>
+      <c r="AP16" t="s">
         <v>119</v>
       </c>
-      <c r="AK16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL16">
-        <v>33</v>
-      </c>
-      <c r="AM16">
-        <v>120</v>
-      </c>
-      <c r="AN16">
-        <v>140</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>122</v>
-      </c>
       <c r="AQ16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AS16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="4:46">
       <c r="D17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17">
-        <v>1499</v>
+        <v>4000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="S17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB17" t="s">
         <v>102</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>103</v>
       </c>
-      <c r="AB17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>106</v>
-      </c>
       <c r="AD17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE17" t="s">
         <v>107</v>
       </c>
-      <c r="AE17" t="s">
-        <v>110</v>
-      </c>
       <c r="AH17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>116</v>
       </c>
-      <c r="AI17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL17">
+        <v>63</v>
+      </c>
+      <c r="AM17">
+        <v>75</v>
+      </c>
+      <c r="AN17">
+        <v>120</v>
+      </c>
+      <c r="AP17" t="s">
         <v>119</v>
       </c>
-      <c r="AK17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL17">
-        <v>60</v>
-      </c>
-      <c r="AM17">
+      <c r="AQ17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS17" t="s">
         <v>125</v>
       </c>
-      <c r="AN17">
-        <v>72</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>128</v>
-      </c>
       <c r="AT17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2496,218 +2462,147 @@
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18">
-        <v>4000</v>
+        <v>14999</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="K18">
-        <v>2406</v>
+        <v>2433</v>
       </c>
       <c r="S18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB18" t="s">
         <v>102</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>103</v>
       </c>
-      <c r="AB18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>106</v>
-      </c>
       <c r="AD18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AE18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>116</v>
       </c>
-      <c r="AI18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL18">
+        <v>65</v>
+      </c>
+      <c r="AM18">
+        <v>76</v>
+      </c>
+      <c r="AN18">
+        <v>160</v>
+      </c>
+      <c r="AP18" t="s">
         <v>119</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL18">
-        <v>63</v>
-      </c>
-      <c r="AM18">
-        <v>75</v>
-      </c>
-      <c r="AN18">
-        <v>120</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>122</v>
       </c>
       <c r="AQ18" t="s">
         <v>122</v>
       </c>
+      <c r="AR18" t="s">
+        <v>124</v>
+      </c>
       <c r="AS18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AT18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19">
-        <v>14999</v>
+        <v>6499</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19">
+        <v>2447</v>
+      </c>
+      <c r="S19" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19">
-        <v>2433</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AA19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB19" t="s">
         <v>102</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>103</v>
       </c>
-      <c r="AB19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>106</v>
-      </c>
       <c r="AD19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AH19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI19" t="s">
         <v>114</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AJ19" t="s">
         <v>116</v>
       </c>
-      <c r="AI19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL19">
+        <v>60</v>
+      </c>
+      <c r="AM19">
+        <v>75</v>
+      </c>
+      <c r="AN19">
+        <v>140</v>
+      </c>
+      <c r="AP19" t="s">
         <v>119</v>
       </c>
-      <c r="AK19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL19">
-        <v>65</v>
-      </c>
-      <c r="AM19">
-        <v>76</v>
-      </c>
-      <c r="AN19">
-        <v>160</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>122</v>
-      </c>
       <c r="AQ19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS19" t="s">
         <v>125</v>
       </c>
-      <c r="AR19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>128</v>
-      </c>
       <c r="AT19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="4:46">
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20">
-        <v>6499</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20">
-        <v>2447</v>
-      </c>
-      <c r="S20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL20">
-        <v>60</v>
-      </c>
-      <c r="AM20">
-        <v>75</v>
-      </c>
-      <c r="AN20">
-        <v>140</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2748,8 +2643,6 @@
     <hyperlink ref="I18" r:id="rId34"/>
     <hyperlink ref="G19" r:id="rId35"/>
     <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="134">
   <si>
     <t>Address</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Стол прямой с тумбой</t>
+  </si>
+  <si>
+    <t>Стол офисный с тумбой</t>
   </si>
   <si>
     <t>Стол компьютерный ikea
@@ -657,6 +660,88 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стол прямой с тумбой
+Артикул 2466-68
+Описание
+Размеры ДхШхВ:
+120х73х75 - 1 шт
+Цена: 4 999
+140х73х75 - 2 шт
+Цена: 5 999
+Арт.(2466) 160х73х75 - 4 шт
+Цена: 7 999
+Цвет: ясень
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный с тумбой
+Артикул 2457
+Описание
+Размеры ДхШхВ: 120х80х75
+Цвет сосная
+Цена 5 999
+Количество 2
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол прямой офисный
+Артикул 2287-88
+Компьютерный стол производства Германии, от известной фирмы Steelcase. Стол на регулируемых металлических ножках высота от 67-82, выполнен из высококачественных материалов и имеет презентабельный вид. 
+К столам с лёгкостью подберём тумбы и шкафы. 
+Размеры ДхШхВ: 160х80х75
+Цвет белый
+Цена 14 999
+Количество 4
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
   </si>
   <si>
@@ -709,6 +794,15 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/EQ4rmG-DnV7Hsw | https://disk.yandex.ru/i/Wmyk1fYipyT2DQ | https://disk.yandex.ru/i/PiX_kZ5rGUoXaQ | https://disk.yandex.ru/i/n3o9FtS9ZweSRQ | https://disk.yandex.ru/i/AwarbZQrE0HiHA | https://disk.yandex.ru/i/5mgwRyNM5Y6TnQ | https://disk.yandex.ru/i/4ptTeormJCV_xQ | https://disk.yandex.ru/i/v07-3X-TxSYODg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BqyasWmEnxMBjg | https://disk.yandex.ru/i/2E1r3aknL0boUw | https://disk.yandex.ru/i/RVcef_MotjA-BQ | https://disk.yandex.ru/i/g1jcaXIx2MRFKA | https://disk.yandex.ru/i/vIuuNQQO8yMtgQ | https://disk.yandex.ru/i/ff9Ydhs9ogstsg | https://disk.yandex.ru/i/0fakXRxUMQ0KlA | https://disk.yandex.ru/i/r06JjLI4pStfbA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/520v92Y4P_3yUA | https://disk.yandex.ru/i/b6I08x_6QSAVkQ | https://disk.yandex.ru/i/XZdutHBRb5WLAA | https://disk.yandex.ru/i/E2xelbTcxpQYIQ | https://disk.yandex.ru/i/RjJM1_7KMX8bTQ | https://disk.yandex.ru/i/m72rHtmzif8doQ | https://disk.yandex.ru/i/-L6Srr69vWFwbQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/AEluXskK4wt1SA | https://disk.yandex.ru/i/Gj0YU1lKiOD9Gg | https://disk.yandex.ru/i/_Ay3ogS5KK_4Ww | https://disk.yandex.ru/i/j_bSQff8AkSbaA | https://disk.yandex.ru/i/2MYin4J66LdO3A</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1166,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT19"/>
+  <dimension ref="A1:AT22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1317,49 +1411,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AH2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1371,19 +1465,19 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AR2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AS2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1391,49 +1485,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AH3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1445,16 +1539,16 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1462,49 +1556,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AH4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1516,16 +1610,16 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1533,49 +1627,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AH5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AK5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1587,16 +1681,16 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AS5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1604,49 +1698,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1658,16 +1752,16 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AQ6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AS6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AT6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1675,49 +1769,49 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1729,16 +1823,16 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AQ7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AS7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AT7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1746,49 +1840,49 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -1800,16 +1894,16 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1817,49 +1911,49 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AH9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1871,16 +1965,16 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1888,49 +1982,49 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -1942,16 +2036,16 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1959,49 +2053,49 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AH11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2013,16 +2107,16 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2030,52 +2124,52 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K12">
         <v>2282</v>
       </c>
       <c r="S12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AH12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AJ12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2087,16 +2181,16 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ12" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AS12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2104,49 +2198,49 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>5999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K13">
         <v>2345</v>
       </c>
       <c r="S13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AH13" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2158,16 +2252,16 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ13" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AS13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2175,49 +2269,49 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14">
         <v>6000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K14">
         <v>2391</v>
       </c>
       <c r="S14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA14" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB14" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH14" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI14" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL14">
         <v>60</v>
@@ -2229,19 +2323,19 @@
         <v>140</v>
       </c>
       <c r="AP14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AQ14" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AR14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AS14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2249,49 +2343,49 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <v>10000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K15">
         <v>2403</v>
       </c>
       <c r="S15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH15" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI15" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK15" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL15">
         <v>33</v>
@@ -2303,16 +2397,16 @@
         <v>140</v>
       </c>
       <c r="AP15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS15" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT15" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2320,49 +2414,49 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16">
         <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K16">
         <v>2405</v>
       </c>
       <c r="S16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL16">
         <v>60</v>
@@ -2374,16 +2468,16 @@
         <v>72</v>
       </c>
       <c r="AP16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS16" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2391,49 +2485,49 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17">
         <v>4000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K17">
         <v>2406</v>
       </c>
       <c r="S17" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE17" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH17" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI17" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK17" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL17">
         <v>63</v>
@@ -2445,16 +2539,16 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AS17" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT17" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2462,49 +2556,49 @@
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18">
         <v>14999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <v>2433</v>
       </c>
       <c r="S18" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB18" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE18" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AH18" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI18" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ18" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL18">
         <v>65</v>
@@ -2516,19 +2610,19 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AR18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AS18" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -2536,49 +2630,49 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <v>6499</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K19">
         <v>2447</v>
       </c>
       <c r="S19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AA19" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AB19" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AC19" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AD19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AE19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AH19" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AI19" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AJ19" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AK19" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL19">
         <v>60</v>
@@ -2590,19 +2684,238 @@
         <v>140</v>
       </c>
       <c r="AP19" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ19" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AR19" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AS19" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AT19" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="4:46">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20">
+        <v>4999</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20">
+        <v>2466</v>
+      </c>
+      <c r="S20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL20">
+        <v>73</v>
+      </c>
+      <c r="AM20">
+        <v>75</v>
+      </c>
+      <c r="AN20">
+        <v>120</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="4:46">
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <v>5999</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21">
+        <v>2457</v>
+      </c>
+      <c r="S21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL21">
+        <v>80</v>
+      </c>
+      <c r="AM21">
+        <v>75</v>
+      </c>
+      <c r="AN21">
+        <v>120</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="4:46">
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <v>14999</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22">
+        <v>2287</v>
+      </c>
+      <c r="S22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL22">
+        <v>80</v>
+      </c>
+      <c r="AM22">
+        <v>75</v>
+      </c>
+      <c r="AN22">
+        <v>160</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2643,6 +2956,12 @@
     <hyperlink ref="I18" r:id="rId34"/>
     <hyperlink ref="G19" r:id="rId35"/>
     <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -218,7 +218,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -257,7 +256,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -277,7 +275,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -300,7 +297,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -374,7 +370,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -396,7 +391,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -417,7 +411,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -438,7 +431,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="138">
   <si>
     <t>Address</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Стол офисный с тумбой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кухонный стол со стульями </t>
   </si>
   <si>
     <t>Стол компьютерный ikea
@@ -734,6 +737,29 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Кухонный стол со стульями 
+Артикул 2475
+Стол кухонный в комплекте с 4 стульями
+Размеры ДхШхВ: 120х75х75
+Цвет дуб
+Цена 19 999 за комплект
+Количество 2
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
   </si>
   <si>
@@ -797,6 +823,9 @@
     <t>https://disk.yandex.ru/i/AEluXskK4wt1SA | https://disk.yandex.ru/i/Gj0YU1lKiOD9Gg | https://disk.yandex.ru/i/_Ay3ogS5KK_4Ww | https://disk.yandex.ru/i/j_bSQff8AkSbaA | https://disk.yandex.ru/i/2MYin4J66LdO3A</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/XS8P8syr8n-tsg | https://disk.yandex.ru/i/Fw4raME4MlkgDA | https://disk.yandex.ru/i/RMjXmivIqPEvIg | https://disk.yandex.ru/i/eu9heu9pwWKMkg | https://disk.yandex.ru/i/h9knrrosJX92xQ | https://disk.yandex.ru/i/ChXGthSZgil0Ug | https://disk.yandex.ru/i/WP-eykZqj0yHaw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -849,6 +878,9 @@
   </si>
   <si>
     <t>Письменный | Кухонный | Барный | Журнальный | Другой</t>
+  </si>
+  <si>
+    <t>Кухонный</t>
   </si>
   <si>
     <t>Прямоугольный</t>
@@ -1252,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT22"/>
+  <dimension ref="A1:AT23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1403,49 +1435,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AH2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1457,19 +1489,19 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AR2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1477,49 +1509,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AH3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1531,16 +1563,16 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1548,49 +1580,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AH4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1602,16 +1634,16 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1619,49 +1651,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AH5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AK5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1673,16 +1705,16 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AS5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1690,49 +1722,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1744,16 +1776,16 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AS6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AT6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1761,49 +1793,49 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1815,16 +1847,16 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AQ7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AS7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AT7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1832,49 +1864,49 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -1886,16 +1918,16 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1903,49 +1935,49 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AH9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1957,16 +1989,16 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1974,49 +2006,49 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2028,16 +2060,16 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2045,49 +2077,49 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AH11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2099,16 +2131,16 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2116,52 +2148,52 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>2282</v>
       </c>
       <c r="S12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AH12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AJ12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2173,16 +2205,16 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AS12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2190,49 +2222,49 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>5999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K13">
         <v>2345</v>
       </c>
       <c r="S13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AH13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2244,16 +2276,16 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AS13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2261,49 +2293,49 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>6000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K14">
         <v>2391</v>
       </c>
       <c r="S14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL14">
         <v>60</v>
@@ -2315,19 +2347,19 @@
         <v>140</v>
       </c>
       <c r="AP14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AQ14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AR14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AS14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2335,49 +2367,49 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>10000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K15">
         <v>2403</v>
       </c>
       <c r="S15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL15">
         <v>33</v>
@@ -2389,16 +2421,16 @@
         <v>140</v>
       </c>
       <c r="AP15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2406,49 +2438,49 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>2405</v>
       </c>
       <c r="S16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL16">
         <v>60</v>
@@ -2460,16 +2492,16 @@
         <v>72</v>
       </c>
       <c r="AP16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2477,49 +2509,49 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17">
         <v>4000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K17">
         <v>2406</v>
       </c>
       <c r="S17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL17">
         <v>63</v>
@@ -2531,16 +2563,16 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2548,49 +2580,49 @@
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18">
         <v>14999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K18">
         <v>2433</v>
       </c>
       <c r="S18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AH18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL18">
         <v>65</v>
@@ -2602,19 +2634,19 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AR18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AS18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -2622,49 +2654,49 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>6499</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K19">
         <v>2447</v>
       </c>
       <c r="S19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL19">
         <v>60</v>
@@ -2676,19 +2708,19 @@
         <v>140</v>
       </c>
       <c r="AP19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AR19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AS19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -2696,49 +2728,49 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20">
         <v>4999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K20">
         <v>2466</v>
       </c>
       <c r="S20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AH20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ20" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL20">
         <v>73</v>
@@ -2750,19 +2782,19 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AR20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AS20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="4:46">
@@ -2770,49 +2802,49 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21">
         <v>5999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K21">
         <v>2457</v>
       </c>
       <c r="S21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AH21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -2824,19 +2856,19 @@
         <v>120</v>
       </c>
       <c r="AP21" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AQ21" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AR21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AS21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AT21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="4:46">
@@ -2844,49 +2876,49 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22">
         <v>14999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K22">
         <v>2287</v>
       </c>
       <c r="S22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AB22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AH22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AK22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AL22">
         <v>80</v>
@@ -2898,16 +2930,87 @@
         <v>160</v>
       </c>
       <c r="AP22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="4:46">
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <v>19999</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23">
+        <v>2475</v>
+      </c>
+      <c r="S23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI23" t="s">
         <v>126</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>125</v>
+      <c r="AJ23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL23">
+        <v>75</v>
+      </c>
+      <c r="AM23">
+        <v>75</v>
+      </c>
+      <c r="AN23">
+        <v>120</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2954,6 +3057,8 @@
     <hyperlink ref="I21" r:id="rId40"/>
     <hyperlink ref="G22" r:id="rId41"/>
     <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -326,7 +326,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -351,7 +350,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -458,7 +456,6 @@
                  ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
                  ➕ При поиске нас в навигаторе наберите – 
                  Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
                  🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
                  -------------------------------------------------------------------
                  Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -484,7 +481,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -512,7 +508,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="143">
   <si>
     <t>Address</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">Кухонный стол со стульями </t>
+  </si>
+  <si>
+    <t>Офисный стол</t>
   </si>
   <si>
     <t>Стол компьютерный ikea
@@ -755,6 +758,57 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Офисный стол
+Артикул 2414
+Описание Продается светлый офисный стол, который станет отличным дополнением вашего рабочего пространства. Его лаконичный и современный дизайн идеально впишется в любой интерьер, придавая вашему офису свежий и стильный вид.
+Стол оснащен удобными отверстиями для проводов, что помогает поддерживать порядок на рабочем месте и обеспечивает легкий доступ к вашим устройствам. Просторная рабочая поверхность позволяет комфортно разместить всю необходимую технику и документы.
+Размер: 100х80х75
+Цвет:
+Цена: 2 499 руб
+Количество: уточняйте
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол прямой офисный
+Артикул 2239.2368
+Описание: светлый офисный стол БУ в отличном состоянии. Этот стильный и функциональный стол станет идеальным решением для вашего офиса или домашнего рабочего пространства. Стол оснащен удобными отверстиями для проводов, которые помогут организовать кабели и сохранить порядок на рабочем месте.
+Размеры ДхШхВ: 140х80х75
+Цвет
+Цена 3 999 руб
+Количество: 10 шт. (уточняйте)
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
   </si>
   <si>
@@ -819,6 +873,12 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/XS8P8syr8n-tsg | https://disk.yandex.ru/i/Fw4raME4MlkgDA | https://disk.yandex.ru/i/RMjXmivIqPEvIg | https://disk.yandex.ru/i/eu9heu9pwWKMkg | https://disk.yandex.ru/i/h9knrrosJX92xQ | https://disk.yandex.ru/i/ChXGthSZgil0Ug | https://disk.yandex.ru/i/WP-eykZqj0yHaw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/AB3e20q8hdSR5A | https://disk.yandex.ru/i/KE6rDsQzwxSYIw | https://disk.yandex.ru/i/MIwC3JxtdQVooA | https://disk.yandex.ru/i/AfzecvXffghUCQ | https://disk.yandex.ru/i/oatzz9jRTMPUww</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/4s7VLEg4C1Cg1g | https://disk.yandex.ru/i/fiQDVrqW8GEpzQ | https://disk.yandex.ru/i/5208XYZ056WWEw | https://disk.yandex.ru/i/pKJXW1tx7aer-g | https://disk.yandex.ru/i/TdQPKxcGsKOoGw</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1279,7 +1339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT23"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1430,49 +1490,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>3499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AH2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL2">
         <v>50</v>
@@ -1484,19 +1544,19 @@
         <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AR2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AS2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1504,49 +1564,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>3999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AH3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL3">
         <v>80</v>
@@ -1558,16 +1618,16 @@
         <v>116</v>
       </c>
       <c r="AP3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1575,49 +1635,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AH4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL4">
         <v>60</v>
@@ -1629,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="AP4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1646,49 +1706,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>5999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AH5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AK5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL5">
         <v>120</v>
@@ -1700,16 +1760,16 @@
         <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AS5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1717,49 +1777,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>25000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL6">
         <v>86</v>
@@ -1771,16 +1831,16 @@
         <v>150</v>
       </c>
       <c r="AP6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AQ6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AS6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AT6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1788,49 +1848,49 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>30000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL7">
         <v>86</v>
@@ -1842,16 +1902,16 @@
         <v>185</v>
       </c>
       <c r="AP7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AQ7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AS7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AT7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1859,49 +1919,49 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K8">
         <v>1691</v>
       </c>
       <c r="S8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL8">
         <v>73</v>
@@ -1913,16 +1973,16 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1930,49 +1990,49 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K9">
         <v>2066</v>
       </c>
       <c r="S9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AH9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL9">
         <v>80</v>
@@ -1984,16 +2044,16 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2001,49 +2061,49 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>2799</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K10">
         <v>2115</v>
       </c>
       <c r="S10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2055,16 +2115,16 @@
         <v>90</v>
       </c>
       <c r="AP10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2072,49 +2132,49 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>3499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K11">
         <v>2132</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2126,16 +2186,16 @@
         <v>110</v>
       </c>
       <c r="AP11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2143,52 +2203,52 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>15000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K12">
         <v>2282</v>
       </c>
       <c r="S12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AH12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AJ12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL12">
         <v>80</v>
@@ -2200,16 +2260,16 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AS12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2217,49 +2277,49 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>5999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K13">
         <v>2345</v>
       </c>
       <c r="S13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AH13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2271,16 +2331,16 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AS13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2288,49 +2348,49 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>6000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K14">
         <v>2391</v>
       </c>
       <c r="S14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL14">
         <v>60</v>
@@ -2342,19 +2402,19 @@
         <v>140</v>
       </c>
       <c r="AP14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AQ14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AR14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2362,49 +2422,49 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>10000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K15">
         <v>2403</v>
       </c>
       <c r="S15" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA15" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL15">
         <v>33</v>
@@ -2416,16 +2476,16 @@
         <v>140</v>
       </c>
       <c r="AP15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2433,49 +2493,49 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16">
         <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K16">
         <v>2405</v>
       </c>
       <c r="S16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL16">
         <v>60</v>
@@ -2487,16 +2547,16 @@
         <v>72</v>
       </c>
       <c r="AP16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2504,49 +2564,49 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17">
         <v>4000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K17">
         <v>2406</v>
       </c>
       <c r="S17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL17">
         <v>63</v>
@@ -2558,16 +2618,16 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AS17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2575,49 +2635,49 @@
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18">
         <v>14999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K18">
         <v>2433</v>
       </c>
       <c r="S18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL18">
         <v>65</v>
@@ -2629,19 +2689,19 @@
         <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ18" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AR18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -2649,49 +2709,49 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19">
         <v>6499</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K19">
         <v>2447</v>
       </c>
       <c r="S19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL19">
         <v>60</v>
@@ -2703,19 +2763,19 @@
         <v>140</v>
       </c>
       <c r="AP19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AR19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS19" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -2723,49 +2783,49 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20">
         <v>4999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K20">
         <v>2466</v>
       </c>
       <c r="S20" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA20" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL20">
         <v>73</v>
@@ -2777,19 +2837,19 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AR20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="4:46">
@@ -2797,49 +2857,49 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>5999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K21">
         <v>2457</v>
       </c>
       <c r="S21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA21" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AH21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -2851,19 +2911,19 @@
         <v>120</v>
       </c>
       <c r="AP21" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ21" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AR21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="4:46">
@@ -2871,49 +2931,49 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22">
         <v>14999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K22">
         <v>2287</v>
       </c>
       <c r="S22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA22" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB22" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AJ22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL22">
         <v>80</v>
@@ -2925,16 +2985,16 @@
         <v>160</v>
       </c>
       <c r="AP22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AQ22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AS22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AT22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="4:46">
@@ -2942,49 +3002,49 @@
         <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23">
         <v>19999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K23">
         <v>2475</v>
       </c>
       <c r="S23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA23" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AB23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC23" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AI23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AJ23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AK23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL23">
         <v>75</v>
@@ -2996,16 +3056,158 @@
         <v>120</v>
       </c>
       <c r="AP23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AQ23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AS23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AT23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="4:46">
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24">
+        <v>2499</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24">
+        <v>2414</v>
+      </c>
+      <c r="S24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI24" t="s">
         <v>129</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL24">
+        <v>80</v>
+      </c>
+      <c r="AM24">
+        <v>75</v>
+      </c>
+      <c r="AN24">
+        <v>100</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="4:46">
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25">
+        <v>3999</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25">
+        <v>2239</v>
+      </c>
+      <c r="S25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL25">
+        <v>80</v>
+      </c>
+      <c r="AM25">
+        <v>75</v>
+      </c>
+      <c r="AN25">
+        <v>140</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3054,6 +3256,10 @@
     <hyperlink ref="I22" r:id="rId42"/>
     <hyperlink ref="G23" r:id="rId43"/>
     <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="145">
   <si>
     <t>Address</t>
   </si>
@@ -154,9 +154,6 @@
     <t>CanBeDisassembled</t>
   </si>
   <si>
-    <t>Стол письменный</t>
-  </si>
-  <si>
     <t>Стол для колл центра</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Стол кухонный со стульями</t>
   </si>
   <si>
-    <t>Старинный кухонный стол со стульями</t>
-  </si>
-  <si>
     <t>Стол офисный</t>
   </si>
   <si>
@@ -187,18 +181,18 @@
     <t>Стол прямой офисный</t>
   </si>
   <si>
+    <t>Стол прямой</t>
+  </si>
+  <si>
+    <t>Ресепшн</t>
+  </si>
+  <si>
+    <t>Стол с перегородкой офисный</t>
+  </si>
+  <si>
     <t>Стол компьютерный</t>
   </si>
   <si>
-    <t>Стол прямой</t>
-  </si>
-  <si>
-    <t>Ресепшн</t>
-  </si>
-  <si>
-    <t>Стол с перегородкой офисный</t>
-  </si>
-  <si>
     <t>Стол прямой с тумбой</t>
   </si>
   <si>
@@ -211,25 +205,10 @@
     <t>Офисный стол</t>
   </si>
   <si>
-    <t>Стол компьютерный ikea
-Описание: Корпусный стол с книжными полочками и выдвижным ящиком. Отлично подойдёт как для офиса так и для использования дома. На столе есть изъяны.
-Размер: 120х50
-Цвет: венге темный
-Цена: 3500
-Количество: 8
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
+    <t>Стол круглый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный </t>
   </si>
   <si>
     <t>Акция! Скидка -35%
@@ -338,29 +317,6 @@
     </t>
   </si>
   <si>
-    <t>Старинный кухонный стол со стульями
-Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
-В комплекте идут 6 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
-Размеры ДхШхВ: 185х86х76, в сложенном состоянии д. 140
-Цвет: тёмный орех - глянец
-Цена: 30 000
-Количество: 3
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Артикул 1691
 У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. В наличии более 300 столов, которые хранятся на складе в разобранном виде. Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. К столам можем подобрать тумбы, кресла и шкафы.
 Размер. 90х73
@@ -466,30 +422,6 @@
                  Работаем уже 6 лет, развиваясь и улучшая сервисный центр
                  Можем укомплектовать 100-200 рабочих мест.
                  </t>
-  </si>
-  <si>
-    <t>Стол компьютерный
-Артикул 2345
-компьютерный стол цвета сосны на прочных металлических ножках. Стол идеально подходит для продуктивной работы как в офисе, так и дома. Встроенное отверстие для проводов помогает организовать рабочее пространство, обеспечивая аккуратное размещение техники и аксессуаров.
-Металлические ножки придают столу прочность и устойчивость, а просторная столешница позволяет удобно разместить всё необходимое для работы.
-Размеры ДхШхВ: 160х80х72
-Цвет: сосна 
-Цена: 5999 руб
-Количество: 24
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t xml:space="preserve">Стол прямой
@@ -809,7 +741,76 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/1ECJQ0F1yLJ9gw | https://disk.yandex.ru/i/T5xWcskBnk9ZOQ | https://disk.yandex.ru/i/7c51qn-R5T3ohw | https://disk.yandex.ru/i/5huNlV4k_s-4Ew | https://disk.yandex.ru/i/GdcG2R03G4-wMA | https://disk.yandex.ru/i/4r1is6qsKE2hXA | https://disk.yandex.ru/i/hBu3QeA3QBbpWA</t>
+    <t xml:space="preserve">Стол круглый
+Артикул 2490
+Круглый стол в хорошем состоянии, отлично подойдёт для кафе, столовых и дачи.
+Размеры ДхШхВ: 80х80х72
+Цвет белый
+Цена 1 499 за 1 шт 
+Количество 6 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол офисный
+Артикул 2489
+Размер ДхШхВ: 120х60х75
+Цвет бук
+Есть лёгкие изъяны.
+Цена 2000 руб за 1 шт.
+Наличии: 42 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол компьютерный 
+Артикул 2488
+Размеры ДхШхВ: 120х60х75
+Цвет бук
+Цена 3000 руб.за 1шт.
+Наличии: 34 шт
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
@@ -824,9 +825,6 @@
     <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/UVtMjoIUjQb_GA | https://disk.yandex.ru/i/AjpyelxFKRLKyA | https://disk.yandex.ru/i/IsAorN-UJb_eDw | https://disk.yandex.ru/i/y-O6o-WaD3SAdA | https://disk.yandex.ru/i/Bp1PVANaPOxvXA | https://disk.yandex.ru/i/_SgJaxYM2A4qOg | https://disk.yandex.ru/i/x0Xbo35IV0wX9A | https://disk.yandex.ru/i/wUxSC1YtyrPGuQ | https://disk.yandex.ru/i/irT74aOCSg8m6g | https://disk.yandex.ru/i/bt8IQuFQ1L8Stg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
   </si>
   <si>
@@ -842,9 +840,6 @@
     <t>https://disk.yandex.ru/i/Ju3be5q0kZxmBw | https://disk.yandex.ru/i/Uev-vxK_XUPUHg | https://disk.yandex.ru/i/XVbazn2W3GwOkA | https://disk.yandex.ru/i/lQs_P9OQCuM-fA | https://disk.yandex.ru/i/r1iOSCzT9ZA7KA | https://disk.yandex.ru/i/G23BTzxYokf9hQ | https://disk.yandex.ru/i/JhWtxQl-VM-O0Q</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/-TnxJEiT2xXUIA | https://disk.yandex.ru/i/1cOUhbOrEur1fw | https://disk.yandex.ru/i/LBArfvk7QuMt_Q | https://disk.yandex.ru/i/dOesFc-aeDLTzg | https://disk.yandex.ru/i/JaGcLETeVWk_jw | https://disk.yandex.ru/i/AWHZI6Yiyid9WQ | https://disk.yandex.ru/i/v-VkO2SAJpsosg | https://disk.yandex.ru/i/4V-FUhmqBmGfJw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
   </si>
   <si>
@@ -881,6 +876,15 @@
     <t>https://disk.yandex.ru/i/4s7VLEg4C1Cg1g | https://disk.yandex.ru/i/fiQDVrqW8GEpzQ | https://disk.yandex.ru/i/5208XYZ056WWEw | https://disk.yandex.ru/i/pKJXW1tx7aer-g | https://disk.yandex.ru/i/TdQPKxcGsKOoGw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/fbVpJ5gZLKr0Bg | https://disk.yandex.ru/i/qVjc-ANdxHjYMg | https://disk.yandex.ru/i/Q0Ao7PZU3sXFmg | https://disk.yandex.ru/i/wAhXzI7xcTGWIg | https://disk.yandex.ru/i/tNHe1pN_44WG-Q | https://disk.yandex.ru/i/PMhLvhbFlx45Sg | https://disk.yandex.ru/i/15ykNPmXXXEDng | https://disk.yandex.ru/i/x6XCpw2fOkjQFA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/b5GeY9kKD9nUaw | https://disk.yandex.ru/i/IpTftHUV3M8Rcw | https://disk.yandex.ru/i/FGAJpBZJp6VGGQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YzBEMkhF9QH5qg | https://disk.yandex.ru/i/NsqwBAENGCKvsw | https://disk.yandex.ru/i/LS0LuxHfcZ4CWA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -902,12 +906,12 @@
     <t>В наличии</t>
   </si>
   <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
     <t>Чёрный</t>
   </si>
   <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
     <t>Коричневый</t>
   </si>
   <si>
@@ -917,10 +921,16 @@
     <t>Белый</t>
   </si>
   <si>
+    <t>Серый</t>
+  </si>
+  <si>
     <t>Бежевый</t>
   </si>
   <si>
-    <t>Серый</t>
+    <t>Жёлтый</t>
+  </si>
+  <si>
+    <t>Оранжевый</t>
   </si>
   <si>
     <t xml:space="preserve"> Сосна</t>
@@ -944,6 +954,9 @@
     <t>Квадратный</t>
   </si>
   <si>
+    <t>Круглый</t>
+  </si>
+  <si>
     <t>Нет</t>
   </si>
   <si>
@@ -957,9 +970,6 @@
   </si>
   <si>
     <t>Металл</t>
-  </si>
-  <si>
-    <t>Тумба | Ящик</t>
   </si>
   <si>
     <t>Тумба</t>
@@ -1493,7 +1503,7 @@
         <v>65</v>
       </c>
       <c r="F2">
-        <v>3499</v>
+        <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>89</v>
@@ -1523,40 +1533,37 @@
         <v>120</v>
       </c>
       <c r="AH2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AM2">
         <v>75</v>
       </c>
       <c r="AN2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AS2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1567,7 +1574,7 @@
         <v>66</v>
       </c>
       <c r="F3">
-        <v>3999</v>
+        <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>90</v>
@@ -1597,37 +1604,37 @@
         <v>121</v>
       </c>
       <c r="AH3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN3">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1638,7 +1645,7 @@
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1499</v>
+        <v>5999</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>91</v>
@@ -1665,40 +1672,40 @@
         <v>119</v>
       </c>
       <c r="AE4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL4">
         <v>120</v>
       </c>
-      <c r="AH4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL4">
-        <v>60</v>
-      </c>
       <c r="AM4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN4">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="AP4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AS4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1709,7 +1716,7 @@
         <v>68</v>
       </c>
       <c r="F5">
-        <v>5999</v>
+        <v>25000</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>92</v>
@@ -1727,7 +1734,7 @@
         <v>115</v>
       </c>
       <c r="AB5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC5" t="s">
         <v>118</v>
@@ -1736,40 +1743,40 @@
         <v>119</v>
       </c>
       <c r="AE5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL5">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="AM5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN5">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AQ5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1780,7 +1787,7 @@
         <v>69</v>
       </c>
       <c r="F6">
-        <v>25000</v>
+        <v>2499</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>93</v>
@@ -1789,7 +1796,7 @@
         <v>113</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>1691</v>
       </c>
       <c r="S6" t="s">
         <v>114</v>
@@ -1798,7 +1805,7 @@
         <v>115</v>
       </c>
       <c r="AB6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s">
         <v>118</v>
@@ -1810,37 +1817,37 @@
         <v>122</v>
       </c>
       <c r="AH6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL6">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AM6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN6">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AP6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AQ6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AS6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AT6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1851,7 +1858,7 @@
         <v>70</v>
       </c>
       <c r="F7">
-        <v>30000</v>
+        <v>3999</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>94</v>
@@ -1860,7 +1867,7 @@
         <v>113</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2066</v>
       </c>
       <c r="S7" t="s">
         <v>114</v>
@@ -1869,7 +1876,7 @@
         <v>115</v>
       </c>
       <c r="AB7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC7" t="s">
         <v>118</v>
@@ -1878,40 +1885,40 @@
         <v>119</v>
       </c>
       <c r="AE7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL7">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AM7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN7">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AQ7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AS7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AT7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1922,7 +1929,7 @@
         <v>71</v>
       </c>
       <c r="F8">
-        <v>2499</v>
+        <v>2799</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>95</v>
@@ -1931,7 +1938,7 @@
         <v>113</v>
       </c>
       <c r="K8">
-        <v>1691</v>
+        <v>2115</v>
       </c>
       <c r="S8" t="s">
         <v>114</v>
@@ -1952,37 +1959,37 @@
         <v>122</v>
       </c>
       <c r="AH8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL8">
+        <v>60</v>
+      </c>
+      <c r="AM8">
         <v>73</v>
-      </c>
-      <c r="AM8">
-        <v>75</v>
       </c>
       <c r="AN8">
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1993,7 +2000,7 @@
         <v>72</v>
       </c>
       <c r="F9">
-        <v>3999</v>
+        <v>3499</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>96</v>
@@ -2002,7 +2009,7 @@
         <v>113</v>
       </c>
       <c r="K9">
-        <v>2066</v>
+        <v>2132</v>
       </c>
       <c r="S9" t="s">
         <v>114</v>
@@ -2020,40 +2027,40 @@
         <v>119</v>
       </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN9">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AP9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2064,7 +2071,7 @@
         <v>73</v>
       </c>
       <c r="F10">
-        <v>2799</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>97</v>
@@ -2073,7 +2080,7 @@
         <v>113</v>
       </c>
       <c r="K10">
-        <v>2115</v>
+        <v>2282</v>
       </c>
       <c r="S10" t="s">
         <v>114</v>
@@ -2082,7 +2089,7 @@
         <v>115</v>
       </c>
       <c r="AB10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC10" t="s">
         <v>118</v>
@@ -2091,40 +2098,43 @@
         <v>119</v>
       </c>
       <c r="AE10" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>129</v>
       </c>
       <c r="AH10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL10">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN10">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AS10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2135,7 +2145,7 @@
         <v>74</v>
       </c>
       <c r="F11">
-        <v>3499</v>
+        <v>6000</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>98</v>
@@ -2144,7 +2154,7 @@
         <v>113</v>
       </c>
       <c r="K11">
-        <v>2132</v>
+        <v>2391</v>
       </c>
       <c r="S11" t="s">
         <v>114</v>
@@ -2153,7 +2163,7 @@
         <v>115</v>
       </c>
       <c r="AB11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC11" t="s">
         <v>118</v>
@@ -2162,40 +2172,43 @@
         <v>119</v>
       </c>
       <c r="AE11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL11">
         <v>60</v>
       </c>
       <c r="AM11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN11">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AP11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ11" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>142</v>
       </c>
       <c r="AS11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2206,7 +2219,7 @@
         <v>75</v>
       </c>
       <c r="F12">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>99</v>
@@ -2215,7 +2228,7 @@
         <v>113</v>
       </c>
       <c r="K12">
-        <v>2282</v>
+        <v>2403</v>
       </c>
       <c r="S12" t="s">
         <v>114</v>
@@ -2233,43 +2246,40 @@
         <v>119</v>
       </c>
       <c r="AE12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AH12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL12">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="AM12">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="AN12">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ12" t="s">
         <v>138</v>
       </c>
       <c r="AS12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2280,7 +2290,7 @@
         <v>76</v>
       </c>
       <c r="F13">
-        <v>5999</v>
+        <v>1499</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>100</v>
@@ -2289,7 +2299,7 @@
         <v>113</v>
       </c>
       <c r="K13">
-        <v>2345</v>
+        <v>2405</v>
       </c>
       <c r="S13" t="s">
         <v>114</v>
@@ -2307,40 +2317,40 @@
         <v>119</v>
       </c>
       <c r="AE13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL13">
+        <v>60</v>
+      </c>
+      <c r="AM13">
         <v>125</v>
       </c>
-      <c r="AH13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL13">
-        <v>80</v>
-      </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>72</v>
       </c>
-      <c r="AN13">
-        <v>160</v>
-      </c>
       <c r="AP13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ13" t="s">
         <v>138</v>
       </c>
       <c r="AS13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2351,7 +2361,7 @@
         <v>77</v>
       </c>
       <c r="F14">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>101</v>
@@ -2360,7 +2370,7 @@
         <v>113</v>
       </c>
       <c r="K14">
-        <v>2391</v>
+        <v>2406</v>
       </c>
       <c r="S14" t="s">
         <v>114</v>
@@ -2381,51 +2391,48 @@
         <v>122</v>
       </c>
       <c r="AH14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL14">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AM14">
         <v>75</v>
       </c>
       <c r="AN14">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AQ14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:46">
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>78</v>
       </c>
       <c r="F15">
-        <v>10000</v>
+        <v>14999</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>102</v>
@@ -2434,7 +2441,7 @@
         <v>113</v>
       </c>
       <c r="K15">
-        <v>2403</v>
+        <v>2433</v>
       </c>
       <c r="S15" t="s">
         <v>114</v>
@@ -2452,51 +2459,54 @@
         <v>119</v>
       </c>
       <c r="AE15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AH15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL15">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="AM15">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="AN15">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ15" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>142</v>
       </c>
       <c r="AS15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:46">
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
         <v>79</v>
       </c>
       <c r="F16">
-        <v>1499</v>
+        <v>6499</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>103</v>
@@ -2505,7 +2515,7 @@
         <v>113</v>
       </c>
       <c r="K16">
-        <v>2405</v>
+        <v>2447</v>
       </c>
       <c r="S16" t="s">
         <v>114</v>
@@ -2526,48 +2536,51 @@
         <v>122</v>
       </c>
       <c r="AH16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL16">
         <v>60</v>
       </c>
       <c r="AM16">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AN16">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="AP16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ16" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>142</v>
       </c>
       <c r="AS16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="4:46">
       <c r="D17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>80</v>
       </c>
       <c r="F17">
-        <v>4000</v>
+        <v>4999</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>104</v>
@@ -2576,7 +2589,7 @@
         <v>113</v>
       </c>
       <c r="K17">
-        <v>2406</v>
+        <v>2466</v>
       </c>
       <c r="S17" t="s">
         <v>114</v>
@@ -2594,22 +2607,22 @@
         <v>119</v>
       </c>
       <c r="AE17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AH17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL17">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AM17">
         <v>75</v>
@@ -2618,27 +2631,30 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ17" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>142</v>
       </c>
       <c r="AS17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="4:46">
       <c r="D18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
       </c>
       <c r="F18">
-        <v>14999</v>
+        <v>5999</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>105</v>
@@ -2647,7 +2663,7 @@
         <v>113</v>
       </c>
       <c r="K18">
-        <v>2433</v>
+        <v>2457</v>
       </c>
       <c r="S18" t="s">
         <v>114</v>
@@ -2668,51 +2684,51 @@
         <v>126</v>
       </c>
       <c r="AH18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL18">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM18">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN18">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ18" t="s">
         <v>138</v>
       </c>
       <c r="AR18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AS18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
       </c>
       <c r="F19">
-        <v>6499</v>
+        <v>14999</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>106</v>
@@ -2721,7 +2737,7 @@
         <v>113</v>
       </c>
       <c r="K19">
-        <v>2447</v>
+        <v>2287</v>
       </c>
       <c r="S19" t="s">
         <v>114</v>
@@ -2739,43 +2755,40 @@
         <v>119</v>
       </c>
       <c r="AE19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AH19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL19">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM19">
         <v>75</v>
       </c>
       <c r="AN19">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AP19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AS19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -2786,7 +2799,7 @@
         <v>83</v>
       </c>
       <c r="F20">
-        <v>4999</v>
+        <v>19999</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>107</v>
@@ -2795,7 +2808,7 @@
         <v>113</v>
       </c>
       <c r="K20">
-        <v>2466</v>
+        <v>2475</v>
       </c>
       <c r="S20" t="s">
         <v>114</v>
@@ -2813,22 +2826,22 @@
         <v>119</v>
       </c>
       <c r="AE20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AJ20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL20">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM20">
         <v>75</v>
@@ -2837,19 +2850,16 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AQ20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="4:46">
@@ -2860,7 +2870,7 @@
         <v>84</v>
       </c>
       <c r="F21">
-        <v>5999</v>
+        <v>2499</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>108</v>
@@ -2869,7 +2879,7 @@
         <v>113</v>
       </c>
       <c r="K21">
-        <v>2457</v>
+        <v>2414</v>
       </c>
       <c r="S21" t="s">
         <v>114</v>
@@ -2887,19 +2897,19 @@
         <v>119</v>
       </c>
       <c r="AE21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -2908,33 +2918,30 @@
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ21" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="4:46">
       <c r="D22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>85</v>
       </c>
       <c r="F22">
-        <v>14999</v>
+        <v>3999</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>109</v>
@@ -2943,7 +2950,7 @@
         <v>113</v>
       </c>
       <c r="K22">
-        <v>2287</v>
+        <v>2239</v>
       </c>
       <c r="S22" t="s">
         <v>114</v>
@@ -2964,16 +2971,16 @@
         <v>124</v>
       </c>
       <c r="AH22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL22">
         <v>80</v>
@@ -2982,19 +2989,19 @@
         <v>75</v>
       </c>
       <c r="AN22">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ22" t="s">
         <v>138</v>
       </c>
       <c r="AS22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="4:46">
@@ -3005,7 +3012,7 @@
         <v>86</v>
       </c>
       <c r="F23">
-        <v>19999</v>
+        <v>1499</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>110</v>
@@ -3014,7 +3021,7 @@
         <v>113</v>
       </c>
       <c r="K23">
-        <v>2475</v>
+        <v>2490</v>
       </c>
       <c r="S23" t="s">
         <v>114</v>
@@ -3032,51 +3039,51 @@
         <v>119</v>
       </c>
       <c r="AE23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AH23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL23">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM23">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN23">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AP23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AQ23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AT23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="4:46">
       <c r="D24" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>87</v>
       </c>
       <c r="F24">
-        <v>2499</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>111</v>
@@ -3085,7 +3092,7 @@
         <v>113</v>
       </c>
       <c r="K24">
-        <v>2414</v>
+        <v>2489</v>
       </c>
       <c r="S24" t="s">
         <v>114</v>
@@ -3103,51 +3110,51 @@
         <v>119</v>
       </c>
       <c r="AE24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AH24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL24">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM24">
         <v>75</v>
       </c>
       <c r="AN24">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AP24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="4:46">
       <c r="D25" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
       </c>
       <c r="F25">
-        <v>3999</v>
+        <v>3000</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>112</v>
@@ -3156,7 +3163,7 @@
         <v>113</v>
       </c>
       <c r="K25">
-        <v>2239</v>
+        <v>2488</v>
       </c>
       <c r="S25" t="s">
         <v>114</v>
@@ -3174,40 +3181,40 @@
         <v>119</v>
       </c>
       <c r="AE25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AH25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL25">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM25">
         <v>75</v>
       </c>
       <c r="AN25">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AQ25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AS25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AT25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8794004D-E211-477E-9689-90F533393839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="149">
   <si>
     <t>Address</t>
   </si>
@@ -196,9 +202,6 @@
     <t>Стол прямой с тумбой</t>
   </si>
   <si>
-    <t>Стол офисный с тумбой</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кухонный стол со стульями </t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">Стол компьютерный </t>
+  </si>
+  <si>
+    <t>Стол кухонный</t>
   </si>
   <si>
     <t>Акция! Скидка -35%
@@ -616,33 +622,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Стол офисный с тумбой
-Артикул 2457
-Описание
-Размеры ДхШхВ: 120х80х75
-Цвет сосная
-Цена 5 999
-Количество 2
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стол прямой офисный
 Артикул 2287-88
 Компьютерный стол производства Германии, от известной фирмы Steelcase. Стол на регулируемых металлических ножках высота от 67-82, выполнен из высококачественных материалов и имеет презентабельный вид. 
@@ -813,6 +792,57 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Стол офисный
+Артикул 2491
+Представляем вашему вниманию белоснежный офисный стол. Этот стол - идеальное решение для создания светлого и элегантного рабочего уголка как дома, так и в офисе.
+Кроме того, у нас имеется широкий выбор белых тумб различных видов, которые идеально дополнят ваше рабочее пространство, обеспечивая дополнительное хранение и организацию.
+Размеры ДхШхВ: 120х73х75
+Цвет белый
+Цена 2 999 - 3 499 в зависимости от состояния 
+Количество: 19 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол кухонный
+Артикул 25
+Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
+Размеры ДхШхВ: 150х86х76, в сложенном состоянии д. 120
+Цвет: тёмный орех - глянец
+Цена: 4 999. Скидка - 50%  9 999
+Количество: 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
   </si>
   <si>
@@ -861,9 +891,6 @@
     <t>https://disk.yandex.ru/i/BqyasWmEnxMBjg | https://disk.yandex.ru/i/2E1r3aknL0boUw | https://disk.yandex.ru/i/RVcef_MotjA-BQ | https://disk.yandex.ru/i/g1jcaXIx2MRFKA | https://disk.yandex.ru/i/vIuuNQQO8yMtgQ | https://disk.yandex.ru/i/ff9Ydhs9ogstsg | https://disk.yandex.ru/i/0fakXRxUMQ0KlA | https://disk.yandex.ru/i/r06JjLI4pStfbA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/520v92Y4P_3yUA | https://disk.yandex.ru/i/b6I08x_6QSAVkQ | https://disk.yandex.ru/i/XZdutHBRb5WLAA | https://disk.yandex.ru/i/E2xelbTcxpQYIQ | https://disk.yandex.ru/i/RjJM1_7KMX8bTQ | https://disk.yandex.ru/i/m72rHtmzif8doQ | https://disk.yandex.ru/i/-L6Srr69vWFwbQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/AEluXskK4wt1SA | https://disk.yandex.ru/i/Gj0YU1lKiOD9Gg | https://disk.yandex.ru/i/_Ay3ogS5KK_4Ww | https://disk.yandex.ru/i/j_bSQff8AkSbaA | https://disk.yandex.ru/i/2MYin4J66LdO3A</t>
   </si>
   <si>
@@ -885,6 +912,9 @@
     <t>https://disk.yandex.ru/i/YzBEMkhF9QH5qg | https://disk.yandex.ru/i/NsqwBAENGCKvsw | https://disk.yandex.ru/i/LS0LuxHfcZ4CWA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/MNp02yWvNL5YZw | https://disk.yandex.ru/i/EAuaU_QuqspSVg | https://disk.yandex.ru/i/Ge6cAuB-Tj4vPw | https://disk.yandex.ru/i/-nFVx3UuHnFFcw | https://disk.yandex.ru/i/glib5nBo9D3Fkg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -957,6 +987,9 @@
     <t>Круглый</t>
   </si>
   <si>
+    <t>Овальный</t>
+  </si>
+  <si>
     <t>Нет</t>
   </si>
   <si>
@@ -979,13 +1012,19 @@
   </si>
   <si>
     <t>Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>Кабинет | Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/dto5pXCbvIFjBQ | https://disk.yandex.ru/i/pgTQPQOKgWY_Cw | https://disk.yandex.ru/i/IOBS2b1IDc01LA | https://disk.yandex.ru/i/BiCXwtNsAXYANg | https://disk.yandex.ru/i/dc9LprmrpyvZXA | https://disk.yandex.ru/i/CrTC4iSu-WDZ3A | https://disk.yandex.ru/i/1EdJWIZGIWcylQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,18 +1095,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1105,9 +1152,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,9 +1186,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1173,9 +1238,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1348,14 +1431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1506,43 +1591,43 @@
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AH2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1554,19 +1639,19 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1577,43 +1662,43 @@
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1625,19 +1710,19 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1648,43 +1733,43 @@
         <v>5999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL4">
         <v>120</v>
@@ -1696,19 +1781,19 @@
         <v>120</v>
       </c>
       <c r="AP4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AS4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1719,43 +1804,43 @@
         <v>25000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL5">
         <v>86</v>
@@ -1767,19 +1852,19 @@
         <v>150</v>
       </c>
       <c r="AP5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AQ5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AS5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AT5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1790,43 +1875,43 @@
         <v>2499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>1691</v>
       </c>
       <c r="S6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL6">
         <v>73</v>
@@ -1838,19 +1923,19 @@
         <v>90</v>
       </c>
       <c r="AP6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1861,43 +1946,43 @@
         <v>3999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7">
         <v>2066</v>
       </c>
       <c r="S7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1909,19 +1994,19 @@
         <v>140</v>
       </c>
       <c r="AP7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -1932,43 +2017,43 @@
         <v>2799</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K8">
         <v>2115</v>
       </c>
       <c r="S8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL8">
         <v>60</v>
@@ -1980,19 +2065,19 @@
         <v>90</v>
       </c>
       <c r="AP8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -2003,43 +2088,43 @@
         <v>3499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K9">
         <v>2132</v>
       </c>
       <c r="S9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2051,19 +2136,19 @@
         <v>110</v>
       </c>
       <c r="AP9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -2074,46 +2159,46 @@
         <v>15000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10">
         <v>2282</v>
       </c>
       <c r="S10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL10">
         <v>80</v>
@@ -2125,19 +2210,19 @@
         <v>160</v>
       </c>
       <c r="AP10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AS10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>55</v>
       </c>
@@ -2148,43 +2233,43 @@
         <v>6000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11">
         <v>2391</v>
       </c>
       <c r="S11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2196,22 +2281,22 @@
         <v>140</v>
       </c>
       <c r="AP11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AQ11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AR11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AS11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>56</v>
       </c>
@@ -2222,43 +2307,43 @@
         <v>10000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K12">
         <v>2403</v>
       </c>
       <c r="S12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL12">
         <v>33</v>
@@ -2270,19 +2355,19 @@
         <v>140</v>
       </c>
       <c r="AP12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>57</v>
       </c>
@@ -2293,43 +2378,43 @@
         <v>1499</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K13">
         <v>2405</v>
       </c>
       <c r="S13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL13">
         <v>60</v>
@@ -2341,19 +2426,19 @@
         <v>72</v>
       </c>
       <c r="AP13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>58</v>
       </c>
@@ -2364,43 +2449,43 @@
         <v>4000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K14">
         <v>2406</v>
       </c>
       <c r="S14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL14">
         <v>63</v>
@@ -2412,19 +2497,19 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>58</v>
       </c>
@@ -2435,43 +2520,43 @@
         <v>14999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K15">
         <v>2433</v>
       </c>
       <c r="S15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL15">
         <v>65</v>
@@ -2483,22 +2568,22 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AR15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AS15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -2509,43 +2594,43 @@
         <v>6499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K16">
         <v>2447</v>
       </c>
       <c r="S16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL16">
         <v>60</v>
@@ -2557,22 +2642,22 @@
         <v>140</v>
       </c>
       <c r="AP16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AR16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AS16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="17" spans="4:46">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>59</v>
       </c>
@@ -2583,43 +2668,43 @@
         <v>4999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17">
         <v>2466</v>
       </c>
       <c r="S17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL17">
         <v>73</v>
@@ -2631,69 +2716,69 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AR17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AS17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="18" spans="4:46">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
       </c>
       <c r="F18">
-        <v>5999</v>
+        <v>14999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18">
-        <v>2457</v>
+        <v>2287</v>
       </c>
       <c r="S18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2702,96 +2787,93 @@
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AS18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="19" spans="4:46">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
       </c>
       <c r="F19">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19">
-        <v>2287</v>
+        <v>2475</v>
       </c>
       <c r="S19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL19">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM19">
         <v>75</v>
       </c>
       <c r="AN19">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AQ19" t="s">
         <v>141</v>
       </c>
       <c r="AS19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AT19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="20" spans="4:46">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>61</v>
       </c>
@@ -2799,117 +2881,117 @@
         <v>83</v>
       </c>
       <c r="F20">
-        <v>19999</v>
+        <v>2499</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20">
-        <v>2475</v>
+        <v>2414</v>
       </c>
       <c r="S20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AH20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL20">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM20">
         <v>75</v>
       </c>
       <c r="AN20">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AS20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AT20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="21" spans="4:46">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>84</v>
       </c>
       <c r="F21">
-        <v>2499</v>
+        <v>3999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K21">
-        <v>2414</v>
+        <v>2239</v>
       </c>
       <c r="S21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL21">
         <v>80</v>
@@ -2918,211 +3000,211 @@
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="22" spans="4:46">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>85</v>
       </c>
       <c r="F22">
-        <v>3999</v>
+        <v>1499</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K22">
-        <v>2239</v>
+        <v>2490</v>
       </c>
       <c r="S22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AH22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL22">
         <v>80</v>
       </c>
       <c r="AM22">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN22">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AS22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AT22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="23" spans="4:46">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
         <v>86</v>
       </c>
       <c r="F23">
-        <v>1499</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="S23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AH23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL23">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM23">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN23">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AS23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AT23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="24" spans="4:46">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>87</v>
       </c>
       <c r="F24">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K24">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="S24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AH24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL24">
         <v>60</v>
@@ -3134,69 +3216,69 @@
         <v>120</v>
       </c>
       <c r="AP24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="25" spans="4:46">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
       </c>
       <c r="F25">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="S25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AE25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AH25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL25">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AM25">
         <v>75</v>
@@ -3205,68 +3287,140 @@
         <v>120</v>
       </c>
       <c r="AP25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>4999</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="S26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>138</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>137</v>
+      <c r="AK26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL26">
+        <v>86</v>
+      </c>
+      <c r="AM26">
+        <v>76</v>
+      </c>
+      <c r="AN26">
+        <v>150</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8794004D-E211-477E-9689-90F533393839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A914A4-0CF5-4E18-A8EF-87A21F62AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="139">
   <si>
     <t>Address</t>
   </si>
@@ -166,12 +166,6 @@
     <t>Стол офисный для колл центра</t>
   </si>
   <si>
-    <t>Офисный стол с перегородкой</t>
-  </si>
-  <si>
-    <t>Стол кухонный со стульями</t>
-  </si>
-  <si>
     <t>Стол офисный</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
   </si>
   <si>
     <t>Стол прямой</t>
-  </si>
-  <si>
-    <t>Ресепшн</t>
   </si>
   <si>
     <t>Стол с перегородкой офисный</t>
@@ -274,55 +265,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Офисный стол на два рабочих места
-Описание
-Размеры ДхШхВ: 123х120х75
-Цвет: венге
-Цена: 5 999 руб 
-Количество: 3
-У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. В наличии более 300 столов, которые хранятся на складе в разобранном виде. Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол кухонный со стульями
-Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
-В комплекте идут 4 стильных стула, идеально сочетающихся со столом. Они дополняют интерьер и обеспечивают комфорт за обедом или в гостиной. Этот комплект мебели станет украшением любого помещения, создавая атмосферу уюта и респектабельности.
-Размеры ДхШхВ: 150х86х76, в сложенном состоянии д. 120
-Цвет: тёмный орех - глянец
-Цена: 25 000.
-Количество: 6
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Артикул 1691
 У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. В наличии более 300 столов, которые хранятся на складе в разобранном виде. Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. К столам можем подобрать тумбы, кресла и шкафы.
 Размер. 90х73
@@ -438,42 +380,6 @@
 Цвет светлый орех
 Цена 6 000
 Количество уточняйте
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ресепшн
-Артикул 2403
-Просторный и стильный ресепшен цвета орех с металлическими вставками — это идеальное сочетание современного дизайна, функциональности и комфорта. Он создан, чтобы подчеркнуть профессионализм вашей компании и обеспечить удобство для сотрудников и посетителей.
-Преимущества:
-- Большой размер: предоставляет достаточно пространства для работы нескольких сотрудников одновременно.
-- Металлические вставки: придают стойке современный и презентабельный вид.
-- Столы с отверстиями для проводов: помогают поддерживать порядок, упрощая подключение техники.
-- Внутренние полки: удобное хранение документов, канцелярии и личных вещей
-Размер ДхШхВ: 140х33х120 - 2 секции
-120х33х120 - 1
-100х33х120 - 1
-140х40х76 - 2 стола
-80х40х76 - 1 стол
-Цвет орех
-Цена: 10 000 за секцию
-Количество 1
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
     Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
@@ -849,12 +755,6 @@
     <t>https://disk.yandex.ru/i/yLK_eXkg8u8APg | https://disk.yandex.ru/i/-3T8k7f34enU9A | https://disk.yandex.ru/i/p0pZnmHeB7_ELg | https://disk.yandex.ru/i/10-hdbKLUk8_Gw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/1Opl7CtwAvYwKg | https://disk.yandex.ru/i/D_OdHR8rBlyvmg | https://disk.yandex.ru/i/X5vGJqyFMyymHw | https://disk.yandex.ru/i/6PuY0Ry6xL9TQA | https://disk.yandex.ru/i/Tgs8lFAgzbna8A | https://disk.yandex.ru/i/pZ1guHmzy8g3qw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/0PfLYvOxpDvRag | https://disk.yandex.ru/i/mWPJVTGH6GuhQA | https://disk.yandex.ru/i/XPFXklZ5KcX0Yg | https://disk.yandex.ru/i/NslKmPmgmH_VDw | https://disk.yandex.ru/i/4WPET4f_abPKaA | https://disk.yandex.ru/i/YN6OQKa6eXh2OQ | https://disk.yandex.ru/i/ZFOAMRrnlU8npQ | https://disk.yandex.ru/i/nKtIyiSlmpkGhg | https://disk.yandex.ru/i/I6rUCP08LIIrSw | https://disk.yandex.ru/i/sywD61bk82WGKg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/OsZaifW59yo5eg | https://disk.yandex.ru/i/btOsuFEm21CpxA | https://disk.yandex.ru/i/ibl9UzfpnduLgw | https://disk.yandex.ru/i/8WK113hTqJssPw | https://disk.yandex.ru/i/1or18fgYXnKkxQ</t>
   </si>
   <si>
@@ -873,9 +773,6 @@
     <t>https://disk.yandex.ru/i/GELP296kcZbYrg | https://disk.yandex.ru/i/UuD5nwN66uDRTA | https://disk.yandex.ru/i/YtWLl2lISIWuMQ | https://disk.yandex.ru/i/hbdr5qpxWJR8ew | https://disk.yandex.ru/i/yp3gsm1bfOgzRg | https://disk.yandex.ru/i/oupKwPQMLRsqQw | https://disk.yandex.ru/i/LI8KvzJB1PaI-g | https://disk.yandex.ru/i/k_cBCzOIirbKAw | https://disk.yandex.ru/i/Qd9EKJI6tDouwA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/I8Uv220ZcCErDg | https://disk.yandex.ru/i/Bou-J10O9fTcOw | https://disk.yandex.ru/i/m3GYGkUuN4jPzQ | https://disk.yandex.ru/i/LOE95xtfVjuUbQ | https://disk.yandex.ru/i/gI40jp71OfWDUw | https://disk.yandex.ru/i/CbQnvBK8z7TzFA | https://disk.yandex.ru/i/teNitwgX_yswQA | https://disk.yandex.ru/i/g0S4Q7WrHb6uww | https://disk.yandex.ru/i/IOXabVHBF-_A-g</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/CmEk-NECdwHB8w | https://disk.yandex.ru/i/q1G5qvIrqPC9IA | https://disk.yandex.ru/i/3l46czErhki8ew | https://disk.yandex.ru/i/RVzEhNjI-JrmDQ | https://disk.yandex.ru/i/xwXN3y4xXXlm1w | https://disk.yandex.ru/i/0yyml94uKUfR4A</t>
   </si>
   <si>
@@ -979,9 +876,6 @@
   </si>
   <si>
     <t>Прямоугольный</t>
-  </si>
-  <si>
-    <t>Квадратный</t>
   </si>
   <si>
     <t>Круглый</t>
@@ -1432,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT26"/>
+  <dimension ref="A1:AT23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,49 +1479,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AA2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AB2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AC2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AD2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AE2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AH2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AJ2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1639,16 +1533,16 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AS2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -1656,49 +1550,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AA3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AB3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AC3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AD3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AE3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH3" t="s">
         <v>122</v>
       </c>
-      <c r="AH3" t="s">
-        <v>131</v>
-      </c>
       <c r="AI3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AJ3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1710,16 +1604,16 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AS3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -1727,70 +1621,70 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>5999</v>
+        <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
+        <v>1691</v>
+      </c>
+      <c r="S4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE4" t="s">
         <v>114</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>122</v>
       </c>
-      <c r="AH4" t="s">
-        <v>131</v>
-      </c>
       <c r="AI4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AJ4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AK4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL4">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="AM4">
         <v>75</v>
       </c>
       <c r="AN4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -1798,70 +1692,70 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>25000</v>
+        <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2066</v>
       </c>
       <c r="S5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE5" t="s">
         <v>115</v>
       </c>
-      <c r="AA5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI5" t="s">
         <v>123</v>
       </c>
-      <c r="AH5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL5">
+        <v>80</v>
+      </c>
+      <c r="AM5">
+        <v>75</v>
+      </c>
+      <c r="AN5">
+        <v>140</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS5" t="s">
         <v>135</v>
       </c>
-      <c r="AK5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL5">
-        <v>86</v>
-      </c>
-      <c r="AM5">
-        <v>76</v>
-      </c>
-      <c r="AN5">
-        <v>150</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>146</v>
-      </c>
       <c r="AT5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -1869,70 +1763,70 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>2499</v>
+        <v>2799</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
+        <v>2115</v>
+      </c>
+      <c r="S6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE6" t="s">
         <v>114</v>
       </c>
-      <c r="K6">
-        <v>1691</v>
-      </c>
-      <c r="S6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI6" t="s">
         <v>123</v>
       </c>
-      <c r="AH6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL6">
+        <v>60</v>
+      </c>
+      <c r="AM6">
         <v>73</v>
-      </c>
-      <c r="AM6">
-        <v>75</v>
       </c>
       <c r="AN6">
         <v>90</v>
       </c>
       <c r="AP6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AS6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -1940,70 +1834,70 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>3999</v>
+        <v>3499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K7">
-        <v>2066</v>
+        <v>2132</v>
       </c>
       <c r="S7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AA7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE7" t="s">
         <v>116</v>
       </c>
-      <c r="AB7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>124</v>
-      </c>
       <c r="AH7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AJ7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL7">
+        <v>60</v>
+      </c>
+      <c r="AM7">
+        <v>73</v>
+      </c>
+      <c r="AN7">
+        <v>110</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS7" t="s">
         <v>135</v>
       </c>
-      <c r="AK7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL7">
-        <v>80</v>
-      </c>
-      <c r="AM7">
-        <v>75</v>
-      </c>
-      <c r="AN7">
-        <v>140</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>145</v>
-      </c>
       <c r="AT7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -2011,70 +1905,73 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8">
-        <v>2799</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K8">
-        <v>2115</v>
+        <v>2282</v>
       </c>
       <c r="S8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AA8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AB8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AD8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AE8" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>121</v>
       </c>
       <c r="AH8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL8">
+        <v>80</v>
+      </c>
+      <c r="AM8">
+        <v>74</v>
+      </c>
+      <c r="AN8">
+        <v>160</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS8" t="s">
         <v>135</v>
       </c>
-      <c r="AK8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL8">
-        <v>60</v>
-      </c>
-      <c r="AM8">
-        <v>73</v>
-      </c>
-      <c r="AN8">
-        <v>90</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>145</v>
-      </c>
       <c r="AT8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -2082,70 +1979,73 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F9">
-        <v>3499</v>
+        <v>6000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
+        <v>2391</v>
+      </c>
+      <c r="S9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE9" t="s">
         <v>114</v>
       </c>
-      <c r="K9">
-        <v>2132</v>
-      </c>
-      <c r="S9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>125</v>
-      </c>
       <c r="AH9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AJ9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL9">
         <v>60</v>
       </c>
       <c r="AM9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN9">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AQ9" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>134</v>
       </c>
       <c r="AS9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -2153,73 +2053,70 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>15000</v>
+        <v>1499</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
+        <v>2405</v>
+      </c>
+      <c r="S10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE10" t="s">
         <v>114</v>
       </c>
-      <c r="K10">
-        <v>2282</v>
-      </c>
-      <c r="S10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>130</v>
-      </c>
       <c r="AH10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AJ10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL10">
+        <v>60</v>
+      </c>
+      <c r="AM10">
+        <v>125</v>
+      </c>
+      <c r="AN10">
+        <v>72</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS10" t="s">
         <v>135</v>
       </c>
-      <c r="AK10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL10">
-        <v>80</v>
-      </c>
-      <c r="AM10">
-        <v>74</v>
-      </c>
-      <c r="AN10">
-        <v>160</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>145</v>
-      </c>
       <c r="AT10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
@@ -2227,268 +2124,271 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
+        <v>2406</v>
+      </c>
+      <c r="S11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE11" t="s">
         <v>114</v>
       </c>
-      <c r="K11">
-        <v>2391</v>
-      </c>
-      <c r="S11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AH11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI11" t="s">
         <v>123</v>
       </c>
-      <c r="AH11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AM11">
         <v>75</v>
       </c>
       <c r="AN11">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AQ11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="AS11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12">
-        <v>10000</v>
+        <v>14999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K12">
-        <v>2403</v>
+        <v>2433</v>
       </c>
       <c r="S12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AA12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AB12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AC12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AD12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AE12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI12" t="s">
         <v>123</v>
       </c>
-      <c r="AH12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL12">
+        <v>65</v>
+      </c>
+      <c r="AM12">
+        <v>76</v>
+      </c>
+      <c r="AN12">
+        <v>160</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS12" t="s">
         <v>135</v>
       </c>
-      <c r="AK12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL12">
-        <v>33</v>
-      </c>
-      <c r="AM12">
-        <v>120</v>
-      </c>
-      <c r="AN12">
-        <v>140</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>145</v>
-      </c>
       <c r="AT12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>1499</v>
+        <v>6499</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13">
+        <v>2447</v>
+      </c>
+      <c r="S13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE13" t="s">
         <v>114</v>
       </c>
-      <c r="K13">
-        <v>2405</v>
-      </c>
-      <c r="S13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AH13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI13" t="s">
         <v>123</v>
       </c>
-      <c r="AH13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL13">
         <v>60</v>
       </c>
       <c r="AM13">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AN13">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="AP13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ13" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>134</v>
       </c>
       <c r="AS13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14">
-        <v>4000</v>
+        <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K14">
-        <v>2406</v>
+        <v>2466</v>
       </c>
       <c r="S14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AA14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE14" t="s">
         <v>116</v>
       </c>
-      <c r="AB14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AH14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI14" t="s">
         <v>123</v>
       </c>
-      <c r="AH14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>132</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL14">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AM14">
         <v>75</v>
@@ -2497,288 +2397,282 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ14" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>134</v>
       </c>
       <c r="AS14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>14999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K15">
-        <v>2433</v>
+        <v>2287</v>
       </c>
       <c r="S15" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AA15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE15" t="s">
         <v>116</v>
       </c>
-      <c r="AB15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE15" t="s">
+      <c r="AH15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>126</v>
       </c>
-      <c r="AH15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>135</v>
-      </c>
       <c r="AK15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL15">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM15">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN15">
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AS15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16">
-        <v>6499</v>
+        <v>19999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16">
+        <v>2475</v>
+      </c>
+      <c r="S16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE16" t="s">
         <v>114</v>
       </c>
-      <c r="K16">
-        <v>2447</v>
-      </c>
-      <c r="S16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>123</v>
-      </c>
       <c r="AH16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AJ16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL16">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM16">
         <v>75</v>
       </c>
       <c r="AN16">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AQ16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AS16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AT16" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17">
+        <v>2499</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17">
+        <v>2414</v>
+      </c>
+      <c r="S17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL17">
         <v>80</v>
-      </c>
-      <c r="F17">
-        <v>4999</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17">
-        <v>2466</v>
-      </c>
-      <c r="S17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL17">
-        <v>73</v>
       </c>
       <c r="AM17">
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP17" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="AS17" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT17" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18">
-        <v>14999</v>
+        <v>3999</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18">
+        <v>2239</v>
+      </c>
+      <c r="S18" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18">
-        <v>2287</v>
-      </c>
-      <c r="S18" t="s">
-        <v>115</v>
-      </c>
       <c r="AA18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE18" t="s">
         <v>116</v>
       </c>
-      <c r="AB18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>125</v>
-      </c>
       <c r="AH18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AJ18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2787,587 +2681,374 @@
         <v>75</v>
       </c>
       <c r="AN18">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ18" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AS18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F19">
-        <v>19999</v>
+        <v>1499</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19">
+        <v>2490</v>
+      </c>
+      <c r="S19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA19" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19">
-        <v>2475</v>
-      </c>
-      <c r="S19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE19" t="s">
         <v>116</v>
       </c>
-      <c r="AB19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>123</v>
-      </c>
       <c r="AH19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL19">
+        <v>80</v>
+      </c>
+      <c r="AM19">
+        <v>72</v>
+      </c>
+      <c r="AN19">
+        <v>80</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>131</v>
       </c>
-      <c r="AI19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL19">
-        <v>75</v>
-      </c>
-      <c r="AM19">
-        <v>75</v>
-      </c>
-      <c r="AN19">
-        <v>120</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>141</v>
-      </c>
       <c r="AS19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="AT19" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>2499</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K20">
-        <v>2414</v>
+        <v>2489</v>
       </c>
       <c r="S20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AA20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AB20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AC20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE20" t="s">
         <v>119</v>
       </c>
-      <c r="AD20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>127</v>
-      </c>
       <c r="AH20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AJ20" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK20" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL20">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM20">
         <v>75</v>
       </c>
       <c r="AN20">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AS20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT20" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F21">
-        <v>3999</v>
+        <v>3000</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21">
+        <v>2488</v>
+      </c>
+      <c r="S21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB21" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21">
-        <v>2239</v>
-      </c>
-      <c r="S21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>118</v>
-      </c>
       <c r="AC21" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AD21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE21" t="s">
         <v>120</v>
       </c>
-      <c r="AE21" t="s">
-        <v>125</v>
-      </c>
       <c r="AH21" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="AJ21" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AK21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL21">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM21">
         <v>75</v>
       </c>
       <c r="AN21">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP21" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ21" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AS21" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AT21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>1499</v>
+        <v>2999</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22">
+        <v>2491</v>
+      </c>
+      <c r="S22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC22" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22">
-        <v>2490</v>
-      </c>
-      <c r="S22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AD22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE22" t="s">
         <v>116</v>
       </c>
-      <c r="AB22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AH22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL22">
+        <v>73</v>
+      </c>
+      <c r="AM22">
+        <v>75</v>
+      </c>
+      <c r="AN22">
         <v>120</v>
       </c>
-      <c r="AE22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL22">
-        <v>80</v>
-      </c>
-      <c r="AM22">
-        <v>72</v>
-      </c>
-      <c r="AN22">
-        <v>80</v>
-      </c>
       <c r="AP22" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AQ22" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="AS22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AT22" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23">
+        <v>4999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="S23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL23">
         <v>86</v>
       </c>
-      <c r="F23">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23">
-        <v>2489</v>
-      </c>
-      <c r="S23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="AM23">
+        <v>76</v>
+      </c>
+      <c r="AN23">
+        <v>150</v>
+      </c>
+      <c r="AP23" t="s">
         <v>131</v>
       </c>
-      <c r="AI23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL23">
-        <v>60</v>
-      </c>
-      <c r="AM23">
-        <v>75</v>
-      </c>
-      <c r="AN23">
-        <v>120</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>140</v>
-      </c>
       <c r="AQ23" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AS23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AT23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24">
-        <v>3000</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24">
-        <v>2488</v>
-      </c>
-      <c r="S24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL24">
-        <v>60</v>
-      </c>
-      <c r="AM24">
-        <v>75</v>
-      </c>
-      <c r="AN24">
-        <v>120</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25">
-        <v>2999</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25">
-        <v>2491</v>
-      </c>
-      <c r="S25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL25">
-        <v>73</v>
-      </c>
-      <c r="AM25">
-        <v>75</v>
-      </c>
-      <c r="AN25">
-        <v>120</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26">
-        <v>4999</v>
-      </c>
-      <c r="G26" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26">
-        <v>25</v>
-      </c>
-      <c r="S26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL26">
-        <v>86</v>
-      </c>
-      <c r="AM26">
-        <v>76</v>
-      </c>
-      <c r="AN26">
-        <v>150</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3376,51 +3057,45 @@
     <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A914A4-0CF5-4E18-A8EF-87A21F62AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D806C61-2FF5-470F-96F3-62FB693A7757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="143">
   <si>
     <t>Address</t>
   </si>
@@ -749,6 +749,55 @@
     </t>
   </si>
   <si>
+    <t>Стол офисный
+Артикул 2493
+Размеры ДхШхВ: 140х70х76
+Цвет 
+Цена 4 999
+Количество 4
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный
+Артикул 2492
+Офисный стол на металлических ногах. 
+Размеры ДхШхВ: 140х73х76
+Цвет бежевый 
+Цена 4 999
+Количество 6
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
   </si>
   <si>
@@ -812,6 +861,12 @@
     <t>https://disk.yandex.ru/i/MNp02yWvNL5YZw | https://disk.yandex.ru/i/EAuaU_QuqspSVg | https://disk.yandex.ru/i/Ge6cAuB-Tj4vPw | https://disk.yandex.ru/i/-nFVx3UuHnFFcw | https://disk.yandex.ru/i/glib5nBo9D3Fkg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/dto5pXCbvIFjBQ | https://disk.yandex.ru/i/pgTQPQOKgWY_Cw | https://disk.yandex.ru/i/IOBS2b1IDc01LA | https://disk.yandex.ru/i/BiCXwtNsAXYANg | https://disk.yandex.ru/i/dc9LprmrpyvZXA | https://disk.yandex.ru/i/CrTC4iSu-WDZ3A | https://disk.yandex.ru/i/1EdJWIZGIWcylQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9l1mcAdvt3DnFQ | https://disk.yandex.ru/i/JXDAmTNiUPvABw | https://disk.yandex.ru/i/JA5Y6H8DsLGH9g | https://disk.yandex.ru/i/zpFKin9WhZl4DA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -890,12 +945,12 @@
     <t>ДСП</t>
   </si>
   <si>
+    <t>ЛДСП</t>
+  </si>
+  <si>
     <t>Дерево</t>
   </si>
   <si>
-    <t>ЛДСП</t>
-  </si>
-  <si>
     <t>Металл</t>
   </si>
   <si>
@@ -911,7 +966,7 @@
     <t>Кабинет | Кухня | Бар/Кафе</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/dto5pXCbvIFjBQ | https://disk.yandex.ru/i/pgTQPQOKgWY_Cw | https://disk.yandex.ru/i/IOBS2b1IDc01LA | https://disk.yandex.ru/i/BiCXwtNsAXYANg | https://disk.yandex.ru/i/dc9LprmrpyvZXA | https://disk.yandex.ru/i/CrTC4iSu-WDZ3A | https://disk.yandex.ru/i/1EdJWIZGIWcylQ</t>
+    <t>https://disk.yandex.ru/i/ukop-aqpt5_cPQ | https://disk.yandex.ru/i/ppYQAoDFuNP1pQ | https://disk.yandex.ru/i/2AwQveIiWev46w | https://disk.yandex.ru/i/TxZAtBULcHajGg</t>
   </si>
 </sst>
 </file>
@@ -1326,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT23"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,43 +1540,43 @@
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AC2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AH2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1533,16 +1588,16 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -1556,43 +1611,43 @@
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AC3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AH3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1604,16 +1659,16 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -1627,43 +1682,43 @@
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AC4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1675,16 +1730,16 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -1698,43 +1753,43 @@
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AC5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AH5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1746,16 +1801,16 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -1769,43 +1824,43 @@
         <v>2799</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K6">
         <v>2115</v>
       </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1817,16 +1872,16 @@
         <v>90</v>
       </c>
       <c r="AP6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -1840,43 +1895,43 @@
         <v>3499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K7">
         <v>2132</v>
       </c>
       <c r="S7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AC7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL7">
         <v>60</v>
@@ -1888,16 +1943,16 @@
         <v>110</v>
       </c>
       <c r="AP7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -1911,46 +1966,46 @@
         <v>15000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K8">
         <v>2282</v>
       </c>
       <c r="S8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AF8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AH8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -1962,16 +2017,16 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AS8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -1985,43 +2040,43 @@
         <v>6000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K9">
         <v>2391</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2033,19 +2088,19 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AQ9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AR9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AS9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -2059,43 +2114,43 @@
         <v>1499</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K10">
         <v>2405</v>
       </c>
       <c r="S10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2107,16 +2162,16 @@
         <v>72</v>
       </c>
       <c r="AP10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
@@ -2130,43 +2185,43 @@
         <v>4000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K11">
         <v>2406</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL11">
         <v>63</v>
@@ -2178,16 +2233,16 @@
         <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -2201,43 +2256,43 @@
         <v>14999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K12">
         <v>2433</v>
       </c>
       <c r="S12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AH12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL12">
         <v>65</v>
@@ -2249,19 +2304,19 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AR12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AS12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -2275,43 +2330,43 @@
         <v>6499</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K13">
         <v>2447</v>
       </c>
       <c r="S13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL13">
         <v>60</v>
@@ -2323,19 +2378,19 @@
         <v>140</v>
       </c>
       <c r="AP13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AR13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AS13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
@@ -2349,43 +2404,43 @@
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K14">
         <v>2466</v>
       </c>
       <c r="S14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL14">
         <v>73</v>
@@ -2397,19 +2452,19 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AR14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AS14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -2423,43 +2478,43 @@
         <v>14999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K15">
         <v>2287</v>
       </c>
       <c r="S15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2471,16 +2526,16 @@
         <v>160</v>
       </c>
       <c r="AP15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AS15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
@@ -2494,43 +2549,43 @@
         <v>19999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K16">
         <v>2475</v>
       </c>
       <c r="S16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL16">
         <v>75</v>
@@ -2542,16 +2597,16 @@
         <v>120</v>
       </c>
       <c r="AP16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AQ16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AS16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AT16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="4:46" x14ac:dyDescent="0.25">
@@ -2565,43 +2620,43 @@
         <v>2499</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K17">
         <v>2414</v>
       </c>
       <c r="S17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AH17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2613,16 +2668,16 @@
         <v>100</v>
       </c>
       <c r="AP17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="4:46" x14ac:dyDescent="0.25">
@@ -2636,43 +2691,43 @@
         <v>3999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K18">
         <v>2239</v>
       </c>
       <c r="S18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2684,16 +2739,16 @@
         <v>140</v>
       </c>
       <c r="AP18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="4:46" x14ac:dyDescent="0.25">
@@ -2707,43 +2762,43 @@
         <v>1499</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19">
         <v>2490</v>
       </c>
       <c r="S19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AK19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL19">
         <v>80</v>
@@ -2755,16 +2810,16 @@
         <v>80</v>
       </c>
       <c r="AP19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AS19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AT19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="4:46" x14ac:dyDescent="0.25">
@@ -2778,43 +2833,43 @@
         <v>2000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K20">
         <v>2489</v>
       </c>
       <c r="S20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AH20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI20" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL20">
         <v>60</v>
@@ -2826,16 +2881,16 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="4:46" x14ac:dyDescent="0.25">
@@ -2849,43 +2904,43 @@
         <v>3000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K21">
         <v>2488</v>
       </c>
       <c r="S21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE21" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AH21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ21" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL21">
         <v>60</v>
@@ -2897,16 +2952,16 @@
         <v>120</v>
       </c>
       <c r="AP21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="4:46" x14ac:dyDescent="0.25">
@@ -2920,43 +2975,43 @@
         <v>2999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K22">
         <v>2491</v>
       </c>
       <c r="S22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AH22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AJ22" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL22">
         <v>73</v>
@@ -2968,16 +3023,16 @@
         <v>120</v>
       </c>
       <c r="AP22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AQ22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AS22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT22" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="4:46" x14ac:dyDescent="0.25">
@@ -2990,44 +3045,44 @@
       <c r="F23">
         <v>4999</v>
       </c>
-      <c r="G23" t="s">
-        <v>138</v>
+      <c r="G23" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K23">
         <v>25</v>
       </c>
       <c r="S23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA23" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AB23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AC23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AH23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AI23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AJ23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AK23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AL23">
         <v>86</v>
@@ -3039,16 +3094,158 @@
         <v>150</v>
       </c>
       <c r="AP23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AQ23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AS23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24">
+        <v>4999</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24">
+        <v>2493</v>
+      </c>
+      <c r="S24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL24">
+        <v>70</v>
+      </c>
+      <c r="AM24">
+        <v>76</v>
+      </c>
+      <c r="AN24">
+        <v>140</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>137</v>
       </c>
-      <c r="AT23" t="s">
-        <v>129</v>
+      <c r="AS24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>4999</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25">
+        <v>2492</v>
+      </c>
+      <c r="S25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL25">
+        <v>73</v>
+      </c>
+      <c r="AM25">
+        <v>76</v>
+      </c>
+      <c r="AN25">
+        <v>140</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3057,45 +3254,49 @@
     <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D806C61-2FF5-470F-96F3-62FB693A7757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="140">
   <si>
     <t>Address</t>
   </si>
@@ -447,33 +441,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол компьютерный
-Артикул 2433
-Описание Mebile system cm-6
-Размеры ДхШхВ: 160х65х76
-Цвет вязь тёмный 
-Цена 14 999 за 1 шт.
-Количество 2 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стол прямой с тумбой
 Артикул 2447
 Описание
@@ -828,9 +795,6 @@
     <t>https://disk.yandex.ru/i/QjFYRV6r87HDOw | https://disk.yandex.ru/i/hUM5pfcQ0rpYog | https://disk.yandex.ru/i/wZ6fx1iX22ZB5g | https://disk.yandex.ru/i/c69C1avvqCPCRQ | https://disk.yandex.ru/i/5gu7N_yvjL_C8g | https://disk.yandex.ru/i/8l1CD6Zx2ZT-HA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/SKY-dAcXoAbS4Q | https://disk.yandex.ru/i/tmE2ZHCphW-NzA | https://disk.yandex.ru/i/UOTQ47f1By3WPw | https://disk.yandex.ru/i/Ddjv2jkWJKeNQA | https://disk.yandex.ru/i/r__dJnaCnX-J8A | https://disk.yandex.ru/i/LF7UjG64wptnSw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/EQ4rmG-DnV7Hsw | https://disk.yandex.ru/i/Wmyk1fYipyT2DQ | https://disk.yandex.ru/i/PiX_kZ5rGUoXaQ | https://disk.yandex.ru/i/n3o9FtS9ZweSRQ | https://disk.yandex.ru/i/AwarbZQrE0HiHA | https://disk.yandex.ru/i/5mgwRyNM5Y6TnQ | https://disk.yandex.ru/i/4ptTeormJCV_xQ | https://disk.yandex.ru/i/v07-3X-TxSYODg</t>
   </si>
   <si>
@@ -864,6 +828,9 @@
     <t>https://disk.yandex.ru/i/dto5pXCbvIFjBQ | https://disk.yandex.ru/i/pgTQPQOKgWY_Cw | https://disk.yandex.ru/i/IOBS2b1IDc01LA | https://disk.yandex.ru/i/BiCXwtNsAXYANg | https://disk.yandex.ru/i/dc9LprmrpyvZXA | https://disk.yandex.ru/i/CrTC4iSu-WDZ3A | https://disk.yandex.ru/i/1EdJWIZGIWcylQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/ukop-aqpt5_cPQ | https://disk.yandex.ru/i/ppYQAoDFuNP1pQ | https://disk.yandex.ru/i/2AwQveIiWev46w | https://disk.yandex.ru/i/TxZAtBULcHajGg</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/9l1mcAdvt3DnFQ | https://disk.yandex.ru/i/JXDAmTNiUPvABw | https://disk.yandex.ru/i/JA5Y6H8DsLGH9g | https://disk.yandex.ru/i/zpFKin9WhZl4DA</t>
   </si>
   <si>
@@ -903,9 +870,6 @@
     <t>Белый</t>
   </si>
   <si>
-    <t>Серый</t>
-  </si>
-  <si>
     <t>Бежевый</t>
   </si>
   <si>
@@ -964,16 +928,13 @@
   </si>
   <si>
     <t>Кабинет | Кухня | Бар/Кафе</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ukop-aqpt5_cPQ | https://disk.yandex.ru/i/ppYQAoDFuNP1pQ | https://disk.yandex.ru/i/2AwQveIiWev46w | https://disk.yandex.ru/i/TxZAtBULcHajGg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,26 +1005,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1101,9 +1054,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1135,27 +1088,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1187,27 +1122,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1380,16 +1297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1540,43 +1455,43 @@
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" t="s">
         <v>110</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>111</v>
       </c>
-      <c r="AB2" t="s">
-        <v>112</v>
-      </c>
       <c r="AC2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD2" t="s">
         <v>114</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>115</v>
       </c>
-      <c r="AE2" t="s">
-        <v>116</v>
-      </c>
       <c r="AH2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1588,19 +1503,19 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1611,43 +1526,43 @@
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" t="s">
-        <v>112</v>
-      </c>
       <c r="AC3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD3" t="s">
         <v>114</v>
       </c>
-      <c r="AD3" t="s">
-        <v>115</v>
-      </c>
       <c r="AE3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1659,19 +1574,19 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1682,43 +1597,43 @@
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" t="s">
         <v>110</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>111</v>
       </c>
-      <c r="AB4" t="s">
-        <v>112</v>
-      </c>
       <c r="AC4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD4" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" t="s">
-        <v>115</v>
-      </c>
       <c r="AE4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1730,19 +1645,19 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1753,43 +1668,43 @@
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA5" t="s">
         <v>110</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>111</v>
       </c>
-      <c r="AB5" t="s">
-        <v>112</v>
-      </c>
       <c r="AC5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD5" t="s">
         <v>114</v>
       </c>
-      <c r="AD5" t="s">
-        <v>115</v>
-      </c>
       <c r="AE5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1801,19 +1716,19 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1824,43 +1739,43 @@
         <v>2799</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6">
         <v>2115</v>
       </c>
       <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s">
         <v>110</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>111</v>
       </c>
-      <c r="AB6" t="s">
-        <v>112</v>
-      </c>
       <c r="AC6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD6" t="s">
         <v>114</v>
       </c>
-      <c r="AD6" t="s">
-        <v>115</v>
-      </c>
       <c r="AE6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1872,19 +1787,19 @@
         <v>90</v>
       </c>
       <c r="AP6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1895,43 +1810,43 @@
         <v>3499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>2132</v>
       </c>
       <c r="S7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA7" t="s">
         <v>110</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>111</v>
       </c>
-      <c r="AB7" t="s">
-        <v>112</v>
-      </c>
       <c r="AC7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD7" t="s">
         <v>114</v>
       </c>
-      <c r="AD7" t="s">
-        <v>115</v>
-      </c>
       <c r="AE7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL7">
         <v>60</v>
@@ -1943,19 +1858,19 @@
         <v>110</v>
       </c>
       <c r="AP7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -1966,46 +1881,46 @@
         <v>15000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8">
         <v>2282</v>
       </c>
       <c r="S8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA8" t="s">
         <v>110</v>
       </c>
-      <c r="AA8" t="s">
-        <v>111</v>
-      </c>
       <c r="AB8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC8" t="s">
         <v>113</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>114</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>115</v>
       </c>
-      <c r="AE8" t="s">
-        <v>116</v>
-      </c>
       <c r="AF8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AH8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI8" t="s">
         <v>126</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>128</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>130</v>
-      </c>
       <c r="AK8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -2017,19 +1932,19 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS8" t="s">
         <v>137</v>
       </c>
-      <c r="AS8" t="s">
-        <v>139</v>
-      </c>
       <c r="AT8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -2040,43 +1955,43 @@
         <v>6000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>2391</v>
       </c>
       <c r="S9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" t="s">
         <v>110</v>
       </c>
-      <c r="AA9" t="s">
-        <v>111</v>
-      </c>
       <c r="AB9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC9" t="s">
         <v>113</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>114</v>
       </c>
-      <c r="AD9" t="s">
-        <v>115</v>
-      </c>
       <c r="AE9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2088,22 +2003,22 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AQ9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AR9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AS9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -2114,43 +2029,43 @@
         <v>1499</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>2405</v>
       </c>
       <c r="S10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA10" t="s">
         <v>110</v>
       </c>
-      <c r="AA10" t="s">
-        <v>111</v>
-      </c>
       <c r="AB10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC10" t="s">
         <v>113</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>114</v>
       </c>
-      <c r="AD10" t="s">
-        <v>115</v>
-      </c>
       <c r="AE10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2162,19 +2077,19 @@
         <v>72</v>
       </c>
       <c r="AP10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
         <v>55</v>
       </c>
@@ -2185,43 +2100,43 @@
         <v>4000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11">
         <v>2406</v>
       </c>
       <c r="S11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" t="s">
         <v>110</v>
       </c>
-      <c r="AA11" t="s">
-        <v>111</v>
-      </c>
       <c r="AB11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" t="s">
         <v>113</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>114</v>
       </c>
-      <c r="AD11" t="s">
-        <v>115</v>
-      </c>
       <c r="AE11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL11">
         <v>63</v>
@@ -2233,93 +2148,93 @@
         <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
       </c>
       <c r="F12">
-        <v>14999</v>
+        <v>6499</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12">
+        <v>2447</v>
+      </c>
+      <c r="S12" t="s">
         <v>109</v>
       </c>
-      <c r="K12">
-        <v>2433</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="AA12" t="s">
         <v>110</v>
       </c>
-      <c r="AA12" t="s">
-        <v>111</v>
-      </c>
       <c r="AB12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC12" t="s">
         <v>113</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>114</v>
       </c>
-      <c r="AD12" t="s">
-        <v>115</v>
-      </c>
       <c r="AE12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AH12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL12">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM12">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN12">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS12" t="s">
         <v>137</v>
       </c>
-      <c r="AR12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>139</v>
-      </c>
       <c r="AT12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
         <v>56</v>
       </c>
@@ -2327,336 +2242,333 @@
         <v>73</v>
       </c>
       <c r="F13">
-        <v>6499</v>
+        <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13">
+        <v>2466</v>
+      </c>
+      <c r="S13" t="s">
         <v>109</v>
       </c>
-      <c r="K13">
-        <v>2447</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="AA13" t="s">
         <v>110</v>
       </c>
-      <c r="AA13" t="s">
-        <v>111</v>
-      </c>
       <c r="AB13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC13" t="s">
         <v>113</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>114</v>
       </c>
-      <c r="AD13" t="s">
-        <v>115</v>
-      </c>
       <c r="AE13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AH13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL13">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AM13">
         <v>75</v>
       </c>
       <c r="AN13">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AR13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AS13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="D14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
       </c>
       <c r="F14">
-        <v>4999</v>
+        <v>14999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14">
+        <v>2287</v>
+      </c>
+      <c r="S14" t="s">
         <v>109</v>
       </c>
-      <c r="K14">
-        <v>2466</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AA14" t="s">
         <v>110</v>
       </c>
-      <c r="AA14" t="s">
-        <v>111</v>
-      </c>
       <c r="AB14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC14" t="s">
         <v>113</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>114</v>
       </c>
-      <c r="AD14" t="s">
-        <v>115</v>
-      </c>
       <c r="AE14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL14">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AM14">
         <v>75</v>
       </c>
       <c r="AN14">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AS14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="D15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
       </c>
       <c r="F15">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15">
+        <v>2475</v>
+      </c>
+      <c r="S15" t="s">
         <v>109</v>
       </c>
-      <c r="K15">
-        <v>2287</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AA15" t="s">
         <v>110</v>
       </c>
-      <c r="AA15" t="s">
-        <v>111</v>
-      </c>
       <c r="AB15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC15" t="s">
         <v>113</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>114</v>
       </c>
-      <c r="AD15" t="s">
-        <v>115</v>
-      </c>
       <c r="AE15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AH15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI15" t="s">
         <v>127</v>
       </c>
       <c r="AJ15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL15">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM15">
         <v>75</v>
       </c>
       <c r="AN15">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP15" t="s">
         <v>134</v>
       </c>
       <c r="AQ15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AS15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AT15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
       <c r="F16">
-        <v>19999</v>
+        <v>2499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16">
+        <v>2414</v>
+      </c>
+      <c r="S16" t="s">
         <v>109</v>
       </c>
-      <c r="K16">
-        <v>2475</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AA16" t="s">
         <v>110</v>
       </c>
-      <c r="AA16" t="s">
-        <v>111</v>
-      </c>
       <c r="AB16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC16" t="s">
         <v>113</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>114</v>
       </c>
-      <c r="AD16" t="s">
-        <v>115</v>
-      </c>
       <c r="AE16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AH16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AJ16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL16">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM16">
         <v>75</v>
       </c>
       <c r="AN16">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AQ16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AS16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AT16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:46">
       <c r="D17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>77</v>
       </c>
       <c r="F17">
-        <v>2499</v>
+        <v>3999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17">
+        <v>2239</v>
+      </c>
+      <c r="S17" t="s">
         <v>109</v>
       </c>
-      <c r="K17">
-        <v>2414</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="AA17" t="s">
         <v>110</v>
       </c>
-      <c r="AA17" t="s">
-        <v>111</v>
-      </c>
       <c r="AB17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC17" t="s">
         <v>113</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>114</v>
       </c>
-      <c r="AD17" t="s">
-        <v>115</v>
-      </c>
       <c r="AE17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AH17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2665,211 +2577,211 @@
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:46">
       <c r="D18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>78</v>
       </c>
       <c r="F18">
-        <v>3999</v>
+        <v>1499</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18">
+        <v>2490</v>
+      </c>
+      <c r="S18" t="s">
         <v>109</v>
       </c>
-      <c r="K18">
-        <v>2239</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AA18" t="s">
         <v>110</v>
       </c>
-      <c r="AA18" t="s">
-        <v>111</v>
-      </c>
       <c r="AB18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC18" t="s">
         <v>113</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>114</v>
       </c>
-      <c r="AD18" t="s">
-        <v>115</v>
-      </c>
       <c r="AE18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI18" t="s">
         <v>127</v>
       </c>
       <c r="AJ18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL18">
         <v>80</v>
       </c>
       <c r="AM18">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN18">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AP18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ18" t="s">
         <v>134</v>
       </c>
       <c r="AS18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AT18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>79</v>
       </c>
       <c r="F19">
-        <v>1499</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19">
+        <v>2489</v>
+      </c>
+      <c r="S19" t="s">
         <v>109</v>
       </c>
-      <c r="K19">
-        <v>2490</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AA19" t="s">
         <v>110</v>
       </c>
-      <c r="AA19" t="s">
-        <v>111</v>
-      </c>
       <c r="AB19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC19" t="s">
         <v>113</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>114</v>
       </c>
-      <c r="AD19" t="s">
-        <v>115</v>
-      </c>
       <c r="AE19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL19">
+        <v>60</v>
+      </c>
+      <c r="AM19">
+        <v>75</v>
+      </c>
+      <c r="AN19">
         <v>120</v>
       </c>
-      <c r="AH19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL19">
-        <v>80</v>
-      </c>
-      <c r="AM19">
-        <v>72</v>
-      </c>
-      <c r="AN19">
-        <v>80</v>
-      </c>
       <c r="AP19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AS19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AT19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:46">
       <c r="D20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>80</v>
       </c>
       <c r="F20">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20">
+        <v>2488</v>
+      </c>
+      <c r="S20" t="s">
         <v>109</v>
       </c>
-      <c r="K20">
-        <v>2489</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AA20" t="s">
         <v>110</v>
       </c>
-      <c r="AA20" t="s">
-        <v>111</v>
-      </c>
       <c r="AB20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC20" t="s">
         <v>113</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>114</v>
       </c>
-      <c r="AD20" t="s">
-        <v>115</v>
-      </c>
       <c r="AE20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL20">
         <v>60</v>
@@ -2881,69 +2793,69 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:46">
       <c r="D21" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
       </c>
       <c r="F21">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21">
+        <v>2491</v>
+      </c>
+      <c r="S21" t="s">
         <v>109</v>
       </c>
-      <c r="K21">
-        <v>2488</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="AA21" t="s">
         <v>110</v>
       </c>
-      <c r="AA21" t="s">
-        <v>111</v>
-      </c>
       <c r="AB21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC21" t="s">
         <v>113</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>114</v>
       </c>
-      <c r="AD21" t="s">
-        <v>115</v>
-      </c>
       <c r="AE21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH21" t="s">
         <v>124</v>
       </c>
-      <c r="AH21" t="s">
-        <v>126</v>
-      </c>
       <c r="AI21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL21">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AM21">
         <v>75</v>
@@ -2952,57 +2864,57 @@
         <v>120</v>
       </c>
       <c r="AP21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AS21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:46">
       <c r="D22" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
       </c>
       <c r="F22">
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="S22" t="s">
         <v>109</v>
       </c>
-      <c r="K22">
-        <v>2491</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="AA22" t="s">
         <v>110</v>
       </c>
-      <c r="AA22" t="s">
-        <v>111</v>
-      </c>
       <c r="AB22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC22" t="s">
         <v>113</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>114</v>
       </c>
-      <c r="AD22" t="s">
-        <v>115</v>
-      </c>
       <c r="AE22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AH22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI22" t="s">
         <v>127</v>
@@ -3011,16 +2923,16 @@
         <v>130</v>
       </c>
       <c r="AK22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL22">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AM22">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN22">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP22" t="s">
         <v>134</v>
@@ -3032,12 +2944,12 @@
         <v>139</v>
       </c>
       <c r="AT22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:46">
       <c r="D23" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
@@ -3046,69 +2958,69 @@
         <v>4999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23">
+        <v>2493</v>
+      </c>
+      <c r="S23" t="s">
         <v>109</v>
       </c>
-      <c r="K23">
-        <v>25</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="AA23" t="s">
         <v>110</v>
       </c>
-      <c r="AA23" t="s">
-        <v>111</v>
-      </c>
       <c r="AB23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC23" t="s">
         <v>113</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>114</v>
       </c>
-      <c r="AD23" t="s">
-        <v>115</v>
-      </c>
       <c r="AE23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AH23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AJ23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL23">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="AM23">
         <v>76</v>
       </c>
       <c r="AN23">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AQ23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AS23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AT23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:46">
       <c r="D24" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
@@ -3116,47 +3028,47 @@
       <c r="F24">
         <v>4999</v>
       </c>
-      <c r="G24" t="s">
-        <v>142</v>
+      <c r="G24" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24">
+        <v>2492</v>
+      </c>
+      <c r="S24" t="s">
         <v>109</v>
       </c>
-      <c r="K24">
-        <v>2493</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="AA24" t="s">
         <v>110</v>
       </c>
-      <c r="AA24" t="s">
-        <v>111</v>
-      </c>
       <c r="AB24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC24" t="s">
         <v>113</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>114</v>
       </c>
-      <c r="AD24" t="s">
-        <v>115</v>
-      </c>
       <c r="AE24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AH24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AJ24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL24">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM24">
         <v>76</v>
@@ -3165,138 +3077,66 @@
         <v>140</v>
       </c>
       <c r="AP24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AS24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AT24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25">
-        <v>4999</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25">
-        <v>2492</v>
-      </c>
-      <c r="S25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL25">
-        <v>73</v>
-      </c>
-      <c r="AM25">
-        <v>76</v>
-      </c>
-      <c r="AN25">
-        <v>140</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49C48E-843E-41A0-888D-84AF00D47AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="142">
   <si>
     <t>Address</t>
   </si>
@@ -765,6 +771,33 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Стол компьютерный
+Артикул 2434
+Описание Mebile system cm-6
+Размеры ДхШхВ: 150х65х76
+Цвет вязь тёмный 
+Цена 12 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
   </si>
   <si>
@@ -832,6 +865,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/9l1mcAdvt3DnFQ | https://disk.yandex.ru/i/JXDAmTNiUPvABw | https://disk.yandex.ru/i/JA5Y6H8DsLGH9g | https://disk.yandex.ru/i/zpFKin9WhZl4DA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Ql63Z9TTSs-Guw | https://disk.yandex.ru/i/ulqW-XqEcuEELA | https://disk.yandex.ru/i/PKw9wROaqaYnBA | https://disk.yandex.ru/i/A3AayWVInMHE4Q | https://disk.yandex.ru/i/3EHZ8NOyKAHGwA | https://disk.yandex.ru/i/ABd4etXLYdX6Wg</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -933,8 +969,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,18 +1041,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1054,9 +1098,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1088,9 +1132,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1122,9 +1184,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1297,14 +1377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1455,43 +1537,43 @@
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AH2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1503,19 +1585,19 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1526,43 +1608,43 @@
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AH3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1574,19 +1656,19 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1597,43 +1679,43 @@
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1645,19 +1727,19 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1668,43 +1750,43 @@
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AH5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1716,19 +1798,19 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1739,43 +1821,43 @@
         <v>2799</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K6">
         <v>2115</v>
       </c>
       <c r="S6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1787,19 +1869,19 @@
         <v>90</v>
       </c>
       <c r="AP6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1810,43 +1892,43 @@
         <v>3499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7">
         <v>2132</v>
       </c>
       <c r="S7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AH7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL7">
         <v>60</v>
@@ -1858,19 +1940,19 @@
         <v>110</v>
       </c>
       <c r="AP7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -1881,46 +1963,46 @@
         <v>15000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K8">
         <v>2282</v>
       </c>
       <c r="S8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AH8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -1932,19 +2014,19 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AS8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -1955,43 +2037,43 @@
         <v>6000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K9">
         <v>2391</v>
       </c>
       <c r="S9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2003,22 +2085,22 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AQ9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AR9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AS9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -2029,43 +2111,43 @@
         <v>1499</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K10">
         <v>2405</v>
       </c>
       <c r="S10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2077,19 +2159,19 @@
         <v>72</v>
       </c>
       <c r="AP10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>55</v>
       </c>
@@ -2100,43 +2182,43 @@
         <v>4000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11">
         <v>2406</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL11">
         <v>63</v>
@@ -2148,19 +2230,19 @@
         <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>56</v>
       </c>
@@ -2171,43 +2253,43 @@
         <v>6499</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K12">
         <v>2447</v>
       </c>
       <c r="S12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL12">
         <v>60</v>
@@ -2219,22 +2301,22 @@
         <v>140</v>
       </c>
       <c r="AP12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AR12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AS12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>56</v>
       </c>
@@ -2245,43 +2327,43 @@
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K13">
         <v>2466</v>
       </c>
       <c r="S13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AH13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL13">
         <v>73</v>
@@ -2293,22 +2375,22 @@
         <v>120</v>
       </c>
       <c r="AP13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AR13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AS13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>52</v>
       </c>
@@ -2319,43 +2401,43 @@
         <v>14999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K14">
         <v>2287</v>
       </c>
       <c r="S14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AH14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2367,19 +2449,19 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AS14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>57</v>
       </c>
@@ -2390,43 +2472,43 @@
         <v>19999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K15">
         <v>2475</v>
       </c>
       <c r="S15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL15">
         <v>75</v>
@@ -2438,19 +2520,19 @@
         <v>120</v>
       </c>
       <c r="AP15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AQ15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AS15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AT15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>58</v>
       </c>
@@ -2461,43 +2543,43 @@
         <v>2499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16">
         <v>2414</v>
       </c>
       <c r="S16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2509,19 +2591,19 @@
         <v>100</v>
       </c>
       <c r="AP16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="17" spans="4:46">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -2532,43 +2614,43 @@
         <v>3999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17">
         <v>2239</v>
       </c>
       <c r="S17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AH17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2580,19 +2662,19 @@
         <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="18" spans="4:46">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>59</v>
       </c>
@@ -2603,43 +2685,43 @@
         <v>1499</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>2490</v>
       </c>
       <c r="S18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AH18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2651,19 +2733,19 @@
         <v>80</v>
       </c>
       <c r="AP18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AS18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AT18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="19" spans="4:46">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>48</v>
       </c>
@@ -2674,43 +2756,43 @@
         <v>2000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19">
         <v>2489</v>
       </c>
       <c r="S19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AH19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL19">
         <v>60</v>
@@ -2722,19 +2804,19 @@
         <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="20" spans="4:46">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>60</v>
       </c>
@@ -2745,43 +2827,43 @@
         <v>3000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20">
         <v>2488</v>
       </c>
       <c r="S20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AH20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL20">
         <v>60</v>
@@ -2793,19 +2875,19 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="21" spans="4:46">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>48</v>
       </c>
@@ -2816,43 +2898,43 @@
         <v>2999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>2491</v>
       </c>
       <c r="S21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AH21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL21">
         <v>73</v>
@@ -2864,19 +2946,19 @@
         <v>120</v>
       </c>
       <c r="AP21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AS21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AT21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="22" spans="4:46">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>61</v>
       </c>
@@ -2887,43 +2969,43 @@
         <v>4999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K22">
         <v>25</v>
       </c>
       <c r="S22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AK22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL22">
         <v>86</v>
@@ -2935,19 +3017,19 @@
         <v>150</v>
       </c>
       <c r="AP22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AQ22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AS22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AT22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="23" spans="4:46">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>48</v>
       </c>
@@ -2958,43 +3040,43 @@
         <v>4999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23">
         <v>2493</v>
       </c>
       <c r="S23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL23">
         <v>70</v>
@@ -3006,19 +3088,19 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AS23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AT23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="24" spans="4:46">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>55</v>
       </c>
@@ -3029,43 +3111,43 @@
         <v>4999</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K24">
         <v>2492</v>
       </c>
       <c r="S24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AE24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AH24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AI24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL24">
         <v>73</v>
@@ -3077,66 +3159,139 @@
         <v>140</v>
       </c>
       <c r="AP24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AQ24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AS24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>12999</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25">
+        <v>2434</v>
+      </c>
+      <c r="S25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL25">
+        <v>65</v>
+      </c>
+      <c r="AM25">
+        <v>76</v>
+      </c>
+      <c r="AN25">
+        <v>150</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS25" t="s">
         <v>139</v>
       </c>
-      <c r="AT24" t="s">
-        <v>131</v>
+      <c r="AT25" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49C48E-843E-41A0-888D-84AF00D47AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -969,8 +963,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,26 +1035,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1098,9 +1084,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1132,27 +1118,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,27 +1152,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1377,16 +1327,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="D2" t="s">
         <v>46</v>
       </c>
@@ -1597,7 +1545,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="D3" t="s">
         <v>47</v>
       </c>
@@ -1668,7 +1616,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -1739,7 +1687,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46">
       <c r="D5" t="s">
         <v>49</v>
       </c>
@@ -1810,7 +1758,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="D6" t="s">
         <v>50</v>
       </c>
@@ -1881,7 +1829,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="D7" t="s">
         <v>51</v>
       </c>
@@ -1952,7 +1900,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="D8" t="s">
         <v>52</v>
       </c>
@@ -2026,7 +1974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46">
       <c r="D9" t="s">
         <v>53</v>
       </c>
@@ -2100,7 +2048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46">
       <c r="D10" t="s">
         <v>54</v>
       </c>
@@ -2171,7 +2119,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46">
       <c r="D11" t="s">
         <v>55</v>
       </c>
@@ -2242,7 +2190,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46">
       <c r="D12" t="s">
         <v>56</v>
       </c>
@@ -2316,7 +2264,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46">
       <c r="D13" t="s">
         <v>56</v>
       </c>
@@ -2390,7 +2338,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="D14" t="s">
         <v>52</v>
       </c>
@@ -2461,7 +2409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="D15" t="s">
         <v>57</v>
       </c>
@@ -2532,7 +2480,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="D16" t="s">
         <v>58</v>
       </c>
@@ -2603,7 +2551,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:46">
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -2674,7 +2622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:46">
       <c r="D18" t="s">
         <v>59</v>
       </c>
@@ -2745,7 +2693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:46">
       <c r="D19" t="s">
         <v>48</v>
       </c>
@@ -2816,7 +2764,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:46">
       <c r="D20" t="s">
         <v>60</v>
       </c>
@@ -2887,7 +2835,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:46">
       <c r="D21" t="s">
         <v>48</v>
       </c>
@@ -2958,7 +2906,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:46">
       <c r="D22" t="s">
         <v>61</v>
       </c>
@@ -3029,7 +2977,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:46">
       <c r="D23" t="s">
         <v>48</v>
       </c>
@@ -3100,7 +3048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:46">
       <c r="D24" t="s">
         <v>55</v>
       </c>
@@ -3171,7 +3119,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:46">
       <c r="D25" t="s">
         <v>55</v>
       </c>
@@ -3244,54 +3192,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="148">
   <si>
     <t>Address</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Стол кухонный</t>
+  </si>
+  <si>
+    <t>Стол офисный компьютерный</t>
   </si>
   <si>
     <t>Акция! Скидка -35%
@@ -792,6 +795,59 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Стол офисный компьютерный
+Артикул 2528
+Размеры ДхШхВ: Стол - 140х70х73
+Приставка - 80х60х73
+Цвет шимо
+Цена 17 999
+Количество 2
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол компьютерный
+Артикул 2526
+Размеры ДхШхВ: 140х70х73
+Цвет шимо
+Цена 14 999
+Количество 12
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
   </si>
   <si>
@@ -864,6 +920,12 @@
     <t>https://disk.yandex.ru/i/Ql63Z9TTSs-Guw | https://disk.yandex.ru/i/ulqW-XqEcuEELA | https://disk.yandex.ru/i/PKw9wROaqaYnBA | https://disk.yandex.ru/i/A3AayWVInMHE4Q | https://disk.yandex.ru/i/3EHZ8NOyKAHGwA | https://disk.yandex.ru/i/ABd4etXLYdX6Wg</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/wFbX5ThAGWAR4Q | https://disk.yandex.ru/i/8Zn3YZEQh5iRfw | https://disk.yandex.ru/i/d6WaOFl5hXdPXA | https://disk.yandex.ru/i/Mc6U4hx84UJ-MQ | https://disk.yandex.ru/i/t7Em0GmLAPBx1g | https://disk.yandex.ru/i/BXLMjLsTp4c_WA | https://disk.yandex.ru/i/yGINVnU83JlS6A | https://disk.yandex.ru/i/qRAQKBoFyk5ErQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/TeHL0_MUVKsOvg | https://disk.yandex.ru/i/iuAIWfwUUz8Cag | https://disk.yandex.ru/i/AqzabunPCQoyQA | https://disk.yandex.ru/i/9A407V8q39uiKA | https://disk.yandex.ru/i/4s4Ob_3l8gEP9w | https://disk.yandex.ru/i/X5s9NbmcSn26XA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -907,6 +969,9 @@
   </si>
   <si>
     <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>Серый</t>
   </si>
   <si>
     <t xml:space="preserve"> Сосна</t>
@@ -1328,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,49 +1544,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AC2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1533,16 +1598,16 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1550,49 +1615,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AC3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AH3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1604,16 +1669,16 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1621,49 +1686,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AC4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1675,16 +1740,16 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1692,49 +1757,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AC5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AH5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1746,16 +1811,16 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1763,49 +1828,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>2799</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>2115</v>
       </c>
       <c r="S6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1817,16 +1882,16 @@
         <v>90</v>
       </c>
       <c r="AP6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1834,49 +1899,49 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>3499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>2132</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AC7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL7">
         <v>60</v>
@@ -1888,16 +1953,16 @@
         <v>110</v>
       </c>
       <c r="AP7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1905,52 +1970,52 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>15000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>2282</v>
       </c>
       <c r="S8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AH8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AJ8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL8">
         <v>80</v>
@@ -1962,16 +2027,16 @@
         <v>160</v>
       </c>
       <c r="AP8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AS8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1979,49 +2044,49 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>6000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>2391</v>
       </c>
       <c r="S9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2033,19 +2098,19 @@
         <v>140</v>
       </c>
       <c r="AP9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AQ9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AR9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AS9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2053,49 +2118,49 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>1499</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K10">
         <v>2405</v>
       </c>
       <c r="S10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL10">
         <v>60</v>
@@ -2107,16 +2172,16 @@
         <v>72</v>
       </c>
       <c r="AP10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2124,49 +2189,49 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>4000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>2406</v>
       </c>
       <c r="S11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL11">
         <v>63</v>
@@ -2178,16 +2243,16 @@
         <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2195,49 +2260,49 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>6499</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <v>2447</v>
       </c>
       <c r="S12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL12">
         <v>60</v>
@@ -2249,19 +2314,19 @@
         <v>140</v>
       </c>
       <c r="AP12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AR12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AS12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2269,49 +2334,49 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K13">
         <v>2466</v>
       </c>
       <c r="S13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL13">
         <v>73</v>
@@ -2323,19 +2388,19 @@
         <v>120</v>
       </c>
       <c r="AP13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AR13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AS13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2343,49 +2408,49 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14">
         <v>14999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K14">
         <v>2287</v>
       </c>
       <c r="S14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ14" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL14">
         <v>80</v>
@@ -2397,16 +2462,16 @@
         <v>160</v>
       </c>
       <c r="AP14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AS14" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2414,49 +2479,49 @@
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <v>19999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K15">
         <v>2475</v>
       </c>
       <c r="S15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL15">
         <v>75</v>
@@ -2468,16 +2533,16 @@
         <v>120</v>
       </c>
       <c r="AP15" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AQ15" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AS15" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AT15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2485,49 +2550,49 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16">
         <v>2499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>2414</v>
       </c>
       <c r="S16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AH16" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ16" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2539,16 +2604,16 @@
         <v>100</v>
       </c>
       <c r="AP16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2556,49 +2621,49 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17">
         <v>3999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>2239</v>
       </c>
       <c r="S17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH17" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI17" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ17" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL17">
         <v>80</v>
@@ -2610,16 +2675,16 @@
         <v>140</v>
       </c>
       <c r="AP17" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ17" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS17" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT17" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2627,49 +2692,49 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18">
         <v>1499</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <v>2490</v>
       </c>
       <c r="S18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH18" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI18" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AJ18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL18">
         <v>80</v>
@@ -2681,16 +2746,16 @@
         <v>80</v>
       </c>
       <c r="AP18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AS18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AT18" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -2698,49 +2763,49 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <v>2000</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <v>2489</v>
       </c>
       <c r="S19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AH19" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ19" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL19">
         <v>60</v>
@@ -2752,16 +2817,16 @@
         <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ19" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -2769,49 +2834,49 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20">
         <v>3000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K20">
         <v>2488</v>
       </c>
       <c r="S20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AH20" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL20">
         <v>60</v>
@@ -2823,16 +2888,16 @@
         <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS20" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="4:46">
@@ -2840,49 +2905,49 @@
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21">
         <v>2999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K21">
         <v>2491</v>
       </c>
       <c r="S21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD21" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH21" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI21" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL21">
         <v>73</v>
@@ -2894,16 +2959,16 @@
         <v>120</v>
       </c>
       <c r="AP21" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ21" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AS21" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT21" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="4:46">
@@ -2911,49 +2976,49 @@
         <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22">
         <v>4999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K22">
         <v>25</v>
       </c>
       <c r="S22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA22" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH22" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI22" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL22">
         <v>86</v>
@@ -2965,16 +3030,16 @@
         <v>150</v>
       </c>
       <c r="AP22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AQ22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AS22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AT22" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="4:46">
@@ -2982,49 +3047,49 @@
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>4999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K23">
         <v>2493</v>
       </c>
       <c r="S23" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AH23" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ23" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL23">
         <v>70</v>
@@ -3036,16 +3101,16 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ23" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AS23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AT23" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="4:46">
@@ -3053,49 +3118,49 @@
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24">
         <v>4999</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K24">
         <v>2492</v>
       </c>
       <c r="S24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA24" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD24" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH24" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI24" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ24" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL24">
         <v>73</v>
@@ -3107,16 +3172,16 @@
         <v>140</v>
       </c>
       <c r="AP24" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ24" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AS24" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AT24" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="4:46">
@@ -3124,49 +3189,49 @@
         <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25">
         <v>12999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>2434</v>
       </c>
       <c r="S25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA25" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AB25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AC25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AD25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE25" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH25" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AI25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AJ25" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AL25">
         <v>65</v>
@@ -3178,16 +3243,158 @@
         <v>150</v>
       </c>
       <c r="AP25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AQ25" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AS25" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AT25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="4:46">
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <v>17999</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26">
+        <v>2528</v>
+      </c>
+      <c r="S26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI26" t="s">
         <v>133</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL26">
+        <v>70</v>
+      </c>
+      <c r="AM26">
+        <v>73</v>
+      </c>
+      <c r="AN26">
+        <v>140</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="4:46">
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27">
+        <v>14999</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27">
+        <v>2526</v>
+      </c>
+      <c r="S27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL27">
+        <v>70</v>
+      </c>
+      <c r="AM27">
+        <v>73</v>
+      </c>
+      <c r="AN27">
+        <v>140</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3240,6 +3447,10 @@
     <hyperlink ref="I24" r:id="rId46"/>
     <hyperlink ref="G25" r:id="rId47"/>
     <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="G27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="144">
   <si>
     <t>Address</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Стол офисный прямой</t>
-  </si>
-  <si>
-    <t>Офисный стол прямой</t>
   </si>
   <si>
     <t>Стол офисный белый</t>
@@ -304,26 +301,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Прямой стол
-Артикул 2115
-Описание Офисный стол размером 90х60 см - это оптимальное решение для создания функционального и стильного рабочего места. 
-  Удобное отверстие для компьютерных проводов делает этот стол более практичным и организованным, позволяя вам легко управлять кабельным хаосом и сохранять чистоту на вашем рабочем месте.
-Размеры ДхШ: 90х60
-Цвет: груша 
-Цена: 2800
-Количество: 16, 9-шт нога с отверстием для проводов82edited 16:47
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Артикул 2132
 Представляем вашему вниманию белоснежный офисный стол. Этот стол - идеальное решение для создания светлого и элегантного рабочего уголка как дома, так и в офисе.
   Он отлично подчеркнет ваш хороший вкус и будет очень удобен в использовании.
@@ -573,29 +550,6 @@
     </t>
   </si>
   <si>
-    <t>Стол прямой офисный
-Артикул 2239.2368
-Описание: светлый офисный стол БУ в отличном состоянии. Этот стильный и функциональный стол станет идеальным решением для вашего офиса или домашнего рабочего пространства. Стол оснащен удобными отверстиями для проводов, которые помогут организовать кабели и сохранить порядок на рабочем месте.
-Размеры ДхШхВ: 140х80х75
-Цвет
-Цена 3 999 руб
-Количество: 10 шт. (уточняйте)
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол круглый
 Артикул 2490
 Круглый стол в хорошем состоянии, отлично подойдёт для кафе, столовых и дачи.
@@ -623,29 +577,6 @@
     </t>
   </si>
   <si>
-    <t>Стол офисный
-Артикул 2489
-Размер ДхШхВ: 120х60х75
-Цвет бук
-Есть лёгкие изъяны.
-Цена 2000 руб за 1 шт.
-Наличии: 42 шт
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Стол компьютерный 
 Артикул 2488
 Размеры ДхШхВ: 120х60х75
@@ -719,55 +650,6 @@
     </t>
   </si>
   <si>
-    <t>Стол офисный
-Артикул 2493
-Размеры ДхШхВ: 140х70х76
-Цвет 
-Цена 4 999
-Количество 4
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол компьютерный
-Артикул 2492
-Офисный стол на металлических ногах. 
-Размеры ДхШхВ: 140х73х76
-Цвет бежевый 
-Цена 4 999
-Количество 6
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол компьютерный
 Артикул 2434
 Описание Mebile system cm-6
@@ -848,6 +730,110 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Стол компьютерный
+Артикул 2232
+Размеры ДхШхВ: 140х60х75
+Цвет орех
+Цена 4 999
+Количество 9
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стол офисный
+Артикул 2532
+Стол от немецкой компании Kоnig + Neurath
+Размеры ДхШхВ: 150х75х73
+Цвет ольха
+Цена 6 999
+Количество 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стол компьютерный
+Артикул 2529
+Стол от немецкой компании Kоnig + Neurath
+Стол на регулируемых металлических ножках с колесками. 
+Размеры ДхШхВ: 150х75х75
+Цвет ольха
+Цена 14 999
+Количество 3
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол офисный компьютерный
+Артикул 2530-31
+Компьютерный стол от компании Haworth, на крепких металлических ногах и удобными вырезали для проводов. 
+Стол на регулируемых ногах.
+Офисные столы бу на некоторых могут быть небольшие дефекты 
+Размеры ДхШхВ: 
+140х70х75 - 14 999 р. - 4 шт.
+120х60х75 - 13 999 р.  - 2 шт.
+Цвет
+Цена 13 999 - 14 999
+Количество 6 шт.
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
   </si>
   <si>
@@ -860,9 +846,6 @@
     <t xml:space="preserve">https://disk.yandex.ru/i/7RyTFCJICnjYeQ | https://disk.yandex.ru/i/vtTeaXBRId9I3g | https://disk.yandex.ru/i/uWFPdVPJ_41rFw | https://disk.yandex.ru/i/MlF6DfQSMOITLg </t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/93xTkxhZBmrTxA | https://disk.yandex.ru/i/Tvmzd4WaArFw2A | https://disk.yandex.ru/i/sdIk20dcSobhdA | https://disk.yandex.ru/i/0CWk3wu0QQFkYw | https://disk.yandex.ru/i/PxD_Pc8fWsM02A</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/P8QJuS_ANuKCHQ | https://disk.yandex.ru/i/dsT9Qvi9lEj_zQ | https://disk.yandex.ru/i/7gjdgILpU4yo9Q | https://disk.yandex.ru/i/Fi-BysNQzPjuGQ | https://disk.yandex.ru/i/kxSUCyBX0Y8NQA | https://disk.yandex.ru/i/swHtZHOTILDkIQ | https://disk.yandex.ru/i/RCnIa54RBgpUQQ | https://disk.yandex.ru/i/zYHWee5QNDh2tA</t>
   </si>
   <si>
@@ -893,15 +876,9 @@
     <t>https://disk.yandex.ru/i/AB3e20q8hdSR5A | https://disk.yandex.ru/i/KE6rDsQzwxSYIw | https://disk.yandex.ru/i/MIwC3JxtdQVooA | https://disk.yandex.ru/i/AfzecvXffghUCQ | https://disk.yandex.ru/i/oatzz9jRTMPUww</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/4s7VLEg4C1Cg1g | https://disk.yandex.ru/i/fiQDVrqW8GEpzQ | https://disk.yandex.ru/i/5208XYZ056WWEw | https://disk.yandex.ru/i/pKJXW1tx7aer-g | https://disk.yandex.ru/i/TdQPKxcGsKOoGw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/fbVpJ5gZLKr0Bg | https://disk.yandex.ru/i/qVjc-ANdxHjYMg | https://disk.yandex.ru/i/Q0Ao7PZU3sXFmg | https://disk.yandex.ru/i/wAhXzI7xcTGWIg | https://disk.yandex.ru/i/tNHe1pN_44WG-Q | https://disk.yandex.ru/i/PMhLvhbFlx45Sg | https://disk.yandex.ru/i/15ykNPmXXXEDng | https://disk.yandex.ru/i/x6XCpw2fOkjQFA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/b5GeY9kKD9nUaw | https://disk.yandex.ru/i/IpTftHUV3M8Rcw | https://disk.yandex.ru/i/FGAJpBZJp6VGGQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/YzBEMkhF9QH5qg | https://disk.yandex.ru/i/NsqwBAENGCKvsw | https://disk.yandex.ru/i/LS0LuxHfcZ4CWA</t>
   </si>
   <si>
@@ -911,12 +888,6 @@
     <t>https://disk.yandex.ru/i/dto5pXCbvIFjBQ | https://disk.yandex.ru/i/pgTQPQOKgWY_Cw | https://disk.yandex.ru/i/IOBS2b1IDc01LA | https://disk.yandex.ru/i/BiCXwtNsAXYANg | https://disk.yandex.ru/i/dc9LprmrpyvZXA | https://disk.yandex.ru/i/CrTC4iSu-WDZ3A | https://disk.yandex.ru/i/1EdJWIZGIWcylQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/ukop-aqpt5_cPQ | https://disk.yandex.ru/i/ppYQAoDFuNP1pQ | https://disk.yandex.ru/i/2AwQveIiWev46w | https://disk.yandex.ru/i/TxZAtBULcHajGg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/9l1mcAdvt3DnFQ | https://disk.yandex.ru/i/JXDAmTNiUPvABw | https://disk.yandex.ru/i/JA5Y6H8DsLGH9g | https://disk.yandex.ru/i/zpFKin9WhZl4DA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Ql63Z9TTSs-Guw | https://disk.yandex.ru/i/ulqW-XqEcuEELA | https://disk.yandex.ru/i/PKw9wROaqaYnBA | https://disk.yandex.ru/i/A3AayWVInMHE4Q | https://disk.yandex.ru/i/3EHZ8NOyKAHGwA | https://disk.yandex.ru/i/ABd4etXLYdX6Wg</t>
   </si>
   <si>
@@ -926,6 +897,18 @@
     <t>https://disk.yandex.ru/i/TeHL0_MUVKsOvg | https://disk.yandex.ru/i/iuAIWfwUUz8Cag | https://disk.yandex.ru/i/AqzabunPCQoyQA | https://disk.yandex.ru/i/9A407V8q39uiKA | https://disk.yandex.ru/i/4s4Ob_3l8gEP9w | https://disk.yandex.ru/i/X5s9NbmcSn26XA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/7PG4fKCp3gt6Zg | https://disk.yandex.ru/i/Qh0dP4ptGIl_KA | https://disk.yandex.ru/i/KkKBaBAOxeXXfg | https://disk.yandex.ru/i/31cjgfhfL-kGzg | https://disk.yandex.ru/i/o9NcGDTJL0qDBQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/79x5EWemJSHHZw | https://disk.yandex.ru/i/8QTqg7h40RW0nA | https://disk.yandex.ru/i/J20lhHD0iIcqig | https://disk.yandex.ru/i/_BCiNK3uxjGQHQ | https://disk.yandex.ru/i/PoWLRe_MkCyeHw | https://disk.yandex.ru/i/nvvj1rkwaTQWUQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/hWTClOQXfDg68g | https://disk.yandex.ru/i/-0E2ZQ7XOccjbg | https://disk.yandex.ru/i/_DSyAE_7_idU6Q | https://disk.yandex.ru/i/f37et97c5kWLtg | https://disk.yandex.ru/i/mcLTUJeJKPuHyg | https://disk.yandex.ru/i/spTdbiSrBN3PvQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CxgvjUVO-Na_0g | https://disk.yandex.ru/i/8S-MOxiuWqq1cg | https://disk.yandex.ru/i/L98JZQzgO7xNhg | https://disk.yandex.ru/i/O6u0FUjB8iuOzA | https://disk.yandex.ru/i/jRNvdL_PLGM7og | https://disk.yandex.ru/i/4wSuJlPBOzTj1Q | https://disk.yandex.ru/i/hOi0I0Kdq8KgjQ</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -963,9 +946,6 @@
   </si>
   <si>
     <t>Бежевый</t>
-  </si>
-  <si>
-    <t>Жёлтый</t>
   </si>
   <si>
     <t>Оранжевый</t>
@@ -1393,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT27"/>
+  <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1544,49 +1524,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>121</v>
-      </c>
       <c r="AE2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AH2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>132</v>
       </c>
-      <c r="AI2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>136</v>
-      </c>
       <c r="AK2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1598,16 +1578,16 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AS2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1615,49 +1595,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" t="s">
         <v>117</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>118</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>120</v>
       </c>
-      <c r="AD3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>123</v>
-      </c>
       <c r="AH3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>132</v>
       </c>
-      <c r="AI3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>136</v>
-      </c>
       <c r="AK3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1669,16 +1649,16 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AS3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1686,49 +1666,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC4" t="s">
         <v>117</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>118</v>
       </c>
-      <c r="AC4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>121</v>
       </c>
-      <c r="AE4" t="s">
-        <v>124</v>
-      </c>
       <c r="AH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>132</v>
       </c>
-      <c r="AI4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>136</v>
-      </c>
       <c r="AK4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1740,16 +1720,16 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AS4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1757,49 +1737,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC5" t="s">
         <v>117</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>118</v>
       </c>
-      <c r="AC5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>121</v>
-      </c>
       <c r="AE5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AH5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>132</v>
       </c>
-      <c r="AI5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>136</v>
-      </c>
       <c r="AK5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1811,16 +1791,16 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AS5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1828,49 +1808,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>2799</v>
+        <v>3499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6">
+        <v>2132</v>
+      </c>
+      <c r="S6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB6" t="s">
         <v>115</v>
       </c>
-      <c r="K6">
-        <v>2115</v>
-      </c>
-      <c r="S6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>117</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>118</v>
       </c>
-      <c r="AC6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>121</v>
-      </c>
       <c r="AE6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>132</v>
       </c>
-      <c r="AI6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>136</v>
-      </c>
       <c r="AK6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1879,19 +1859,19 @@
         <v>73</v>
       </c>
       <c r="AN6">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AP6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AS6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1899,70 +1879,73 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>3499</v>
+        <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K7">
-        <v>2132</v>
+        <v>2282</v>
       </c>
       <c r="S7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7" t="s">
         <v>116</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>117</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>118</v>
       </c>
-      <c r="AC7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>121</v>
-      </c>
       <c r="AE7" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>127</v>
       </c>
       <c r="AH7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>132</v>
       </c>
-      <c r="AI7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>136</v>
-      </c>
       <c r="AK7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL7">
+        <v>80</v>
+      </c>
+      <c r="AM7">
+        <v>74</v>
+      </c>
+      <c r="AN7">
+        <v>160</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>139</v>
       </c>
-      <c r="AL7">
-        <v>60</v>
-      </c>
-      <c r="AM7">
-        <v>73</v>
-      </c>
-      <c r="AN7">
-        <v>110</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>140</v>
-      </c>
       <c r="AS7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1970,73 +1953,73 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K8">
-        <v>2282</v>
+        <v>2391</v>
       </c>
       <c r="S8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8" t="s">
         <v>116</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>117</v>
       </c>
-      <c r="AB8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>120</v>
-      </c>
       <c r="AD8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE8" t="s">
         <v>121</v>
       </c>
-      <c r="AE8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>131</v>
-      </c>
       <c r="AH8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>132</v>
       </c>
-      <c r="AI8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>136</v>
-      </c>
       <c r="AK8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN8">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AP8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR8" t="s">
         <v>140</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>143</v>
-      </c>
       <c r="AS8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -2044,73 +2027,70 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
-        <v>6000</v>
+        <v>1499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K9">
-        <v>2391</v>
+        <v>2405</v>
       </c>
       <c r="S9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB9" t="s">
         <v>116</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>117</v>
       </c>
-      <c r="AB9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>120</v>
-      </c>
       <c r="AD9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE9" t="s">
         <v>121</v>
       </c>
-      <c r="AE9" t="s">
-        <v>124</v>
-      </c>
       <c r="AH9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>132</v>
       </c>
-      <c r="AI9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>136</v>
-      </c>
       <c r="AK9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL9">
         <v>60</v>
       </c>
       <c r="AM9">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AN9">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="AP9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS9" t="s">
         <v>141</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>145</v>
-      </c>
       <c r="AT9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2118,70 +2098,70 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>1499</v>
+        <v>4000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K10">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="S10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB10" t="s">
         <v>116</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>117</v>
       </c>
-      <c r="AB10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL10">
+        <v>63</v>
+      </c>
+      <c r="AM10">
+        <v>75</v>
+      </c>
+      <c r="AN10">
         <v>120</v>
       </c>
-      <c r="AD10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL10">
-        <v>60</v>
-      </c>
-      <c r="AM10">
-        <v>125</v>
-      </c>
-      <c r="AN10">
-        <v>72</v>
-      </c>
       <c r="AP10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AS10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2189,289 +2169,289 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11">
-        <v>4000</v>
+        <v>6499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K11">
-        <v>2406</v>
+        <v>2447</v>
       </c>
       <c r="S11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB11" t="s">
         <v>116</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>117</v>
       </c>
-      <c r="AB11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>120</v>
-      </c>
       <c r="AD11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE11" t="s">
         <v>121</v>
       </c>
-      <c r="AE11" t="s">
-        <v>124</v>
-      </c>
       <c r="AH11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>132</v>
       </c>
-      <c r="AI11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>136</v>
-      </c>
       <c r="AK11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AM11">
         <v>75</v>
       </c>
       <c r="AN11">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR11" t="s">
         <v>140</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>140</v>
-      </c>
       <c r="AS11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:46">
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12">
+        <v>4999</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12">
+        <v>2466</v>
+      </c>
+      <c r="S12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL12">
         <v>73</v>
-      </c>
-      <c r="F12">
-        <v>6499</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12">
-        <v>2447</v>
-      </c>
-      <c r="S12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL12">
-        <v>60</v>
       </c>
       <c r="AM12">
         <v>75</v>
       </c>
       <c r="AN12">
+        <v>120</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR12" t="s">
         <v>140</v>
       </c>
-      <c r="AP12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>144</v>
-      </c>
       <c r="AS12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:46">
       <c r="D13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>4999</v>
+        <v>14999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K13">
-        <v>2466</v>
+        <v>2287</v>
       </c>
       <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB13" t="s">
         <v>116</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>117</v>
       </c>
-      <c r="AB13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>120</v>
-      </c>
       <c r="AD13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AH13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>132</v>
       </c>
-      <c r="AI13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>136</v>
-      </c>
       <c r="AK13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL13">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AM13">
         <v>75</v>
       </c>
       <c r="AN13">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AS13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:46">
       <c r="D14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>19999</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14">
+        <v>2475</v>
+      </c>
+      <c r="S14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL14">
         <v>75</v>
-      </c>
-      <c r="F14">
-        <v>14999</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14">
-        <v>2287</v>
-      </c>
-      <c r="S14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL14">
-        <v>80</v>
       </c>
       <c r="AM14">
         <v>75</v>
       </c>
       <c r="AN14">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AQ14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AS14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AT14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2479,70 +2459,70 @@
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15">
-        <v>19999</v>
+        <v>2499</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K15">
-        <v>2475</v>
+        <v>2414</v>
       </c>
       <c r="S15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB15" t="s">
         <v>116</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>117</v>
       </c>
-      <c r="AB15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>120</v>
-      </c>
       <c r="AD15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE15" t="s">
         <v>124</v>
       </c>
       <c r="AH15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>132</v>
       </c>
-      <c r="AI15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>136</v>
-      </c>
       <c r="AK15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL15">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM15">
         <v>75</v>
       </c>
       <c r="AN15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AQ15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AS15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AT15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2550,851 +2530,780 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16">
-        <v>2499</v>
+        <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K16">
-        <v>2414</v>
+        <v>2490</v>
       </c>
       <c r="S16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB16" t="s">
         <v>116</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>117</v>
       </c>
-      <c r="AB16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>120</v>
-      </c>
       <c r="AD16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AH16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AI16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>133</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>136</v>
-      </c>
       <c r="AK16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL16">
         <v>80</v>
       </c>
       <c r="AM16">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN16">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AP16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AT16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="4:46">
       <c r="D17" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17">
-        <v>3999</v>
+        <v>3000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K17">
-        <v>2239</v>
+        <v>2488</v>
       </c>
       <c r="S17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB17" t="s">
         <v>116</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>117</v>
       </c>
-      <c r="AB17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>120</v>
-      </c>
       <c r="AD17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>132</v>
       </c>
-      <c r="AI17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>136</v>
-      </c>
       <c r="AK17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL17">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM17">
         <v>75</v>
       </c>
       <c r="AN17">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AS17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="4:46">
       <c r="D18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18">
-        <v>1499</v>
+        <v>2999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K18">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="S18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB18" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>117</v>
       </c>
-      <c r="AB18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL18">
+        <v>73</v>
+      </c>
+      <c r="AM18">
+        <v>75</v>
+      </c>
+      <c r="AN18">
         <v>120</v>
       </c>
-      <c r="AD18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL18">
-        <v>80</v>
-      </c>
-      <c r="AM18">
-        <v>72</v>
-      </c>
-      <c r="AN18">
-        <v>80</v>
-      </c>
       <c r="AP18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AS18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AT18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19">
-        <v>2000</v>
+        <v>4999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K19">
-        <v>2489</v>
+        <v>25</v>
       </c>
       <c r="S19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB19" t="s">
         <v>116</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>117</v>
       </c>
-      <c r="AB19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>120</v>
-      </c>
       <c r="AD19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE19" t="s">
         <v>121</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AH19" t="s">
         <v>128</v>
       </c>
-      <c r="AH19" t="s">
-        <v>132</v>
-      </c>
       <c r="AI19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AJ19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL19">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="AM19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN19">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AQ19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AT19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="4:46">
       <c r="D20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>3000</v>
+        <v>12999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K20">
-        <v>2488</v>
+        <v>2434</v>
       </c>
       <c r="S20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB20" t="s">
         <v>116</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>117</v>
       </c>
-      <c r="AB20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>120</v>
-      </c>
       <c r="AD20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE20" t="s">
         <v>121</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AH20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI20" t="s">
         <v>129</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AJ20" t="s">
         <v>132</v>
       </c>
-      <c r="AI20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>136</v>
-      </c>
       <c r="AK20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL20">
+        <v>65</v>
+      </c>
+      <c r="AM20">
+        <v>76</v>
+      </c>
+      <c r="AN20">
+        <v>150</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>139</v>
       </c>
-      <c r="AL20">
-        <v>60</v>
-      </c>
-      <c r="AM20">
-        <v>75</v>
-      </c>
-      <c r="AN20">
-        <v>120</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>140</v>
-      </c>
       <c r="AS20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="4:46">
       <c r="D21" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21">
-        <v>2999</v>
+        <v>17999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K21">
-        <v>2491</v>
+        <v>2528</v>
       </c>
       <c r="S21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB21" t="s">
         <v>116</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
         <v>117</v>
       </c>
-      <c r="AB21" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>120</v>
-      </c>
       <c r="AD21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE21" t="s">
         <v>126</v>
       </c>
       <c r="AH21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>132</v>
       </c>
-      <c r="AI21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>136</v>
-      </c>
       <c r="AK21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL21">
+        <v>70</v>
+      </c>
+      <c r="AM21">
+        <v>73</v>
+      </c>
+      <c r="AN21">
+        <v>140</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>139</v>
       </c>
-      <c r="AL21">
-        <v>73</v>
-      </c>
-      <c r="AM21">
-        <v>75</v>
-      </c>
-      <c r="AN21">
-        <v>120</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>140</v>
-      </c>
       <c r="AS21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="4:46">
       <c r="D22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>4999</v>
+        <v>14999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K22">
-        <v>25</v>
+        <v>2526</v>
       </c>
       <c r="S22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB22" t="s">
         <v>116</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>117</v>
       </c>
-      <c r="AB22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>120</v>
-      </c>
       <c r="AD22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AH22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>132</v>
       </c>
-      <c r="AI22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>138</v>
-      </c>
       <c r="AK22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL22">
+        <v>70</v>
+      </c>
+      <c r="AM22">
+        <v>73</v>
+      </c>
+      <c r="AN22">
+        <v>140</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>139</v>
       </c>
-      <c r="AL22">
-        <v>86</v>
-      </c>
-      <c r="AM22">
-        <v>76</v>
-      </c>
-      <c r="AN22">
-        <v>150</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>142</v>
-      </c>
       <c r="AS22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AT22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="4:46">
       <c r="D23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23">
         <v>4999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K23">
-        <v>2493</v>
+        <v>2232</v>
       </c>
       <c r="S23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB23" t="s">
         <v>116</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
         <v>117</v>
       </c>
-      <c r="AB23" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>120</v>
-      </c>
       <c r="AD23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE23" t="s">
         <v>121</v>
       </c>
-      <c r="AE23" t="s">
-        <v>127</v>
-      </c>
       <c r="AH23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>132</v>
       </c>
-      <c r="AI23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>136</v>
-      </c>
       <c r="AK23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL23">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM23">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN23">
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AS23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AT23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="4:46">
       <c r="D24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24">
-        <v>4999</v>
+        <v>6999</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K24">
-        <v>2492</v>
+        <v>2532</v>
       </c>
       <c r="S24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB24" t="s">
         <v>116</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AC24" t="s">
         <v>117</v>
       </c>
-      <c r="AB24" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>120</v>
-      </c>
       <c r="AD24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>132</v>
       </c>
-      <c r="AI24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>136</v>
-      </c>
       <c r="AK24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL24">
+        <v>75</v>
+      </c>
+      <c r="AM24">
+        <v>73</v>
+      </c>
+      <c r="AN24">
+        <v>150</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>139</v>
       </c>
-      <c r="AL24">
-        <v>73</v>
-      </c>
-      <c r="AM24">
-        <v>76</v>
-      </c>
-      <c r="AN24">
-        <v>140</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>143</v>
-      </c>
       <c r="AS24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AT24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="4:46">
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25">
-        <v>12999</v>
+        <v>14999</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="K25">
-        <v>2434</v>
+        <v>2529</v>
       </c>
       <c r="S25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB25" t="s">
         <v>116</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
         <v>117</v>
       </c>
-      <c r="AB25" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>120</v>
-      </c>
       <c r="AD25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>132</v>
       </c>
-      <c r="AI25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>136</v>
-      </c>
       <c r="AK25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL25">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM25">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN25">
         <v>150</v>
       </c>
       <c r="AP25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AS25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="4:46">
       <c r="D26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26">
-        <v>17999</v>
+        <v>13999</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26">
+        <v>2530</v>
+      </c>
+      <c r="S26" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26">
-        <v>2528</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="AA26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB26" t="s">
         <v>116</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>117</v>
       </c>
-      <c r="AB26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>120</v>
-      </c>
       <c r="AD26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE26" t="s">
         <v>121</v>
       </c>
-      <c r="AE26" t="s">
-        <v>130</v>
-      </c>
       <c r="AH26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>132</v>
       </c>
-      <c r="AI26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>136</v>
-      </c>
       <c r="AK26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL26">
         <v>70</v>
       </c>
       <c r="AM26">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN26">
         <v>140</v>
       </c>
       <c r="AP26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AS26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="4:46">
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27">
-        <v>14999</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K27">
-        <v>2526</v>
-      </c>
-      <c r="S27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL27">
-        <v>70</v>
-      </c>
-      <c r="AM27">
-        <v>73</v>
-      </c>
-      <c r="AN27">
-        <v>140</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3449,8 +3358,6 @@
     <hyperlink ref="I25" r:id="rId48"/>
     <hyperlink ref="G26" r:id="rId49"/>
     <hyperlink ref="I26" r:id="rId50"/>
-    <hyperlink ref="G27" r:id="rId51"/>
-    <hyperlink ref="I27" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="147">
   <si>
     <t>Address</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Стол офисный компьютерный</t>
+  </si>
+  <si>
+    <t>Кухонный стол</t>
   </si>
   <si>
     <t>Акция! Скидка -35%
@@ -761,7 +764,7 @@
 Стол от немецкой компании Kоnig + Neurath
 Размеры ДхШхВ: 150х75х73
 Цвет ольха
-Цена 6 999
+Цена 9 999
 Количество 1
     У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
     В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
@@ -834,6 +837,33 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Кухонный стол
+Артикул 2553
+Стол кухонный для дома и офиса до 6 персон. Стол на металлических ногах, в хорошем состоянии
+Размеры ДхШхВ: 160x78x73
+Цвет: Бежевый
+Цена: 9999
+Количество: 1
+    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
+    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
+    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
+    К столам можем подобрать тумбы, кресла и шкафы.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
   </si>
   <si>
@@ -907,6 +937,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/CxgvjUVO-Na_0g | https://disk.yandex.ru/i/8S-MOxiuWqq1cg | https://disk.yandex.ru/i/L98JZQzgO7xNhg | https://disk.yandex.ru/i/O6u0FUjB8iuOzA | https://disk.yandex.ru/i/jRNvdL_PLGM7og | https://disk.yandex.ru/i/4wSuJlPBOzTj1Q | https://disk.yandex.ru/i/hOi0I0Kdq8KgjQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Lx5F-t0ChRF-fQ | https://disk.yandex.ru/i/veUNDXEb0xOVgA | https://disk.yandex.ru/i/YdpSkFF2tlKoVA | https://disk.yandex.ru/i/_8PxqjRtlItJVA</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1373,7 +1406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT26"/>
+  <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,49 +1557,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AH2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1578,16 +1611,16 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1595,49 +1628,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AH3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1649,16 +1682,16 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1666,49 +1699,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1720,16 +1753,16 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1737,49 +1770,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AH5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1791,16 +1824,16 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1808,49 +1841,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>3499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>2132</v>
       </c>
       <c r="S6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1862,16 +1895,16 @@
         <v>110</v>
       </c>
       <c r="AP6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1879,52 +1912,52 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>2282</v>
       </c>
       <c r="S7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AF7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AH7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AJ7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1936,16 +1969,16 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1953,49 +1986,49 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>6000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>2391</v>
       </c>
       <c r="S8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL8">
         <v>60</v>
@@ -2007,19 +2040,19 @@
         <v>140</v>
       </c>
       <c r="AP8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AQ8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AR8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AS8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -2027,49 +2060,49 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>1499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>2405</v>
       </c>
       <c r="S9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2081,16 +2114,16 @@
         <v>72</v>
       </c>
       <c r="AP9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2098,49 +2131,49 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>4000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K10">
         <v>2406</v>
       </c>
       <c r="S10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL10">
         <v>63</v>
@@ -2152,16 +2185,16 @@
         <v>120</v>
       </c>
       <c r="AP10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2169,49 +2202,49 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>6499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>2447</v>
       </c>
       <c r="S11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2223,19 +2256,19 @@
         <v>140</v>
       </c>
       <c r="AP11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AR11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AS11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2243,49 +2276,49 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <v>2466</v>
       </c>
       <c r="S12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL12">
         <v>73</v>
@@ -2297,19 +2330,19 @@
         <v>120</v>
       </c>
       <c r="AP12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AR12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AS12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2317,49 +2350,49 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>14999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K13">
         <v>2287</v>
       </c>
       <c r="S13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2371,16 +2404,16 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2388,49 +2421,49 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14">
         <v>19999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K14">
         <v>2475</v>
       </c>
       <c r="S14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL14">
         <v>75</v>
@@ -2442,16 +2475,16 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AQ14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AS14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AT14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2459,49 +2492,49 @@
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <v>2499</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K15">
         <v>2414</v>
       </c>
       <c r="S15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AH15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2513,16 +2546,16 @@
         <v>100</v>
       </c>
       <c r="AP15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2530,49 +2563,49 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16">
         <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>2490</v>
       </c>
       <c r="S16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2584,16 +2617,16 @@
         <v>80</v>
       </c>
       <c r="AP16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AS16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AT16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2601,49 +2634,49 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17">
         <v>3000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>2488</v>
       </c>
       <c r="S17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AH17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL17">
         <v>60</v>
@@ -2655,16 +2688,16 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2672,49 +2705,49 @@
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18">
         <v>2999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <v>2491</v>
       </c>
       <c r="S18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL18">
         <v>73</v>
@@ -2726,16 +2759,16 @@
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AS18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="4:46">
@@ -2743,49 +2776,49 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <v>4999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <v>25</v>
       </c>
       <c r="S19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL19">
         <v>86</v>
@@ -2797,16 +2830,16 @@
         <v>150</v>
       </c>
       <c r="AP19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AQ19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AS19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AT19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="4:46">
@@ -2814,49 +2847,49 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20">
         <v>12999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K20">
         <v>2434</v>
       </c>
       <c r="S20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL20">
         <v>65</v>
@@ -2868,16 +2901,16 @@
         <v>150</v>
       </c>
       <c r="AP20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="4:46">
@@ -2885,49 +2918,49 @@
         <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21">
         <v>17999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K21">
         <v>2528</v>
       </c>
       <c r="S21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AH21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL21">
         <v>70</v>
@@ -2939,16 +2972,16 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="4:46">
@@ -2956,49 +2989,49 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22">
         <v>14999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K22">
         <v>2526</v>
       </c>
       <c r="S22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AH22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL22">
         <v>70</v>
@@ -3010,16 +3043,16 @@
         <v>140</v>
       </c>
       <c r="AP22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="4:46">
@@ -3027,49 +3060,49 @@
         <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>4999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K23">
         <v>2232</v>
       </c>
       <c r="S23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL23">
         <v>60</v>
@@ -3081,16 +3114,16 @@
         <v>140</v>
       </c>
       <c r="AP23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="4:46">
@@ -3098,49 +3131,49 @@
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24">
-        <v>6999</v>
+        <v>9999</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K24">
         <v>2532</v>
       </c>
       <c r="S24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AH24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL24">
         <v>75</v>
@@ -3152,16 +3185,16 @@
         <v>150</v>
       </c>
       <c r="AP24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="4:46">
@@ -3169,49 +3202,49 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25">
         <v>14999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>2529</v>
       </c>
       <c r="S25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL25">
         <v>75</v>
@@ -3223,16 +3256,16 @@
         <v>150</v>
       </c>
       <c r="AP25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="4:46">
@@ -3240,49 +3273,49 @@
         <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26">
         <v>13999</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K26">
         <v>2530</v>
       </c>
       <c r="S26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AC26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AE26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL26">
         <v>70</v>
@@ -3294,16 +3327,87 @@
         <v>140</v>
       </c>
       <c r="AP26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AS26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AT26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="4:46">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27">
+        <v>9999</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27">
+        <v>2553</v>
+      </c>
+      <c r="S27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>135</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL27">
+        <v>78</v>
+      </c>
+      <c r="AM27">
+        <v>73</v>
+      </c>
+      <c r="AN27">
+        <v>160</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3358,6 +3462,8 @@
     <hyperlink ref="I25" r:id="rId48"/>
     <hyperlink ref="G26" r:id="rId49"/>
     <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="G27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="143">
   <si>
     <t>Address</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Стол компьютерный </t>
-  </si>
-  <si>
-    <t>Стол кухонный</t>
   </si>
   <si>
     <t>Стол офисный компьютерный</t>
@@ -626,33 +623,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стол кухонный
-Артикул 25
-Старинный раскладывающийся кухонный стол цвета темный орех с глянцевой поверхностью — идеальный выбор для тех, кто ценит классический стиль и практичность. Стол отличается элегантным внешним видом и прочностью. Благодаря раскладному механизму, его легко можно увеличить, чтобы разместить больше гостей за ужином или семейными встречами.
-Размеры ДхШхВ: 150х86х76, в сложенном состоянии д. 120
-Цвет: тёмный орех - глянец
-Цена: 4 999. Скидка - 50%  9 999
-Количество: 1
-    У нас на складе имеются столы для работы дома и в офисе, самых разных размеров и видов. 
-    В наличии более 300 столов, которые хранятся на складе в разобранном виде. 
-    Есть презентабельные столы для элитных офисов до 15 000 и простые для домашнего использования от 999. 
-    К столам можем подобрать тумбы, кресла и шкафы.
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Стол компьютерный
 Артикул 2434
 Описание Mebile system cm-6
@@ -915,9 +885,6 @@
     <t>https://disk.yandex.ru/i/MNp02yWvNL5YZw | https://disk.yandex.ru/i/EAuaU_QuqspSVg | https://disk.yandex.ru/i/Ge6cAuB-Tj4vPw | https://disk.yandex.ru/i/-nFVx3UuHnFFcw | https://disk.yandex.ru/i/glib5nBo9D3Fkg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/dto5pXCbvIFjBQ | https://disk.yandex.ru/i/pgTQPQOKgWY_Cw | https://disk.yandex.ru/i/IOBS2b1IDc01LA | https://disk.yandex.ru/i/BiCXwtNsAXYANg | https://disk.yandex.ru/i/dc9LprmrpyvZXA | https://disk.yandex.ru/i/CrTC4iSu-WDZ3A | https://disk.yandex.ru/i/1EdJWIZGIWcylQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/Ql63Z9TTSs-Guw | https://disk.yandex.ru/i/ulqW-XqEcuEELA | https://disk.yandex.ru/i/PKw9wROaqaYnBA | https://disk.yandex.ru/i/A3AayWVInMHE4Q | https://disk.yandex.ru/i/3EHZ8NOyKAHGwA | https://disk.yandex.ru/i/ABd4etXLYdX6Wg</t>
   </si>
   <si>
@@ -1006,9 +973,6 @@
   </si>
   <si>
     <t>Круглый</t>
-  </si>
-  <si>
-    <t>Овальный</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1406,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT27"/>
+  <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,49 +1521,49 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>121</v>
-      </c>
       <c r="AE2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AH2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>132</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>135</v>
-      </c>
       <c r="AK2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1611,16 +1575,16 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1628,49 +1592,49 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" t="s">
         <v>117</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>118</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>120</v>
       </c>
-      <c r="AD3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>123</v>
-      </c>
       <c r="AH3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>132</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>135</v>
-      </c>
       <c r="AK3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1682,16 +1646,16 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1699,49 +1663,49 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC4" t="s">
         <v>117</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>118</v>
       </c>
-      <c r="AC4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>121</v>
       </c>
-      <c r="AE4" t="s">
-        <v>124</v>
-      </c>
       <c r="AH4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>132</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>135</v>
-      </c>
       <c r="AK4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1753,16 +1717,16 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1770,49 +1734,49 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC5" t="s">
         <v>117</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>118</v>
       </c>
-      <c r="AC5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>121</v>
-      </c>
       <c r="AE5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AH5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>132</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>135</v>
-      </c>
       <c r="AK5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1824,16 +1788,16 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1841,49 +1805,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>3499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K6">
         <v>2132</v>
       </c>
       <c r="S6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC6" t="s">
         <v>117</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>118</v>
       </c>
-      <c r="AC6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>121</v>
-      </c>
       <c r="AE6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AH6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>132</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>135</v>
-      </c>
       <c r="AK6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1895,16 +1859,16 @@
         <v>110</v>
       </c>
       <c r="AP6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1912,52 +1876,52 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K7">
         <v>2282</v>
       </c>
       <c r="S7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7" t="s">
         <v>116</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>117</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE7" t="s">
         <v>119</v>
       </c>
-      <c r="AC7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>122</v>
-      </c>
       <c r="AF7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI7" t="s">
         <v>130</v>
       </c>
-      <c r="AH7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>133</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AK7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1969,16 +1933,16 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AS7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1986,49 +1950,49 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>6000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K8">
         <v>2391</v>
       </c>
       <c r="S8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8" t="s">
         <v>116</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>117</v>
       </c>
-      <c r="AB8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>120</v>
-      </c>
       <c r="AD8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE8" t="s">
         <v>121</v>
       </c>
-      <c r="AE8" t="s">
-        <v>124</v>
-      </c>
       <c r="AH8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>132</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>135</v>
-      </c>
       <c r="AK8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL8">
         <v>60</v>
@@ -2040,19 +2004,19 @@
         <v>140</v>
       </c>
       <c r="AP8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS8" t="s">
         <v>140</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>144</v>
-      </c>
       <c r="AT8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -2060,49 +2024,49 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>1499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K9">
         <v>2405</v>
       </c>
       <c r="S9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB9" t="s">
         <v>116</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>117</v>
       </c>
-      <c r="AB9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>120</v>
-      </c>
       <c r="AD9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE9" t="s">
         <v>121</v>
       </c>
-      <c r="AE9" t="s">
-        <v>124</v>
-      </c>
       <c r="AH9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>132</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>135</v>
-      </c>
       <c r="AK9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2114,16 +2078,16 @@
         <v>72</v>
       </c>
       <c r="AP9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -2131,49 +2095,49 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>4000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K10">
         <v>2406</v>
       </c>
       <c r="S10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB10" t="s">
         <v>116</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>117</v>
       </c>
-      <c r="AB10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>120</v>
-      </c>
       <c r="AD10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE10" t="s">
         <v>121</v>
       </c>
-      <c r="AE10" t="s">
-        <v>124</v>
-      </c>
       <c r="AH10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>132</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>135</v>
-      </c>
       <c r="AK10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL10">
         <v>63</v>
@@ -2185,16 +2149,16 @@
         <v>120</v>
       </c>
       <c r="AP10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2202,49 +2166,49 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>6499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K11">
         <v>2447</v>
       </c>
       <c r="S11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB11" t="s">
         <v>116</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>117</v>
       </c>
-      <c r="AB11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>120</v>
-      </c>
       <c r="AD11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE11" t="s">
         <v>121</v>
       </c>
-      <c r="AE11" t="s">
-        <v>124</v>
-      </c>
       <c r="AH11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>132</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>135</v>
-      </c>
       <c r="AK11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2256,19 +2220,19 @@
         <v>140</v>
       </c>
       <c r="AP11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR11" t="s">
         <v>139</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>143</v>
-      </c>
       <c r="AS11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2276,49 +2240,49 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K12">
         <v>2466</v>
       </c>
       <c r="S12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB12" t="s">
         <v>116</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>117</v>
       </c>
-      <c r="AB12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>120</v>
-      </c>
       <c r="AD12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AH12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>135</v>
-      </c>
       <c r="AK12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL12">
         <v>73</v>
@@ -2330,19 +2294,19 @@
         <v>120</v>
       </c>
       <c r="AP12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR12" t="s">
         <v>139</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>143</v>
-      </c>
       <c r="AS12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2350,49 +2314,49 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>14999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K13">
         <v>2287</v>
       </c>
       <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB13" t="s">
         <v>116</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>117</v>
       </c>
-      <c r="AB13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>120</v>
-      </c>
       <c r="AD13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AH13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>132</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>135</v>
-      </c>
       <c r="AK13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2404,16 +2368,16 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AS13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2421,49 +2385,49 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14">
         <v>19999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K14">
         <v>2475</v>
       </c>
       <c r="S14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB14" t="s">
         <v>116</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>117</v>
       </c>
-      <c r="AB14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>120</v>
-      </c>
       <c r="AD14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE14" t="s">
         <v>121</v>
       </c>
-      <c r="AE14" t="s">
-        <v>124</v>
-      </c>
       <c r="AH14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI14" t="s">
         <v>131</v>
       </c>
-      <c r="AI14" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AK14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL14">
         <v>75</v>
@@ -2475,16 +2439,16 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS14" t="s">
         <v>141</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>145</v>
-      </c>
       <c r="AT14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2492,49 +2456,49 @@
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>2499</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K15">
         <v>2414</v>
       </c>
       <c r="S15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB15" t="s">
         <v>116</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>117</v>
       </c>
-      <c r="AB15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>120</v>
-      </c>
       <c r="AD15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AH15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>132</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>135</v>
-      </c>
       <c r="AK15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2546,16 +2510,16 @@
         <v>100</v>
       </c>
       <c r="AP15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2563,49 +2527,49 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16">
         <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K16">
         <v>2490</v>
       </c>
       <c r="S16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB16" t="s">
         <v>116</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>117</v>
       </c>
-      <c r="AB16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>120</v>
-      </c>
       <c r="AD16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AH16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI16" t="s">
         <v>131</v>
       </c>
-      <c r="AI16" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AK16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2617,16 +2581,16 @@
         <v>80</v>
       </c>
       <c r="AP16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS16" t="s">
         <v>141</v>
       </c>
-      <c r="AS16" t="s">
-        <v>145</v>
-      </c>
       <c r="AT16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="4:46">
@@ -2634,49 +2598,49 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17">
         <v>3000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K17">
         <v>2488</v>
       </c>
       <c r="S17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB17" t="s">
         <v>116</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>117</v>
       </c>
-      <c r="AB17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>120</v>
-      </c>
       <c r="AD17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH17" t="s">
         <v>128</v>
       </c>
-      <c r="AH17" t="s">
-        <v>131</v>
-      </c>
       <c r="AI17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>132</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>135</v>
-      </c>
       <c r="AK17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL17">
         <v>60</v>
@@ -2688,16 +2652,16 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="4:46">
@@ -2705,49 +2669,49 @@
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18">
         <v>2999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K18">
         <v>2491</v>
       </c>
       <c r="S18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB18" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>117</v>
       </c>
-      <c r="AB18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>120</v>
-      </c>
       <c r="AD18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AH18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>132</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>135</v>
-      </c>
       <c r="AK18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL18">
         <v>73</v>
@@ -2759,69 +2723,69 @@
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AS18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="4:46">
       <c r="D19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19">
-        <v>4999</v>
+        <v>12999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K19">
-        <v>25</v>
+        <v>2434</v>
       </c>
       <c r="S19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB19" t="s">
         <v>116</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>117</v>
       </c>
-      <c r="AB19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>120</v>
-      </c>
       <c r="AD19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE19" t="s">
         <v>121</v>
       </c>
-      <c r="AE19" t="s">
-        <v>124</v>
-      </c>
       <c r="AH19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AJ19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AK19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL19">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="AM19">
         <v>76</v>
@@ -2830,137 +2794,137 @@
         <v>150</v>
       </c>
       <c r="AP19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AQ19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AS19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AT19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:46">
       <c r="D20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>12999</v>
+        <v>17999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K20">
-        <v>2434</v>
+        <v>2528</v>
       </c>
       <c r="S20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB20" t="s">
         <v>116</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>117</v>
       </c>
-      <c r="AB20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>120</v>
-      </c>
       <c r="AD20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>132</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>135</v>
-      </c>
       <c r="AK20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL20">
+        <v>70</v>
+      </c>
+      <c r="AM20">
+        <v>73</v>
+      </c>
+      <c r="AN20">
+        <v>140</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>138</v>
       </c>
-      <c r="AL20">
-        <v>65</v>
-      </c>
-      <c r="AM20">
-        <v>76</v>
-      </c>
-      <c r="AN20">
-        <v>150</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>142</v>
-      </c>
       <c r="AS20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="4:46">
       <c r="D21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21">
-        <v>17999</v>
+        <v>14999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K21">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="S21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB21" t="s">
         <v>116</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
         <v>117</v>
       </c>
-      <c r="AB21" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>120</v>
-      </c>
       <c r="AD21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI21" t="s">
         <v>129</v>
       </c>
-      <c r="AH21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>132</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>135</v>
-      </c>
       <c r="AK21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL21">
         <v>70</v>
@@ -2972,16 +2936,16 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AS21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="4:46">
@@ -2989,283 +2953,283 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>14999</v>
+        <v>4999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K22">
-        <v>2526</v>
+        <v>2232</v>
       </c>
       <c r="S22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB22" t="s">
         <v>116</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>117</v>
       </c>
-      <c r="AB22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>120</v>
-      </c>
       <c r="AD22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE22" t="s">
         <v>121</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AH22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI22" t="s">
         <v>129</v>
       </c>
-      <c r="AH22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>132</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>135</v>
-      </c>
       <c r="AK22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL22">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM22">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN22">
         <v>140</v>
       </c>
       <c r="AP22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AS22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="4:46">
       <c r="D23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K23">
-        <v>2232</v>
+        <v>2532</v>
       </c>
       <c r="S23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB23" t="s">
         <v>116</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
         <v>117</v>
       </c>
-      <c r="AB23" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>120</v>
-      </c>
       <c r="AD23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE23" t="s">
         <v>124</v>
       </c>
       <c r="AH23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>132</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>135</v>
-      </c>
       <c r="AK23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL23">
+        <v>75</v>
+      </c>
+      <c r="AM23">
+        <v>73</v>
+      </c>
+      <c r="AN23">
+        <v>150</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>138</v>
       </c>
-      <c r="AL23">
-        <v>60</v>
-      </c>
-      <c r="AM23">
-        <v>75</v>
-      </c>
-      <c r="AN23">
+      <c r="AS23" t="s">
         <v>140</v>
       </c>
-      <c r="AP23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>144</v>
-      </c>
       <c r="AT23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="4:46">
       <c r="D24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24">
-        <v>9999</v>
+        <v>14999</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K24">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="S24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB24" t="s">
         <v>116</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AC24" t="s">
         <v>117</v>
       </c>
-      <c r="AB24" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>120</v>
-      </c>
       <c r="AD24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AH24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>132</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>135</v>
-      </c>
       <c r="AK24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL24">
         <v>75</v>
       </c>
       <c r="AM24">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN24">
         <v>150</v>
       </c>
       <c r="AP24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AS24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="4:46">
       <c r="D25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25">
-        <v>14999</v>
+        <v>13999</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="K25">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="S25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB25" t="s">
         <v>116</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
         <v>117</v>
       </c>
-      <c r="AB25" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>120</v>
-      </c>
       <c r="AD25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE25" t="s">
         <v>121</v>
       </c>
-      <c r="AE25" t="s">
-        <v>126</v>
-      </c>
       <c r="AH25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>132</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>135</v>
-      </c>
       <c r="AK25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AL25">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM25">
         <v>75</v>
       </c>
       <c r="AN25">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AP25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AQ25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AS25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="4:46">
@@ -3273,141 +3237,70 @@
         <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26">
-        <v>13999</v>
+        <v>9999</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26">
+        <v>2553</v>
+      </c>
+      <c r="S26" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26">
-        <v>2530</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="AA26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB26" t="s">
         <v>116</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>117</v>
       </c>
-      <c r="AB26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>120</v>
-      </c>
       <c r="AD26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AE26" t="s">
         <v>124</v>
       </c>
       <c r="AH26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI26" t="s">
         <v>131</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>132</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>135</v>
-      </c>
       <c r="AK26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL26">
+        <v>78</v>
+      </c>
+      <c r="AM26">
+        <v>73</v>
+      </c>
+      <c r="AN26">
+        <v>160</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>138</v>
       </c>
-      <c r="AL26">
-        <v>70</v>
-      </c>
-      <c r="AM26">
-        <v>75</v>
-      </c>
-      <c r="AN26">
-        <v>140</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ26" t="s">
+      <c r="AS26" t="s">
         <v>142</v>
       </c>
-      <c r="AS26" t="s">
-        <v>144</v>
-      </c>
       <c r="AT26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="4:46">
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27">
-        <v>9999</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K27">
-        <v>2553</v>
-      </c>
-      <c r="S27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL27">
-        <v>78</v>
-      </c>
-      <c r="AM27">
-        <v>73</v>
-      </c>
-      <c r="AN27">
-        <v>160</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3462,8 +3355,6 @@
     <hyperlink ref="I25" r:id="rId48"/>
     <hyperlink ref="G26" r:id="rId49"/>
     <hyperlink ref="I26" r:id="rId50"/>
-    <hyperlink ref="G27" r:id="rId51"/>
-    <hyperlink ref="I27" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F73F8F-8BBD-40DA-8B53-706B3EACFCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-1275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="149">
   <si>
     <t>Address</t>
   </si>
@@ -200,6 +206,12 @@
   </si>
   <si>
     <t>Кухонный стол</t>
+  </si>
+  <si>
+    <t>Офисный стол прямой</t>
+  </si>
+  <si>
+    <t>Офисный стол белый</t>
   </si>
   <si>
     <t>Акция! Скидка -35%
@@ -834,6 +846,50 @@
     </t>
   </si>
   <si>
+    <t>Офисный стол прямой
+Артикул 2557
+Офисный компьютерный стол на металлических ногах с отверстиями для проводов.
+Тумба на колёсиках - 2499
+Размеры ДхШхВ: 140x80x75
+Цвет: Белый
+Цена: 4999
+Количество: 40
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
+    <t>Офисный стол белый
+Артикул 2558
+Офисный стол на металлических ногах.
+Тумба на колёсиках - 2499
+Размеры ДхШхВ: 120x80x75
+Цвет: Белый
+Цена: 3999
+Количество: 40
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/CmFhLGYqAb9oSA | https://disk.yandex.ru/i/KCcwh9lnIv2u6w | https://disk.yandex.ru/i/zLP1HxuKf431UA | https://disk.yandex.ru/i/Jz8mnWSI5U5Wkw | https://disk.yandex.ru/i/yMi-RpHlGe6fsw</t>
   </si>
   <si>
@@ -909,6 +965,9 @@
     <t>https://disk.yandex.ru/i/Lx5F-t0ChRF-fQ | https://disk.yandex.ru/i/veUNDXEb0xOVgA | https://disk.yandex.ru/i/YdpSkFF2tlKoVA | https://disk.yandex.ru/i/_8PxqjRtlItJVA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/d/PT2BUkFK826Ndw | https://disk.yandex.ru/i/4oYb_mFvN4o5HA | https://disk.yandex.ru/d/wwxD5UoX7pZSzA | https://disk.yandex.ru/d/te9dOEMpmjCLfw | https://disk.yandex.ru/d/gkftG4bsByV9yQ | https://disk.yandex.ru/d/MsZAmR3jKSZubw</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1000,13 +1059,16 @@
   </si>
   <si>
     <t>Кабинет | Кухня | Бар/Кафе</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/Lzz5imWHH_yu-g | https://disk.yandex.ru/d/nQfibKpeIvODPg | https://disk.yandex.ru/d/zrL2xAb6AKtCYA | https://disk.yandex.ru/d/rUx1DIqv47LKaQ | https://disk.yandex.ru/d/LfnLDq-VdBho_w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,18 +1139,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1126,9 +1196,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,9 +1230,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1194,9 +1282,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1369,14 +1475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A27:XFD28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,54 +1624,54 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>3999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AH2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1575,66 +1683,66 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AC3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AH3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1646,66 +1754,66 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1717,66 +1825,66 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>3999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AC5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AH5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1788,66 +1896,66 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>3499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K6">
         <v>2132</v>
       </c>
       <c r="S6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AH6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1859,69 +1967,69 @@
         <v>110</v>
       </c>
       <c r="AP6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>15000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K7">
         <v>2282</v>
       </c>
       <c r="S7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AF7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AH7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AJ7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -1933,66 +2041,66 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>6000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K8">
         <v>2391</v>
       </c>
       <c r="S8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL8">
         <v>60</v>
@@ -2004,69 +2112,69 @@
         <v>140</v>
       </c>
       <c r="AP8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AQ8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AR8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AS8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>1499</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>2405</v>
       </c>
       <c r="S9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2078,66 +2186,66 @@
         <v>72</v>
       </c>
       <c r="AP9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>4000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K10">
         <v>2406</v>
       </c>
       <c r="S10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL10">
         <v>63</v>
@@ -2149,66 +2257,66 @@
         <v>120</v>
       </c>
       <c r="AP10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>6499</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K11">
         <v>2447</v>
       </c>
       <c r="S11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2220,69 +2328,69 @@
         <v>140</v>
       </c>
       <c r="AP11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AR11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AS11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K12">
         <v>2466</v>
       </c>
       <c r="S12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AH12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL12">
         <v>73</v>
@@ -2294,69 +2402,69 @@
         <v>120</v>
       </c>
       <c r="AP12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AR12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AS12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>14999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K13">
         <v>2287</v>
       </c>
       <c r="S13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AH13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2368,66 +2476,66 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>19999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K14">
         <v>2475</v>
       </c>
       <c r="S14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AJ14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL14">
         <v>75</v>
@@ -2439,66 +2547,66 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AQ14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AS14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AT14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>2499</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K15">
         <v>2414</v>
       </c>
       <c r="S15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AH15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2510,66 +2618,66 @@
         <v>100</v>
       </c>
       <c r="AP15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K16">
         <v>2490</v>
       </c>
       <c r="S16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AH16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2581,66 +2689,66 @@
         <v>80</v>
       </c>
       <c r="AP16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AS16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AT16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="17" spans="4:46">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17">
         <v>3000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K17">
         <v>2488</v>
       </c>
       <c r="S17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AH17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL17">
         <v>60</v>
@@ -2652,66 +2760,66 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS17" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="18" spans="4:46">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18">
         <v>2999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K18">
         <v>2491</v>
       </c>
       <c r="S18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AH18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL18">
         <v>73</v>
@@ -2723,66 +2831,66 @@
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AS18" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT18" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="19" spans="4:46">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>12999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K19">
         <v>2434</v>
       </c>
       <c r="S19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL19">
         <v>65</v>
@@ -2794,66 +2902,66 @@
         <v>150</v>
       </c>
       <c r="AP19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ19" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS19" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT19" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="20" spans="4:46">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F20">
         <v>17999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K20">
         <v>2528</v>
       </c>
       <c r="S20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AH20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL20">
         <v>70</v>
@@ -2865,66 +2973,66 @@
         <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ20" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="21" spans="4:46">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F21">
         <v>14999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K21">
         <v>2526</v>
       </c>
       <c r="S21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB21" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC21" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AH21" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL21">
         <v>70</v>
@@ -2936,66 +3044,66 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS21" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT21" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="22" spans="4:46">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22">
         <v>4999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K22">
         <v>2232</v>
       </c>
       <c r="S22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH22" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL22">
         <v>60</v>
@@ -3007,66 +3115,66 @@
         <v>140</v>
       </c>
       <c r="AP22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS22" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="23" spans="4:46">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23">
         <v>9999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K23">
         <v>2532</v>
       </c>
       <c r="S23" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AH23" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL23">
         <v>75</v>
@@ -3078,66 +3186,66 @@
         <v>150</v>
       </c>
       <c r="AP23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="24" spans="4:46">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F24">
         <v>14999</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K24">
         <v>2529</v>
       </c>
       <c r="S24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB24" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC24" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AH24" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI24" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL24">
         <v>75</v>
@@ -3149,66 +3257,66 @@
         <v>150</v>
       </c>
       <c r="AP24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS24" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="25" spans="4:46">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <v>13999</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K25">
         <v>2530</v>
       </c>
       <c r="S25" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AH25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI25" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AJ25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL25">
         <v>70</v>
@@ -3220,66 +3328,66 @@
         <v>140</v>
       </c>
       <c r="AP25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ25" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AT25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="26" spans="4:46">
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>9999</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K26">
         <v>2553</v>
       </c>
       <c r="S26" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AB26" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AC26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AH26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI26" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AJ26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AL26">
         <v>78</v>
@@ -3291,70 +3399,215 @@
         <v>160</v>
       </c>
       <c r="AP26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AQ26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AS26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AT26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <v>4999</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27">
+        <v>2557</v>
+      </c>
+      <c r="S27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI27" t="s">
         <v>134</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL27">
+        <v>80</v>
+      </c>
+      <c r="AM27">
+        <v>75</v>
+      </c>
+      <c r="AN27">
+        <v>140</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <v>3999</v>
+      </c>
+      <c r="G28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28">
+        <v>2558</v>
+      </c>
+      <c r="S28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL28">
+        <v>80</v>
+      </c>
+      <c r="AM28">
+        <v>75</v>
+      </c>
+      <c r="AN28">
+        <v>120</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/straight tables.xlsx
+++ b/make_xl/data_xl/straight tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F73F8F-8BBD-40DA-8B53-706B3EACFCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855277FA-6ABA-4C70-AA42-1E7A2A584494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -965,9 +965,6 @@
     <t>https://disk.yandex.ru/i/Lx5F-t0ChRF-fQ | https://disk.yandex.ru/i/veUNDXEb0xOVgA | https://disk.yandex.ru/i/YdpSkFF2tlKoVA | https://disk.yandex.ru/i/_8PxqjRtlItJVA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/d/PT2BUkFK826Ndw | https://disk.yandex.ru/i/4oYb_mFvN4o5HA | https://disk.yandex.ru/d/wwxD5UoX7pZSzA | https://disk.yandex.ru/d/te9dOEMpmjCLfw | https://disk.yandex.ru/d/gkftG4bsByV9yQ | https://disk.yandex.ru/d/MsZAmR3jKSZubw</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -1062,6 +1059,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/d/Lzz5imWHH_yu-g | https://disk.yandex.ru/d/nQfibKpeIvODPg | https://disk.yandex.ru/d/zrL2xAb6AKtCYA | https://disk.yandex.ru/d/rUx1DIqv47LKaQ | https://disk.yandex.ru/d/LfnLDq-VdBho_w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/oBdYBFquVjxuYw | https://disk.yandex.ru/d/By77FldtqZ6AYg | https://disk.yandex.ru/d/gVQL9S0Tly46MA | https://disk.yandex.ru/d/-yrtmtObcAbn0Q | https://disk.yandex.ru/d/offEp5TYr7eclA | https://disk.yandex.ru/d/LzFKEx-iRLRucA | https://disk.yandex.ru/d/Y9rcrKZMQ3HIgg | https://disk.yandex.ru/d/jpfJM1S4u6490w</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A27:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,40 +1638,40 @@
         <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA2" t="s">
         <v>118</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>119</v>
       </c>
-      <c r="AB2" t="s">
-        <v>120</v>
-      </c>
       <c r="AC2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD2" t="s">
         <v>122</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>123</v>
       </c>
-      <c r="AE2" t="s">
-        <v>124</v>
-      </c>
       <c r="AH2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI2" t="s">
         <v>133</v>
       </c>
-      <c r="AI2" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL2">
         <v>80</v>
@@ -1683,16 +1683,16 @@
         <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -1709,40 +1709,40 @@
         <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA3" t="s">
         <v>118</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>119</v>
       </c>
-      <c r="AB3" t="s">
-        <v>120</v>
-      </c>
       <c r="AC3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" t="s">
         <v>122</v>
       </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
       <c r="AE3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI3" t="s">
         <v>133</v>
       </c>
-      <c r="AI3" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL3">
         <v>60</v>
@@ -1754,16 +1754,16 @@
         <v>72</v>
       </c>
       <c r="AP3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -1780,40 +1780,40 @@
         <v>93</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K4">
         <v>1691</v>
       </c>
       <c r="S4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" t="s">
         <v>118</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>119</v>
       </c>
-      <c r="AB4" t="s">
-        <v>120</v>
-      </c>
       <c r="AC4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" t="s">
         <v>122</v>
       </c>
-      <c r="AD4" t="s">
-        <v>123</v>
-      </c>
       <c r="AE4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI4" t="s">
         <v>133</v>
       </c>
-      <c r="AI4" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL4">
         <v>73</v>
@@ -1825,16 +1825,16 @@
         <v>90</v>
       </c>
       <c r="AP4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -1851,40 +1851,40 @@
         <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K5">
         <v>2066</v>
       </c>
       <c r="S5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA5" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>119</v>
       </c>
-      <c r="AB5" t="s">
-        <v>120</v>
-      </c>
       <c r="AC5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD5" t="s">
         <v>122</v>
       </c>
-      <c r="AD5" t="s">
-        <v>123</v>
-      </c>
       <c r="AE5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI5" t="s">
         <v>133</v>
       </c>
-      <c r="AI5" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL5">
         <v>80</v>
@@ -1896,16 +1896,16 @@
         <v>140</v>
       </c>
       <c r="AP5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -1922,40 +1922,40 @@
         <v>95</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6">
         <v>2132</v>
       </c>
       <c r="S6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA6" t="s">
         <v>118</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>119</v>
       </c>
-      <c r="AB6" t="s">
-        <v>120</v>
-      </c>
       <c r="AC6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD6" t="s">
         <v>122</v>
       </c>
-      <c r="AD6" t="s">
-        <v>123</v>
-      </c>
       <c r="AE6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI6" t="s">
         <v>133</v>
       </c>
-      <c r="AI6" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL6">
         <v>60</v>
@@ -1967,16 +1967,16 @@
         <v>110</v>
       </c>
       <c r="AP6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -1993,43 +1993,43 @@
         <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K7">
         <v>2282</v>
       </c>
       <c r="S7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" t="s">
         <v>118</v>
       </c>
-      <c r="AA7" t="s">
-        <v>119</v>
-      </c>
       <c r="AB7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC7" t="s">
         <v>121</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>122</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>123</v>
       </c>
-      <c r="AE7" t="s">
-        <v>124</v>
-      </c>
       <c r="AF7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH7" t="s">
         <v>132</v>
       </c>
-      <c r="AH7" t="s">
-        <v>133</v>
-      </c>
       <c r="AI7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL7">
         <v>80</v>
@@ -2041,16 +2041,16 @@
         <v>160</v>
       </c>
       <c r="AP7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -2067,40 +2067,40 @@
         <v>97</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>2391</v>
       </c>
       <c r="S8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA8" t="s">
         <v>118</v>
       </c>
-      <c r="AA8" t="s">
-        <v>119</v>
-      </c>
       <c r="AB8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC8" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>122</v>
       </c>
-      <c r="AD8" t="s">
-        <v>123</v>
-      </c>
       <c r="AE8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI8" t="s">
         <v>133</v>
       </c>
-      <c r="AI8" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL8">
         <v>60</v>
@@ -2112,19 +2112,19 @@
         <v>140</v>
       </c>
       <c r="AP8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AQ8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AR8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS8" t="s">
         <v>144</v>
       </c>
-      <c r="AS8" t="s">
-        <v>145</v>
-      </c>
       <c r="AT8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -2141,40 +2141,40 @@
         <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9">
         <v>2405</v>
       </c>
       <c r="S9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA9" t="s">
         <v>118</v>
       </c>
-      <c r="AA9" t="s">
-        <v>119</v>
-      </c>
       <c r="AB9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" t="s">
         <v>121</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>122</v>
       </c>
-      <c r="AD9" t="s">
-        <v>123</v>
-      </c>
       <c r="AE9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI9" t="s">
         <v>133</v>
       </c>
-      <c r="AI9" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL9">
         <v>60</v>
@@ -2186,16 +2186,16 @@
         <v>72</v>
       </c>
       <c r="AP9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -2212,40 +2212,40 @@
         <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10">
         <v>2406</v>
       </c>
       <c r="S10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA10" t="s">
         <v>118</v>
       </c>
-      <c r="AA10" t="s">
-        <v>119</v>
-      </c>
       <c r="AB10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC10" t="s">
         <v>121</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>122</v>
       </c>
-      <c r="AD10" t="s">
-        <v>123</v>
-      </c>
       <c r="AE10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI10" t="s">
         <v>133</v>
       </c>
-      <c r="AI10" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL10">
         <v>63</v>
@@ -2257,16 +2257,16 @@
         <v>120</v>
       </c>
       <c r="AP10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
@@ -2283,40 +2283,40 @@
         <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11">
         <v>2447</v>
       </c>
       <c r="S11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA11" t="s">
         <v>118</v>
       </c>
-      <c r="AA11" t="s">
-        <v>119</v>
-      </c>
       <c r="AB11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC11" t="s">
         <v>121</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>122</v>
       </c>
-      <c r="AD11" t="s">
-        <v>123</v>
-      </c>
       <c r="AE11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI11" t="s">
         <v>133</v>
       </c>
-      <c r="AI11" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL11">
         <v>60</v>
@@ -2328,19 +2328,19 @@
         <v>140</v>
       </c>
       <c r="AP11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AR11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS11" t="s">
         <v>144</v>
       </c>
-      <c r="AS11" t="s">
-        <v>145</v>
-      </c>
       <c r="AT11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -2357,40 +2357,40 @@
         <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12">
         <v>2466</v>
       </c>
       <c r="S12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA12" t="s">
         <v>118</v>
       </c>
-      <c r="AA12" t="s">
-        <v>119</v>
-      </c>
       <c r="AB12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC12" t="s">
         <v>121</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>122</v>
       </c>
-      <c r="AD12" t="s">
-        <v>123</v>
-      </c>
       <c r="AE12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI12" t="s">
         <v>133</v>
       </c>
-      <c r="AI12" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL12">
         <v>73</v>
@@ -2402,19 +2402,19 @@
         <v>120</v>
       </c>
       <c r="AP12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AR12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS12" t="s">
         <v>144</v>
       </c>
-      <c r="AS12" t="s">
-        <v>145</v>
-      </c>
       <c r="AT12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -2431,40 +2431,40 @@
         <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K13">
         <v>2287</v>
       </c>
       <c r="S13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA13" t="s">
         <v>118</v>
       </c>
-      <c r="AA13" t="s">
-        <v>119</v>
-      </c>
       <c r="AB13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC13" t="s">
         <v>121</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>122</v>
       </c>
-      <c r="AD13" t="s">
-        <v>123</v>
-      </c>
       <c r="AE13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI13" t="s">
         <v>133</v>
       </c>
-      <c r="AI13" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL13">
         <v>80</v>
@@ -2476,16 +2476,16 @@
         <v>160</v>
       </c>
       <c r="AP13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
@@ -2502,40 +2502,40 @@
         <v>103</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14">
         <v>2475</v>
       </c>
       <c r="S14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA14" t="s">
         <v>118</v>
       </c>
-      <c r="AA14" t="s">
-        <v>119</v>
-      </c>
       <c r="AB14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC14" t="s">
         <v>121</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>122</v>
       </c>
-      <c r="AD14" t="s">
-        <v>123</v>
-      </c>
       <c r="AE14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>136</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>137</v>
-      </c>
       <c r="AK14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL14">
         <v>75</v>
@@ -2547,16 +2547,16 @@
         <v>120</v>
       </c>
       <c r="AP14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -2573,40 +2573,40 @@
         <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K15">
         <v>2414</v>
       </c>
       <c r="S15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA15" t="s">
         <v>118</v>
       </c>
-      <c r="AA15" t="s">
-        <v>119</v>
-      </c>
       <c r="AB15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC15" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>122</v>
       </c>
-      <c r="AD15" t="s">
-        <v>123</v>
-      </c>
       <c r="AE15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI15" t="s">
         <v>133</v>
       </c>
-      <c r="AI15" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL15">
         <v>80</v>
@@ -2618,16 +2618,16 @@
         <v>100</v>
       </c>
       <c r="AP15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
@@ -2644,40 +2644,40 @@
         <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>2490</v>
       </c>
       <c r="S16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA16" t="s">
         <v>118</v>
       </c>
-      <c r="AA16" t="s">
-        <v>119</v>
-      </c>
       <c r="AB16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC16" t="s">
         <v>121</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>122</v>
       </c>
-      <c r="AD16" t="s">
-        <v>123</v>
-      </c>
       <c r="AE16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL16">
         <v>80</v>
@@ -2689,16 +2689,16 @@
         <v>80</v>
       </c>
       <c r="AP16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="4:46" x14ac:dyDescent="0.25">
@@ -2715,40 +2715,40 @@
         <v>106</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K17">
         <v>2488</v>
       </c>
       <c r="S17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA17" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" t="s">
-        <v>119</v>
-      </c>
       <c r="AB17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC17" t="s">
         <v>121</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>122</v>
       </c>
-      <c r="AD17" t="s">
-        <v>123</v>
-      </c>
       <c r="AE17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI17" t="s">
         <v>133</v>
       </c>
-      <c r="AI17" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL17">
         <v>60</v>
@@ -2760,16 +2760,16 @@
         <v>120</v>
       </c>
       <c r="AP17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="4:46" x14ac:dyDescent="0.25">
@@ -2786,40 +2786,40 @@
         <v>107</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K18">
         <v>2491</v>
       </c>
       <c r="S18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA18" t="s">
         <v>118</v>
       </c>
-      <c r="AA18" t="s">
-        <v>119</v>
-      </c>
       <c r="AB18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC18" t="s">
         <v>121</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>122</v>
       </c>
-      <c r="AD18" t="s">
-        <v>123</v>
-      </c>
       <c r="AE18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI18" t="s">
         <v>133</v>
       </c>
-      <c r="AI18" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL18">
         <v>73</v>
@@ -2831,16 +2831,16 @@
         <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="4:46" x14ac:dyDescent="0.25">
@@ -2857,40 +2857,40 @@
         <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K19">
         <v>2434</v>
       </c>
       <c r="S19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA19" t="s">
         <v>118</v>
       </c>
-      <c r="AA19" t="s">
-        <v>119</v>
-      </c>
       <c r="AB19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC19" t="s">
         <v>121</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>122</v>
       </c>
-      <c r="AD19" t="s">
-        <v>123</v>
-      </c>
       <c r="AE19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI19" t="s">
         <v>133</v>
       </c>
-      <c r="AI19" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL19">
         <v>65</v>
@@ -2902,16 +2902,16 @@
         <v>150</v>
       </c>
       <c r="AP19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="4:46" x14ac:dyDescent="0.25">
@@ -2928,40 +2928,40 @@
         <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20">
         <v>2528</v>
       </c>
       <c r="S20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA20" t="s">
         <v>118</v>
       </c>
-      <c r="AA20" t="s">
-        <v>119</v>
-      </c>
       <c r="AB20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC20" t="s">
         <v>121</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>122</v>
       </c>
-      <c r="AD20" t="s">
-        <v>123</v>
-      </c>
       <c r="AE20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI20" t="s">
         <v>133</v>
       </c>
-      <c r="AI20" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL20">
         <v>70</v>
@@ -2973,16 +2973,16 @@
         <v>140</v>
       </c>
       <c r="AP20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="4:46" x14ac:dyDescent="0.25">
@@ -2999,40 +2999,40 @@
         <v>110</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K21">
         <v>2526</v>
       </c>
       <c r="S21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA21" t="s">
         <v>118</v>
       </c>
-      <c r="AA21" t="s">
-        <v>119</v>
-      </c>
       <c r="AB21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC21" t="s">
         <v>121</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>122</v>
       </c>
-      <c r="AD21" t="s">
-        <v>123</v>
-      </c>
       <c r="AE21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI21" t="s">
         <v>133</v>
       </c>
-      <c r="AI21" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL21">
         <v>70</v>
@@ -3044,16 +3044,16 @@
         <v>140</v>
       </c>
       <c r="AP21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="4:46" x14ac:dyDescent="0.25">
@@ -3070,40 +3070,40 @@
         <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K22">
         <v>2232</v>
       </c>
       <c r="S22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA22" t="s">
         <v>118</v>
       </c>
-      <c r="AA22" t="s">
-        <v>119</v>
-      </c>
       <c r="AB22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC22" t="s">
         <v>121</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>122</v>
       </c>
-      <c r="AD22" t="s">
-        <v>123</v>
-      </c>
       <c r="AE22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI22" t="s">
         <v>133</v>
       </c>
-      <c r="AI22" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL22">
         <v>60</v>
@@ -3115,16 +3115,16 @@
         <v>140</v>
       </c>
       <c r="AP22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="4:46" x14ac:dyDescent="0.25">
@@ -3141,40 +3141,40 @@
         <v>112</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K23">
         <v>2532</v>
       </c>
       <c r="S23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA23" t="s">
         <v>118</v>
       </c>
-      <c r="AA23" t="s">
-        <v>119</v>
-      </c>
       <c r="AB23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC23" t="s">
         <v>121</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>122</v>
       </c>
-      <c r="AD23" t="s">
-        <v>123</v>
-      </c>
       <c r="AE23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI23" t="s">
         <v>133</v>
       </c>
-      <c r="AI23" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL23">
         <v>75</v>
@@ -3186,16 +3186,16 @@
         <v>150</v>
       </c>
       <c r="AP23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="4:46" x14ac:dyDescent="0.25">
@@ -3212,40 +3212,40 @@
         <v>113</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K24">
         <v>2529</v>
       </c>
       <c r="S24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA24" t="s">
         <v>118</v>
       </c>
-      <c r="AA24" t="s">
-        <v>119</v>
-      </c>
       <c r="AB24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC24" t="s">
         <v>121</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>122</v>
       </c>
-      <c r="AD24" t="s">
-        <v>123</v>
-      </c>
       <c r="AE24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI24" t="s">
         <v>133</v>
       </c>
-      <c r="AI24" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL24">
         <v>75</v>
@@ -3257,16 +3257,16 @@
         <v>150</v>
       </c>
       <c r="AP24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="4:46" x14ac:dyDescent="0.25">
@@ -3283,40 +3283,40 @@
         <v>114</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K25">
         <v>2530</v>
       </c>
       <c r="S25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA25" t="s">
         <v>118</v>
       </c>
-      <c r="AA25" t="s">
-        <v>119</v>
-      </c>
       <c r="AB25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC25" t="s">
         <v>121</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>122</v>
       </c>
-      <c r="AD25" t="s">
-        <v>123</v>
-      </c>
       <c r="AE25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI25" t="s">
         <v>133</v>
       </c>
-      <c r="AI25" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL25">
         <v>70</v>
@@ -3328,16 +3328,16 @@
         <v>140</v>
       </c>
       <c r="AP25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="4:46" x14ac:dyDescent="0.25">
@@ -3354,40 +3354,40 @@
         <v>115</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K26">
         <v>2553</v>
       </c>
       <c r="S26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA26" t="s">
         <v>118</v>
       </c>
-      <c r="AA26" t="s">
-        <v>119</v>
-      </c>
       <c r="AB26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC26" t="s">
         <v>121</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>122</v>
       </c>
-      <c r="AD26" t="s">
-        <v>123</v>
-      </c>
       <c r="AE26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>136</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>137</v>
-      </c>
       <c r="AK26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL26">
         <v>78</v>
@@ -3399,16 +3399,16 @@
         <v>160</v>
       </c>
       <c r="AP26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="4:46" x14ac:dyDescent="0.25">
@@ -3422,43 +3422,43 @@
         <v>4999</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="K27">
         <v>2557</v>
       </c>
       <c r="S27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA27" t="s">
         <v>118</v>
       </c>
-      <c r="AA27" t="s">
-        <v>119</v>
-      </c>
       <c r="AB27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC27" t="s">
         <v>121</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>122</v>
       </c>
-      <c r="AD27" t="s">
-        <v>123</v>
-      </c>
       <c r="AE27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI27" t="s">
         <v>133</v>
       </c>
-      <c r="AI27" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL27">
         <v>80</v>
@@ -3470,16 +3470,16 @@
         <v>140</v>
       </c>
       <c r="AP27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="4:46" x14ac:dyDescent="0.25">
@@ -3493,43 +3493,43 @@
         <v>3999</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K28">
         <v>2558</v>
       </c>
       <c r="S28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA28" t="s">
         <v>118</v>
       </c>
-      <c r="AA28" t="s">
-        <v>119</v>
-      </c>
       <c r="AB28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC28" t="s">
         <v>121</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>122</v>
       </c>
-      <c r="AD28" t="s">
-        <v>123</v>
-      </c>
       <c r="AE28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI28" t="s">
         <v>133</v>
       </c>
-      <c r="AI28" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL28">
         <v>80</v>
@@ -3541,16 +3541,16 @@
         <v>120</v>
       </c>
       <c r="AP28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3605,9 +3605,8 @@
     <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
